--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>TU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10610600</v>
+        <v>10601700</v>
       </c>
       <c r="E8" s="3">
-        <v>10015900</v>
+        <v>10242700</v>
       </c>
       <c r="F8" s="3">
-        <v>9579300</v>
+        <v>9668600</v>
       </c>
       <c r="G8" s="3">
-        <v>9357200</v>
+        <v>9247100</v>
       </c>
       <c r="H8" s="3">
-        <v>8978500</v>
+        <v>9032800</v>
       </c>
       <c r="I8" s="3">
-        <v>8533600</v>
+        <v>8667200</v>
       </c>
       <c r="J8" s="3">
+        <v>8237800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8169300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7932000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4793800</v>
+        <v>4363800</v>
       </c>
       <c r="E9" s="3">
-        <v>4444500</v>
+        <v>4627600</v>
       </c>
       <c r="F9" s="3">
-        <v>4239000</v>
+        <v>4290400</v>
       </c>
       <c r="G9" s="3">
-        <v>4164400</v>
+        <v>4092000</v>
       </c>
       <c r="H9" s="3">
-        <v>3989000</v>
+        <v>4020000</v>
       </c>
       <c r="I9" s="3">
-        <v>3735300</v>
+        <v>3850700</v>
       </c>
       <c r="J9" s="3">
+        <v>3605800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3628400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3630700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5816800</v>
+        <v>6237900</v>
       </c>
       <c r="E10" s="3">
-        <v>5571400</v>
+        <v>5615100</v>
       </c>
       <c r="F10" s="3">
-        <v>5340300</v>
+        <v>5378200</v>
       </c>
       <c r="G10" s="3">
-        <v>5192700</v>
+        <v>5155100</v>
       </c>
       <c r="H10" s="3">
-        <v>4989500</v>
+        <v>5012700</v>
       </c>
       <c r="I10" s="3">
-        <v>4798300</v>
+        <v>4816500</v>
       </c>
       <c r="J10" s="3">
+        <v>4631900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4540800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4301300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>94900</v>
+        <v>93000</v>
       </c>
       <c r="E14" s="3">
-        <v>19600</v>
+        <v>91600</v>
       </c>
       <c r="F14" s="3">
-        <v>84300</v>
+        <v>18900</v>
       </c>
       <c r="G14" s="3">
-        <v>117400</v>
+        <v>81400</v>
       </c>
       <c r="H14" s="3">
-        <v>40700</v>
+        <v>113400</v>
       </c>
       <c r="I14" s="3">
-        <v>53400</v>
+        <v>39200</v>
       </c>
       <c r="J14" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K14" s="3">
         <v>28600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1706600</v>
+        <v>1872700</v>
       </c>
       <c r="E15" s="3">
-        <v>1632800</v>
+        <v>1647400</v>
       </c>
       <c r="F15" s="3">
-        <v>1541000</v>
+        <v>1576200</v>
       </c>
       <c r="G15" s="3">
-        <v>1437100</v>
+        <v>1487500</v>
       </c>
       <c r="H15" s="3">
-        <v>1380600</v>
+        <v>1387300</v>
       </c>
       <c r="I15" s="3">
-        <v>1357300</v>
+        <v>1332700</v>
       </c>
       <c r="J15" s="3">
+        <v>1310200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1404000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1390500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8474900</v>
+        <v>8438300</v>
       </c>
       <c r="E17" s="3">
-        <v>7952500</v>
+        <v>8181100</v>
       </c>
       <c r="F17" s="3">
-        <v>7936700</v>
+        <v>7676800</v>
       </c>
       <c r="G17" s="3">
-        <v>7585900</v>
+        <v>7661500</v>
       </c>
       <c r="H17" s="3">
-        <v>7071700</v>
+        <v>7322900</v>
       </c>
       <c r="I17" s="3">
-        <v>7174100</v>
+        <v>6826500</v>
       </c>
       <c r="J17" s="3">
+        <v>6925400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6956500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6420100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2135700</v>
+        <v>2163400</v>
       </c>
       <c r="E18" s="3">
-        <v>2063400</v>
+        <v>2061600</v>
       </c>
       <c r="F18" s="3">
-        <v>1642600</v>
+        <v>1991900</v>
       </c>
       <c r="G18" s="3">
-        <v>1771300</v>
+        <v>1585600</v>
       </c>
       <c r="H18" s="3">
-        <v>1906800</v>
+        <v>1709900</v>
       </c>
       <c r="I18" s="3">
-        <v>1359500</v>
+        <v>1840700</v>
       </c>
       <c r="J18" s="3">
+        <v>1312400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1212700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1511900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42900</v>
+        <v>-34200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-41400</v>
       </c>
       <c r="F20" s="3">
-        <v>-22600</v>
+        <v>-5100</v>
       </c>
       <c r="G20" s="3">
-        <v>8300</v>
+        <v>-21800</v>
       </c>
       <c r="H20" s="3">
-        <v>-127200</v>
+        <v>8000</v>
       </c>
       <c r="I20" s="3">
-        <v>251400</v>
+        <v>-122800</v>
       </c>
       <c r="J20" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K20" s="3">
         <v>270300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3800100</v>
+        <v>4003400</v>
       </c>
       <c r="E21" s="3">
-        <v>3691700</v>
+        <v>3668900</v>
       </c>
       <c r="F21" s="3">
-        <v>3161700</v>
+        <v>3564200</v>
       </c>
       <c r="G21" s="3">
-        <v>3217300</v>
+        <v>3052600</v>
       </c>
       <c r="H21" s="3">
-        <v>3160800</v>
+        <v>3106300</v>
       </c>
       <c r="I21" s="3">
-        <v>2968900</v>
+        <v>3051700</v>
       </c>
       <c r="J21" s="3">
+        <v>2866400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2887600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2915200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>454700</v>
+        <v>498500</v>
       </c>
       <c r="E22" s="3">
-        <v>426100</v>
+        <v>438900</v>
       </c>
       <c r="F22" s="3">
-        <v>368900</v>
+        <v>411300</v>
       </c>
       <c r="G22" s="3">
-        <v>344800</v>
+        <v>356100</v>
       </c>
       <c r="H22" s="3">
-        <v>329700</v>
+        <v>332800</v>
       </c>
       <c r="I22" s="3">
-        <v>280000</v>
+        <v>318300</v>
       </c>
       <c r="J22" s="3">
+        <v>270300</v>
+      </c>
+      <c r="K22" s="3">
         <v>263500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>295800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1638100</v>
+        <v>1630700</v>
       </c>
       <c r="E23" s="3">
-        <v>1632000</v>
+        <v>1581300</v>
       </c>
       <c r="F23" s="3">
-        <v>1251100</v>
+        <v>1575500</v>
       </c>
       <c r="G23" s="3">
-        <v>1434800</v>
+        <v>1207800</v>
       </c>
       <c r="H23" s="3">
-        <v>1449900</v>
+        <v>1385100</v>
       </c>
       <c r="I23" s="3">
-        <v>1330900</v>
+        <v>1399600</v>
       </c>
       <c r="J23" s="3">
+        <v>1284800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1219500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1222300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>415500</v>
+        <v>340100</v>
       </c>
       <c r="E24" s="3">
-        <v>444100</v>
+        <v>401100</v>
       </c>
       <c r="F24" s="3">
-        <v>320700</v>
+        <v>428700</v>
       </c>
       <c r="G24" s="3">
-        <v>394500</v>
+        <v>309600</v>
       </c>
       <c r="H24" s="3">
-        <v>377100</v>
+        <v>380800</v>
       </c>
       <c r="I24" s="3">
-        <v>356800</v>
+        <v>364100</v>
       </c>
       <c r="J24" s="3">
+        <v>344500</v>
+      </c>
+      <c r="K24" s="3">
         <v>313200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>288900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1222500</v>
+        <v>1290600</v>
       </c>
       <c r="E26" s="3">
-        <v>1187900</v>
+        <v>1180100</v>
       </c>
       <c r="F26" s="3">
-        <v>930400</v>
+        <v>1146700</v>
       </c>
       <c r="G26" s="3">
-        <v>1040400</v>
+        <v>898200</v>
       </c>
       <c r="H26" s="3">
-        <v>1072700</v>
+        <v>1004300</v>
       </c>
       <c r="I26" s="3">
-        <v>974100</v>
+        <v>1035500</v>
       </c>
       <c r="J26" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K26" s="3">
         <v>906400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>933400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1204500</v>
+        <v>1268800</v>
       </c>
       <c r="E27" s="3">
-        <v>1173600</v>
+        <v>1162700</v>
       </c>
       <c r="F27" s="3">
-        <v>920700</v>
+        <v>1132900</v>
       </c>
       <c r="G27" s="3">
-        <v>1040400</v>
+        <v>888700</v>
       </c>
       <c r="H27" s="3">
-        <v>1072700</v>
+        <v>1004300</v>
       </c>
       <c r="I27" s="3">
-        <v>974100</v>
+        <v>1035500</v>
       </c>
       <c r="J27" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K27" s="3">
         <v>906400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>936500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42900</v>
+        <v>34200</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>41400</v>
       </c>
       <c r="F32" s="3">
-        <v>22600</v>
+        <v>5100</v>
       </c>
       <c r="G32" s="3">
-        <v>-8300</v>
+        <v>21800</v>
       </c>
       <c r="H32" s="3">
-        <v>127200</v>
+        <v>-8000</v>
       </c>
       <c r="I32" s="3">
-        <v>-251400</v>
+        <v>122800</v>
       </c>
       <c r="J32" s="3">
+        <v>-242700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-270300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1204500</v>
+        <v>1268800</v>
       </c>
       <c r="E33" s="3">
-        <v>1173600</v>
+        <v>1162700</v>
       </c>
       <c r="F33" s="3">
-        <v>920700</v>
+        <v>1132900</v>
       </c>
       <c r="G33" s="3">
-        <v>1040400</v>
+        <v>888700</v>
       </c>
       <c r="H33" s="3">
-        <v>1072700</v>
+        <v>1004300</v>
       </c>
       <c r="I33" s="3">
-        <v>974100</v>
+        <v>1035500</v>
       </c>
       <c r="J33" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K33" s="3">
         <v>906400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>936500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1204500</v>
+        <v>1268800</v>
       </c>
       <c r="E35" s="3">
-        <v>1173600</v>
+        <v>1162700</v>
       </c>
       <c r="F35" s="3">
-        <v>920700</v>
+        <v>1132900</v>
       </c>
       <c r="G35" s="3">
-        <v>1040400</v>
+        <v>888700</v>
       </c>
       <c r="H35" s="3">
-        <v>1072700</v>
+        <v>1004300</v>
       </c>
       <c r="I35" s="3">
-        <v>974100</v>
+        <v>1035500</v>
       </c>
       <c r="J35" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K35" s="3">
         <v>906400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>936500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>311700</v>
+        <v>388600</v>
       </c>
       <c r="E41" s="3">
-        <v>383200</v>
+        <v>300700</v>
       </c>
       <c r="F41" s="3">
-        <v>325200</v>
+        <v>369700</v>
       </c>
       <c r="G41" s="3">
-        <v>167900</v>
+        <v>313700</v>
       </c>
       <c r="H41" s="3">
-        <v>45200</v>
+        <v>162000</v>
       </c>
       <c r="I41" s="3">
-        <v>252900</v>
+        <v>43600</v>
       </c>
       <c r="J41" s="3">
+        <v>244000</v>
+      </c>
+      <c r="K41" s="3">
         <v>80500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1854100</v>
+        <v>2052400</v>
       </c>
       <c r="E43" s="3">
-        <v>1857100</v>
+        <v>1788800</v>
       </c>
       <c r="F43" s="3">
-        <v>1114100</v>
+        <v>1791700</v>
       </c>
       <c r="G43" s="3">
-        <v>1075700</v>
+        <v>1074900</v>
       </c>
       <c r="H43" s="3">
-        <v>1189400</v>
+        <v>1037800</v>
       </c>
       <c r="I43" s="3">
-        <v>1123900</v>
+        <v>1147500</v>
       </c>
       <c r="J43" s="3">
+        <v>1084300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1178900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1147700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>283000</v>
+        <v>317400</v>
       </c>
       <c r="E44" s="3">
-        <v>286100</v>
+        <v>273100</v>
       </c>
       <c r="F44" s="3">
-        <v>239400</v>
+        <v>276000</v>
       </c>
       <c r="G44" s="3">
-        <v>271000</v>
+        <v>231000</v>
       </c>
       <c r="H44" s="3">
-        <v>240900</v>
+        <v>261500</v>
       </c>
       <c r="I44" s="3">
-        <v>245400</v>
+        <v>232400</v>
       </c>
       <c r="J44" s="3">
+        <v>236800</v>
+      </c>
+      <c r="K44" s="3">
         <v>263500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>271200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>442600</v>
+        <v>403100</v>
       </c>
       <c r="E45" s="3">
-        <v>384700</v>
+        <v>427000</v>
       </c>
       <c r="F45" s="3">
-        <v>183700</v>
+        <v>371100</v>
       </c>
       <c r="G45" s="3">
-        <v>240100</v>
+        <v>177200</v>
       </c>
       <c r="H45" s="3">
-        <v>170100</v>
+        <v>231700</v>
       </c>
       <c r="I45" s="3">
-        <v>131000</v>
+        <v>164100</v>
       </c>
       <c r="J45" s="3">
+        <v>126400</v>
+      </c>
+      <c r="K45" s="3">
         <v>140800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>121400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2891500</v>
+        <v>3161500</v>
       </c>
       <c r="E46" s="3">
-        <v>2911000</v>
+        <v>2789600</v>
       </c>
       <c r="F46" s="3">
-        <v>1862400</v>
+        <v>2808500</v>
       </c>
       <c r="G46" s="3">
-        <v>1754800</v>
+        <v>1796800</v>
       </c>
       <c r="H46" s="3">
-        <v>1645600</v>
+        <v>1692900</v>
       </c>
       <c r="I46" s="3">
-        <v>1753200</v>
+        <v>1587600</v>
       </c>
       <c r="J46" s="3">
+        <v>1691500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1663700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1575600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>453200</v>
+        <v>395800</v>
       </c>
       <c r="E47" s="3">
-        <v>364400</v>
+        <v>437200</v>
       </c>
       <c r="F47" s="3">
-        <v>62500</v>
+        <v>351500</v>
       </c>
       <c r="G47" s="3">
-        <v>70800</v>
+        <v>60300</v>
       </c>
       <c r="H47" s="3">
-        <v>52700</v>
+        <v>68300</v>
       </c>
       <c r="I47" s="3">
-        <v>44400</v>
+        <v>50800</v>
       </c>
       <c r="J47" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K47" s="3">
         <v>43700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18204000</v>
+        <v>10336300</v>
       </c>
       <c r="E48" s="3">
-        <v>8557700</v>
+        <v>17562700</v>
       </c>
       <c r="F48" s="3">
-        <v>7877200</v>
+        <v>8256200</v>
       </c>
       <c r="G48" s="3">
-        <v>7329200</v>
+        <v>7599700</v>
       </c>
       <c r="H48" s="3">
-        <v>6867700</v>
+        <v>7071000</v>
       </c>
       <c r="I48" s="3">
-        <v>6343000</v>
+        <v>6625800</v>
       </c>
       <c r="J48" s="3">
+        <v>6119600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6146500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6118200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23615000</v>
+        <v>13176700</v>
       </c>
       <c r="E49" s="3">
-        <v>11212100</v>
+        <v>22783100</v>
       </c>
       <c r="F49" s="3">
-        <v>10652700</v>
+        <v>10817100</v>
       </c>
       <c r="G49" s="3">
-        <v>10347900</v>
+        <v>10277400</v>
       </c>
       <c r="H49" s="3">
-        <v>8697700</v>
+        <v>9983300</v>
       </c>
       <c r="I49" s="3">
-        <v>7729600</v>
+        <v>8391300</v>
       </c>
       <c r="J49" s="3">
+        <v>7457300</v>
+      </c>
+      <c r="K49" s="3">
         <v>7439800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7539400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>633800</v>
+        <v>509800</v>
       </c>
       <c r="E52" s="3">
-        <v>331200</v>
+        <v>611500</v>
       </c>
       <c r="F52" s="3">
-        <v>419300</v>
+        <v>319600</v>
       </c>
       <c r="G52" s="3">
-        <v>375600</v>
+        <v>404500</v>
       </c>
       <c r="H52" s="3">
-        <v>213800</v>
+        <v>362400</v>
       </c>
       <c r="I52" s="3">
-        <v>362800</v>
+        <v>206300</v>
       </c>
       <c r="J52" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K52" s="3">
         <v>97100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24885000</v>
+        <v>27580100</v>
       </c>
       <c r="E54" s="3">
-        <v>23376400</v>
+        <v>24008300</v>
       </c>
       <c r="F54" s="3">
-        <v>20874100</v>
+        <v>22552900</v>
       </c>
       <c r="G54" s="3">
-        <v>19878200</v>
+        <v>20138700</v>
       </c>
       <c r="H54" s="3">
-        <v>17477500</v>
+        <v>19177900</v>
       </c>
       <c r="I54" s="3">
-        <v>16233200</v>
+        <v>16861800</v>
       </c>
       <c r="J54" s="3">
+        <v>15661300</v>
+      </c>
+      <c r="K54" s="3">
         <v>15390800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15311600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>516400</v>
+        <v>647800</v>
       </c>
       <c r="E57" s="3">
-        <v>539800</v>
+        <v>498200</v>
       </c>
       <c r="F57" s="3">
-        <v>435100</v>
+        <v>520700</v>
       </c>
       <c r="G57" s="3">
-        <v>358300</v>
+        <v>419800</v>
       </c>
       <c r="H57" s="3">
-        <v>344800</v>
+        <v>345700</v>
       </c>
       <c r="I57" s="3">
-        <v>344800</v>
+        <v>332600</v>
       </c>
       <c r="J57" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K57" s="3">
         <v>353100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>348000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>704600</v>
+        <v>1040000</v>
       </c>
       <c r="E58" s="3">
-        <v>1132200</v>
+        <v>679800</v>
       </c>
       <c r="F58" s="3">
-        <v>1074200</v>
+        <v>1092300</v>
       </c>
       <c r="G58" s="3">
-        <v>719700</v>
+        <v>1036400</v>
       </c>
       <c r="H58" s="3">
-        <v>267200</v>
+        <v>694300</v>
       </c>
       <c r="I58" s="3">
-        <v>301100</v>
+        <v>257800</v>
       </c>
       <c r="J58" s="3">
+        <v>290500</v>
+      </c>
+      <c r="K58" s="3">
         <v>712900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1129300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2917100</v>
+        <v>2360400</v>
       </c>
       <c r="E59" s="3">
-        <v>2122100</v>
+        <v>2814300</v>
       </c>
       <c r="F59" s="3">
-        <v>2217700</v>
+        <v>2047400</v>
       </c>
       <c r="G59" s="3">
-        <v>2140900</v>
+        <v>2139600</v>
       </c>
       <c r="H59" s="3">
-        <v>2022000</v>
+        <v>2065500</v>
       </c>
       <c r="I59" s="3">
-        <v>1837600</v>
+        <v>1950800</v>
       </c>
       <c r="J59" s="3">
+        <v>1772800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1583900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1476500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3646500</v>
+        <v>4048200</v>
       </c>
       <c r="E60" s="3">
-        <v>3794100</v>
+        <v>3518100</v>
       </c>
       <c r="F60" s="3">
-        <v>3727100</v>
+        <v>3660400</v>
       </c>
       <c r="G60" s="3">
-        <v>3218900</v>
+        <v>3595800</v>
       </c>
       <c r="H60" s="3">
-        <v>2634000</v>
+        <v>3105500</v>
       </c>
       <c r="I60" s="3">
-        <v>2483500</v>
+        <v>2541200</v>
       </c>
       <c r="J60" s="3">
+        <v>2396000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2649800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2953800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9985800</v>
+        <v>12449700</v>
       </c>
       <c r="E61" s="3">
-        <v>9226200</v>
+        <v>9634000</v>
       </c>
       <c r="F61" s="3">
-        <v>8735400</v>
+        <v>8901200</v>
       </c>
       <c r="G61" s="3">
-        <v>8417700</v>
+        <v>8427600</v>
       </c>
       <c r="H61" s="3">
-        <v>6816500</v>
+        <v>8121200</v>
       </c>
       <c r="I61" s="3">
-        <v>5640700</v>
+        <v>6576400</v>
       </c>
       <c r="J61" s="3">
+        <v>5441900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4299200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4231400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4080100</v>
+        <v>3340800</v>
       </c>
       <c r="E62" s="3">
-        <v>3236200</v>
+        <v>3936400</v>
       </c>
       <c r="F62" s="3">
-        <v>2437500</v>
+        <v>3122200</v>
       </c>
       <c r="G62" s="3">
-        <v>2466100</v>
+        <v>2351700</v>
       </c>
       <c r="H62" s="3">
-        <v>2415700</v>
+        <v>2379300</v>
       </c>
       <c r="I62" s="3">
-        <v>2076900</v>
+        <v>2330600</v>
       </c>
       <c r="J62" s="3">
+        <v>2003800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2655800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2354600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17162100</v>
+        <v>19919400</v>
       </c>
       <c r="E66" s="3">
-        <v>16288100</v>
+        <v>16557500</v>
       </c>
       <c r="F66" s="3">
-        <v>14914300</v>
+        <v>15714300</v>
       </c>
       <c r="G66" s="3">
-        <v>14102800</v>
+        <v>14388900</v>
       </c>
       <c r="H66" s="3">
-        <v>11866200</v>
+        <v>13605900</v>
       </c>
       <c r="I66" s="3">
-        <v>10201100</v>
+        <v>11448200</v>
       </c>
       <c r="J66" s="3">
+        <v>9841700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9604800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9539900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3368000</v>
+        <v>3174500</v>
       </c>
       <c r="E72" s="3">
-        <v>2856100</v>
+        <v>3249300</v>
       </c>
       <c r="F72" s="3">
-        <v>1862400</v>
+        <v>2755500</v>
       </c>
       <c r="G72" s="3">
-        <v>1827800</v>
+        <v>1796800</v>
       </c>
       <c r="H72" s="3">
-        <v>1580900</v>
+        <v>1763400</v>
       </c>
       <c r="I72" s="3">
-        <v>1911300</v>
+        <v>1525200</v>
       </c>
       <c r="J72" s="3">
+        <v>1844000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1433300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1367400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7722900</v>
+        <v>7660700</v>
       </c>
       <c r="E76" s="3">
-        <v>7088300</v>
+        <v>7450800</v>
       </c>
       <c r="F76" s="3">
-        <v>5959800</v>
+        <v>6838600</v>
       </c>
       <c r="G76" s="3">
-        <v>5775400</v>
+        <v>5749900</v>
       </c>
       <c r="H76" s="3">
-        <v>5611300</v>
+        <v>5571900</v>
       </c>
       <c r="I76" s="3">
-        <v>6033600</v>
+        <v>5413600</v>
       </c>
       <c r="J76" s="3">
+        <v>5821100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5785900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5771700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1204500</v>
+        <v>1268800</v>
       </c>
       <c r="E81" s="3">
-        <v>1173600</v>
+        <v>1162700</v>
       </c>
       <c r="F81" s="3">
-        <v>920700</v>
+        <v>1132900</v>
       </c>
       <c r="G81" s="3">
-        <v>1040400</v>
+        <v>888700</v>
       </c>
       <c r="H81" s="3">
-        <v>1072700</v>
+        <v>1004300</v>
       </c>
       <c r="I81" s="3">
-        <v>974100</v>
+        <v>1035500</v>
       </c>
       <c r="J81" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K81" s="3">
         <v>906400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>936500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1706600</v>
+        <v>1872700</v>
       </c>
       <c r="E83" s="3">
-        <v>1632800</v>
+        <v>1647400</v>
       </c>
       <c r="F83" s="3">
-        <v>1541000</v>
+        <v>1576200</v>
       </c>
       <c r="G83" s="3">
-        <v>1437100</v>
+        <v>1487500</v>
       </c>
       <c r="H83" s="3">
-        <v>1380600</v>
+        <v>1387300</v>
       </c>
       <c r="I83" s="3">
-        <v>1357300</v>
+        <v>1332700</v>
       </c>
       <c r="J83" s="3">
+        <v>1310200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1404000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1390500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3054800</v>
+        <v>2853700</v>
       </c>
       <c r="E89" s="3">
-        <v>2971300</v>
+        <v>2948900</v>
       </c>
       <c r="F89" s="3">
+        <v>2868200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2339200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2584100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2475800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2358800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2423200</v>
       </c>
-      <c r="G89" s="3">
-        <v>2676900</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2564800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>2443600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>2423200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1959000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1793900</v>
+        <v>-2014400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1871400</v>
+        <v>-1731700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1775100</v>
+        <v>-1806600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1540200</v>
+        <v>-1713500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1443900</v>
+        <v>-1486800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1238300</v>
+        <v>-1393800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1195400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2644600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1418900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2241100</v>
+        <v>-3665400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2742400</v>
+        <v>-2163400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200400</v>
+        <v>-2647300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3370200</v>
+        <v>-2124100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2761200</v>
+        <v>-3253400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1798400</v>
+        <v>-2665500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1736100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1549200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1511900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-858900</v>
+        <v>-835000</v>
       </c>
       <c r="E96" s="3">
-        <v>-814500</v>
+        <v>-829200</v>
       </c>
       <c r="F96" s="3">
-        <v>-805500</v>
+        <v>-786300</v>
       </c>
       <c r="G96" s="3">
-        <v>-746800</v>
+        <v>-777600</v>
       </c>
       <c r="H96" s="3">
-        <v>-687300</v>
+        <v>-720900</v>
       </c>
       <c r="I96" s="3">
-        <v>-641400</v>
+        <v>-663500</v>
       </c>
       <c r="J96" s="3">
+        <v>-619100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-582700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-493200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-885300</v>
+        <v>899600</v>
       </c>
       <c r="E100" s="3">
-        <v>-170900</v>
+        <v>-854600</v>
       </c>
       <c r="F100" s="3">
-        <v>-65500</v>
+        <v>-165000</v>
       </c>
       <c r="G100" s="3">
-        <v>816000</v>
+        <v>-63200</v>
       </c>
       <c r="H100" s="3">
-        <v>-11300</v>
+        <v>787700</v>
       </c>
       <c r="I100" s="3">
-        <v>-472800</v>
+        <v>-10900</v>
       </c>
       <c r="J100" s="3">
+        <v>-456400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-828100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-424800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71500</v>
+        <v>87900</v>
       </c>
       <c r="E102" s="3">
-        <v>58000</v>
+        <v>-69000</v>
       </c>
       <c r="F102" s="3">
-        <v>157300</v>
+        <v>56000</v>
       </c>
       <c r="G102" s="3">
-        <v>122700</v>
+        <v>151900</v>
       </c>
       <c r="H102" s="3">
-        <v>-207800</v>
+        <v>118500</v>
       </c>
       <c r="I102" s="3">
-        <v>172400</v>
+        <v>-200600</v>
       </c>
       <c r="J102" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K102" s="3">
         <v>45900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10601700</v>
+        <v>11103500</v>
       </c>
       <c r="E8" s="3">
-        <v>10242700</v>
+        <v>10727600</v>
       </c>
       <c r="F8" s="3">
-        <v>9668600</v>
+        <v>10126300</v>
       </c>
       <c r="G8" s="3">
-        <v>9247100</v>
+        <v>9684900</v>
       </c>
       <c r="H8" s="3">
-        <v>9032800</v>
+        <v>9460300</v>
       </c>
       <c r="I8" s="3">
-        <v>8667200</v>
+        <v>9077500</v>
       </c>
       <c r="J8" s="3">
-        <v>8237800</v>
+        <v>8627700</v>
       </c>
       <c r="K8" s="3">
         <v>8169300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4363800</v>
+        <v>4570300</v>
       </c>
       <c r="E9" s="3">
-        <v>4627600</v>
+        <v>4846600</v>
       </c>
       <c r="F9" s="3">
-        <v>4290400</v>
+        <v>4493500</v>
       </c>
       <c r="G9" s="3">
-        <v>4092000</v>
+        <v>4285700</v>
       </c>
       <c r="H9" s="3">
-        <v>4020000</v>
+        <v>4210300</v>
       </c>
       <c r="I9" s="3">
-        <v>3850700</v>
+        <v>4033000</v>
       </c>
       <c r="J9" s="3">
-        <v>3605800</v>
+        <v>3776500</v>
       </c>
       <c r="K9" s="3">
         <v>3628400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6237900</v>
+        <v>6533200</v>
       </c>
       <c r="E10" s="3">
-        <v>5615100</v>
+        <v>5880900</v>
       </c>
       <c r="F10" s="3">
-        <v>5378200</v>
+        <v>5632800</v>
       </c>
       <c r="G10" s="3">
-        <v>5155100</v>
+        <v>5399200</v>
       </c>
       <c r="H10" s="3">
-        <v>5012700</v>
+        <v>5250000</v>
       </c>
       <c r="I10" s="3">
-        <v>4816500</v>
+        <v>5044500</v>
       </c>
       <c r="J10" s="3">
-        <v>4631900</v>
+        <v>4851200</v>
       </c>
       <c r="K10" s="3">
         <v>4540800</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>93000</v>
+        <v>97400</v>
       </c>
       <c r="E14" s="3">
-        <v>91600</v>
+        <v>95900</v>
       </c>
       <c r="F14" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="G14" s="3">
-        <v>81400</v>
+        <v>85200</v>
       </c>
       <c r="H14" s="3">
-        <v>113400</v>
+        <v>118700</v>
       </c>
       <c r="I14" s="3">
-        <v>39200</v>
+        <v>41100</v>
       </c>
       <c r="J14" s="3">
-        <v>51600</v>
+        <v>54000</v>
       </c>
       <c r="K14" s="3">
         <v>28600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1872700</v>
+        <v>1961300</v>
       </c>
       <c r="E15" s="3">
-        <v>1647400</v>
+        <v>1725400</v>
       </c>
       <c r="F15" s="3">
-        <v>1576200</v>
+        <v>1650800</v>
       </c>
       <c r="G15" s="3">
-        <v>1487500</v>
+        <v>1558000</v>
       </c>
       <c r="H15" s="3">
-        <v>1387300</v>
+        <v>1452900</v>
       </c>
       <c r="I15" s="3">
-        <v>1332700</v>
+        <v>1395800</v>
       </c>
       <c r="J15" s="3">
-        <v>1310200</v>
+        <v>1372200</v>
       </c>
       <c r="K15" s="3">
         <v>1404000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8438300</v>
+        <v>8837800</v>
       </c>
       <c r="E17" s="3">
-        <v>8181100</v>
+        <v>8568400</v>
       </c>
       <c r="F17" s="3">
-        <v>7676800</v>
+        <v>8040200</v>
       </c>
       <c r="G17" s="3">
-        <v>7661500</v>
+        <v>8024200</v>
       </c>
       <c r="H17" s="3">
-        <v>7322900</v>
+        <v>7669500</v>
       </c>
       <c r="I17" s="3">
-        <v>6826500</v>
+        <v>7149700</v>
       </c>
       <c r="J17" s="3">
-        <v>6925400</v>
+        <v>7253200</v>
       </c>
       <c r="K17" s="3">
         <v>6956500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2163400</v>
+        <v>2265800</v>
       </c>
       <c r="E18" s="3">
-        <v>2061600</v>
+        <v>2159200</v>
       </c>
       <c r="F18" s="3">
-        <v>1991900</v>
+        <v>2086100</v>
       </c>
       <c r="G18" s="3">
-        <v>1585600</v>
+        <v>1660700</v>
       </c>
       <c r="H18" s="3">
-        <v>1709900</v>
+        <v>1790800</v>
       </c>
       <c r="I18" s="3">
-        <v>1840700</v>
+        <v>1927800</v>
       </c>
       <c r="J18" s="3">
-        <v>1312400</v>
+        <v>1374500</v>
       </c>
       <c r="K18" s="3">
         <v>1212700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34200</v>
+        <v>-35800</v>
       </c>
       <c r="E20" s="3">
-        <v>-41400</v>
+        <v>-43400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G20" s="3">
-        <v>-21800</v>
+        <v>-22800</v>
       </c>
       <c r="H20" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
-        <v>-122800</v>
+        <v>-128600</v>
       </c>
       <c r="J20" s="3">
-        <v>242700</v>
+        <v>254200</v>
       </c>
       <c r="K20" s="3">
         <v>270300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4003400</v>
+        <v>4187000</v>
       </c>
       <c r="E21" s="3">
-        <v>3668900</v>
+        <v>3837400</v>
       </c>
       <c r="F21" s="3">
-        <v>3564200</v>
+        <v>3728000</v>
       </c>
       <c r="G21" s="3">
-        <v>3052600</v>
+        <v>3192400</v>
       </c>
       <c r="H21" s="3">
-        <v>3106300</v>
+        <v>3248900</v>
       </c>
       <c r="I21" s="3">
-        <v>3051700</v>
+        <v>3192000</v>
       </c>
       <c r="J21" s="3">
-        <v>2866400</v>
+        <v>2998000</v>
       </c>
       <c r="K21" s="3">
         <v>2887600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>498500</v>
+        <v>522100</v>
       </c>
       <c r="E22" s="3">
-        <v>438900</v>
+        <v>459700</v>
       </c>
       <c r="F22" s="3">
-        <v>411300</v>
+        <v>430800</v>
       </c>
       <c r="G22" s="3">
-        <v>356100</v>
+        <v>372900</v>
       </c>
       <c r="H22" s="3">
-        <v>332800</v>
+        <v>348600</v>
       </c>
       <c r="I22" s="3">
-        <v>318300</v>
+        <v>333400</v>
       </c>
       <c r="J22" s="3">
-        <v>270300</v>
+        <v>283100</v>
       </c>
       <c r="K22" s="3">
         <v>263500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1630700</v>
+        <v>1707900</v>
       </c>
       <c r="E23" s="3">
-        <v>1581300</v>
+        <v>1656100</v>
       </c>
       <c r="F23" s="3">
-        <v>1575500</v>
+        <v>1650000</v>
       </c>
       <c r="G23" s="3">
-        <v>1207800</v>
+        <v>1264900</v>
       </c>
       <c r="H23" s="3">
-        <v>1385100</v>
+        <v>1450600</v>
       </c>
       <c r="I23" s="3">
-        <v>1399600</v>
+        <v>1465900</v>
       </c>
       <c r="J23" s="3">
-        <v>1284800</v>
+        <v>1345600</v>
       </c>
       <c r="K23" s="3">
         <v>1219500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>340100</v>
+        <v>356200</v>
       </c>
       <c r="E24" s="3">
-        <v>401100</v>
+        <v>420100</v>
       </c>
       <c r="F24" s="3">
-        <v>428700</v>
+        <v>449000</v>
       </c>
       <c r="G24" s="3">
-        <v>309600</v>
+        <v>324200</v>
       </c>
       <c r="H24" s="3">
-        <v>380800</v>
+        <v>398800</v>
       </c>
       <c r="I24" s="3">
-        <v>364100</v>
+        <v>381300</v>
       </c>
       <c r="J24" s="3">
-        <v>344500</v>
+        <v>360800</v>
       </c>
       <c r="K24" s="3">
         <v>313200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1290600</v>
+        <v>1351700</v>
       </c>
       <c r="E26" s="3">
-        <v>1180100</v>
+        <v>1236000</v>
       </c>
       <c r="F26" s="3">
-        <v>1146700</v>
+        <v>1201000</v>
       </c>
       <c r="G26" s="3">
-        <v>898200</v>
+        <v>940700</v>
       </c>
       <c r="H26" s="3">
-        <v>1004300</v>
+        <v>1051800</v>
       </c>
       <c r="I26" s="3">
-        <v>1035500</v>
+        <v>1084600</v>
       </c>
       <c r="J26" s="3">
-        <v>940300</v>
+        <v>984900</v>
       </c>
       <c r="K26" s="3">
         <v>906400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1268800</v>
+        <v>1328900</v>
       </c>
       <c r="E27" s="3">
-        <v>1162700</v>
+        <v>1217700</v>
       </c>
       <c r="F27" s="3">
-        <v>1132900</v>
+        <v>1186500</v>
       </c>
       <c r="G27" s="3">
-        <v>888700</v>
+        <v>930800</v>
       </c>
       <c r="H27" s="3">
-        <v>1004300</v>
+        <v>1051800</v>
       </c>
       <c r="I27" s="3">
-        <v>1035500</v>
+        <v>1084600</v>
       </c>
       <c r="J27" s="3">
-        <v>940300</v>
+        <v>984900</v>
       </c>
       <c r="K27" s="3">
         <v>906400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="E32" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="F32" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G32" s="3">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="H32" s="3">
-        <v>-8000</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
-        <v>122800</v>
+        <v>128600</v>
       </c>
       <c r="J32" s="3">
-        <v>-242700</v>
+        <v>-254200</v>
       </c>
       <c r="K32" s="3">
         <v>-270300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1268800</v>
+        <v>1328900</v>
       </c>
       <c r="E33" s="3">
-        <v>1162700</v>
+        <v>1217700</v>
       </c>
       <c r="F33" s="3">
-        <v>1132900</v>
+        <v>1186500</v>
       </c>
       <c r="G33" s="3">
-        <v>888700</v>
+        <v>930800</v>
       </c>
       <c r="H33" s="3">
-        <v>1004300</v>
+        <v>1051800</v>
       </c>
       <c r="I33" s="3">
-        <v>1035500</v>
+        <v>1084600</v>
       </c>
       <c r="J33" s="3">
-        <v>940300</v>
+        <v>984900</v>
       </c>
       <c r="K33" s="3">
         <v>906400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1268800</v>
+        <v>1328900</v>
       </c>
       <c r="E35" s="3">
-        <v>1162700</v>
+        <v>1217700</v>
       </c>
       <c r="F35" s="3">
-        <v>1132900</v>
+        <v>1186500</v>
       </c>
       <c r="G35" s="3">
-        <v>888700</v>
+        <v>930800</v>
       </c>
       <c r="H35" s="3">
-        <v>1004300</v>
+        <v>1051800</v>
       </c>
       <c r="I35" s="3">
-        <v>1035500</v>
+        <v>1084600</v>
       </c>
       <c r="J35" s="3">
-        <v>940300</v>
+        <v>984900</v>
       </c>
       <c r="K35" s="3">
         <v>906400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>388600</v>
+        <v>407200</v>
       </c>
       <c r="E41" s="3">
-        <v>300700</v>
+        <v>315100</v>
       </c>
       <c r="F41" s="3">
-        <v>369700</v>
+        <v>387400</v>
       </c>
       <c r="G41" s="3">
-        <v>313700</v>
+        <v>328800</v>
       </c>
       <c r="H41" s="3">
-        <v>162000</v>
+        <v>169700</v>
       </c>
       <c r="I41" s="3">
-        <v>43600</v>
+        <v>45700</v>
       </c>
       <c r="J41" s="3">
-        <v>244000</v>
+        <v>255700</v>
       </c>
       <c r="K41" s="3">
         <v>80500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2052400</v>
+        <v>2150800</v>
       </c>
       <c r="E43" s="3">
-        <v>1788800</v>
+        <v>1874600</v>
       </c>
       <c r="F43" s="3">
-        <v>1791700</v>
+        <v>1877600</v>
       </c>
       <c r="G43" s="3">
-        <v>1074900</v>
+        <v>1126400</v>
       </c>
       <c r="H43" s="3">
-        <v>1037800</v>
+        <v>1087600</v>
       </c>
       <c r="I43" s="3">
-        <v>1147500</v>
+        <v>1202500</v>
       </c>
       <c r="J43" s="3">
-        <v>1084300</v>
+        <v>1136300</v>
       </c>
       <c r="K43" s="3">
         <v>1178900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>317400</v>
+        <v>332600</v>
       </c>
       <c r="E44" s="3">
-        <v>273100</v>
+        <v>286200</v>
       </c>
       <c r="F44" s="3">
-        <v>276000</v>
+        <v>289200</v>
       </c>
       <c r="G44" s="3">
-        <v>231000</v>
+        <v>242000</v>
       </c>
       <c r="H44" s="3">
-        <v>261500</v>
+        <v>274000</v>
       </c>
       <c r="I44" s="3">
-        <v>232400</v>
+        <v>243500</v>
       </c>
       <c r="J44" s="3">
-        <v>236800</v>
+        <v>248100</v>
       </c>
       <c r="K44" s="3">
         <v>263500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>403100</v>
+        <v>422400</v>
       </c>
       <c r="E45" s="3">
-        <v>427000</v>
+        <v>447500</v>
       </c>
       <c r="F45" s="3">
-        <v>371100</v>
+        <v>388900</v>
       </c>
       <c r="G45" s="3">
-        <v>177200</v>
+        <v>185700</v>
       </c>
       <c r="H45" s="3">
-        <v>231700</v>
+        <v>242800</v>
       </c>
       <c r="I45" s="3">
-        <v>164100</v>
+        <v>172000</v>
       </c>
       <c r="J45" s="3">
-        <v>126400</v>
+        <v>132400</v>
       </c>
       <c r="K45" s="3">
         <v>140800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3161500</v>
+        <v>3313000</v>
       </c>
       <c r="E46" s="3">
-        <v>2789600</v>
+        <v>2923300</v>
       </c>
       <c r="F46" s="3">
-        <v>2808500</v>
+        <v>2943100</v>
       </c>
       <c r="G46" s="3">
-        <v>1796800</v>
+        <v>1882900</v>
       </c>
       <c r="H46" s="3">
-        <v>1692900</v>
+        <v>1774100</v>
       </c>
       <c r="I46" s="3">
-        <v>1587600</v>
+        <v>1663700</v>
       </c>
       <c r="J46" s="3">
-        <v>1691500</v>
+        <v>1772600</v>
       </c>
       <c r="K46" s="3">
         <v>1663700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>395800</v>
+        <v>414800</v>
       </c>
       <c r="E47" s="3">
-        <v>437200</v>
+        <v>458200</v>
       </c>
       <c r="F47" s="3">
-        <v>351500</v>
+        <v>368400</v>
       </c>
       <c r="G47" s="3">
-        <v>60300</v>
+        <v>63200</v>
       </c>
       <c r="H47" s="3">
-        <v>68300</v>
+        <v>71500</v>
       </c>
       <c r="I47" s="3">
-        <v>50800</v>
+        <v>53300</v>
       </c>
       <c r="J47" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="K47" s="3">
         <v>43700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10336300</v>
+        <v>10831800</v>
       </c>
       <c r="E48" s="3">
-        <v>17562700</v>
+        <v>18404700</v>
       </c>
       <c r="F48" s="3">
-        <v>8256200</v>
+        <v>8652100</v>
       </c>
       <c r="G48" s="3">
-        <v>7599700</v>
+        <v>7964000</v>
       </c>
       <c r="H48" s="3">
-        <v>7071000</v>
+        <v>7410000</v>
       </c>
       <c r="I48" s="3">
-        <v>6625800</v>
+        <v>6943400</v>
       </c>
       <c r="J48" s="3">
-        <v>6119600</v>
+        <v>6412900</v>
       </c>
       <c r="K48" s="3">
         <v>6146500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13176700</v>
+        <v>13816100</v>
       </c>
       <c r="E49" s="3">
-        <v>22783100</v>
+        <v>23875400</v>
       </c>
       <c r="F49" s="3">
-        <v>10817100</v>
+        <v>11335700</v>
       </c>
       <c r="G49" s="3">
-        <v>10277400</v>
+        <v>10770200</v>
       </c>
       <c r="H49" s="3">
-        <v>9983300</v>
+        <v>10461900</v>
       </c>
       <c r="I49" s="3">
-        <v>8391300</v>
+        <v>8793600</v>
       </c>
       <c r="J49" s="3">
-        <v>7457300</v>
+        <v>7814900</v>
       </c>
       <c r="K49" s="3">
         <v>7439800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>509800</v>
+        <v>534300</v>
       </c>
       <c r="E52" s="3">
-        <v>611500</v>
+        <v>640800</v>
       </c>
       <c r="F52" s="3">
-        <v>319600</v>
+        <v>334900</v>
       </c>
       <c r="G52" s="3">
-        <v>404500</v>
+        <v>423900</v>
       </c>
       <c r="H52" s="3">
-        <v>362400</v>
+        <v>379800</v>
       </c>
       <c r="I52" s="3">
-        <v>206300</v>
+        <v>216100</v>
       </c>
       <c r="J52" s="3">
-        <v>350100</v>
+        <v>366800</v>
       </c>
       <c r="K52" s="3">
         <v>97100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27580100</v>
+        <v>28910000</v>
       </c>
       <c r="E54" s="3">
-        <v>24008300</v>
+        <v>25159400</v>
       </c>
       <c r="F54" s="3">
-        <v>22552900</v>
+        <v>23634100</v>
       </c>
       <c r="G54" s="3">
-        <v>20138700</v>
+        <v>21104300</v>
       </c>
       <c r="H54" s="3">
-        <v>19177900</v>
+        <v>20097300</v>
       </c>
       <c r="I54" s="3">
-        <v>16861800</v>
+        <v>17670200</v>
       </c>
       <c r="J54" s="3">
-        <v>15661300</v>
+        <v>16412100</v>
       </c>
       <c r="K54" s="3">
         <v>15390800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>647800</v>
+        <v>678900</v>
       </c>
       <c r="E57" s="3">
-        <v>498200</v>
+        <v>522100</v>
       </c>
       <c r="F57" s="3">
-        <v>520700</v>
+        <v>545700</v>
       </c>
       <c r="G57" s="3">
-        <v>419800</v>
+        <v>439900</v>
       </c>
       <c r="H57" s="3">
-        <v>345700</v>
+        <v>362300</v>
       </c>
       <c r="I57" s="3">
-        <v>332600</v>
+        <v>348600</v>
       </c>
       <c r="J57" s="3">
-        <v>332600</v>
+        <v>348600</v>
       </c>
       <c r="K57" s="3">
         <v>353100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1040000</v>
+        <v>1089900</v>
       </c>
       <c r="E58" s="3">
-        <v>679800</v>
+        <v>712400</v>
       </c>
       <c r="F58" s="3">
-        <v>1092300</v>
+        <v>1144700</v>
       </c>
       <c r="G58" s="3">
-        <v>1036400</v>
+        <v>1086100</v>
       </c>
       <c r="H58" s="3">
-        <v>694300</v>
+        <v>727600</v>
       </c>
       <c r="I58" s="3">
-        <v>257800</v>
+        <v>270200</v>
       </c>
       <c r="J58" s="3">
-        <v>290500</v>
+        <v>304400</v>
       </c>
       <c r="K58" s="3">
         <v>712900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2360400</v>
+        <v>2888300</v>
       </c>
       <c r="E59" s="3">
-        <v>2814300</v>
+        <v>2949200</v>
       </c>
       <c r="F59" s="3">
-        <v>2047400</v>
+        <v>2145500</v>
       </c>
       <c r="G59" s="3">
-        <v>2139600</v>
+        <v>2242200</v>
       </c>
       <c r="H59" s="3">
-        <v>2065500</v>
+        <v>2164500</v>
       </c>
       <c r="I59" s="3">
-        <v>1950800</v>
+        <v>2044300</v>
       </c>
       <c r="J59" s="3">
-        <v>1772800</v>
+        <v>1857800</v>
       </c>
       <c r="K59" s="3">
         <v>1583900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4048200</v>
+        <v>4242300</v>
       </c>
       <c r="E60" s="3">
-        <v>3518100</v>
+        <v>3686700</v>
       </c>
       <c r="F60" s="3">
-        <v>3660400</v>
+        <v>3835900</v>
       </c>
       <c r="G60" s="3">
-        <v>3595800</v>
+        <v>3768200</v>
       </c>
       <c r="H60" s="3">
-        <v>3105500</v>
+        <v>3254400</v>
       </c>
       <c r="I60" s="3">
-        <v>2541200</v>
+        <v>2663100</v>
       </c>
       <c r="J60" s="3">
-        <v>2396000</v>
+        <v>2510800</v>
       </c>
       <c r="K60" s="3">
         <v>2649800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12449700</v>
+        <v>13046600</v>
       </c>
       <c r="E61" s="3">
-        <v>9634000</v>
+        <v>10095900</v>
       </c>
       <c r="F61" s="3">
-        <v>8901200</v>
+        <v>9327900</v>
       </c>
       <c r="G61" s="3">
-        <v>8427600</v>
+        <v>8831700</v>
       </c>
       <c r="H61" s="3">
-        <v>8121200</v>
+        <v>8510500</v>
       </c>
       <c r="I61" s="3">
-        <v>6576400</v>
+        <v>6891700</v>
       </c>
       <c r="J61" s="3">
-        <v>5441900</v>
+        <v>5702800</v>
       </c>
       <c r="K61" s="3">
         <v>4299200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3340800</v>
+        <v>3567200</v>
       </c>
       <c r="E62" s="3">
-        <v>3936400</v>
+        <v>4125100</v>
       </c>
       <c r="F62" s="3">
-        <v>3122200</v>
+        <v>3271900</v>
       </c>
       <c r="G62" s="3">
-        <v>2351700</v>
+        <v>2464400</v>
       </c>
       <c r="H62" s="3">
-        <v>2379300</v>
+        <v>2493300</v>
       </c>
       <c r="I62" s="3">
-        <v>2330600</v>
+        <v>2442300</v>
       </c>
       <c r="J62" s="3">
-        <v>2003800</v>
+        <v>2099800</v>
       </c>
       <c r="K62" s="3">
         <v>2655800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19919400</v>
+        <v>20882000</v>
       </c>
       <c r="E66" s="3">
-        <v>16557500</v>
+        <v>17351300</v>
       </c>
       <c r="F66" s="3">
-        <v>15714300</v>
+        <v>16467700</v>
       </c>
       <c r="G66" s="3">
-        <v>14388900</v>
+        <v>15078700</v>
       </c>
       <c r="H66" s="3">
-        <v>13605900</v>
+        <v>14258300</v>
       </c>
       <c r="I66" s="3">
-        <v>11448200</v>
+        <v>11997100</v>
       </c>
       <c r="J66" s="3">
-        <v>9841700</v>
+        <v>10313500</v>
       </c>
       <c r="K66" s="3">
         <v>9604800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3174500</v>
+        <v>3326700</v>
       </c>
       <c r="E72" s="3">
-        <v>3249300</v>
+        <v>3405100</v>
       </c>
       <c r="F72" s="3">
-        <v>2755500</v>
+        <v>2887600</v>
       </c>
       <c r="G72" s="3">
-        <v>1796800</v>
+        <v>1882900</v>
       </c>
       <c r="H72" s="3">
-        <v>1763400</v>
+        <v>1847900</v>
       </c>
       <c r="I72" s="3">
-        <v>1525200</v>
+        <v>1598300</v>
       </c>
       <c r="J72" s="3">
-        <v>1844000</v>
+        <v>1932400</v>
       </c>
       <c r="K72" s="3">
         <v>1433300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7660700</v>
+        <v>8028000</v>
       </c>
       <c r="E76" s="3">
-        <v>7450800</v>
+        <v>7808000</v>
       </c>
       <c r="F76" s="3">
-        <v>6838600</v>
+        <v>7166400</v>
       </c>
       <c r="G76" s="3">
-        <v>5749900</v>
+        <v>6025500</v>
       </c>
       <c r="H76" s="3">
-        <v>5571900</v>
+        <v>5839100</v>
       </c>
       <c r="I76" s="3">
-        <v>5413600</v>
+        <v>5673200</v>
       </c>
       <c r="J76" s="3">
-        <v>5821100</v>
+        <v>6100100</v>
       </c>
       <c r="K76" s="3">
         <v>5785900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1268800</v>
+        <v>1328900</v>
       </c>
       <c r="E81" s="3">
-        <v>1162700</v>
+        <v>1217700</v>
       </c>
       <c r="F81" s="3">
-        <v>1132900</v>
+        <v>1186500</v>
       </c>
       <c r="G81" s="3">
-        <v>888700</v>
+        <v>930800</v>
       </c>
       <c r="H81" s="3">
-        <v>1004300</v>
+        <v>1051800</v>
       </c>
       <c r="I81" s="3">
-        <v>1035500</v>
+        <v>1084600</v>
       </c>
       <c r="J81" s="3">
-        <v>940300</v>
+        <v>984900</v>
       </c>
       <c r="K81" s="3">
         <v>906400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1872700</v>
+        <v>1961300</v>
       </c>
       <c r="E83" s="3">
-        <v>1647400</v>
+        <v>1725400</v>
       </c>
       <c r="F83" s="3">
-        <v>1576200</v>
+        <v>1650800</v>
       </c>
       <c r="G83" s="3">
-        <v>1487500</v>
+        <v>1558000</v>
       </c>
       <c r="H83" s="3">
-        <v>1387300</v>
+        <v>1452900</v>
       </c>
       <c r="I83" s="3">
-        <v>1332700</v>
+        <v>1395800</v>
       </c>
       <c r="J83" s="3">
-        <v>1310200</v>
+        <v>1372200</v>
       </c>
       <c r="K83" s="3">
         <v>1404000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2853700</v>
+        <v>2988800</v>
       </c>
       <c r="E89" s="3">
-        <v>2948900</v>
+        <v>3088500</v>
       </c>
       <c r="F89" s="3">
-        <v>2868200</v>
+        <v>3004000</v>
       </c>
       <c r="G89" s="3">
-        <v>2339200</v>
+        <v>2449900</v>
       </c>
       <c r="H89" s="3">
-        <v>2584100</v>
+        <v>2706400</v>
       </c>
       <c r="I89" s="3">
-        <v>2475800</v>
+        <v>2593000</v>
       </c>
       <c r="J89" s="3">
-        <v>2358800</v>
+        <v>2470500</v>
       </c>
       <c r="K89" s="3">
         <v>2423200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2014400</v>
+        <v>-2109700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1731700</v>
+        <v>-1813700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1806600</v>
+        <v>-1892100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1713500</v>
+        <v>-1794700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1486800</v>
+        <v>-1557200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1393800</v>
+        <v>-1459800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1195400</v>
+        <v>-1252000</v>
       </c>
       <c r="K91" s="3">
         <v>-2644600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3665400</v>
+        <v>-3838900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2163400</v>
+        <v>-2265800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2647300</v>
+        <v>-2772700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2124100</v>
+        <v>-2224700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3253400</v>
+        <v>-3407400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2665500</v>
+        <v>-2791700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1736100</v>
+        <v>-1818200</v>
       </c>
       <c r="K94" s="3">
         <v>-1549200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-835000</v>
+        <v>-874500</v>
       </c>
       <c r="E96" s="3">
-        <v>-829200</v>
+        <v>-868400</v>
       </c>
       <c r="F96" s="3">
-        <v>-786300</v>
+        <v>-823500</v>
       </c>
       <c r="G96" s="3">
-        <v>-777600</v>
+        <v>-814400</v>
       </c>
       <c r="H96" s="3">
-        <v>-720900</v>
+        <v>-755000</v>
       </c>
       <c r="I96" s="3">
-        <v>-663500</v>
+        <v>-694900</v>
       </c>
       <c r="J96" s="3">
-        <v>-619100</v>
+        <v>-648400</v>
       </c>
       <c r="K96" s="3">
         <v>-582700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>899600</v>
+        <v>942200</v>
       </c>
       <c r="E100" s="3">
-        <v>-854600</v>
+        <v>-895000</v>
       </c>
       <c r="F100" s="3">
-        <v>-165000</v>
+        <v>-172800</v>
       </c>
       <c r="G100" s="3">
-        <v>-63200</v>
+        <v>-66200</v>
       </c>
       <c r="H100" s="3">
-        <v>787700</v>
+        <v>825000</v>
       </c>
       <c r="I100" s="3">
-        <v>-10900</v>
+        <v>-11400</v>
       </c>
       <c r="J100" s="3">
-        <v>-456400</v>
+        <v>-478000</v>
       </c>
       <c r="K100" s="3">
         <v>-828100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87900</v>
+        <v>92100</v>
       </c>
       <c r="E102" s="3">
-        <v>-69000</v>
+        <v>-72300</v>
       </c>
       <c r="F102" s="3">
-        <v>56000</v>
+        <v>58600</v>
       </c>
       <c r="G102" s="3">
-        <v>151900</v>
+        <v>159100</v>
       </c>
       <c r="H102" s="3">
-        <v>118500</v>
+        <v>124100</v>
       </c>
       <c r="I102" s="3">
-        <v>-200600</v>
+        <v>-210100</v>
       </c>
       <c r="J102" s="3">
-        <v>166400</v>
+        <v>174300</v>
       </c>
       <c r="K102" s="3">
         <v>45900</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11103500</v>
+        <v>11230900</v>
       </c>
       <c r="E8" s="3">
-        <v>10727600</v>
+        <v>10850600</v>
       </c>
       <c r="F8" s="3">
-        <v>10126300</v>
+        <v>10242500</v>
       </c>
       <c r="G8" s="3">
-        <v>9684900</v>
+        <v>9796000</v>
       </c>
       <c r="H8" s="3">
-        <v>9460300</v>
+        <v>9568900</v>
       </c>
       <c r="I8" s="3">
-        <v>9077500</v>
+        <v>9181600</v>
       </c>
       <c r="J8" s="3">
-        <v>8627700</v>
+        <v>8726700</v>
       </c>
       <c r="K8" s="3">
         <v>8169300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4570300</v>
+        <v>4622800</v>
       </c>
       <c r="E9" s="3">
-        <v>4846600</v>
+        <v>4902200</v>
       </c>
       <c r="F9" s="3">
-        <v>4493500</v>
+        <v>4545000</v>
       </c>
       <c r="G9" s="3">
-        <v>4285700</v>
+        <v>4334900</v>
       </c>
       <c r="H9" s="3">
-        <v>4210300</v>
+        <v>4258600</v>
       </c>
       <c r="I9" s="3">
-        <v>4033000</v>
+        <v>4079300</v>
       </c>
       <c r="J9" s="3">
-        <v>3776500</v>
+        <v>3819800</v>
       </c>
       <c r="K9" s="3">
         <v>3628400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6533200</v>
+        <v>6608100</v>
       </c>
       <c r="E10" s="3">
-        <v>5880900</v>
+        <v>5948400</v>
       </c>
       <c r="F10" s="3">
-        <v>5632800</v>
+        <v>5697400</v>
       </c>
       <c r="G10" s="3">
-        <v>5399200</v>
+        <v>5461100</v>
       </c>
       <c r="H10" s="3">
-        <v>5250000</v>
+        <v>5310200</v>
       </c>
       <c r="I10" s="3">
-        <v>5044500</v>
+        <v>5102400</v>
       </c>
       <c r="J10" s="3">
-        <v>4851200</v>
+        <v>4906800</v>
       </c>
       <c r="K10" s="3">
         <v>4540800</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>97400</v>
+        <v>98500</v>
       </c>
       <c r="E14" s="3">
-        <v>95900</v>
+        <v>97000</v>
       </c>
       <c r="F14" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="3">
-        <v>85200</v>
+        <v>86200</v>
       </c>
       <c r="H14" s="3">
-        <v>118700</v>
+        <v>120100</v>
       </c>
       <c r="I14" s="3">
-        <v>41100</v>
+        <v>41600</v>
       </c>
       <c r="J14" s="3">
-        <v>54000</v>
+        <v>54700</v>
       </c>
       <c r="K14" s="3">
         <v>28600</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1961300</v>
+        <v>1983800</v>
       </c>
       <c r="E15" s="3">
-        <v>1725400</v>
+        <v>1745200</v>
       </c>
       <c r="F15" s="3">
-        <v>1650800</v>
+        <v>1669700</v>
       </c>
       <c r="G15" s="3">
-        <v>1558000</v>
+        <v>1575800</v>
       </c>
       <c r="H15" s="3">
-        <v>1452900</v>
+        <v>1469600</v>
       </c>
       <c r="I15" s="3">
-        <v>1395800</v>
+        <v>1411800</v>
       </c>
       <c r="J15" s="3">
-        <v>1372200</v>
+        <v>1388000</v>
       </c>
       <c r="K15" s="3">
         <v>1404000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8837800</v>
+        <v>8939100</v>
       </c>
       <c r="E17" s="3">
-        <v>8568400</v>
+        <v>8666600</v>
       </c>
       <c r="F17" s="3">
-        <v>8040200</v>
+        <v>8132400</v>
       </c>
       <c r="G17" s="3">
-        <v>8024200</v>
+        <v>8116200</v>
       </c>
       <c r="H17" s="3">
-        <v>7669500</v>
+        <v>7757500</v>
       </c>
       <c r="I17" s="3">
-        <v>7149700</v>
+        <v>7231700</v>
       </c>
       <c r="J17" s="3">
-        <v>7253200</v>
+        <v>7336400</v>
       </c>
       <c r="K17" s="3">
         <v>6956500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2265800</v>
+        <v>2291800</v>
       </c>
       <c r="E18" s="3">
-        <v>2159200</v>
+        <v>2184000</v>
       </c>
       <c r="F18" s="3">
-        <v>2086100</v>
+        <v>2110100</v>
       </c>
       <c r="G18" s="3">
-        <v>1660700</v>
+        <v>1679700</v>
       </c>
       <c r="H18" s="3">
-        <v>1790800</v>
+        <v>1811400</v>
       </c>
       <c r="I18" s="3">
-        <v>1927800</v>
+        <v>1950000</v>
       </c>
       <c r="J18" s="3">
-        <v>1374500</v>
+        <v>1390300</v>
       </c>
       <c r="K18" s="3">
         <v>1212700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35800</v>
+        <v>-36200</v>
       </c>
       <c r="E20" s="3">
-        <v>-43400</v>
+        <v>-43900</v>
       </c>
       <c r="F20" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="G20" s="3">
-        <v>-22800</v>
+        <v>-23100</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="I20" s="3">
-        <v>-128600</v>
+        <v>-130100</v>
       </c>
       <c r="J20" s="3">
-        <v>254200</v>
+        <v>257100</v>
       </c>
       <c r="K20" s="3">
         <v>270300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4187000</v>
+        <v>4235900</v>
       </c>
       <c r="E21" s="3">
-        <v>3837400</v>
+        <v>3882200</v>
       </c>
       <c r="F21" s="3">
-        <v>3728000</v>
+        <v>3771500</v>
       </c>
       <c r="G21" s="3">
-        <v>3192400</v>
+        <v>3229700</v>
       </c>
       <c r="H21" s="3">
-        <v>3248900</v>
+        <v>3286800</v>
       </c>
       <c r="I21" s="3">
-        <v>3192000</v>
+        <v>3229200</v>
       </c>
       <c r="J21" s="3">
-        <v>2998000</v>
+        <v>3032900</v>
       </c>
       <c r="K21" s="3">
         <v>2887600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>522100</v>
+        <v>528100</v>
       </c>
       <c r="E22" s="3">
-        <v>459700</v>
+        <v>465000</v>
       </c>
       <c r="F22" s="3">
-        <v>430800</v>
+        <v>435700</v>
       </c>
       <c r="G22" s="3">
-        <v>372900</v>
+        <v>377200</v>
       </c>
       <c r="H22" s="3">
-        <v>348600</v>
+        <v>352600</v>
       </c>
       <c r="I22" s="3">
-        <v>333400</v>
+        <v>337200</v>
       </c>
       <c r="J22" s="3">
-        <v>283100</v>
+        <v>286400</v>
       </c>
       <c r="K22" s="3">
         <v>263500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1707900</v>
+        <v>1727500</v>
       </c>
       <c r="E23" s="3">
-        <v>1656100</v>
+        <v>1675100</v>
       </c>
       <c r="F23" s="3">
-        <v>1650000</v>
+        <v>1669000</v>
       </c>
       <c r="G23" s="3">
-        <v>1264900</v>
+        <v>1279400</v>
       </c>
       <c r="H23" s="3">
-        <v>1450600</v>
+        <v>1467300</v>
       </c>
       <c r="I23" s="3">
-        <v>1465900</v>
+        <v>1482700</v>
       </c>
       <c r="J23" s="3">
-        <v>1345600</v>
+        <v>1361000</v>
       </c>
       <c r="K23" s="3">
         <v>1219500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>356200</v>
+        <v>360300</v>
       </c>
       <c r="E24" s="3">
-        <v>420100</v>
+        <v>424900</v>
       </c>
       <c r="F24" s="3">
-        <v>449000</v>
+        <v>454200</v>
       </c>
       <c r="G24" s="3">
-        <v>324200</v>
+        <v>327900</v>
       </c>
       <c r="H24" s="3">
-        <v>398800</v>
+        <v>403400</v>
       </c>
       <c r="I24" s="3">
-        <v>381300</v>
+        <v>385700</v>
       </c>
       <c r="J24" s="3">
-        <v>360800</v>
+        <v>364900</v>
       </c>
       <c r="K24" s="3">
         <v>313200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1351700</v>
+        <v>1367200</v>
       </c>
       <c r="E26" s="3">
-        <v>1236000</v>
+        <v>1250200</v>
       </c>
       <c r="F26" s="3">
-        <v>1201000</v>
+        <v>1214800</v>
       </c>
       <c r="G26" s="3">
-        <v>940700</v>
+        <v>951500</v>
       </c>
       <c r="H26" s="3">
-        <v>1051800</v>
+        <v>1063900</v>
       </c>
       <c r="I26" s="3">
-        <v>1084600</v>
+        <v>1097000</v>
       </c>
       <c r="J26" s="3">
-        <v>984900</v>
+        <v>996100</v>
       </c>
       <c r="K26" s="3">
         <v>906400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1328900</v>
+        <v>1344100</v>
       </c>
       <c r="E27" s="3">
-        <v>1217700</v>
+        <v>1231700</v>
       </c>
       <c r="F27" s="3">
-        <v>1186500</v>
+        <v>1200100</v>
       </c>
       <c r="G27" s="3">
-        <v>930800</v>
+        <v>941500</v>
       </c>
       <c r="H27" s="3">
-        <v>1051800</v>
+        <v>1063900</v>
       </c>
       <c r="I27" s="3">
-        <v>1084600</v>
+        <v>1097000</v>
       </c>
       <c r="J27" s="3">
-        <v>984900</v>
+        <v>996100</v>
       </c>
       <c r="K27" s="3">
         <v>906400</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="E32" s="3">
-        <v>43400</v>
+        <v>43900</v>
       </c>
       <c r="F32" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G32" s="3">
-        <v>22800</v>
+        <v>23100</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="I32" s="3">
-        <v>128600</v>
+        <v>130100</v>
       </c>
       <c r="J32" s="3">
-        <v>-254200</v>
+        <v>-257100</v>
       </c>
       <c r="K32" s="3">
         <v>-270300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1328900</v>
+        <v>1344100</v>
       </c>
       <c r="E33" s="3">
-        <v>1217700</v>
+        <v>1231700</v>
       </c>
       <c r="F33" s="3">
-        <v>1186500</v>
+        <v>1200100</v>
       </c>
       <c r="G33" s="3">
-        <v>930800</v>
+        <v>941500</v>
       </c>
       <c r="H33" s="3">
-        <v>1051800</v>
+        <v>1063900</v>
       </c>
       <c r="I33" s="3">
-        <v>1084600</v>
+        <v>1097000</v>
       </c>
       <c r="J33" s="3">
-        <v>984900</v>
+        <v>996100</v>
       </c>
       <c r="K33" s="3">
         <v>906400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1328900</v>
+        <v>1344100</v>
       </c>
       <c r="E35" s="3">
-        <v>1217700</v>
+        <v>1231700</v>
       </c>
       <c r="F35" s="3">
-        <v>1186500</v>
+        <v>1200100</v>
       </c>
       <c r="G35" s="3">
-        <v>930800</v>
+        <v>941500</v>
       </c>
       <c r="H35" s="3">
-        <v>1051800</v>
+        <v>1063900</v>
       </c>
       <c r="I35" s="3">
-        <v>1084600</v>
+        <v>1097000</v>
       </c>
       <c r="J35" s="3">
-        <v>984900</v>
+        <v>996100</v>
       </c>
       <c r="K35" s="3">
         <v>906400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>407200</v>
+        <v>411900</v>
       </c>
       <c r="E41" s="3">
-        <v>315100</v>
+        <v>318700</v>
       </c>
       <c r="F41" s="3">
-        <v>387400</v>
+        <v>391800</v>
       </c>
       <c r="G41" s="3">
-        <v>328800</v>
+        <v>332600</v>
       </c>
       <c r="H41" s="3">
-        <v>169700</v>
+        <v>171700</v>
       </c>
       <c r="I41" s="3">
-        <v>45700</v>
+        <v>46200</v>
       </c>
       <c r="J41" s="3">
-        <v>255700</v>
+        <v>258700</v>
       </c>
       <c r="K41" s="3">
         <v>80500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2150800</v>
+        <v>2175500</v>
       </c>
       <c r="E43" s="3">
-        <v>1874600</v>
+        <v>1896100</v>
       </c>
       <c r="F43" s="3">
-        <v>1877600</v>
+        <v>1899100</v>
       </c>
       <c r="G43" s="3">
-        <v>1126400</v>
+        <v>1139300</v>
       </c>
       <c r="H43" s="3">
-        <v>1087600</v>
+        <v>1100100</v>
       </c>
       <c r="I43" s="3">
-        <v>1202500</v>
+        <v>1216300</v>
       </c>
       <c r="J43" s="3">
-        <v>1136300</v>
+        <v>1149300</v>
       </c>
       <c r="K43" s="3">
         <v>1178900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>332600</v>
+        <v>336400</v>
       </c>
       <c r="E44" s="3">
-        <v>286200</v>
+        <v>289500</v>
       </c>
       <c r="F44" s="3">
-        <v>289200</v>
+        <v>292500</v>
       </c>
       <c r="G44" s="3">
-        <v>242000</v>
+        <v>244800</v>
       </c>
       <c r="H44" s="3">
-        <v>274000</v>
+        <v>277100</v>
       </c>
       <c r="I44" s="3">
-        <v>243500</v>
+        <v>246300</v>
       </c>
       <c r="J44" s="3">
-        <v>248100</v>
+        <v>251000</v>
       </c>
       <c r="K44" s="3">
         <v>263500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>422400</v>
+        <v>427300</v>
       </c>
       <c r="E45" s="3">
-        <v>447500</v>
+        <v>452700</v>
       </c>
       <c r="F45" s="3">
-        <v>388900</v>
+        <v>393400</v>
       </c>
       <c r="G45" s="3">
-        <v>185700</v>
+        <v>187800</v>
       </c>
       <c r="H45" s="3">
-        <v>242800</v>
+        <v>245600</v>
       </c>
       <c r="I45" s="3">
-        <v>172000</v>
+        <v>174000</v>
       </c>
       <c r="J45" s="3">
-        <v>132400</v>
+        <v>133900</v>
       </c>
       <c r="K45" s="3">
         <v>140800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3313000</v>
+        <v>3351000</v>
       </c>
       <c r="E46" s="3">
-        <v>2923300</v>
+        <v>2956900</v>
       </c>
       <c r="F46" s="3">
-        <v>2943100</v>
+        <v>2976900</v>
       </c>
       <c r="G46" s="3">
-        <v>1882900</v>
+        <v>1904500</v>
       </c>
       <c r="H46" s="3">
-        <v>1774100</v>
+        <v>1794500</v>
       </c>
       <c r="I46" s="3">
-        <v>1663700</v>
+        <v>1682800</v>
       </c>
       <c r="J46" s="3">
-        <v>1772600</v>
+        <v>1792900</v>
       </c>
       <c r="K46" s="3">
         <v>1663700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>414800</v>
+        <v>419600</v>
       </c>
       <c r="E47" s="3">
-        <v>458200</v>
+        <v>463400</v>
       </c>
       <c r="F47" s="3">
-        <v>368400</v>
+        <v>372600</v>
       </c>
       <c r="G47" s="3">
-        <v>63200</v>
+        <v>63900</v>
       </c>
       <c r="H47" s="3">
-        <v>71500</v>
+        <v>72400</v>
       </c>
       <c r="I47" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="J47" s="3">
-        <v>44900</v>
+        <v>45400</v>
       </c>
       <c r="K47" s="3">
         <v>43700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10831800</v>
+        <v>10956100</v>
       </c>
       <c r="E48" s="3">
-        <v>18404700</v>
+        <v>18615800</v>
       </c>
       <c r="F48" s="3">
-        <v>8652100</v>
+        <v>8751300</v>
       </c>
       <c r="G48" s="3">
-        <v>7964000</v>
+        <v>8055400</v>
       </c>
       <c r="H48" s="3">
-        <v>7410000</v>
+        <v>7495000</v>
       </c>
       <c r="I48" s="3">
-        <v>6943400</v>
+        <v>7023100</v>
       </c>
       <c r="J48" s="3">
-        <v>6412900</v>
+        <v>6486500</v>
       </c>
       <c r="K48" s="3">
         <v>6146500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13816100</v>
+        <v>13974500</v>
       </c>
       <c r="E49" s="3">
-        <v>23875400</v>
+        <v>24149300</v>
       </c>
       <c r="F49" s="3">
-        <v>11335700</v>
+        <v>11465700</v>
       </c>
       <c r="G49" s="3">
-        <v>10770200</v>
+        <v>10893700</v>
       </c>
       <c r="H49" s="3">
-        <v>10461900</v>
+        <v>10581900</v>
       </c>
       <c r="I49" s="3">
-        <v>8793600</v>
+        <v>8894500</v>
       </c>
       <c r="J49" s="3">
-        <v>7814900</v>
+        <v>7904500</v>
       </c>
       <c r="K49" s="3">
         <v>7439800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>534300</v>
+        <v>540400</v>
       </c>
       <c r="E52" s="3">
-        <v>640800</v>
+        <v>648200</v>
       </c>
       <c r="F52" s="3">
-        <v>334900</v>
+        <v>338700</v>
       </c>
       <c r="G52" s="3">
-        <v>423900</v>
+        <v>428800</v>
       </c>
       <c r="H52" s="3">
-        <v>379800</v>
+        <v>384100</v>
       </c>
       <c r="I52" s="3">
-        <v>216100</v>
+        <v>218600</v>
       </c>
       <c r="J52" s="3">
-        <v>366800</v>
+        <v>371100</v>
       </c>
       <c r="K52" s="3">
         <v>97100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28910000</v>
+        <v>29241600</v>
       </c>
       <c r="E54" s="3">
-        <v>25159400</v>
+        <v>25447900</v>
       </c>
       <c r="F54" s="3">
-        <v>23634100</v>
+        <v>23905200</v>
       </c>
       <c r="G54" s="3">
-        <v>21104300</v>
+        <v>21346300</v>
       </c>
       <c r="H54" s="3">
-        <v>20097300</v>
+        <v>20327900</v>
       </c>
       <c r="I54" s="3">
-        <v>17670200</v>
+        <v>17872900</v>
       </c>
       <c r="J54" s="3">
-        <v>16412100</v>
+        <v>16600400</v>
       </c>
       <c r="K54" s="3">
         <v>15390800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>678900</v>
+        <v>686700</v>
       </c>
       <c r="E57" s="3">
-        <v>522100</v>
+        <v>528100</v>
       </c>
       <c r="F57" s="3">
-        <v>545700</v>
+        <v>552000</v>
       </c>
       <c r="G57" s="3">
-        <v>439900</v>
+        <v>445000</v>
       </c>
       <c r="H57" s="3">
-        <v>362300</v>
+        <v>366400</v>
       </c>
       <c r="I57" s="3">
-        <v>348600</v>
+        <v>352600</v>
       </c>
       <c r="J57" s="3">
-        <v>348600</v>
+        <v>352600</v>
       </c>
       <c r="K57" s="3">
         <v>353100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1089900</v>
+        <v>1102400</v>
       </c>
       <c r="E58" s="3">
-        <v>712400</v>
+        <v>720600</v>
       </c>
       <c r="F58" s="3">
-        <v>1144700</v>
+        <v>1157800</v>
       </c>
       <c r="G58" s="3">
-        <v>1086100</v>
+        <v>1098500</v>
       </c>
       <c r="H58" s="3">
-        <v>727600</v>
+        <v>735900</v>
       </c>
       <c r="I58" s="3">
-        <v>270200</v>
+        <v>273300</v>
       </c>
       <c r="J58" s="3">
-        <v>304400</v>
+        <v>307900</v>
       </c>
       <c r="K58" s="3">
         <v>712900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2888300</v>
+        <v>2921500</v>
       </c>
       <c r="E59" s="3">
-        <v>2949200</v>
+        <v>2983100</v>
       </c>
       <c r="F59" s="3">
-        <v>2145500</v>
+        <v>2170100</v>
       </c>
       <c r="G59" s="3">
-        <v>2242200</v>
+        <v>2267900</v>
       </c>
       <c r="H59" s="3">
-        <v>2164500</v>
+        <v>2189400</v>
       </c>
       <c r="I59" s="3">
-        <v>2044300</v>
+        <v>2067700</v>
       </c>
       <c r="J59" s="3">
-        <v>1857800</v>
+        <v>1879100</v>
       </c>
       <c r="K59" s="3">
         <v>1583900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4242300</v>
+        <v>4291000</v>
       </c>
       <c r="E60" s="3">
-        <v>3686700</v>
+        <v>3729000</v>
       </c>
       <c r="F60" s="3">
-        <v>3835900</v>
+        <v>3879900</v>
       </c>
       <c r="G60" s="3">
-        <v>3768200</v>
+        <v>3811400</v>
       </c>
       <c r="H60" s="3">
-        <v>3254400</v>
+        <v>3291800</v>
       </c>
       <c r="I60" s="3">
-        <v>2663100</v>
+        <v>2693600</v>
       </c>
       <c r="J60" s="3">
-        <v>2510800</v>
+        <v>2539600</v>
       </c>
       <c r="K60" s="3">
         <v>2649800</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13046600</v>
+        <v>13196300</v>
       </c>
       <c r="E61" s="3">
-        <v>10095900</v>
+        <v>10211700</v>
       </c>
       <c r="F61" s="3">
-        <v>9327900</v>
+        <v>9434900</v>
       </c>
       <c r="G61" s="3">
-        <v>8831700</v>
+        <v>8933000</v>
       </c>
       <c r="H61" s="3">
-        <v>8510500</v>
+        <v>8608100</v>
       </c>
       <c r="I61" s="3">
-        <v>6891700</v>
+        <v>6970700</v>
       </c>
       <c r="J61" s="3">
-        <v>5702800</v>
+        <v>5768300</v>
       </c>
       <c r="K61" s="3">
         <v>4299200</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3567200</v>
+        <v>3608100</v>
       </c>
       <c r="E62" s="3">
-        <v>4125100</v>
+        <v>4172400</v>
       </c>
       <c r="F62" s="3">
-        <v>3271900</v>
+        <v>3309500</v>
       </c>
       <c r="G62" s="3">
-        <v>2464400</v>
+        <v>2492700</v>
       </c>
       <c r="H62" s="3">
-        <v>2493300</v>
+        <v>2521900</v>
       </c>
       <c r="I62" s="3">
-        <v>2442300</v>
+        <v>2470400</v>
       </c>
       <c r="J62" s="3">
-        <v>2099800</v>
+        <v>2123900</v>
       </c>
       <c r="K62" s="3">
         <v>2655800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20882000</v>
+        <v>21121600</v>
       </c>
       <c r="E66" s="3">
-        <v>17351300</v>
+        <v>17550400</v>
       </c>
       <c r="F66" s="3">
-        <v>16467700</v>
+        <v>16656600</v>
       </c>
       <c r="G66" s="3">
-        <v>15078700</v>
+        <v>15251700</v>
       </c>
       <c r="H66" s="3">
-        <v>14258300</v>
+        <v>14421800</v>
       </c>
       <c r="I66" s="3">
-        <v>11997100</v>
+        <v>12134700</v>
       </c>
       <c r="J66" s="3">
-        <v>10313500</v>
+        <v>10431800</v>
       </c>
       <c r="K66" s="3">
         <v>9604800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3326700</v>
+        <v>3364900</v>
       </c>
       <c r="E72" s="3">
-        <v>3405100</v>
+        <v>3444200</v>
       </c>
       <c r="F72" s="3">
-        <v>2887600</v>
+        <v>2920700</v>
       </c>
       <c r="G72" s="3">
-        <v>1882900</v>
+        <v>1904500</v>
       </c>
       <c r="H72" s="3">
-        <v>1847900</v>
+        <v>1869100</v>
       </c>
       <c r="I72" s="3">
-        <v>1598300</v>
+        <v>1616600</v>
       </c>
       <c r="J72" s="3">
-        <v>1932400</v>
+        <v>1954600</v>
       </c>
       <c r="K72" s="3">
         <v>1433300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8028000</v>
+        <v>8120100</v>
       </c>
       <c r="E76" s="3">
-        <v>7808000</v>
+        <v>7897600</v>
       </c>
       <c r="F76" s="3">
-        <v>7166400</v>
+        <v>7248600</v>
       </c>
       <c r="G76" s="3">
-        <v>6025500</v>
+        <v>6094700</v>
       </c>
       <c r="H76" s="3">
-        <v>5839100</v>
+        <v>5906100</v>
       </c>
       <c r="I76" s="3">
-        <v>5673200</v>
+        <v>5738200</v>
       </c>
       <c r="J76" s="3">
-        <v>6100100</v>
+        <v>6170100</v>
       </c>
       <c r="K76" s="3">
         <v>5785900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1328900</v>
+        <v>1344100</v>
       </c>
       <c r="E81" s="3">
-        <v>1217700</v>
+        <v>1231700</v>
       </c>
       <c r="F81" s="3">
-        <v>1186500</v>
+        <v>1200100</v>
       </c>
       <c r="G81" s="3">
-        <v>930800</v>
+        <v>941500</v>
       </c>
       <c r="H81" s="3">
-        <v>1051800</v>
+        <v>1063900</v>
       </c>
       <c r="I81" s="3">
-        <v>1084600</v>
+        <v>1097000</v>
       </c>
       <c r="J81" s="3">
-        <v>984900</v>
+        <v>996100</v>
       </c>
       <c r="K81" s="3">
         <v>906400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1961300</v>
+        <v>1983800</v>
       </c>
       <c r="E83" s="3">
-        <v>1725400</v>
+        <v>1745200</v>
       </c>
       <c r="F83" s="3">
-        <v>1650800</v>
+        <v>1669700</v>
       </c>
       <c r="G83" s="3">
-        <v>1558000</v>
+        <v>1575800</v>
       </c>
       <c r="H83" s="3">
-        <v>1452900</v>
+        <v>1469600</v>
       </c>
       <c r="I83" s="3">
-        <v>1395800</v>
+        <v>1411800</v>
       </c>
       <c r="J83" s="3">
-        <v>1372200</v>
+        <v>1388000</v>
       </c>
       <c r="K83" s="3">
         <v>1404000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2988800</v>
+        <v>3023100</v>
       </c>
       <c r="E89" s="3">
-        <v>3088500</v>
+        <v>3123900</v>
       </c>
       <c r="F89" s="3">
-        <v>3004000</v>
+        <v>3038500</v>
       </c>
       <c r="G89" s="3">
-        <v>2449900</v>
+        <v>2478100</v>
       </c>
       <c r="H89" s="3">
-        <v>2706400</v>
+        <v>2737500</v>
       </c>
       <c r="I89" s="3">
-        <v>2593000</v>
+        <v>2622800</v>
       </c>
       <c r="J89" s="3">
-        <v>2470500</v>
+        <v>2498800</v>
       </c>
       <c r="K89" s="3">
         <v>2423200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2109700</v>
+        <v>-2133900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1813700</v>
+        <v>-1834500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1892100</v>
+        <v>-1913800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1794700</v>
+        <v>-1815200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1557200</v>
+        <v>-1575100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1459800</v>
+        <v>-1476500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1252000</v>
+        <v>-1266400</v>
       </c>
       <c r="K91" s="3">
         <v>-2644600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3838900</v>
+        <v>-3883000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2265800</v>
+        <v>-2291800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2772700</v>
+        <v>-2804500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2224700</v>
+        <v>-2250200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3407400</v>
+        <v>-3446500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2791700</v>
+        <v>-2823700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1818200</v>
+        <v>-1839100</v>
       </c>
       <c r="K94" s="3">
         <v>-1549200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-874500</v>
+        <v>-884500</v>
       </c>
       <c r="E96" s="3">
-        <v>-868400</v>
+        <v>-878400</v>
       </c>
       <c r="F96" s="3">
-        <v>-823500</v>
+        <v>-832900</v>
       </c>
       <c r="G96" s="3">
-        <v>-814400</v>
+        <v>-823700</v>
       </c>
       <c r="H96" s="3">
-        <v>-755000</v>
+        <v>-763700</v>
       </c>
       <c r="I96" s="3">
-        <v>-694900</v>
+        <v>-702800</v>
       </c>
       <c r="J96" s="3">
-        <v>-648400</v>
+        <v>-655900</v>
       </c>
       <c r="K96" s="3">
         <v>-582700</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>942200</v>
+        <v>953000</v>
       </c>
       <c r="E100" s="3">
-        <v>-895000</v>
+        <v>-905300</v>
       </c>
       <c r="F100" s="3">
-        <v>-172800</v>
+        <v>-174700</v>
       </c>
       <c r="G100" s="3">
-        <v>-66200</v>
+        <v>-67000</v>
       </c>
       <c r="H100" s="3">
-        <v>825000</v>
+        <v>834500</v>
       </c>
       <c r="I100" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="J100" s="3">
-        <v>-478000</v>
+        <v>-483400</v>
       </c>
       <c r="K100" s="3">
         <v>-828100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>92100</v>
+        <v>93100</v>
       </c>
       <c r="E102" s="3">
-        <v>-72300</v>
+        <v>-73100</v>
       </c>
       <c r="F102" s="3">
-        <v>58600</v>
+        <v>59300</v>
       </c>
       <c r="G102" s="3">
-        <v>159100</v>
+        <v>160900</v>
       </c>
       <c r="H102" s="3">
-        <v>124100</v>
+        <v>125500</v>
       </c>
       <c r="I102" s="3">
-        <v>-210100</v>
+        <v>-212500</v>
       </c>
       <c r="J102" s="3">
-        <v>174300</v>
+        <v>176300</v>
       </c>
       <c r="K102" s="3">
         <v>45900</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>TU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11230900</v>
+        <v>12165700</v>
       </c>
       <c r="E8" s="3">
-        <v>10850600</v>
+        <v>11569400</v>
       </c>
       <c r="F8" s="3">
-        <v>10242500</v>
+        <v>11177600</v>
       </c>
       <c r="G8" s="3">
-        <v>9796000</v>
+        <v>10551100</v>
       </c>
       <c r="H8" s="3">
-        <v>9568900</v>
+        <v>10091200</v>
       </c>
       <c r="I8" s="3">
-        <v>9181600</v>
+        <v>9857200</v>
       </c>
       <c r="J8" s="3">
+        <v>9458300</v>
+      </c>
+      <c r="K8" s="3">
         <v>8726700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8169300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7932000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4622800</v>
+        <v>4812000</v>
       </c>
       <c r="E9" s="3">
-        <v>4902200</v>
+        <v>4762100</v>
       </c>
       <c r="F9" s="3">
-        <v>4545000</v>
+        <v>5050000</v>
       </c>
       <c r="G9" s="3">
-        <v>4334900</v>
+        <v>4682000</v>
       </c>
       <c r="H9" s="3">
-        <v>4258600</v>
+        <v>4465500</v>
       </c>
       <c r="I9" s="3">
-        <v>4079300</v>
+        <v>4387000</v>
       </c>
       <c r="J9" s="3">
+        <v>4202200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3819800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3628400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3630700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6608100</v>
+        <v>7353700</v>
       </c>
       <c r="E10" s="3">
-        <v>5948400</v>
+        <v>6807300</v>
       </c>
       <c r="F10" s="3">
-        <v>5697400</v>
+        <v>6127700</v>
       </c>
       <c r="G10" s="3">
-        <v>5461100</v>
+        <v>5869100</v>
       </c>
       <c r="H10" s="3">
-        <v>5310200</v>
+        <v>5625700</v>
       </c>
       <c r="I10" s="3">
-        <v>5102400</v>
+        <v>5470300</v>
       </c>
       <c r="J10" s="3">
+        <v>5256100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4906800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4540800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4301300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>98500</v>
+        <v>165700</v>
       </c>
       <c r="E14" s="3">
-        <v>97000</v>
+        <v>101500</v>
       </c>
       <c r="F14" s="3">
-        <v>20000</v>
+        <v>99900</v>
       </c>
       <c r="G14" s="3">
-        <v>86200</v>
+        <v>20600</v>
       </c>
       <c r="H14" s="3">
-        <v>120100</v>
+        <v>88800</v>
       </c>
       <c r="I14" s="3">
-        <v>41600</v>
+        <v>123700</v>
       </c>
       <c r="J14" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K14" s="3">
         <v>54700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1983800</v>
+        <v>2388600</v>
       </c>
       <c r="E15" s="3">
-        <v>1745200</v>
+        <v>2043600</v>
       </c>
       <c r="F15" s="3">
-        <v>1669700</v>
+        <v>1797800</v>
       </c>
       <c r="G15" s="3">
-        <v>1575800</v>
+        <v>1720100</v>
       </c>
       <c r="H15" s="3">
-        <v>1469600</v>
+        <v>1623300</v>
       </c>
       <c r="I15" s="3">
-        <v>1411800</v>
+        <v>1513900</v>
       </c>
       <c r="J15" s="3">
+        <v>1454400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1388000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1404000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1390500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8939100</v>
+        <v>10197400</v>
       </c>
       <c r="E17" s="3">
-        <v>8666600</v>
+        <v>9208500</v>
       </c>
       <c r="F17" s="3">
-        <v>8132400</v>
+        <v>8927800</v>
       </c>
       <c r="G17" s="3">
-        <v>8116200</v>
+        <v>8377500</v>
       </c>
       <c r="H17" s="3">
-        <v>7757500</v>
+        <v>8360800</v>
       </c>
       <c r="I17" s="3">
-        <v>7231700</v>
+        <v>7991300</v>
       </c>
       <c r="J17" s="3">
+        <v>7449600</v>
+      </c>
+      <c r="K17" s="3">
         <v>7336400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6956500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6420100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2291800</v>
+        <v>1968300</v>
       </c>
       <c r="E18" s="3">
-        <v>2184000</v>
+        <v>2360800</v>
       </c>
       <c r="F18" s="3">
-        <v>2110100</v>
+        <v>2249800</v>
       </c>
       <c r="G18" s="3">
-        <v>1679700</v>
+        <v>2173700</v>
       </c>
       <c r="H18" s="3">
-        <v>1811400</v>
+        <v>1730400</v>
       </c>
       <c r="I18" s="3">
-        <v>1950000</v>
+        <v>1866000</v>
       </c>
       <c r="J18" s="3">
+        <v>2008700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1390300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1212700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1511900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36200</v>
+        <v>-45200</v>
       </c>
       <c r="E20" s="3">
-        <v>-43900</v>
+        <v>-37300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5400</v>
+        <v>-45200</v>
       </c>
       <c r="G20" s="3">
-        <v>-23100</v>
+        <v>-5600</v>
       </c>
       <c r="H20" s="3">
-        <v>8500</v>
+        <v>-23800</v>
       </c>
       <c r="I20" s="3">
-        <v>-130100</v>
+        <v>8700</v>
       </c>
       <c r="J20" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="K20" s="3">
         <v>257100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>270300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4235900</v>
+        <v>4318300</v>
       </c>
       <c r="E21" s="3">
-        <v>3882200</v>
+        <v>4372900</v>
       </c>
       <c r="F21" s="3">
-        <v>3771500</v>
+        <v>4007400</v>
       </c>
       <c r="G21" s="3">
-        <v>3229700</v>
+        <v>3893000</v>
       </c>
       <c r="H21" s="3">
-        <v>3286800</v>
+        <v>3334400</v>
       </c>
       <c r="I21" s="3">
-        <v>3229200</v>
+        <v>3392800</v>
       </c>
       <c r="J21" s="3">
+        <v>3333200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3032900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2887600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2915200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>528100</v>
+        <v>566200</v>
       </c>
       <c r="E22" s="3">
-        <v>465000</v>
+        <v>544000</v>
       </c>
       <c r="F22" s="3">
-        <v>435700</v>
+        <v>479000</v>
       </c>
       <c r="G22" s="3">
-        <v>377200</v>
+        <v>448800</v>
       </c>
       <c r="H22" s="3">
-        <v>352600</v>
+        <v>388600</v>
       </c>
       <c r="I22" s="3">
-        <v>337200</v>
+        <v>363200</v>
       </c>
       <c r="J22" s="3">
+        <v>347300</v>
+      </c>
+      <c r="K22" s="3">
         <v>286400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>263500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>295800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1727500</v>
+        <v>1356900</v>
       </c>
       <c r="E23" s="3">
-        <v>1675100</v>
+        <v>1779500</v>
       </c>
       <c r="F23" s="3">
-        <v>1669000</v>
+        <v>1725600</v>
       </c>
       <c r="G23" s="3">
-        <v>1279400</v>
+        <v>1719300</v>
       </c>
       <c r="H23" s="3">
-        <v>1467300</v>
+        <v>1318000</v>
       </c>
       <c r="I23" s="3">
-        <v>1482700</v>
+        <v>1511500</v>
       </c>
       <c r="J23" s="3">
+        <v>1527400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1361000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1219500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1222300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>360300</v>
+        <v>357700</v>
       </c>
       <c r="E24" s="3">
-        <v>424900</v>
+        <v>371100</v>
       </c>
       <c r="F24" s="3">
-        <v>454200</v>
+        <v>437700</v>
       </c>
       <c r="G24" s="3">
-        <v>327900</v>
+        <v>467900</v>
       </c>
       <c r="H24" s="3">
-        <v>403400</v>
+        <v>337800</v>
       </c>
       <c r="I24" s="3">
-        <v>385700</v>
+        <v>415500</v>
       </c>
       <c r="J24" s="3">
+        <v>397300</v>
+      </c>
+      <c r="K24" s="3">
         <v>364900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>313200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>288900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1367200</v>
+        <v>999200</v>
       </c>
       <c r="E26" s="3">
-        <v>1250200</v>
+        <v>1408400</v>
       </c>
       <c r="F26" s="3">
-        <v>1214800</v>
+        <v>1287900</v>
       </c>
       <c r="G26" s="3">
-        <v>951500</v>
+        <v>1251400</v>
       </c>
       <c r="H26" s="3">
-        <v>1063900</v>
+        <v>980200</v>
       </c>
       <c r="I26" s="3">
-        <v>1097000</v>
+        <v>1096000</v>
       </c>
       <c r="J26" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="K26" s="3">
         <v>996100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>906400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>933400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1344100</v>
+        <v>957200</v>
       </c>
       <c r="E27" s="3">
-        <v>1231700</v>
+        <v>1384600</v>
       </c>
       <c r="F27" s="3">
-        <v>1200100</v>
+        <v>1268800</v>
       </c>
       <c r="G27" s="3">
-        <v>941500</v>
+        <v>1236300</v>
       </c>
       <c r="H27" s="3">
-        <v>1063900</v>
+        <v>969900</v>
       </c>
       <c r="I27" s="3">
-        <v>1097000</v>
+        <v>1096000</v>
       </c>
       <c r="J27" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="K27" s="3">
         <v>996100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>906400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>936500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36200</v>
+        <v>45200</v>
       </c>
       <c r="E32" s="3">
-        <v>43900</v>
+        <v>37300</v>
       </c>
       <c r="F32" s="3">
-        <v>5400</v>
+        <v>45200</v>
       </c>
       <c r="G32" s="3">
-        <v>23100</v>
+        <v>5600</v>
       </c>
       <c r="H32" s="3">
-        <v>-8500</v>
+        <v>23800</v>
       </c>
       <c r="I32" s="3">
-        <v>130100</v>
+        <v>-8700</v>
       </c>
       <c r="J32" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-257100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-270300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1344100</v>
+        <v>957200</v>
       </c>
       <c r="E33" s="3">
-        <v>1231700</v>
+        <v>1384600</v>
       </c>
       <c r="F33" s="3">
-        <v>1200100</v>
+        <v>1268800</v>
       </c>
       <c r="G33" s="3">
-        <v>941500</v>
+        <v>1236300</v>
       </c>
       <c r="H33" s="3">
-        <v>1063900</v>
+        <v>969900</v>
       </c>
       <c r="I33" s="3">
-        <v>1097000</v>
+        <v>1096000</v>
       </c>
       <c r="J33" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="K33" s="3">
         <v>996100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>906400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>936500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1344100</v>
+        <v>957200</v>
       </c>
       <c r="E35" s="3">
-        <v>1231700</v>
+        <v>1384600</v>
       </c>
       <c r="F35" s="3">
-        <v>1200100</v>
+        <v>1268800</v>
       </c>
       <c r="G35" s="3">
-        <v>941500</v>
+        <v>1236300</v>
       </c>
       <c r="H35" s="3">
-        <v>1063900</v>
+        <v>969900</v>
       </c>
       <c r="I35" s="3">
-        <v>1097000</v>
+        <v>1096000</v>
       </c>
       <c r="J35" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="K35" s="3">
         <v>996100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>906400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>936500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>411900</v>
+        <v>672500</v>
       </c>
       <c r="E41" s="3">
-        <v>318700</v>
+        <v>424300</v>
       </c>
       <c r="F41" s="3">
-        <v>391800</v>
+        <v>328300</v>
       </c>
       <c r="G41" s="3">
-        <v>332600</v>
+        <v>403600</v>
       </c>
       <c r="H41" s="3">
-        <v>171700</v>
+        <v>342600</v>
       </c>
       <c r="I41" s="3">
-        <v>46200</v>
+        <v>176800</v>
       </c>
       <c r="J41" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K41" s="3">
         <v>258700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2175500</v>
+        <v>2333100</v>
       </c>
       <c r="E43" s="3">
-        <v>1896100</v>
+        <v>2241100</v>
       </c>
       <c r="F43" s="3">
-        <v>1899100</v>
+        <v>1953200</v>
       </c>
       <c r="G43" s="3">
-        <v>1139300</v>
+        <v>1956400</v>
       </c>
       <c r="H43" s="3">
-        <v>1100100</v>
+        <v>1173700</v>
       </c>
       <c r="I43" s="3">
-        <v>1216300</v>
+        <v>1133200</v>
       </c>
       <c r="J43" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1149300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1178900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1147700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>336400</v>
+        <v>322800</v>
       </c>
       <c r="E44" s="3">
-        <v>289500</v>
+        <v>346500</v>
       </c>
       <c r="F44" s="3">
-        <v>292500</v>
+        <v>298200</v>
       </c>
       <c r="G44" s="3">
-        <v>244800</v>
+        <v>301300</v>
       </c>
       <c r="H44" s="3">
-        <v>277100</v>
+        <v>252200</v>
       </c>
       <c r="I44" s="3">
-        <v>246300</v>
+        <v>285500</v>
       </c>
       <c r="J44" s="3">
+        <v>253800</v>
+      </c>
+      <c r="K44" s="3">
         <v>251000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>263500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>271200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>427300</v>
+        <v>385400</v>
       </c>
       <c r="E45" s="3">
-        <v>452700</v>
+        <v>440100</v>
       </c>
       <c r="F45" s="3">
-        <v>393400</v>
+        <v>466300</v>
       </c>
       <c r="G45" s="3">
-        <v>187800</v>
+        <v>405200</v>
       </c>
       <c r="H45" s="3">
-        <v>245600</v>
+        <v>193500</v>
       </c>
       <c r="I45" s="3">
-        <v>174000</v>
+        <v>253000</v>
       </c>
       <c r="J45" s="3">
+        <v>179200</v>
+      </c>
+      <c r="K45" s="3">
         <v>133900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>140800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>121400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3351000</v>
+        <v>3713700</v>
       </c>
       <c r="E46" s="3">
-        <v>2956900</v>
+        <v>3452000</v>
       </c>
       <c r="F46" s="3">
-        <v>2976900</v>
+        <v>3046000</v>
       </c>
       <c r="G46" s="3">
-        <v>1904500</v>
+        <v>3066600</v>
       </c>
       <c r="H46" s="3">
-        <v>1794500</v>
+        <v>1961900</v>
       </c>
       <c r="I46" s="3">
-        <v>1682800</v>
+        <v>1848500</v>
       </c>
       <c r="J46" s="3">
+        <v>1733500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1792900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1663700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1575600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>419600</v>
+        <v>831900</v>
       </c>
       <c r="E47" s="3">
-        <v>463400</v>
+        <v>432200</v>
       </c>
       <c r="F47" s="3">
-        <v>372600</v>
+        <v>477400</v>
       </c>
       <c r="G47" s="3">
-        <v>63900</v>
+        <v>383800</v>
       </c>
       <c r="H47" s="3">
-        <v>72400</v>
+        <v>65800</v>
       </c>
       <c r="I47" s="3">
-        <v>53900</v>
+        <v>74500</v>
       </c>
       <c r="J47" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K47" s="3">
         <v>45400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>43700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10956100</v>
+        <v>11906400</v>
       </c>
       <c r="E48" s="3">
-        <v>18615800</v>
+        <v>11286300</v>
       </c>
       <c r="F48" s="3">
-        <v>8751300</v>
+        <v>19176800</v>
       </c>
       <c r="G48" s="3">
-        <v>8055400</v>
+        <v>9015100</v>
       </c>
       <c r="H48" s="3">
-        <v>7495000</v>
+        <v>8298200</v>
       </c>
       <c r="I48" s="3">
-        <v>7023100</v>
+        <v>7720800</v>
       </c>
       <c r="J48" s="3">
+        <v>7234700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6486500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6146500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6118200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13974500</v>
+        <v>17653400</v>
       </c>
       <c r="E49" s="3">
-        <v>24149300</v>
+        <v>14395700</v>
       </c>
       <c r="F49" s="3">
-        <v>11465700</v>
+        <v>24877000</v>
       </c>
       <c r="G49" s="3">
-        <v>10893700</v>
+        <v>11811200</v>
       </c>
       <c r="H49" s="3">
-        <v>10581900</v>
+        <v>11222000</v>
       </c>
       <c r="I49" s="3">
-        <v>8894500</v>
+        <v>10900900</v>
       </c>
       <c r="J49" s="3">
+        <v>9162600</v>
+      </c>
+      <c r="K49" s="3">
         <v>7904500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7439800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7539400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>540400</v>
+        <v>257700</v>
       </c>
       <c r="E52" s="3">
-        <v>648200</v>
+        <v>556700</v>
       </c>
       <c r="F52" s="3">
-        <v>338700</v>
+        <v>667700</v>
       </c>
       <c r="G52" s="3">
-        <v>428800</v>
+        <v>348900</v>
       </c>
       <c r="H52" s="3">
-        <v>384100</v>
+        <v>441700</v>
       </c>
       <c r="I52" s="3">
-        <v>218600</v>
+        <v>395700</v>
       </c>
       <c r="J52" s="3">
+        <v>225200</v>
+      </c>
+      <c r="K52" s="3">
         <v>371100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>97100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29241600</v>
+        <v>34363100</v>
       </c>
       <c r="E54" s="3">
-        <v>25447900</v>
+        <v>30122900</v>
       </c>
       <c r="F54" s="3">
-        <v>23905200</v>
+        <v>26214900</v>
       </c>
       <c r="G54" s="3">
-        <v>21346300</v>
+        <v>24625700</v>
       </c>
       <c r="H54" s="3">
-        <v>20327900</v>
+        <v>21989700</v>
       </c>
       <c r="I54" s="3">
-        <v>17872900</v>
+        <v>20940500</v>
       </c>
       <c r="J54" s="3">
+        <v>18411500</v>
+      </c>
+      <c r="K54" s="3">
         <v>16600400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15390800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15311600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>686700</v>
+        <v>678000</v>
       </c>
       <c r="E57" s="3">
-        <v>528100</v>
+        <v>707400</v>
       </c>
       <c r="F57" s="3">
-        <v>552000</v>
+        <v>544000</v>
       </c>
       <c r="G57" s="3">
-        <v>445000</v>
+        <v>568600</v>
       </c>
       <c r="H57" s="3">
-        <v>366400</v>
+        <v>458400</v>
       </c>
       <c r="I57" s="3">
+        <v>377500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>363200</v>
+      </c>
+      <c r="K57" s="3">
         <v>352600</v>
       </c>
-      <c r="J57" s="3">
-        <v>352600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>353100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>348000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1102400</v>
+        <v>1214900</v>
       </c>
       <c r="E58" s="3">
-        <v>720600</v>
+        <v>1135600</v>
       </c>
       <c r="F58" s="3">
-        <v>1157800</v>
+        <v>742300</v>
       </c>
       <c r="G58" s="3">
-        <v>1098500</v>
+        <v>1192700</v>
       </c>
       <c r="H58" s="3">
-        <v>735900</v>
+        <v>1131600</v>
       </c>
       <c r="I58" s="3">
-        <v>273300</v>
+        <v>758100</v>
       </c>
       <c r="J58" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K58" s="3">
         <v>307900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>712900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1129300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2921500</v>
+        <v>2793000</v>
       </c>
       <c r="E59" s="3">
-        <v>2983100</v>
+        <v>3009500</v>
       </c>
       <c r="F59" s="3">
-        <v>2170100</v>
+        <v>3073000</v>
       </c>
       <c r="G59" s="3">
-        <v>2267900</v>
+        <v>2235500</v>
       </c>
       <c r="H59" s="3">
-        <v>2189400</v>
+        <v>2336200</v>
       </c>
       <c r="I59" s="3">
-        <v>2067700</v>
+        <v>2255300</v>
       </c>
       <c r="J59" s="3">
+        <v>2130100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1879100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1583900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1476500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4291000</v>
+        <v>4686000</v>
       </c>
       <c r="E60" s="3">
-        <v>3729000</v>
+        <v>4420300</v>
       </c>
       <c r="F60" s="3">
-        <v>3879900</v>
+        <v>3841400</v>
       </c>
       <c r="G60" s="3">
-        <v>3811400</v>
+        <v>3996800</v>
       </c>
       <c r="H60" s="3">
-        <v>3291800</v>
+        <v>3926200</v>
       </c>
       <c r="I60" s="3">
-        <v>2693600</v>
+        <v>3391000</v>
       </c>
       <c r="J60" s="3">
+        <v>2774800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2539600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2649800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2953800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13196300</v>
+        <v>14953200</v>
       </c>
       <c r="E61" s="3">
-        <v>10211700</v>
+        <v>13593900</v>
       </c>
       <c r="F61" s="3">
-        <v>9434900</v>
+        <v>10519400</v>
       </c>
       <c r="G61" s="3">
-        <v>8933000</v>
+        <v>9719300</v>
       </c>
       <c r="H61" s="3">
-        <v>8608100</v>
+        <v>9202200</v>
       </c>
       <c r="I61" s="3">
-        <v>6970700</v>
+        <v>8867500</v>
       </c>
       <c r="J61" s="3">
+        <v>7180800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5768300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4299200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4231400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3608100</v>
+        <v>4730400</v>
       </c>
       <c r="E62" s="3">
-        <v>4172400</v>
+        <v>3716900</v>
       </c>
       <c r="F62" s="3">
-        <v>3309500</v>
+        <v>4298200</v>
       </c>
       <c r="G62" s="3">
-        <v>2492700</v>
+        <v>3409200</v>
       </c>
       <c r="H62" s="3">
-        <v>2521900</v>
+        <v>2567800</v>
       </c>
       <c r="I62" s="3">
-        <v>2470400</v>
+        <v>2597900</v>
       </c>
       <c r="J62" s="3">
+        <v>2544800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2123900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2655800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2354600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21121600</v>
+        <v>24788200</v>
       </c>
       <c r="E66" s="3">
-        <v>17550400</v>
+        <v>21758100</v>
       </c>
       <c r="F66" s="3">
-        <v>16656600</v>
+        <v>18079300</v>
       </c>
       <c r="G66" s="3">
-        <v>15251700</v>
+        <v>17158600</v>
       </c>
       <c r="H66" s="3">
-        <v>14421800</v>
+        <v>15711300</v>
       </c>
       <c r="I66" s="3">
-        <v>12134700</v>
+        <v>14856400</v>
       </c>
       <c r="J66" s="3">
+        <v>12500400</v>
+      </c>
+      <c r="K66" s="3">
         <v>10431800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9604800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9539900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3364900</v>
+        <v>2970700</v>
       </c>
       <c r="E72" s="3">
-        <v>3444200</v>
+        <v>3466300</v>
       </c>
       <c r="F72" s="3">
-        <v>2920700</v>
+        <v>3548000</v>
       </c>
       <c r="G72" s="3">
-        <v>1904500</v>
+        <v>3008700</v>
       </c>
       <c r="H72" s="3">
-        <v>1869100</v>
+        <v>1961900</v>
       </c>
       <c r="I72" s="3">
-        <v>1616600</v>
+        <v>1925500</v>
       </c>
       <c r="J72" s="3">
+        <v>1665300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1954600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1433300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1367400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8120100</v>
+        <v>9574900</v>
       </c>
       <c r="E76" s="3">
-        <v>7897600</v>
+        <v>8364800</v>
       </c>
       <c r="F76" s="3">
-        <v>7248600</v>
+        <v>8135600</v>
       </c>
       <c r="G76" s="3">
-        <v>6094700</v>
+        <v>7467100</v>
       </c>
       <c r="H76" s="3">
-        <v>5906100</v>
+        <v>6278300</v>
       </c>
       <c r="I76" s="3">
-        <v>5738200</v>
+        <v>6084000</v>
       </c>
       <c r="J76" s="3">
+        <v>5911200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6170100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5785900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5771700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1344100</v>
+        <v>957200</v>
       </c>
       <c r="E81" s="3">
-        <v>1231700</v>
+        <v>1384600</v>
       </c>
       <c r="F81" s="3">
-        <v>1200100</v>
+        <v>1268800</v>
       </c>
       <c r="G81" s="3">
-        <v>941500</v>
+        <v>1236300</v>
       </c>
       <c r="H81" s="3">
-        <v>1063900</v>
+        <v>969900</v>
       </c>
       <c r="I81" s="3">
-        <v>1097000</v>
+        <v>1096000</v>
       </c>
       <c r="J81" s="3">
+        <v>1130100</v>
+      </c>
+      <c r="K81" s="3">
         <v>996100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>906400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>936500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1983800</v>
+        <v>2388600</v>
       </c>
       <c r="E83" s="3">
-        <v>1745200</v>
+        <v>2043600</v>
       </c>
       <c r="F83" s="3">
-        <v>1669700</v>
+        <v>1797800</v>
       </c>
       <c r="G83" s="3">
-        <v>1575800</v>
+        <v>1720100</v>
       </c>
       <c r="H83" s="3">
-        <v>1469600</v>
+        <v>1623300</v>
       </c>
       <c r="I83" s="3">
-        <v>1411800</v>
+        <v>1513900</v>
       </c>
       <c r="J83" s="3">
+        <v>1454400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1388000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1404000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1390500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3023100</v>
+        <v>3627300</v>
       </c>
       <c r="E89" s="3">
-        <v>3123900</v>
+        <v>3114200</v>
       </c>
       <c r="F89" s="3">
-        <v>3038500</v>
+        <v>3218100</v>
       </c>
       <c r="G89" s="3">
-        <v>2478100</v>
+        <v>3130000</v>
       </c>
       <c r="H89" s="3">
-        <v>2737500</v>
+        <v>2552700</v>
       </c>
       <c r="I89" s="3">
-        <v>2622800</v>
+        <v>2820000</v>
       </c>
       <c r="J89" s="3">
+        <v>2701800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2498800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2423200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1959000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2133900</v>
+        <v>-2118900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1834500</v>
+        <v>-2198300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1913800</v>
+        <v>-1889800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1815200</v>
+        <v>-1971400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1575100</v>
+        <v>-1869900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1476500</v>
+        <v>-1622500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1521000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1266400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2644600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1418900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3883000</v>
+        <v>-4889000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2291800</v>
+        <v>-4000000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2804500</v>
+        <v>-2360800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2250200</v>
+        <v>-2889000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3446500</v>
+        <v>-2318000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2823700</v>
+        <v>-3550400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2908800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1839100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1549200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1511900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-884500</v>
+        <v>-737500</v>
       </c>
       <c r="E96" s="3">
-        <v>-878400</v>
+        <v>-911200</v>
       </c>
       <c r="F96" s="3">
-        <v>-832900</v>
+        <v>-904800</v>
       </c>
       <c r="G96" s="3">
-        <v>-823700</v>
+        <v>-858000</v>
       </c>
       <c r="H96" s="3">
-        <v>-763700</v>
+        <v>-848500</v>
       </c>
       <c r="I96" s="3">
-        <v>-702800</v>
+        <v>-786700</v>
       </c>
       <c r="J96" s="3">
+        <v>-724000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-655900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-582700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-493200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>953000</v>
+        <v>1509900</v>
       </c>
       <c r="E100" s="3">
-        <v>-905300</v>
+        <v>981800</v>
       </c>
       <c r="F100" s="3">
-        <v>-174700</v>
+        <v>-932600</v>
       </c>
       <c r="G100" s="3">
-        <v>-67000</v>
+        <v>-180000</v>
       </c>
       <c r="H100" s="3">
-        <v>834500</v>
+        <v>-69000</v>
       </c>
       <c r="I100" s="3">
-        <v>-11500</v>
+        <v>859600</v>
       </c>
       <c r="J100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-483400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-828100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-424800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93100</v>
+        <v>248200</v>
       </c>
       <c r="E102" s="3">
-        <v>-73100</v>
+        <v>96000</v>
       </c>
       <c r="F102" s="3">
-        <v>59300</v>
+        <v>-75300</v>
       </c>
       <c r="G102" s="3">
-        <v>160900</v>
+        <v>61100</v>
       </c>
       <c r="H102" s="3">
-        <v>125500</v>
+        <v>165700</v>
       </c>
       <c r="I102" s="3">
-        <v>-212500</v>
+        <v>129300</v>
       </c>
       <c r="J102" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="K102" s="3">
         <v>176300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12165700</v>
+        <v>12718500</v>
       </c>
       <c r="E8" s="3">
-        <v>11569400</v>
+        <v>12095000</v>
       </c>
       <c r="F8" s="3">
-        <v>11177600</v>
+        <v>11685500</v>
       </c>
       <c r="G8" s="3">
-        <v>10551100</v>
+        <v>11030500</v>
       </c>
       <c r="H8" s="3">
-        <v>10091200</v>
+        <v>10549700</v>
       </c>
       <c r="I8" s="3">
-        <v>9857200</v>
+        <v>10305100</v>
       </c>
       <c r="J8" s="3">
-        <v>9458300</v>
+        <v>9888100</v>
       </c>
       <c r="K8" s="3">
         <v>8726700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4812000</v>
+        <v>5030700</v>
       </c>
       <c r="E9" s="3">
-        <v>4762100</v>
+        <v>4978400</v>
       </c>
       <c r="F9" s="3">
-        <v>5050000</v>
+        <v>5279400</v>
       </c>
       <c r="G9" s="3">
-        <v>4682000</v>
+        <v>4894700</v>
       </c>
       <c r="H9" s="3">
-        <v>4465500</v>
+        <v>4668400</v>
       </c>
       <c r="I9" s="3">
-        <v>4387000</v>
+        <v>4586300</v>
       </c>
       <c r="J9" s="3">
-        <v>4202200</v>
+        <v>4393100</v>
       </c>
       <c r="K9" s="3">
         <v>3819800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7353700</v>
+        <v>7687800</v>
       </c>
       <c r="E10" s="3">
-        <v>6807300</v>
+        <v>7116600</v>
       </c>
       <c r="F10" s="3">
-        <v>6127700</v>
+        <v>6406100</v>
       </c>
       <c r="G10" s="3">
-        <v>5869100</v>
+        <v>6135800</v>
       </c>
       <c r="H10" s="3">
-        <v>5625700</v>
+        <v>5881300</v>
       </c>
       <c r="I10" s="3">
-        <v>5470300</v>
+        <v>5718800</v>
       </c>
       <c r="J10" s="3">
-        <v>5256100</v>
+        <v>5494900</v>
       </c>
       <c r="K10" s="3">
         <v>4906800</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>165700</v>
+        <v>173300</v>
       </c>
       <c r="E14" s="3">
-        <v>101500</v>
+        <v>106100</v>
       </c>
       <c r="F14" s="3">
-        <v>99900</v>
+        <v>104500</v>
       </c>
       <c r="G14" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="H14" s="3">
-        <v>88800</v>
+        <v>92900</v>
       </c>
       <c r="I14" s="3">
-        <v>123700</v>
+        <v>129300</v>
       </c>
       <c r="J14" s="3">
-        <v>42800</v>
+        <v>44800</v>
       </c>
       <c r="K14" s="3">
         <v>54700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2388600</v>
+        <v>2497100</v>
       </c>
       <c r="E15" s="3">
-        <v>2043600</v>
+        <v>2136500</v>
       </c>
       <c r="F15" s="3">
-        <v>1797800</v>
+        <v>1879500</v>
       </c>
       <c r="G15" s="3">
-        <v>1720100</v>
+        <v>1798200</v>
       </c>
       <c r="H15" s="3">
-        <v>1623300</v>
+        <v>1697100</v>
       </c>
       <c r="I15" s="3">
-        <v>1513900</v>
+        <v>1582700</v>
       </c>
       <c r="J15" s="3">
-        <v>1454400</v>
+        <v>1520500</v>
       </c>
       <c r="K15" s="3">
         <v>1388000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10197400</v>
+        <v>10660800</v>
       </c>
       <c r="E17" s="3">
-        <v>9208500</v>
+        <v>9626900</v>
       </c>
       <c r="F17" s="3">
-        <v>8927800</v>
+        <v>9333400</v>
       </c>
       <c r="G17" s="3">
-        <v>8377500</v>
+        <v>8758100</v>
       </c>
       <c r="H17" s="3">
-        <v>8360800</v>
+        <v>8740700</v>
       </c>
       <c r="I17" s="3">
-        <v>7991300</v>
+        <v>8354300</v>
       </c>
       <c r="J17" s="3">
-        <v>7449600</v>
+        <v>7788100</v>
       </c>
       <c r="K17" s="3">
         <v>7336400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1968300</v>
+        <v>2057700</v>
       </c>
       <c r="E18" s="3">
-        <v>2360800</v>
+        <v>2468100</v>
       </c>
       <c r="F18" s="3">
-        <v>2249800</v>
+        <v>2352000</v>
       </c>
       <c r="G18" s="3">
-        <v>2173700</v>
+        <v>2272400</v>
       </c>
       <c r="H18" s="3">
-        <v>1730400</v>
+        <v>1809000</v>
       </c>
       <c r="I18" s="3">
-        <v>1866000</v>
+        <v>1950800</v>
       </c>
       <c r="J18" s="3">
-        <v>2008700</v>
+        <v>2100000</v>
       </c>
       <c r="K18" s="3">
         <v>1390300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45200</v>
+        <v>-47300</v>
       </c>
       <c r="E20" s="3">
-        <v>-37300</v>
+        <v>-39000</v>
       </c>
       <c r="F20" s="3">
-        <v>-45200</v>
+        <v>-47300</v>
       </c>
       <c r="G20" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="H20" s="3">
-        <v>-23800</v>
+        <v>-24900</v>
       </c>
       <c r="I20" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="J20" s="3">
-        <v>-134000</v>
+        <v>-140100</v>
       </c>
       <c r="K20" s="3">
         <v>257100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4318300</v>
+        <v>4512300</v>
       </c>
       <c r="E21" s="3">
-        <v>4372900</v>
+        <v>4569700</v>
       </c>
       <c r="F21" s="3">
-        <v>4007400</v>
+        <v>4187800</v>
       </c>
       <c r="G21" s="3">
-        <v>3893000</v>
+        <v>4068300</v>
       </c>
       <c r="H21" s="3">
-        <v>3334400</v>
+        <v>3484400</v>
       </c>
       <c r="I21" s="3">
-        <v>3392800</v>
+        <v>3545500</v>
       </c>
       <c r="J21" s="3">
-        <v>3333200</v>
+        <v>3483200</v>
       </c>
       <c r="K21" s="3">
         <v>3032900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>566200</v>
+        <v>591900</v>
       </c>
       <c r="E22" s="3">
-        <v>544000</v>
+        <v>568700</v>
       </c>
       <c r="F22" s="3">
-        <v>479000</v>
+        <v>500700</v>
       </c>
       <c r="G22" s="3">
-        <v>448800</v>
+        <v>469200</v>
       </c>
       <c r="H22" s="3">
-        <v>388600</v>
+        <v>406200</v>
       </c>
       <c r="I22" s="3">
-        <v>363200</v>
+        <v>379700</v>
       </c>
       <c r="J22" s="3">
-        <v>347300</v>
+        <v>363100</v>
       </c>
       <c r="K22" s="3">
         <v>286400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1356900</v>
+        <v>1418500</v>
       </c>
       <c r="E23" s="3">
-        <v>1779500</v>
+        <v>1860400</v>
       </c>
       <c r="F23" s="3">
-        <v>1725600</v>
+        <v>1804000</v>
       </c>
       <c r="G23" s="3">
-        <v>1719300</v>
+        <v>1797400</v>
       </c>
       <c r="H23" s="3">
-        <v>1318000</v>
+        <v>1377900</v>
       </c>
       <c r="I23" s="3">
-        <v>1511500</v>
+        <v>1580200</v>
       </c>
       <c r="J23" s="3">
-        <v>1527400</v>
+        <v>1596800</v>
       </c>
       <c r="K23" s="3">
         <v>1361000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>357700</v>
+        <v>373900</v>
       </c>
       <c r="E24" s="3">
-        <v>371100</v>
+        <v>388000</v>
       </c>
       <c r="F24" s="3">
-        <v>437700</v>
+        <v>457600</v>
       </c>
       <c r="G24" s="3">
-        <v>467900</v>
+        <v>489100</v>
       </c>
       <c r="H24" s="3">
-        <v>337800</v>
+        <v>353200</v>
       </c>
       <c r="I24" s="3">
-        <v>415500</v>
+        <v>434400</v>
       </c>
       <c r="J24" s="3">
-        <v>397300</v>
+        <v>415400</v>
       </c>
       <c r="K24" s="3">
         <v>364900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>999200</v>
+        <v>1044600</v>
       </c>
       <c r="E26" s="3">
-        <v>1408400</v>
+        <v>1472400</v>
       </c>
       <c r="F26" s="3">
-        <v>1287900</v>
+        <v>1346400</v>
       </c>
       <c r="G26" s="3">
-        <v>1251400</v>
+        <v>1308200</v>
       </c>
       <c r="H26" s="3">
-        <v>980200</v>
+        <v>1024700</v>
       </c>
       <c r="I26" s="3">
-        <v>1096000</v>
+        <v>1145700</v>
       </c>
       <c r="J26" s="3">
-        <v>1130100</v>
+        <v>1181400</v>
       </c>
       <c r="K26" s="3">
         <v>996100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>957200</v>
+        <v>1000700</v>
       </c>
       <c r="E27" s="3">
-        <v>1384600</v>
+        <v>1447500</v>
       </c>
       <c r="F27" s="3">
-        <v>1268800</v>
+        <v>1326500</v>
       </c>
       <c r="G27" s="3">
-        <v>1236300</v>
+        <v>1292500</v>
       </c>
       <c r="H27" s="3">
-        <v>969900</v>
+        <v>1013900</v>
       </c>
       <c r="I27" s="3">
-        <v>1096000</v>
+        <v>1145700</v>
       </c>
       <c r="J27" s="3">
-        <v>1130100</v>
+        <v>1181400</v>
       </c>
       <c r="K27" s="3">
         <v>996100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="E32" s="3">
-        <v>37300</v>
+        <v>39000</v>
       </c>
       <c r="F32" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="G32" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H32" s="3">
-        <v>23800</v>
+        <v>24900</v>
       </c>
       <c r="I32" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="J32" s="3">
-        <v>134000</v>
+        <v>140100</v>
       </c>
       <c r="K32" s="3">
         <v>-257100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>957200</v>
+        <v>1000700</v>
       </c>
       <c r="E33" s="3">
-        <v>1384600</v>
+        <v>1447500</v>
       </c>
       <c r="F33" s="3">
-        <v>1268800</v>
+        <v>1326500</v>
       </c>
       <c r="G33" s="3">
-        <v>1236300</v>
+        <v>1292500</v>
       </c>
       <c r="H33" s="3">
-        <v>969900</v>
+        <v>1013900</v>
       </c>
       <c r="I33" s="3">
-        <v>1096000</v>
+        <v>1145700</v>
       </c>
       <c r="J33" s="3">
-        <v>1130100</v>
+        <v>1181400</v>
       </c>
       <c r="K33" s="3">
         <v>996100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>957200</v>
+        <v>1000700</v>
       </c>
       <c r="E35" s="3">
-        <v>1384600</v>
+        <v>1447500</v>
       </c>
       <c r="F35" s="3">
-        <v>1268800</v>
+        <v>1326500</v>
       </c>
       <c r="G35" s="3">
-        <v>1236300</v>
+        <v>1292500</v>
       </c>
       <c r="H35" s="3">
-        <v>969900</v>
+        <v>1013900</v>
       </c>
       <c r="I35" s="3">
-        <v>1096000</v>
+        <v>1145700</v>
       </c>
       <c r="J35" s="3">
-        <v>1130100</v>
+        <v>1181400</v>
       </c>
       <c r="K35" s="3">
         <v>996100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>672500</v>
+        <v>703000</v>
       </c>
       <c r="E41" s="3">
-        <v>424300</v>
+        <v>443500</v>
       </c>
       <c r="F41" s="3">
-        <v>328300</v>
+        <v>343200</v>
       </c>
       <c r="G41" s="3">
-        <v>403600</v>
+        <v>422000</v>
       </c>
       <c r="H41" s="3">
-        <v>342600</v>
+        <v>358100</v>
       </c>
       <c r="I41" s="3">
-        <v>176800</v>
+        <v>184900</v>
       </c>
       <c r="J41" s="3">
-        <v>47600</v>
+        <v>49700</v>
       </c>
       <c r="K41" s="3">
         <v>258700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2333100</v>
+        <v>2439100</v>
       </c>
       <c r="E43" s="3">
-        <v>2241100</v>
+        <v>2342900</v>
       </c>
       <c r="F43" s="3">
-        <v>1953200</v>
+        <v>2042000</v>
       </c>
       <c r="G43" s="3">
-        <v>1956400</v>
+        <v>2045300</v>
       </c>
       <c r="H43" s="3">
-        <v>1173700</v>
+        <v>1227000</v>
       </c>
       <c r="I43" s="3">
-        <v>1133200</v>
+        <v>1184700</v>
       </c>
       <c r="J43" s="3">
-        <v>1253000</v>
+        <v>1309900</v>
       </c>
       <c r="K43" s="3">
         <v>1149300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>322800</v>
+        <v>337400</v>
       </c>
       <c r="E44" s="3">
-        <v>346500</v>
+        <v>362300</v>
       </c>
       <c r="F44" s="3">
-        <v>298200</v>
+        <v>311700</v>
       </c>
       <c r="G44" s="3">
-        <v>301300</v>
+        <v>315000</v>
       </c>
       <c r="H44" s="3">
-        <v>252200</v>
+        <v>263600</v>
       </c>
       <c r="I44" s="3">
-        <v>285500</v>
+        <v>298500</v>
       </c>
       <c r="J44" s="3">
-        <v>253800</v>
+        <v>265300</v>
       </c>
       <c r="K44" s="3">
         <v>251000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>385400</v>
+        <v>402900</v>
       </c>
       <c r="E45" s="3">
-        <v>440100</v>
+        <v>460100</v>
       </c>
       <c r="F45" s="3">
-        <v>466300</v>
+        <v>487500</v>
       </c>
       <c r="G45" s="3">
-        <v>405200</v>
+        <v>423600</v>
       </c>
       <c r="H45" s="3">
-        <v>193500</v>
+        <v>202300</v>
       </c>
       <c r="I45" s="3">
-        <v>253000</v>
+        <v>264500</v>
       </c>
       <c r="J45" s="3">
-        <v>179200</v>
+        <v>187400</v>
       </c>
       <c r="K45" s="3">
         <v>133900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3713700</v>
+        <v>3882400</v>
       </c>
       <c r="E46" s="3">
-        <v>3452000</v>
+        <v>3608900</v>
       </c>
       <c r="F46" s="3">
-        <v>3046000</v>
+        <v>3184400</v>
       </c>
       <c r="G46" s="3">
-        <v>3066600</v>
+        <v>3205900</v>
       </c>
       <c r="H46" s="3">
-        <v>1961900</v>
+        <v>2051100</v>
       </c>
       <c r="I46" s="3">
-        <v>1848500</v>
+        <v>1932500</v>
       </c>
       <c r="J46" s="3">
-        <v>1733500</v>
+        <v>1812300</v>
       </c>
       <c r="K46" s="3">
         <v>1792900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>831900</v>
+        <v>869700</v>
       </c>
       <c r="E47" s="3">
-        <v>432200</v>
+        <v>451800</v>
       </c>
       <c r="F47" s="3">
-        <v>477400</v>
+        <v>499100</v>
       </c>
       <c r="G47" s="3">
-        <v>383800</v>
+        <v>401300</v>
       </c>
       <c r="H47" s="3">
-        <v>65800</v>
+        <v>68800</v>
       </c>
       <c r="I47" s="3">
-        <v>74500</v>
+        <v>77900</v>
       </c>
       <c r="J47" s="3">
-        <v>55500</v>
+        <v>58000</v>
       </c>
       <c r="K47" s="3">
         <v>45400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11906400</v>
+        <v>12447400</v>
       </c>
       <c r="E48" s="3">
-        <v>11286300</v>
+        <v>11799000</v>
       </c>
       <c r="F48" s="3">
-        <v>19176800</v>
+        <v>20048100</v>
       </c>
       <c r="G48" s="3">
-        <v>9015100</v>
+        <v>9424600</v>
       </c>
       <c r="H48" s="3">
-        <v>8298200</v>
+        <v>8675200</v>
       </c>
       <c r="I48" s="3">
-        <v>7720800</v>
+        <v>8071600</v>
       </c>
       <c r="J48" s="3">
-        <v>7234700</v>
+        <v>7563400</v>
       </c>
       <c r="K48" s="3">
         <v>6486500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17653400</v>
+        <v>18455500</v>
       </c>
       <c r="E49" s="3">
-        <v>14395700</v>
+        <v>15049700</v>
       </c>
       <c r="F49" s="3">
-        <v>24877000</v>
+        <v>26007300</v>
       </c>
       <c r="G49" s="3">
-        <v>11811200</v>
+        <v>12347900</v>
       </c>
       <c r="H49" s="3">
-        <v>11222000</v>
+        <v>11731900</v>
       </c>
       <c r="I49" s="3">
-        <v>10900900</v>
+        <v>11396100</v>
       </c>
       <c r="J49" s="3">
-        <v>9162600</v>
+        <v>9578800</v>
       </c>
       <c r="K49" s="3">
         <v>7904500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>257700</v>
+        <v>269400</v>
       </c>
       <c r="E52" s="3">
-        <v>556700</v>
+        <v>582000</v>
       </c>
       <c r="F52" s="3">
-        <v>667700</v>
+        <v>698100</v>
       </c>
       <c r="G52" s="3">
-        <v>348900</v>
+        <v>364800</v>
       </c>
       <c r="H52" s="3">
-        <v>441700</v>
+        <v>461800</v>
       </c>
       <c r="I52" s="3">
-        <v>395700</v>
+        <v>413700</v>
       </c>
       <c r="J52" s="3">
-        <v>225200</v>
+        <v>235500</v>
       </c>
       <c r="K52" s="3">
         <v>371100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34363100</v>
+        <v>35924400</v>
       </c>
       <c r="E54" s="3">
-        <v>30122900</v>
+        <v>31491500</v>
       </c>
       <c r="F54" s="3">
-        <v>26214900</v>
+        <v>27405900</v>
       </c>
       <c r="G54" s="3">
-        <v>24625700</v>
+        <v>25744500</v>
       </c>
       <c r="H54" s="3">
-        <v>21989700</v>
+        <v>22988700</v>
       </c>
       <c r="I54" s="3">
-        <v>20940500</v>
+        <v>21891900</v>
       </c>
       <c r="J54" s="3">
-        <v>18411500</v>
+        <v>19248100</v>
       </c>
       <c r="K54" s="3">
         <v>16600400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>678000</v>
+        <v>708800</v>
       </c>
       <c r="E57" s="3">
-        <v>707400</v>
+        <v>739500</v>
       </c>
       <c r="F57" s="3">
-        <v>544000</v>
+        <v>568700</v>
       </c>
       <c r="G57" s="3">
-        <v>568600</v>
+        <v>594400</v>
       </c>
       <c r="H57" s="3">
-        <v>458400</v>
+        <v>479200</v>
       </c>
       <c r="I57" s="3">
-        <v>377500</v>
+        <v>394600</v>
       </c>
       <c r="J57" s="3">
-        <v>363200</v>
+        <v>379700</v>
       </c>
       <c r="K57" s="3">
         <v>352600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1214900</v>
+        <v>1270100</v>
       </c>
       <c r="E58" s="3">
-        <v>1135600</v>
+        <v>1187200</v>
       </c>
       <c r="F58" s="3">
-        <v>742300</v>
+        <v>776000</v>
       </c>
       <c r="G58" s="3">
-        <v>1192700</v>
+        <v>1246900</v>
       </c>
       <c r="H58" s="3">
-        <v>1131600</v>
+        <v>1183100</v>
       </c>
       <c r="I58" s="3">
-        <v>758100</v>
+        <v>792600</v>
       </c>
       <c r="J58" s="3">
-        <v>281500</v>
+        <v>294300</v>
       </c>
       <c r="K58" s="3">
         <v>307900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2793000</v>
+        <v>2919900</v>
       </c>
       <c r="E59" s="3">
-        <v>3009500</v>
+        <v>3146200</v>
       </c>
       <c r="F59" s="3">
-        <v>3073000</v>
+        <v>3212600</v>
       </c>
       <c r="G59" s="3">
-        <v>2235500</v>
+        <v>2337100</v>
       </c>
       <c r="H59" s="3">
-        <v>2336200</v>
+        <v>2442400</v>
       </c>
       <c r="I59" s="3">
-        <v>2255300</v>
+        <v>2357800</v>
       </c>
       <c r="J59" s="3">
-        <v>2130100</v>
+        <v>2226800</v>
       </c>
       <c r="K59" s="3">
         <v>1879100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4686000</v>
+        <v>4898900</v>
       </c>
       <c r="E60" s="3">
-        <v>4420300</v>
+        <v>4621100</v>
       </c>
       <c r="F60" s="3">
-        <v>3841400</v>
+        <v>4015900</v>
       </c>
       <c r="G60" s="3">
-        <v>3996800</v>
+        <v>4178400</v>
       </c>
       <c r="H60" s="3">
-        <v>3926200</v>
+        <v>4104600</v>
       </c>
       <c r="I60" s="3">
-        <v>3391000</v>
+        <v>3545000</v>
       </c>
       <c r="J60" s="3">
-        <v>2774800</v>
+        <v>2900800</v>
       </c>
       <c r="K60" s="3">
         <v>2539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14953200</v>
+        <v>15632600</v>
       </c>
       <c r="E61" s="3">
-        <v>13593900</v>
+        <v>14211600</v>
       </c>
       <c r="F61" s="3">
-        <v>10519400</v>
+        <v>10997300</v>
       </c>
       <c r="G61" s="3">
-        <v>9719300</v>
+        <v>10160800</v>
       </c>
       <c r="H61" s="3">
-        <v>9202200</v>
+        <v>9620300</v>
       </c>
       <c r="I61" s="3">
-        <v>8867500</v>
+        <v>9270400</v>
       </c>
       <c r="J61" s="3">
-        <v>7180800</v>
+        <v>7507000</v>
       </c>
       <c r="K61" s="3">
         <v>5768300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4730400</v>
+        <v>4945300</v>
       </c>
       <c r="E62" s="3">
-        <v>3716900</v>
+        <v>3885800</v>
       </c>
       <c r="F62" s="3">
-        <v>4298200</v>
+        <v>4493500</v>
       </c>
       <c r="G62" s="3">
-        <v>3409200</v>
+        <v>3564100</v>
       </c>
       <c r="H62" s="3">
-        <v>2567800</v>
+        <v>2684500</v>
       </c>
       <c r="I62" s="3">
-        <v>2597900</v>
+        <v>2716000</v>
       </c>
       <c r="J62" s="3">
-        <v>2544800</v>
+        <v>2660400</v>
       </c>
       <c r="K62" s="3">
         <v>2123900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24788200</v>
+        <v>25914400</v>
       </c>
       <c r="E66" s="3">
-        <v>21758100</v>
+        <v>22746600</v>
       </c>
       <c r="F66" s="3">
-        <v>18079300</v>
+        <v>18900700</v>
       </c>
       <c r="G66" s="3">
-        <v>17158600</v>
+        <v>17938200</v>
       </c>
       <c r="H66" s="3">
-        <v>15711300</v>
+        <v>16425100</v>
       </c>
       <c r="I66" s="3">
-        <v>14856400</v>
+        <v>15531400</v>
       </c>
       <c r="J66" s="3">
-        <v>12500400</v>
+        <v>13068300</v>
       </c>
       <c r="K66" s="3">
         <v>10431800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2970700</v>
+        <v>3105600</v>
       </c>
       <c r="E72" s="3">
-        <v>3466300</v>
+        <v>3623800</v>
       </c>
       <c r="F72" s="3">
-        <v>3548000</v>
+        <v>3709200</v>
       </c>
       <c r="G72" s="3">
-        <v>3008700</v>
+        <v>3145400</v>
       </c>
       <c r="H72" s="3">
-        <v>1961900</v>
+        <v>2051100</v>
       </c>
       <c r="I72" s="3">
-        <v>1925500</v>
+        <v>2012900</v>
       </c>
       <c r="J72" s="3">
-        <v>1665300</v>
+        <v>1741000</v>
       </c>
       <c r="K72" s="3">
         <v>1954600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9574900</v>
+        <v>10009900</v>
       </c>
       <c r="E76" s="3">
-        <v>8364800</v>
+        <v>8744800</v>
       </c>
       <c r="F76" s="3">
-        <v>8135600</v>
+        <v>8505200</v>
       </c>
       <c r="G76" s="3">
-        <v>7467100</v>
+        <v>7806300</v>
       </c>
       <c r="H76" s="3">
-        <v>6278300</v>
+        <v>6563600</v>
       </c>
       <c r="I76" s="3">
-        <v>6084000</v>
+        <v>6360500</v>
       </c>
       <c r="J76" s="3">
-        <v>5911200</v>
+        <v>6179700</v>
       </c>
       <c r="K76" s="3">
         <v>6170100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>957200</v>
+        <v>1000700</v>
       </c>
       <c r="E81" s="3">
-        <v>1384600</v>
+        <v>1447500</v>
       </c>
       <c r="F81" s="3">
-        <v>1268800</v>
+        <v>1326500</v>
       </c>
       <c r="G81" s="3">
-        <v>1236300</v>
+        <v>1292500</v>
       </c>
       <c r="H81" s="3">
-        <v>969900</v>
+        <v>1013900</v>
       </c>
       <c r="I81" s="3">
-        <v>1096000</v>
+        <v>1145700</v>
       </c>
       <c r="J81" s="3">
-        <v>1130100</v>
+        <v>1181400</v>
       </c>
       <c r="K81" s="3">
         <v>996100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2388600</v>
+        <v>2497100</v>
       </c>
       <c r="E83" s="3">
-        <v>2043600</v>
+        <v>2136500</v>
       </c>
       <c r="F83" s="3">
-        <v>1797800</v>
+        <v>1879500</v>
       </c>
       <c r="G83" s="3">
-        <v>1720100</v>
+        <v>1798200</v>
       </c>
       <c r="H83" s="3">
-        <v>1623300</v>
+        <v>1697100</v>
       </c>
       <c r="I83" s="3">
-        <v>1513900</v>
+        <v>1582700</v>
       </c>
       <c r="J83" s="3">
-        <v>1454400</v>
+        <v>1520500</v>
       </c>
       <c r="K83" s="3">
         <v>1388000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3627300</v>
+        <v>3792100</v>
       </c>
       <c r="E89" s="3">
-        <v>3114200</v>
+        <v>3255700</v>
       </c>
       <c r="F89" s="3">
-        <v>3218100</v>
+        <v>3364300</v>
       </c>
       <c r="G89" s="3">
-        <v>3130000</v>
+        <v>3272300</v>
       </c>
       <c r="H89" s="3">
-        <v>2552700</v>
+        <v>2668700</v>
       </c>
       <c r="I89" s="3">
-        <v>2820000</v>
+        <v>2948100</v>
       </c>
       <c r="J89" s="3">
-        <v>2701800</v>
+        <v>2824600</v>
       </c>
       <c r="K89" s="3">
         <v>2498800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2118900</v>
+        <v>-2215200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2198300</v>
+        <v>-2298100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1889800</v>
+        <v>-1975600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1971400</v>
+        <v>-2061000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1869900</v>
+        <v>-1954900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1622500</v>
+        <v>-1696200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1521000</v>
+        <v>-1590100</v>
       </c>
       <c r="K91" s="3">
         <v>-1266400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4889000</v>
+        <v>-5111100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4000000</v>
+        <v>-4181700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2360800</v>
+        <v>-2468100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2889000</v>
+        <v>-3020200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2318000</v>
+        <v>-2423300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3550400</v>
+        <v>-3711700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2908800</v>
+        <v>-3041000</v>
       </c>
       <c r="K94" s="3">
         <v>-1839100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-737500</v>
+        <v>-771000</v>
       </c>
       <c r="E96" s="3">
-        <v>-911200</v>
+        <v>-952600</v>
       </c>
       <c r="F96" s="3">
-        <v>-904800</v>
+        <v>-945900</v>
       </c>
       <c r="G96" s="3">
-        <v>-858000</v>
+        <v>-897000</v>
       </c>
       <c r="H96" s="3">
-        <v>-848500</v>
+        <v>-887100</v>
       </c>
       <c r="I96" s="3">
-        <v>-786700</v>
+        <v>-822400</v>
       </c>
       <c r="J96" s="3">
-        <v>-724000</v>
+        <v>-756900</v>
       </c>
       <c r="K96" s="3">
         <v>-655900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1509900</v>
+        <v>1578500</v>
       </c>
       <c r="E100" s="3">
-        <v>981800</v>
+        <v>1026400</v>
       </c>
       <c r="F100" s="3">
-        <v>-932600</v>
+        <v>-975000</v>
       </c>
       <c r="G100" s="3">
-        <v>-180000</v>
+        <v>-188200</v>
       </c>
       <c r="H100" s="3">
-        <v>-69000</v>
+        <v>-72100</v>
       </c>
       <c r="I100" s="3">
-        <v>859600</v>
+        <v>898700</v>
       </c>
       <c r="J100" s="3">
-        <v>-11900</v>
+        <v>-12400</v>
       </c>
       <c r="K100" s="3">
         <v>-483400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>248200</v>
+        <v>259500</v>
       </c>
       <c r="E102" s="3">
-        <v>96000</v>
+        <v>100300</v>
       </c>
       <c r="F102" s="3">
-        <v>-75300</v>
+        <v>-78800</v>
       </c>
       <c r="G102" s="3">
-        <v>61100</v>
+        <v>63800</v>
       </c>
       <c r="H102" s="3">
-        <v>165700</v>
+        <v>173300</v>
       </c>
       <c r="I102" s="3">
-        <v>129300</v>
+        <v>135100</v>
       </c>
       <c r="J102" s="3">
-        <v>-218900</v>
+        <v>-228800</v>
       </c>
       <c r="K102" s="3">
         <v>176300</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12718500</v>
+        <v>11960900</v>
       </c>
       <c r="E8" s="3">
-        <v>12095000</v>
+        <v>11374600</v>
       </c>
       <c r="F8" s="3">
-        <v>11685500</v>
+        <v>10989400</v>
       </c>
       <c r="G8" s="3">
-        <v>11030500</v>
+        <v>10373500</v>
       </c>
       <c r="H8" s="3">
-        <v>10549700</v>
+        <v>9921300</v>
       </c>
       <c r="I8" s="3">
-        <v>10305100</v>
+        <v>9691300</v>
       </c>
       <c r="J8" s="3">
-        <v>9888100</v>
+        <v>9299100</v>
       </c>
       <c r="K8" s="3">
         <v>8726700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5030700</v>
+        <v>4731000</v>
       </c>
       <c r="E9" s="3">
-        <v>4978400</v>
+        <v>4681900</v>
       </c>
       <c r="F9" s="3">
-        <v>5279400</v>
+        <v>4964900</v>
       </c>
       <c r="G9" s="3">
-        <v>4894700</v>
+        <v>4603200</v>
       </c>
       <c r="H9" s="3">
-        <v>4668400</v>
+        <v>4390300</v>
       </c>
       <c r="I9" s="3">
-        <v>4586300</v>
+        <v>4313100</v>
       </c>
       <c r="J9" s="3">
-        <v>4393100</v>
+        <v>4131500</v>
       </c>
       <c r="K9" s="3">
         <v>3819800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7687800</v>
+        <v>7229900</v>
       </c>
       <c r="E10" s="3">
-        <v>7116600</v>
+        <v>6692700</v>
       </c>
       <c r="F10" s="3">
-        <v>6406100</v>
+        <v>6024500</v>
       </c>
       <c r="G10" s="3">
-        <v>6135800</v>
+        <v>5770300</v>
       </c>
       <c r="H10" s="3">
-        <v>5881300</v>
+        <v>5531000</v>
       </c>
       <c r="I10" s="3">
-        <v>5718800</v>
+        <v>5378200</v>
       </c>
       <c r="J10" s="3">
-        <v>5494900</v>
+        <v>5167700</v>
       </c>
       <c r="K10" s="3">
         <v>4906800</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>173300</v>
+        <v>163000</v>
       </c>
       <c r="E14" s="3">
-        <v>106100</v>
+        <v>99800</v>
       </c>
       <c r="F14" s="3">
-        <v>104500</v>
+        <v>98200</v>
       </c>
       <c r="G14" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="H14" s="3">
-        <v>92900</v>
+        <v>87300</v>
       </c>
       <c r="I14" s="3">
-        <v>129300</v>
+        <v>121600</v>
       </c>
       <c r="J14" s="3">
-        <v>44800</v>
+        <v>42100</v>
       </c>
       <c r="K14" s="3">
         <v>54700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2497100</v>
+        <v>2348400</v>
       </c>
       <c r="E15" s="3">
-        <v>2136500</v>
+        <v>2009200</v>
       </c>
       <c r="F15" s="3">
-        <v>1879500</v>
+        <v>1767500</v>
       </c>
       <c r="G15" s="3">
-        <v>1798200</v>
+        <v>1691100</v>
       </c>
       <c r="H15" s="3">
-        <v>1697100</v>
+        <v>1596000</v>
       </c>
       <c r="I15" s="3">
-        <v>1582700</v>
+        <v>1488400</v>
       </c>
       <c r="J15" s="3">
-        <v>1520500</v>
+        <v>1429900</v>
       </c>
       <c r="K15" s="3">
         <v>1388000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10660800</v>
+        <v>10025800</v>
       </c>
       <c r="E17" s="3">
-        <v>9626900</v>
+        <v>9053500</v>
       </c>
       <c r="F17" s="3">
-        <v>9333400</v>
+        <v>8777500</v>
       </c>
       <c r="G17" s="3">
-        <v>8758100</v>
+        <v>8236400</v>
       </c>
       <c r="H17" s="3">
-        <v>8740700</v>
+        <v>8220100</v>
       </c>
       <c r="I17" s="3">
-        <v>8354300</v>
+        <v>7856700</v>
       </c>
       <c r="J17" s="3">
-        <v>7788100</v>
+        <v>7324200</v>
       </c>
       <c r="K17" s="3">
         <v>7336400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2057700</v>
+        <v>1935100</v>
       </c>
       <c r="E18" s="3">
-        <v>2468100</v>
+        <v>2321100</v>
       </c>
       <c r="F18" s="3">
-        <v>2352000</v>
+        <v>2211900</v>
       </c>
       <c r="G18" s="3">
-        <v>2272400</v>
+        <v>2137100</v>
       </c>
       <c r="H18" s="3">
-        <v>1809000</v>
+        <v>1701200</v>
       </c>
       <c r="I18" s="3">
-        <v>1950800</v>
+        <v>1834600</v>
       </c>
       <c r="J18" s="3">
-        <v>2100000</v>
+        <v>1974900</v>
       </c>
       <c r="K18" s="3">
         <v>1390300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-47300</v>
+        <v>-44400</v>
       </c>
       <c r="E20" s="3">
-        <v>-39000</v>
+        <v>-36600</v>
       </c>
       <c r="F20" s="3">
-        <v>-47300</v>
+        <v>-44400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-24900</v>
+        <v>-23400</v>
       </c>
       <c r="I20" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="J20" s="3">
-        <v>-140100</v>
+        <v>-131800</v>
       </c>
       <c r="K20" s="3">
         <v>257100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4512300</v>
+        <v>4270800</v>
       </c>
       <c r="E21" s="3">
-        <v>4569700</v>
+        <v>4320800</v>
       </c>
       <c r="F21" s="3">
-        <v>4187800</v>
+        <v>3958900</v>
       </c>
       <c r="G21" s="3">
-        <v>4068300</v>
+        <v>3845600</v>
       </c>
       <c r="H21" s="3">
-        <v>3484400</v>
+        <v>3295400</v>
       </c>
       <c r="I21" s="3">
-        <v>3545500</v>
+        <v>3351600</v>
       </c>
       <c r="J21" s="3">
-        <v>3483200</v>
+        <v>3292400</v>
       </c>
       <c r="K21" s="3">
         <v>3032900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>591900</v>
+        <v>556700</v>
       </c>
       <c r="E22" s="3">
-        <v>568700</v>
+        <v>534900</v>
       </c>
       <c r="F22" s="3">
-        <v>500700</v>
+        <v>470900</v>
       </c>
       <c r="G22" s="3">
-        <v>469200</v>
+        <v>441300</v>
       </c>
       <c r="H22" s="3">
-        <v>406200</v>
+        <v>382000</v>
       </c>
       <c r="I22" s="3">
-        <v>379700</v>
+        <v>357100</v>
       </c>
       <c r="J22" s="3">
-        <v>363100</v>
+        <v>341500</v>
       </c>
       <c r="K22" s="3">
         <v>286400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1418500</v>
+        <v>1334000</v>
       </c>
       <c r="E23" s="3">
-        <v>1860400</v>
+        <v>1749600</v>
       </c>
       <c r="F23" s="3">
-        <v>1804000</v>
+        <v>1696600</v>
       </c>
       <c r="G23" s="3">
-        <v>1797400</v>
+        <v>1690300</v>
       </c>
       <c r="H23" s="3">
-        <v>1377900</v>
+        <v>1295800</v>
       </c>
       <c r="I23" s="3">
-        <v>1580200</v>
+        <v>1486100</v>
       </c>
       <c r="J23" s="3">
-        <v>1596800</v>
+        <v>1501600</v>
       </c>
       <c r="K23" s="3">
         <v>1361000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>373900</v>
+        <v>351600</v>
       </c>
       <c r="E24" s="3">
-        <v>388000</v>
+        <v>364900</v>
       </c>
       <c r="F24" s="3">
-        <v>457600</v>
+        <v>430400</v>
       </c>
       <c r="G24" s="3">
-        <v>489100</v>
+        <v>460000</v>
       </c>
       <c r="H24" s="3">
-        <v>353200</v>
+        <v>332100</v>
       </c>
       <c r="I24" s="3">
-        <v>434400</v>
+        <v>408500</v>
       </c>
       <c r="J24" s="3">
-        <v>415400</v>
+        <v>390600</v>
       </c>
       <c r="K24" s="3">
         <v>364900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1044600</v>
+        <v>982400</v>
       </c>
       <c r="E26" s="3">
-        <v>1472400</v>
+        <v>1384700</v>
       </c>
       <c r="F26" s="3">
-        <v>1346400</v>
+        <v>1266200</v>
       </c>
       <c r="G26" s="3">
-        <v>1308200</v>
+        <v>1230300</v>
       </c>
       <c r="H26" s="3">
-        <v>1024700</v>
+        <v>963700</v>
       </c>
       <c r="I26" s="3">
-        <v>1145700</v>
+        <v>1077500</v>
       </c>
       <c r="J26" s="3">
-        <v>1181400</v>
+        <v>1111000</v>
       </c>
       <c r="K26" s="3">
         <v>996100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000700</v>
+        <v>941100</v>
       </c>
       <c r="E27" s="3">
-        <v>1447500</v>
+        <v>1361300</v>
       </c>
       <c r="F27" s="3">
-        <v>1326500</v>
+        <v>1247500</v>
       </c>
       <c r="G27" s="3">
-        <v>1292500</v>
+        <v>1215500</v>
       </c>
       <c r="H27" s="3">
-        <v>1013900</v>
+        <v>953500</v>
       </c>
       <c r="I27" s="3">
-        <v>1145700</v>
+        <v>1077500</v>
       </c>
       <c r="J27" s="3">
-        <v>1181400</v>
+        <v>1111000</v>
       </c>
       <c r="K27" s="3">
         <v>996100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>47300</v>
+        <v>44400</v>
       </c>
       <c r="E32" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="F32" s="3">
-        <v>47300</v>
+        <v>44400</v>
       </c>
       <c r="G32" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="H32" s="3">
-        <v>24900</v>
+        <v>23400</v>
       </c>
       <c r="I32" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="J32" s="3">
-        <v>140100</v>
+        <v>131800</v>
       </c>
       <c r="K32" s="3">
         <v>-257100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000700</v>
+        <v>941100</v>
       </c>
       <c r="E33" s="3">
-        <v>1447500</v>
+        <v>1361300</v>
       </c>
       <c r="F33" s="3">
-        <v>1326500</v>
+        <v>1247500</v>
       </c>
       <c r="G33" s="3">
-        <v>1292500</v>
+        <v>1215500</v>
       </c>
       <c r="H33" s="3">
-        <v>1013900</v>
+        <v>953500</v>
       </c>
       <c r="I33" s="3">
-        <v>1145700</v>
+        <v>1077500</v>
       </c>
       <c r="J33" s="3">
-        <v>1181400</v>
+        <v>1111000</v>
       </c>
       <c r="K33" s="3">
         <v>996100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000700</v>
+        <v>941100</v>
       </c>
       <c r="E35" s="3">
-        <v>1447500</v>
+        <v>1361300</v>
       </c>
       <c r="F35" s="3">
-        <v>1326500</v>
+        <v>1247500</v>
       </c>
       <c r="G35" s="3">
-        <v>1292500</v>
+        <v>1215500</v>
       </c>
       <c r="H35" s="3">
-        <v>1013900</v>
+        <v>953500</v>
       </c>
       <c r="I35" s="3">
-        <v>1145700</v>
+        <v>1077500</v>
       </c>
       <c r="J35" s="3">
-        <v>1181400</v>
+        <v>1111000</v>
       </c>
       <c r="K35" s="3">
         <v>996100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>703000</v>
+        <v>661200</v>
       </c>
       <c r="E41" s="3">
-        <v>443500</v>
+        <v>417100</v>
       </c>
       <c r="F41" s="3">
-        <v>343200</v>
+        <v>322800</v>
       </c>
       <c r="G41" s="3">
-        <v>422000</v>
+        <v>396900</v>
       </c>
       <c r="H41" s="3">
-        <v>358100</v>
+        <v>336800</v>
       </c>
       <c r="I41" s="3">
-        <v>184900</v>
+        <v>173900</v>
       </c>
       <c r="J41" s="3">
-        <v>49700</v>
+        <v>46800</v>
       </c>
       <c r="K41" s="3">
         <v>258700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2439100</v>
+        <v>2293800</v>
       </c>
       <c r="E43" s="3">
-        <v>2342900</v>
+        <v>2203300</v>
       </c>
       <c r="F43" s="3">
-        <v>2042000</v>
+        <v>1920300</v>
       </c>
       <c r="G43" s="3">
-        <v>2045300</v>
+        <v>1923400</v>
       </c>
       <c r="H43" s="3">
-        <v>1227000</v>
+        <v>1153900</v>
       </c>
       <c r="I43" s="3">
-        <v>1184700</v>
+        <v>1114100</v>
       </c>
       <c r="J43" s="3">
-        <v>1309900</v>
+        <v>1231900</v>
       </c>
       <c r="K43" s="3">
         <v>1149300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>337400</v>
+        <v>317300</v>
       </c>
       <c r="E44" s="3">
-        <v>362300</v>
+        <v>340700</v>
       </c>
       <c r="F44" s="3">
-        <v>311700</v>
+        <v>293200</v>
       </c>
       <c r="G44" s="3">
-        <v>315000</v>
+        <v>296300</v>
       </c>
       <c r="H44" s="3">
-        <v>263600</v>
+        <v>247900</v>
       </c>
       <c r="I44" s="3">
-        <v>298500</v>
+        <v>280700</v>
       </c>
       <c r="J44" s="3">
-        <v>265300</v>
+        <v>249500</v>
       </c>
       <c r="K44" s="3">
         <v>251000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>402900</v>
+        <v>378900</v>
       </c>
       <c r="E45" s="3">
-        <v>460100</v>
+        <v>432700</v>
       </c>
       <c r="F45" s="3">
-        <v>487500</v>
+        <v>458400</v>
       </c>
       <c r="G45" s="3">
-        <v>423600</v>
+        <v>398400</v>
       </c>
       <c r="H45" s="3">
-        <v>202300</v>
+        <v>190200</v>
       </c>
       <c r="I45" s="3">
-        <v>264500</v>
+        <v>248700</v>
       </c>
       <c r="J45" s="3">
-        <v>187400</v>
+        <v>176200</v>
       </c>
       <c r="K45" s="3">
         <v>133900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3882400</v>
+        <v>3651200</v>
       </c>
       <c r="E46" s="3">
-        <v>3608900</v>
+        <v>3393900</v>
       </c>
       <c r="F46" s="3">
-        <v>3184400</v>
+        <v>2994700</v>
       </c>
       <c r="G46" s="3">
-        <v>3205900</v>
+        <v>3015000</v>
       </c>
       <c r="H46" s="3">
-        <v>2051100</v>
+        <v>1928900</v>
       </c>
       <c r="I46" s="3">
-        <v>1932500</v>
+        <v>1817400</v>
       </c>
       <c r="J46" s="3">
-        <v>1812300</v>
+        <v>1704400</v>
       </c>
       <c r="K46" s="3">
         <v>1792900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>869700</v>
+        <v>817900</v>
       </c>
       <c r="E47" s="3">
-        <v>451800</v>
+        <v>424900</v>
       </c>
       <c r="F47" s="3">
-        <v>499100</v>
+        <v>469400</v>
       </c>
       <c r="G47" s="3">
-        <v>401300</v>
+        <v>377400</v>
       </c>
       <c r="H47" s="3">
-        <v>68800</v>
+        <v>64700</v>
       </c>
       <c r="I47" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="J47" s="3">
-        <v>58000</v>
+        <v>54600</v>
       </c>
       <c r="K47" s="3">
         <v>45400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12447400</v>
+        <v>11706000</v>
       </c>
       <c r="E48" s="3">
-        <v>11799000</v>
+        <v>11096300</v>
       </c>
       <c r="F48" s="3">
-        <v>20048100</v>
+        <v>18854000</v>
       </c>
       <c r="G48" s="3">
-        <v>9424600</v>
+        <v>8863300</v>
       </c>
       <c r="H48" s="3">
-        <v>8675200</v>
+        <v>8158500</v>
       </c>
       <c r="I48" s="3">
-        <v>8071600</v>
+        <v>7590900</v>
       </c>
       <c r="J48" s="3">
-        <v>7563400</v>
+        <v>7112900</v>
       </c>
       <c r="K48" s="3">
         <v>6486500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18455500</v>
+        <v>17356200</v>
       </c>
       <c r="E49" s="3">
-        <v>15049700</v>
+        <v>14153300</v>
       </c>
       <c r="F49" s="3">
-        <v>26007300</v>
+        <v>24458200</v>
       </c>
       <c r="G49" s="3">
-        <v>12347900</v>
+        <v>11612400</v>
       </c>
       <c r="H49" s="3">
-        <v>11731900</v>
+        <v>11033100</v>
       </c>
       <c r="I49" s="3">
-        <v>11396100</v>
+        <v>10717300</v>
       </c>
       <c r="J49" s="3">
-        <v>9578800</v>
+        <v>9008300</v>
       </c>
       <c r="K49" s="3">
         <v>7904500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>269400</v>
+        <v>253400</v>
       </c>
       <c r="E52" s="3">
-        <v>582000</v>
+        <v>547300</v>
       </c>
       <c r="F52" s="3">
-        <v>698100</v>
+        <v>656500</v>
       </c>
       <c r="G52" s="3">
-        <v>364800</v>
+        <v>343100</v>
       </c>
       <c r="H52" s="3">
-        <v>461800</v>
+        <v>434300</v>
       </c>
       <c r="I52" s="3">
-        <v>413700</v>
+        <v>389100</v>
       </c>
       <c r="J52" s="3">
-        <v>235500</v>
+        <v>221400</v>
       </c>
       <c r="K52" s="3">
         <v>371100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35924400</v>
+        <v>33784700</v>
       </c>
       <c r="E54" s="3">
-        <v>31491500</v>
+        <v>29615800</v>
       </c>
       <c r="F54" s="3">
-        <v>27405900</v>
+        <v>25773600</v>
       </c>
       <c r="G54" s="3">
-        <v>25744500</v>
+        <v>24211100</v>
       </c>
       <c r="H54" s="3">
-        <v>22988700</v>
+        <v>21619500</v>
       </c>
       <c r="I54" s="3">
-        <v>21891900</v>
+        <v>20588000</v>
       </c>
       <c r="J54" s="3">
-        <v>19248100</v>
+        <v>18101600</v>
       </c>
       <c r="K54" s="3">
         <v>16600400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>708800</v>
+        <v>666600</v>
       </c>
       <c r="E57" s="3">
-        <v>739500</v>
+        <v>695500</v>
       </c>
       <c r="F57" s="3">
-        <v>568700</v>
+        <v>534900</v>
       </c>
       <c r="G57" s="3">
-        <v>594400</v>
+        <v>559000</v>
       </c>
       <c r="H57" s="3">
-        <v>479200</v>
+        <v>450600</v>
       </c>
       <c r="I57" s="3">
-        <v>394600</v>
+        <v>371100</v>
       </c>
       <c r="J57" s="3">
-        <v>379700</v>
+        <v>357100</v>
       </c>
       <c r="K57" s="3">
         <v>352600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1270100</v>
+        <v>1194500</v>
       </c>
       <c r="E58" s="3">
-        <v>1187200</v>
+        <v>1116500</v>
       </c>
       <c r="F58" s="3">
-        <v>776000</v>
+        <v>729800</v>
       </c>
       <c r="G58" s="3">
-        <v>1246900</v>
+        <v>1172600</v>
       </c>
       <c r="H58" s="3">
-        <v>1183100</v>
+        <v>1112600</v>
       </c>
       <c r="I58" s="3">
-        <v>792600</v>
+        <v>745400</v>
       </c>
       <c r="J58" s="3">
-        <v>294300</v>
+        <v>276800</v>
       </c>
       <c r="K58" s="3">
         <v>307900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2919900</v>
+        <v>2746000</v>
       </c>
       <c r="E59" s="3">
-        <v>3146200</v>
+        <v>2958800</v>
       </c>
       <c r="F59" s="3">
-        <v>3212600</v>
+        <v>3021200</v>
       </c>
       <c r="G59" s="3">
-        <v>2337100</v>
+        <v>2197900</v>
       </c>
       <c r="H59" s="3">
-        <v>2442400</v>
+        <v>2296900</v>
       </c>
       <c r="I59" s="3">
-        <v>2357800</v>
+        <v>2217400</v>
       </c>
       <c r="J59" s="3">
-        <v>2226800</v>
+        <v>2094200</v>
       </c>
       <c r="K59" s="3">
         <v>1879100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4898900</v>
+        <v>4607100</v>
       </c>
       <c r="E60" s="3">
-        <v>4621100</v>
+        <v>4345900</v>
       </c>
       <c r="F60" s="3">
-        <v>4015900</v>
+        <v>3776700</v>
       </c>
       <c r="G60" s="3">
-        <v>4178400</v>
+        <v>3929500</v>
       </c>
       <c r="H60" s="3">
-        <v>4104600</v>
+        <v>3860100</v>
       </c>
       <c r="I60" s="3">
-        <v>3545000</v>
+        <v>3333900</v>
       </c>
       <c r="J60" s="3">
-        <v>2900800</v>
+        <v>2728100</v>
       </c>
       <c r="K60" s="3">
         <v>2539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15632600</v>
+        <v>14701500</v>
       </c>
       <c r="E61" s="3">
-        <v>14211600</v>
+        <v>13365100</v>
       </c>
       <c r="F61" s="3">
-        <v>10997300</v>
+        <v>10342300</v>
       </c>
       <c r="G61" s="3">
-        <v>10160800</v>
+        <v>9555600</v>
       </c>
       <c r="H61" s="3">
-        <v>9620300</v>
+        <v>9047300</v>
       </c>
       <c r="I61" s="3">
-        <v>9270400</v>
+        <v>8718300</v>
       </c>
       <c r="J61" s="3">
-        <v>7507000</v>
+        <v>7059900</v>
       </c>
       <c r="K61" s="3">
         <v>5768300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4945300</v>
+        <v>4650700</v>
       </c>
       <c r="E62" s="3">
-        <v>3885800</v>
+        <v>3654300</v>
       </c>
       <c r="F62" s="3">
-        <v>4493500</v>
+        <v>4225800</v>
       </c>
       <c r="G62" s="3">
-        <v>3564100</v>
+        <v>3351800</v>
       </c>
       <c r="H62" s="3">
-        <v>2684500</v>
+        <v>2524600</v>
       </c>
       <c r="I62" s="3">
-        <v>2716000</v>
+        <v>2554200</v>
       </c>
       <c r="J62" s="3">
-        <v>2660400</v>
+        <v>2502000</v>
       </c>
       <c r="K62" s="3">
         <v>2123900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25914400</v>
+        <v>24370900</v>
       </c>
       <c r="E66" s="3">
-        <v>22746600</v>
+        <v>21391800</v>
       </c>
       <c r="F66" s="3">
-        <v>18900700</v>
+        <v>17774900</v>
       </c>
       <c r="G66" s="3">
-        <v>17938200</v>
+        <v>16869700</v>
       </c>
       <c r="H66" s="3">
-        <v>16425100</v>
+        <v>15446800</v>
       </c>
       <c r="I66" s="3">
-        <v>15531400</v>
+        <v>14606300</v>
       </c>
       <c r="J66" s="3">
-        <v>13068300</v>
+        <v>12289900</v>
       </c>
       <c r="K66" s="3">
         <v>10431800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3105600</v>
+        <v>2920600</v>
       </c>
       <c r="E72" s="3">
-        <v>3623800</v>
+        <v>3407900</v>
       </c>
       <c r="F72" s="3">
-        <v>3709200</v>
+        <v>3488200</v>
       </c>
       <c r="G72" s="3">
-        <v>3145400</v>
+        <v>2958100</v>
       </c>
       <c r="H72" s="3">
-        <v>2051100</v>
+        <v>1928900</v>
       </c>
       <c r="I72" s="3">
-        <v>2012900</v>
+        <v>1893000</v>
       </c>
       <c r="J72" s="3">
-        <v>1741000</v>
+        <v>1637300</v>
       </c>
       <c r="K72" s="3">
         <v>1954600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10009900</v>
+        <v>9413700</v>
       </c>
       <c r="E76" s="3">
-        <v>8744800</v>
+        <v>8224000</v>
       </c>
       <c r="F76" s="3">
-        <v>8505200</v>
+        <v>7998600</v>
       </c>
       <c r="G76" s="3">
-        <v>7806300</v>
+        <v>7341400</v>
       </c>
       <c r="H76" s="3">
-        <v>6563600</v>
+        <v>6172600</v>
       </c>
       <c r="I76" s="3">
-        <v>6360500</v>
+        <v>5981600</v>
       </c>
       <c r="J76" s="3">
-        <v>6179700</v>
+        <v>5811700</v>
       </c>
       <c r="K76" s="3">
         <v>6170100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000700</v>
+        <v>941100</v>
       </c>
       <c r="E81" s="3">
-        <v>1447500</v>
+        <v>1361300</v>
       </c>
       <c r="F81" s="3">
-        <v>1326500</v>
+        <v>1247500</v>
       </c>
       <c r="G81" s="3">
-        <v>1292500</v>
+        <v>1215500</v>
       </c>
       <c r="H81" s="3">
-        <v>1013900</v>
+        <v>953500</v>
       </c>
       <c r="I81" s="3">
-        <v>1145700</v>
+        <v>1077500</v>
       </c>
       <c r="J81" s="3">
-        <v>1181400</v>
+        <v>1111000</v>
       </c>
       <c r="K81" s="3">
         <v>996100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2497100</v>
+        <v>2348400</v>
       </c>
       <c r="E83" s="3">
-        <v>2136500</v>
+        <v>2009200</v>
       </c>
       <c r="F83" s="3">
-        <v>1879500</v>
+        <v>1767500</v>
       </c>
       <c r="G83" s="3">
-        <v>1798200</v>
+        <v>1691100</v>
       </c>
       <c r="H83" s="3">
-        <v>1697100</v>
+        <v>1596000</v>
       </c>
       <c r="I83" s="3">
-        <v>1582700</v>
+        <v>1488400</v>
       </c>
       <c r="J83" s="3">
-        <v>1520500</v>
+        <v>1429900</v>
       </c>
       <c r="K83" s="3">
         <v>1388000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3792100</v>
+        <v>3566200</v>
       </c>
       <c r="E89" s="3">
-        <v>3255700</v>
+        <v>3061800</v>
       </c>
       <c r="F89" s="3">
-        <v>3364300</v>
+        <v>3163900</v>
       </c>
       <c r="G89" s="3">
-        <v>3272300</v>
+        <v>3077400</v>
       </c>
       <c r="H89" s="3">
-        <v>2668700</v>
+        <v>2509800</v>
       </c>
       <c r="I89" s="3">
-        <v>2948100</v>
+        <v>2772500</v>
       </c>
       <c r="J89" s="3">
-        <v>2824600</v>
+        <v>2656300</v>
       </c>
       <c r="K89" s="3">
         <v>2498800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2215200</v>
+        <v>-2083300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2298100</v>
+        <v>-2161200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1975600</v>
+        <v>-1858000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2061000</v>
+        <v>-1938300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1954900</v>
+        <v>-1838500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1696200</v>
+        <v>-1595200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1590100</v>
+        <v>-1495400</v>
       </c>
       <c r="K91" s="3">
         <v>-1266400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5111100</v>
+        <v>-4806700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4181700</v>
+        <v>-3932700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2468100</v>
+        <v>-2321100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3020200</v>
+        <v>-2840300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2423300</v>
+        <v>-2279000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3711700</v>
+        <v>-3490600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3041000</v>
+        <v>-2859800</v>
       </c>
       <c r="K94" s="3">
         <v>-1839100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-771000</v>
+        <v>-725100</v>
       </c>
       <c r="E96" s="3">
-        <v>-952600</v>
+        <v>-895800</v>
       </c>
       <c r="F96" s="3">
-        <v>-945900</v>
+        <v>-889600</v>
       </c>
       <c r="G96" s="3">
-        <v>-897000</v>
+        <v>-843600</v>
       </c>
       <c r="H96" s="3">
-        <v>-887100</v>
+        <v>-834200</v>
       </c>
       <c r="I96" s="3">
-        <v>-822400</v>
+        <v>-773400</v>
       </c>
       <c r="J96" s="3">
-        <v>-756900</v>
+        <v>-711800</v>
       </c>
       <c r="K96" s="3">
         <v>-655900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1578500</v>
+        <v>1484500</v>
       </c>
       <c r="E100" s="3">
-        <v>1026400</v>
+        <v>965200</v>
       </c>
       <c r="F100" s="3">
-        <v>-975000</v>
+        <v>-916900</v>
       </c>
       <c r="G100" s="3">
-        <v>-188200</v>
+        <v>-177000</v>
       </c>
       <c r="H100" s="3">
-        <v>-72100</v>
+        <v>-67800</v>
       </c>
       <c r="I100" s="3">
-        <v>898700</v>
+        <v>845200</v>
       </c>
       <c r="J100" s="3">
-        <v>-12400</v>
+        <v>-11700</v>
       </c>
       <c r="K100" s="3">
         <v>-483400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>259500</v>
+        <v>244000</v>
       </c>
       <c r="E102" s="3">
-        <v>100300</v>
+        <v>94300</v>
       </c>
       <c r="F102" s="3">
-        <v>-78800</v>
+        <v>-74100</v>
       </c>
       <c r="G102" s="3">
-        <v>63800</v>
+        <v>60000</v>
       </c>
       <c r="H102" s="3">
-        <v>173300</v>
+        <v>163000</v>
       </c>
       <c r="I102" s="3">
-        <v>135100</v>
+        <v>127100</v>
       </c>
       <c r="J102" s="3">
-        <v>-228800</v>
+        <v>-215200</v>
       </c>
       <c r="K102" s="3">
         <v>176300</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11960900</v>
+        <v>12043500</v>
       </c>
       <c r="E8" s="3">
-        <v>11374600</v>
+        <v>11453100</v>
       </c>
       <c r="F8" s="3">
-        <v>10989400</v>
+        <v>11065300</v>
       </c>
       <c r="G8" s="3">
-        <v>10373500</v>
+        <v>10445100</v>
       </c>
       <c r="H8" s="3">
-        <v>9921300</v>
+        <v>9989800</v>
       </c>
       <c r="I8" s="3">
-        <v>9691300</v>
+        <v>9758200</v>
       </c>
       <c r="J8" s="3">
-        <v>9299100</v>
+        <v>9363300</v>
       </c>
       <c r="K8" s="3">
         <v>8726700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4731000</v>
+        <v>4763700</v>
       </c>
       <c r="E9" s="3">
-        <v>4681900</v>
+        <v>4714200</v>
       </c>
       <c r="F9" s="3">
-        <v>4964900</v>
+        <v>4999200</v>
       </c>
       <c r="G9" s="3">
-        <v>4603200</v>
+        <v>4634900</v>
       </c>
       <c r="H9" s="3">
-        <v>4390300</v>
+        <v>4420600</v>
       </c>
       <c r="I9" s="3">
-        <v>4313100</v>
+        <v>4342900</v>
       </c>
       <c r="J9" s="3">
-        <v>4131500</v>
+        <v>4160000</v>
       </c>
       <c r="K9" s="3">
         <v>3819800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7229900</v>
+        <v>7279800</v>
       </c>
       <c r="E10" s="3">
-        <v>6692700</v>
+        <v>6738900</v>
       </c>
       <c r="F10" s="3">
-        <v>6024500</v>
+        <v>6066100</v>
       </c>
       <c r="G10" s="3">
-        <v>5770300</v>
+        <v>5810200</v>
       </c>
       <c r="H10" s="3">
-        <v>5531000</v>
+        <v>5569100</v>
       </c>
       <c r="I10" s="3">
-        <v>5378200</v>
+        <v>5415300</v>
       </c>
       <c r="J10" s="3">
-        <v>5167700</v>
+        <v>5203300</v>
       </c>
       <c r="K10" s="3">
         <v>4906800</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>163000</v>
+        <v>164100</v>
       </c>
       <c r="E14" s="3">
-        <v>99800</v>
+        <v>100500</v>
       </c>
       <c r="F14" s="3">
-        <v>98200</v>
+        <v>98900</v>
       </c>
       <c r="G14" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="H14" s="3">
-        <v>87300</v>
+        <v>87900</v>
       </c>
       <c r="I14" s="3">
-        <v>121600</v>
+        <v>122500</v>
       </c>
       <c r="J14" s="3">
-        <v>42100</v>
+        <v>42400</v>
       </c>
       <c r="K14" s="3">
         <v>54700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2348400</v>
+        <v>2364600</v>
       </c>
       <c r="E15" s="3">
-        <v>2009200</v>
+        <v>2023100</v>
       </c>
       <c r="F15" s="3">
-        <v>1767500</v>
+        <v>1779700</v>
       </c>
       <c r="G15" s="3">
-        <v>1691100</v>
+        <v>1702800</v>
       </c>
       <c r="H15" s="3">
-        <v>1596000</v>
+        <v>1607000</v>
       </c>
       <c r="I15" s="3">
-        <v>1488400</v>
+        <v>1498700</v>
       </c>
       <c r="J15" s="3">
-        <v>1429900</v>
+        <v>1439800</v>
       </c>
       <c r="K15" s="3">
         <v>1388000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10025800</v>
+        <v>10095000</v>
       </c>
       <c r="E17" s="3">
-        <v>9053500</v>
+        <v>9116000</v>
       </c>
       <c r="F17" s="3">
-        <v>8777500</v>
+        <v>8838100</v>
       </c>
       <c r="G17" s="3">
-        <v>8236400</v>
+        <v>8293300</v>
       </c>
       <c r="H17" s="3">
-        <v>8220100</v>
+        <v>8276800</v>
       </c>
       <c r="I17" s="3">
-        <v>7856700</v>
+        <v>7910900</v>
       </c>
       <c r="J17" s="3">
-        <v>7324200</v>
+        <v>7374800</v>
       </c>
       <c r="K17" s="3">
         <v>7336400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1935100</v>
+        <v>1948500</v>
       </c>
       <c r="E18" s="3">
-        <v>2321100</v>
+        <v>2337100</v>
       </c>
       <c r="F18" s="3">
-        <v>2211900</v>
+        <v>2227200</v>
       </c>
       <c r="G18" s="3">
-        <v>2137100</v>
+        <v>2151800</v>
       </c>
       <c r="H18" s="3">
-        <v>1701200</v>
+        <v>1713000</v>
       </c>
       <c r="I18" s="3">
-        <v>1834600</v>
+        <v>1847200</v>
       </c>
       <c r="J18" s="3">
-        <v>1974900</v>
+        <v>1988500</v>
       </c>
       <c r="K18" s="3">
         <v>1390300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44400</v>
+        <v>-44700</v>
       </c>
       <c r="E20" s="3">
-        <v>-36600</v>
+        <v>-36900</v>
       </c>
       <c r="F20" s="3">
-        <v>-44400</v>
+        <v>-44700</v>
       </c>
       <c r="G20" s="3">
         <v>-5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-23400</v>
+        <v>-23600</v>
       </c>
       <c r="I20" s="3">
         <v>8600</v>
       </c>
       <c r="J20" s="3">
-        <v>-131800</v>
+        <v>-132700</v>
       </c>
       <c r="K20" s="3">
         <v>257100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4270800</v>
+        <v>4259500</v>
       </c>
       <c r="E21" s="3">
-        <v>4320800</v>
+        <v>4315700</v>
       </c>
       <c r="F21" s="3">
-        <v>3958900</v>
+        <v>3955500</v>
       </c>
       <c r="G21" s="3">
-        <v>3845600</v>
+        <v>3842700</v>
       </c>
       <c r="H21" s="3">
-        <v>3295400</v>
+        <v>3290400</v>
       </c>
       <c r="I21" s="3">
-        <v>3351600</v>
+        <v>3348900</v>
       </c>
       <c r="J21" s="3">
-        <v>3292400</v>
+        <v>3290200</v>
       </c>
       <c r="K21" s="3">
         <v>3032900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>556700</v>
+        <v>560500</v>
       </c>
       <c r="E22" s="3">
-        <v>534900</v>
+        <v>538500</v>
       </c>
       <c r="F22" s="3">
-        <v>470900</v>
+        <v>474200</v>
       </c>
       <c r="G22" s="3">
-        <v>441300</v>
+        <v>444300</v>
       </c>
       <c r="H22" s="3">
-        <v>382000</v>
+        <v>384700</v>
       </c>
       <c r="I22" s="3">
-        <v>357100</v>
+        <v>359600</v>
       </c>
       <c r="J22" s="3">
-        <v>341500</v>
+        <v>343900</v>
       </c>
       <c r="K22" s="3">
         <v>286400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1334000</v>
+        <v>1343200</v>
       </c>
       <c r="E23" s="3">
-        <v>1749600</v>
+        <v>1761700</v>
       </c>
       <c r="F23" s="3">
-        <v>1696600</v>
+        <v>1708300</v>
       </c>
       <c r="G23" s="3">
-        <v>1690300</v>
+        <v>1702000</v>
       </c>
       <c r="H23" s="3">
-        <v>1295800</v>
+        <v>1304800</v>
       </c>
       <c r="I23" s="3">
-        <v>1486100</v>
+        <v>1496300</v>
       </c>
       <c r="J23" s="3">
-        <v>1501600</v>
+        <v>1512000</v>
       </c>
       <c r="K23" s="3">
         <v>1361000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>351600</v>
+        <v>354100</v>
       </c>
       <c r="E24" s="3">
-        <v>364900</v>
+        <v>367400</v>
       </c>
       <c r="F24" s="3">
-        <v>430400</v>
+        <v>433300</v>
       </c>
       <c r="G24" s="3">
-        <v>460000</v>
+        <v>463200</v>
       </c>
       <c r="H24" s="3">
-        <v>332100</v>
+        <v>334400</v>
       </c>
       <c r="I24" s="3">
-        <v>408500</v>
+        <v>411400</v>
       </c>
       <c r="J24" s="3">
-        <v>390600</v>
+        <v>393300</v>
       </c>
       <c r="K24" s="3">
         <v>364900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>982400</v>
+        <v>989200</v>
       </c>
       <c r="E26" s="3">
-        <v>1384700</v>
+        <v>1394200</v>
       </c>
       <c r="F26" s="3">
-        <v>1266200</v>
+        <v>1274900</v>
       </c>
       <c r="G26" s="3">
-        <v>1230300</v>
+        <v>1238800</v>
       </c>
       <c r="H26" s="3">
-        <v>963700</v>
+        <v>970300</v>
       </c>
       <c r="I26" s="3">
-        <v>1077500</v>
+        <v>1084900</v>
       </c>
       <c r="J26" s="3">
-        <v>1111000</v>
+        <v>1118700</v>
       </c>
       <c r="K26" s="3">
         <v>996100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>941100</v>
+        <v>947600</v>
       </c>
       <c r="E27" s="3">
-        <v>1361300</v>
+        <v>1370700</v>
       </c>
       <c r="F27" s="3">
-        <v>1247500</v>
+        <v>1256100</v>
       </c>
       <c r="G27" s="3">
-        <v>1215500</v>
+        <v>1223900</v>
       </c>
       <c r="H27" s="3">
-        <v>953500</v>
+        <v>960100</v>
       </c>
       <c r="I27" s="3">
-        <v>1077500</v>
+        <v>1084900</v>
       </c>
       <c r="J27" s="3">
-        <v>1111000</v>
+        <v>1118700</v>
       </c>
       <c r="K27" s="3">
         <v>996100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="E32" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="F32" s="3">
-        <v>44400</v>
+        <v>44700</v>
       </c>
       <c r="G32" s="3">
         <v>5500</v>
       </c>
       <c r="H32" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="I32" s="3">
         <v>-8600</v>
       </c>
       <c r="J32" s="3">
-        <v>131800</v>
+        <v>132700</v>
       </c>
       <c r="K32" s="3">
         <v>-257100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>941100</v>
+        <v>947600</v>
       </c>
       <c r="E33" s="3">
-        <v>1361300</v>
+        <v>1370700</v>
       </c>
       <c r="F33" s="3">
-        <v>1247500</v>
+        <v>1256100</v>
       </c>
       <c r="G33" s="3">
-        <v>1215500</v>
+        <v>1223900</v>
       </c>
       <c r="H33" s="3">
-        <v>953500</v>
+        <v>960100</v>
       </c>
       <c r="I33" s="3">
-        <v>1077500</v>
+        <v>1084900</v>
       </c>
       <c r="J33" s="3">
-        <v>1111000</v>
+        <v>1118700</v>
       </c>
       <c r="K33" s="3">
         <v>996100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>941100</v>
+        <v>947600</v>
       </c>
       <c r="E35" s="3">
-        <v>1361300</v>
+        <v>1370700</v>
       </c>
       <c r="F35" s="3">
-        <v>1247500</v>
+        <v>1256100</v>
       </c>
       <c r="G35" s="3">
-        <v>1215500</v>
+        <v>1223900</v>
       </c>
       <c r="H35" s="3">
-        <v>953500</v>
+        <v>960100</v>
       </c>
       <c r="I35" s="3">
-        <v>1077500</v>
+        <v>1084900</v>
       </c>
       <c r="J35" s="3">
-        <v>1111000</v>
+        <v>1118700</v>
       </c>
       <c r="K35" s="3">
         <v>996100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>661200</v>
+        <v>665700</v>
       </c>
       <c r="E41" s="3">
-        <v>417100</v>
+        <v>420000</v>
       </c>
       <c r="F41" s="3">
-        <v>322800</v>
+        <v>325000</v>
       </c>
       <c r="G41" s="3">
-        <v>396900</v>
+        <v>399600</v>
       </c>
       <c r="H41" s="3">
-        <v>336800</v>
+        <v>339100</v>
       </c>
       <c r="I41" s="3">
-        <v>173900</v>
+        <v>175100</v>
       </c>
       <c r="J41" s="3">
-        <v>46800</v>
+        <v>47100</v>
       </c>
       <c r="K41" s="3">
         <v>258700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2293800</v>
+        <v>2309600</v>
       </c>
       <c r="E43" s="3">
-        <v>2203300</v>
+        <v>2218600</v>
       </c>
       <c r="F43" s="3">
-        <v>1920300</v>
+        <v>1933600</v>
       </c>
       <c r="G43" s="3">
-        <v>1923400</v>
+        <v>1936700</v>
       </c>
       <c r="H43" s="3">
-        <v>1153900</v>
+        <v>1161900</v>
       </c>
       <c r="I43" s="3">
-        <v>1114100</v>
+        <v>1121800</v>
       </c>
       <c r="J43" s="3">
-        <v>1231900</v>
+        <v>1240400</v>
       </c>
       <c r="K43" s="3">
         <v>1149300</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>317300</v>
+        <v>319500</v>
       </c>
       <c r="E44" s="3">
-        <v>340700</v>
+        <v>343100</v>
       </c>
       <c r="F44" s="3">
-        <v>293200</v>
+        <v>295200</v>
       </c>
       <c r="G44" s="3">
-        <v>296300</v>
+        <v>298300</v>
       </c>
       <c r="H44" s="3">
-        <v>247900</v>
+        <v>249600</v>
       </c>
       <c r="I44" s="3">
-        <v>280700</v>
+        <v>282600</v>
       </c>
       <c r="J44" s="3">
-        <v>249500</v>
+        <v>251200</v>
       </c>
       <c r="K44" s="3">
         <v>251000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>378900</v>
+        <v>381500</v>
       </c>
       <c r="E45" s="3">
-        <v>432700</v>
+        <v>435700</v>
       </c>
       <c r="F45" s="3">
-        <v>458400</v>
+        <v>461600</v>
       </c>
       <c r="G45" s="3">
-        <v>398400</v>
+        <v>401200</v>
       </c>
       <c r="H45" s="3">
-        <v>190200</v>
+        <v>191600</v>
       </c>
       <c r="I45" s="3">
-        <v>248700</v>
+        <v>250400</v>
       </c>
       <c r="J45" s="3">
-        <v>176200</v>
+        <v>177400</v>
       </c>
       <c r="K45" s="3">
         <v>133900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3651200</v>
+        <v>3676400</v>
       </c>
       <c r="E46" s="3">
-        <v>3393900</v>
+        <v>3417300</v>
       </c>
       <c r="F46" s="3">
-        <v>2994700</v>
+        <v>3015400</v>
       </c>
       <c r="G46" s="3">
-        <v>3015000</v>
+        <v>3035800</v>
       </c>
       <c r="H46" s="3">
-        <v>1928900</v>
+        <v>1942200</v>
       </c>
       <c r="I46" s="3">
-        <v>1817400</v>
+        <v>1830000</v>
       </c>
       <c r="J46" s="3">
-        <v>1704400</v>
+        <v>1716100</v>
       </c>
       <c r="K46" s="3">
         <v>1792900</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>817900</v>
+        <v>823500</v>
       </c>
       <c r="E47" s="3">
-        <v>424900</v>
+        <v>427900</v>
       </c>
       <c r="F47" s="3">
-        <v>469400</v>
+        <v>472600</v>
       </c>
       <c r="G47" s="3">
-        <v>377400</v>
+        <v>380000</v>
       </c>
       <c r="H47" s="3">
-        <v>64700</v>
+        <v>65200</v>
       </c>
       <c r="I47" s="3">
-        <v>73300</v>
+        <v>73800</v>
       </c>
       <c r="J47" s="3">
-        <v>54600</v>
+        <v>55000</v>
       </c>
       <c r="K47" s="3">
         <v>45400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11706000</v>
+        <v>11786700</v>
       </c>
       <c r="E48" s="3">
-        <v>11096300</v>
+        <v>11172800</v>
       </c>
       <c r="F48" s="3">
-        <v>18854000</v>
+        <v>18984100</v>
       </c>
       <c r="G48" s="3">
-        <v>8863300</v>
+        <v>8924400</v>
       </c>
       <c r="H48" s="3">
-        <v>8158500</v>
+        <v>8214800</v>
       </c>
       <c r="I48" s="3">
-        <v>7590900</v>
+        <v>7643200</v>
       </c>
       <c r="J48" s="3">
-        <v>7112900</v>
+        <v>7162000</v>
       </c>
       <c r="K48" s="3">
         <v>6486500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17356200</v>
+        <v>17476000</v>
       </c>
       <c r="E49" s="3">
-        <v>14153300</v>
+        <v>14251000</v>
       </c>
       <c r="F49" s="3">
-        <v>24458200</v>
+        <v>24627000</v>
       </c>
       <c r="G49" s="3">
-        <v>11612400</v>
+        <v>11692500</v>
       </c>
       <c r="H49" s="3">
-        <v>11033100</v>
+        <v>11109200</v>
       </c>
       <c r="I49" s="3">
-        <v>10717300</v>
+        <v>10791300</v>
       </c>
       <c r="J49" s="3">
-        <v>9008300</v>
+        <v>9070500</v>
       </c>
       <c r="K49" s="3">
         <v>7904500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>253400</v>
+        <v>255100</v>
       </c>
       <c r="E52" s="3">
-        <v>547300</v>
+        <v>551100</v>
       </c>
       <c r="F52" s="3">
-        <v>656500</v>
+        <v>661000</v>
       </c>
       <c r="G52" s="3">
-        <v>343100</v>
+        <v>345400</v>
       </c>
       <c r="H52" s="3">
-        <v>434300</v>
+        <v>437300</v>
       </c>
       <c r="I52" s="3">
-        <v>389100</v>
+        <v>391700</v>
       </c>
       <c r="J52" s="3">
-        <v>221400</v>
+        <v>223000</v>
       </c>
       <c r="K52" s="3">
         <v>371100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33784700</v>
+        <v>34017800</v>
       </c>
       <c r="E54" s="3">
-        <v>29615800</v>
+        <v>29820100</v>
       </c>
       <c r="F54" s="3">
-        <v>25773600</v>
+        <v>25951400</v>
       </c>
       <c r="G54" s="3">
-        <v>24211100</v>
+        <v>24378200</v>
       </c>
       <c r="H54" s="3">
-        <v>21619500</v>
+        <v>21768700</v>
       </c>
       <c r="I54" s="3">
-        <v>20588000</v>
+        <v>20730000</v>
       </c>
       <c r="J54" s="3">
-        <v>18101600</v>
+        <v>18226500</v>
       </c>
       <c r="K54" s="3">
         <v>16600400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>666600</v>
+        <v>671200</v>
       </c>
       <c r="E57" s="3">
-        <v>695500</v>
+        <v>700300</v>
       </c>
       <c r="F57" s="3">
-        <v>534900</v>
+        <v>538500</v>
       </c>
       <c r="G57" s="3">
-        <v>559000</v>
+        <v>562900</v>
       </c>
       <c r="H57" s="3">
-        <v>450600</v>
+        <v>453800</v>
       </c>
       <c r="I57" s="3">
-        <v>371100</v>
+        <v>373700</v>
       </c>
       <c r="J57" s="3">
-        <v>357100</v>
+        <v>359600</v>
       </c>
       <c r="K57" s="3">
         <v>352600</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1194500</v>
+        <v>1202700</v>
       </c>
       <c r="E58" s="3">
-        <v>1116500</v>
+        <v>1124200</v>
       </c>
       <c r="F58" s="3">
-        <v>729800</v>
+        <v>734800</v>
       </c>
       <c r="G58" s="3">
-        <v>1172600</v>
+        <v>1180700</v>
       </c>
       <c r="H58" s="3">
-        <v>1112600</v>
+        <v>1120300</v>
       </c>
       <c r="I58" s="3">
-        <v>745400</v>
+        <v>750500</v>
       </c>
       <c r="J58" s="3">
-        <v>276800</v>
+        <v>278700</v>
       </c>
       <c r="K58" s="3">
         <v>307900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2746000</v>
+        <v>2764900</v>
       </c>
       <c r="E59" s="3">
-        <v>2958800</v>
+        <v>2979300</v>
       </c>
       <c r="F59" s="3">
-        <v>3021200</v>
+        <v>3042100</v>
       </c>
       <c r="G59" s="3">
-        <v>2197900</v>
+        <v>2213100</v>
       </c>
       <c r="H59" s="3">
-        <v>2296900</v>
+        <v>2312800</v>
       </c>
       <c r="I59" s="3">
-        <v>2217400</v>
+        <v>2232700</v>
       </c>
       <c r="J59" s="3">
-        <v>2094200</v>
+        <v>2108600</v>
       </c>
       <c r="K59" s="3">
         <v>1879100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4607100</v>
+        <v>4638900</v>
       </c>
       <c r="E60" s="3">
-        <v>4345900</v>
+        <v>4375900</v>
       </c>
       <c r="F60" s="3">
-        <v>3776700</v>
+        <v>3802800</v>
       </c>
       <c r="G60" s="3">
-        <v>3929500</v>
+        <v>3956700</v>
       </c>
       <c r="H60" s="3">
-        <v>3860100</v>
+        <v>3886800</v>
       </c>
       <c r="I60" s="3">
-        <v>3333900</v>
+        <v>3356900</v>
       </c>
       <c r="J60" s="3">
-        <v>2728100</v>
+        <v>2746900</v>
       </c>
       <c r="K60" s="3">
         <v>2539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14701500</v>
+        <v>14802900</v>
       </c>
       <c r="E61" s="3">
-        <v>13365100</v>
+        <v>13457300</v>
       </c>
       <c r="F61" s="3">
-        <v>10342300</v>
+        <v>10413700</v>
       </c>
       <c r="G61" s="3">
-        <v>9555600</v>
+        <v>9621600</v>
       </c>
       <c r="H61" s="3">
-        <v>9047300</v>
+        <v>9109700</v>
       </c>
       <c r="I61" s="3">
-        <v>8718300</v>
+        <v>8778400</v>
       </c>
       <c r="J61" s="3">
-        <v>7059900</v>
+        <v>7108600</v>
       </c>
       <c r="K61" s="3">
         <v>5768300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4650700</v>
+        <v>4682800</v>
       </c>
       <c r="E62" s="3">
-        <v>3654300</v>
+        <v>3679500</v>
       </c>
       <c r="F62" s="3">
-        <v>4225800</v>
+        <v>4255000</v>
       </c>
       <c r="G62" s="3">
-        <v>3351800</v>
+        <v>3374900</v>
       </c>
       <c r="H62" s="3">
-        <v>2524600</v>
+        <v>2542000</v>
       </c>
       <c r="I62" s="3">
-        <v>2554200</v>
+        <v>2571800</v>
       </c>
       <c r="J62" s="3">
-        <v>2502000</v>
+        <v>2519200</v>
       </c>
       <c r="K62" s="3">
         <v>2123900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24370900</v>
+        <v>24539100</v>
       </c>
       <c r="E66" s="3">
-        <v>21391800</v>
+        <v>21539400</v>
       </c>
       <c r="F66" s="3">
-        <v>17774900</v>
+        <v>17897600</v>
       </c>
       <c r="G66" s="3">
-        <v>16869700</v>
+        <v>16986100</v>
       </c>
       <c r="H66" s="3">
-        <v>15446800</v>
+        <v>15553400</v>
       </c>
       <c r="I66" s="3">
-        <v>14606300</v>
+        <v>14707100</v>
       </c>
       <c r="J66" s="3">
-        <v>12289900</v>
+        <v>12374700</v>
       </c>
       <c r="K66" s="3">
         <v>10431800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2920600</v>
+        <v>2940800</v>
       </c>
       <c r="E72" s="3">
-        <v>3407900</v>
+        <v>3431500</v>
       </c>
       <c r="F72" s="3">
-        <v>3488200</v>
+        <v>3512300</v>
       </c>
       <c r="G72" s="3">
-        <v>2958100</v>
+        <v>2978500</v>
       </c>
       <c r="H72" s="3">
-        <v>1928900</v>
+        <v>1942200</v>
       </c>
       <c r="I72" s="3">
-        <v>1893000</v>
+        <v>1906100</v>
       </c>
       <c r="J72" s="3">
-        <v>1637300</v>
+        <v>1648600</v>
       </c>
       <c r="K72" s="3">
         <v>1954600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9413700</v>
+        <v>9478700</v>
       </c>
       <c r="E76" s="3">
-        <v>8224000</v>
+        <v>8280700</v>
       </c>
       <c r="F76" s="3">
-        <v>7998600</v>
+        <v>8053800</v>
       </c>
       <c r="G76" s="3">
-        <v>7341400</v>
+        <v>7392000</v>
       </c>
       <c r="H76" s="3">
-        <v>6172600</v>
+        <v>6215200</v>
       </c>
       <c r="I76" s="3">
-        <v>5981600</v>
+        <v>6022900</v>
       </c>
       <c r="J76" s="3">
-        <v>5811700</v>
+        <v>5851800</v>
       </c>
       <c r="K76" s="3">
         <v>6170100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>941100</v>
+        <v>947600</v>
       </c>
       <c r="E81" s="3">
-        <v>1361300</v>
+        <v>1370700</v>
       </c>
       <c r="F81" s="3">
-        <v>1247500</v>
+        <v>1256100</v>
       </c>
       <c r="G81" s="3">
-        <v>1215500</v>
+        <v>1223900</v>
       </c>
       <c r="H81" s="3">
-        <v>953500</v>
+        <v>960100</v>
       </c>
       <c r="I81" s="3">
-        <v>1077500</v>
+        <v>1084900</v>
       </c>
       <c r="J81" s="3">
-        <v>1111000</v>
+        <v>1118700</v>
       </c>
       <c r="K81" s="3">
         <v>996100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2348400</v>
+        <v>2364600</v>
       </c>
       <c r="E83" s="3">
-        <v>2009200</v>
+        <v>2023100</v>
       </c>
       <c r="F83" s="3">
-        <v>1767500</v>
+        <v>1779700</v>
       </c>
       <c r="G83" s="3">
-        <v>1691100</v>
+        <v>1702800</v>
       </c>
       <c r="H83" s="3">
-        <v>1596000</v>
+        <v>1607000</v>
       </c>
       <c r="I83" s="3">
-        <v>1488400</v>
+        <v>1498700</v>
       </c>
       <c r="J83" s="3">
-        <v>1429900</v>
+        <v>1439800</v>
       </c>
       <c r="K83" s="3">
         <v>1388000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3566200</v>
+        <v>3590800</v>
       </c>
       <c r="E89" s="3">
-        <v>3061800</v>
+        <v>3082900</v>
       </c>
       <c r="F89" s="3">
-        <v>3163900</v>
+        <v>3185700</v>
       </c>
       <c r="G89" s="3">
-        <v>3077400</v>
+        <v>3098600</v>
       </c>
       <c r="H89" s="3">
-        <v>2509800</v>
+        <v>2527100</v>
       </c>
       <c r="I89" s="3">
-        <v>2772500</v>
+        <v>2791600</v>
       </c>
       <c r="J89" s="3">
-        <v>2656300</v>
+        <v>2674700</v>
       </c>
       <c r="K89" s="3">
         <v>2498800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2083300</v>
+        <v>-2097700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2161200</v>
+        <v>-2176200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1858000</v>
+        <v>-1870800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1938300</v>
+        <v>-1951600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1838500</v>
+        <v>-1851100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1595200</v>
+        <v>-1606200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1495400</v>
+        <v>-1505700</v>
       </c>
       <c r="K91" s="3">
         <v>-1266400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4806700</v>
+        <v>-4839800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3932700</v>
+        <v>-3959800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2321100</v>
+        <v>-2337100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2840300</v>
+        <v>-2859900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2279000</v>
+        <v>-2294700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3490600</v>
+        <v>-3514700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2859800</v>
+        <v>-2879600</v>
       </c>
       <c r="K94" s="3">
         <v>-1839100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-725100</v>
+        <v>-730100</v>
       </c>
       <c r="E96" s="3">
-        <v>-895800</v>
+        <v>-902000</v>
       </c>
       <c r="F96" s="3">
-        <v>-889600</v>
+        <v>-895700</v>
       </c>
       <c r="G96" s="3">
-        <v>-843600</v>
+        <v>-849400</v>
       </c>
       <c r="H96" s="3">
-        <v>-834200</v>
+        <v>-840000</v>
       </c>
       <c r="I96" s="3">
-        <v>-773400</v>
+        <v>-778800</v>
       </c>
       <c r="J96" s="3">
-        <v>-711800</v>
+        <v>-716800</v>
       </c>
       <c r="K96" s="3">
         <v>-655900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1484500</v>
+        <v>1494700</v>
       </c>
       <c r="E100" s="3">
-        <v>965200</v>
+        <v>971900</v>
       </c>
       <c r="F100" s="3">
-        <v>-916900</v>
+        <v>-923200</v>
       </c>
       <c r="G100" s="3">
-        <v>-177000</v>
+        <v>-178200</v>
       </c>
       <c r="H100" s="3">
-        <v>-67800</v>
+        <v>-68300</v>
       </c>
       <c r="I100" s="3">
-        <v>845200</v>
+        <v>851000</v>
       </c>
       <c r="J100" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="K100" s="3">
         <v>-483400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>244000</v>
+        <v>245700</v>
       </c>
       <c r="E102" s="3">
-        <v>94300</v>
+        <v>95000</v>
       </c>
       <c r="F102" s="3">
-        <v>-74100</v>
+        <v>-74600</v>
       </c>
       <c r="G102" s="3">
-        <v>60000</v>
+        <v>60400</v>
       </c>
       <c r="H102" s="3">
-        <v>163000</v>
+        <v>164100</v>
       </c>
       <c r="I102" s="3">
-        <v>127100</v>
+        <v>128000</v>
       </c>
       <c r="J102" s="3">
-        <v>-215200</v>
+        <v>-216700</v>
       </c>
       <c r="K102" s="3">
         <v>176300</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12043500</v>
+        <v>13213500</v>
       </c>
       <c r="E8" s="3">
-        <v>11453100</v>
+        <v>12038700</v>
       </c>
       <c r="F8" s="3">
-        <v>11065300</v>
+        <v>11448600</v>
       </c>
       <c r="G8" s="3">
-        <v>10445100</v>
+        <v>11060900</v>
       </c>
       <c r="H8" s="3">
-        <v>9989800</v>
+        <v>10441000</v>
       </c>
       <c r="I8" s="3">
-        <v>9758200</v>
+        <v>9985800</v>
       </c>
       <c r="J8" s="3">
+        <v>9754300</v>
+      </c>
+      <c r="K8" s="3">
         <v>9363300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8726700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8169300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7932000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4763700</v>
+        <v>5191800</v>
       </c>
       <c r="E9" s="3">
-        <v>4714200</v>
+        <v>4761800</v>
       </c>
       <c r="F9" s="3">
-        <v>4999200</v>
+        <v>4712400</v>
       </c>
       <c r="G9" s="3">
-        <v>4634900</v>
+        <v>4997200</v>
       </c>
       <c r="H9" s="3">
-        <v>4420600</v>
+        <v>4633100</v>
       </c>
       <c r="I9" s="3">
-        <v>4342900</v>
+        <v>4418900</v>
       </c>
       <c r="J9" s="3">
+        <v>4341200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4160000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3819800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3628400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3630700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7279800</v>
+        <v>8021600</v>
       </c>
       <c r="E10" s="3">
-        <v>6738900</v>
+        <v>7276900</v>
       </c>
       <c r="F10" s="3">
-        <v>6066100</v>
+        <v>6736200</v>
       </c>
       <c r="G10" s="3">
-        <v>5810200</v>
+        <v>6063700</v>
       </c>
       <c r="H10" s="3">
-        <v>5569100</v>
+        <v>5807900</v>
       </c>
       <c r="I10" s="3">
-        <v>5415300</v>
+        <v>5566900</v>
       </c>
       <c r="J10" s="3">
+        <v>5413100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5203300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4906800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4540800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4301300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>164100</v>
+        <v>146000</v>
       </c>
       <c r="E14" s="3">
-        <v>100500</v>
+        <v>164000</v>
       </c>
       <c r="F14" s="3">
+        <v>100400</v>
+      </c>
+      <c r="G14" s="3">
         <v>98900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>87900</v>
       </c>
-      <c r="I14" s="3">
-        <v>122500</v>
-      </c>
       <c r="J14" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K14" s="3">
         <v>42400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2364600</v>
+        <v>2523700</v>
       </c>
       <c r="E15" s="3">
-        <v>2023100</v>
+        <v>2363600</v>
       </c>
       <c r="F15" s="3">
-        <v>1779700</v>
+        <v>2022300</v>
       </c>
       <c r="G15" s="3">
-        <v>1702800</v>
+        <v>1779000</v>
       </c>
       <c r="H15" s="3">
-        <v>1607000</v>
+        <v>1702100</v>
       </c>
       <c r="I15" s="3">
-        <v>1498700</v>
+        <v>1606400</v>
       </c>
       <c r="J15" s="3">
+        <v>1498100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1439800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1388000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1404000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1390500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10095000</v>
+        <v>10801200</v>
       </c>
       <c r="E17" s="3">
-        <v>9116000</v>
+        <v>10091000</v>
       </c>
       <c r="F17" s="3">
-        <v>8838100</v>
+        <v>9112400</v>
       </c>
       <c r="G17" s="3">
-        <v>8293300</v>
+        <v>8834600</v>
       </c>
       <c r="H17" s="3">
-        <v>8276800</v>
+        <v>8290000</v>
       </c>
       <c r="I17" s="3">
-        <v>7910900</v>
+        <v>8273500</v>
       </c>
       <c r="J17" s="3">
+        <v>7907800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7374800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7336400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6956500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6420100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1948500</v>
+        <v>2412300</v>
       </c>
       <c r="E18" s="3">
-        <v>2337100</v>
+        <v>1947700</v>
       </c>
       <c r="F18" s="3">
-        <v>2227200</v>
+        <v>2336200</v>
       </c>
       <c r="G18" s="3">
-        <v>2151800</v>
+        <v>2226300</v>
       </c>
       <c r="H18" s="3">
-        <v>1713000</v>
+        <v>2151000</v>
       </c>
       <c r="I18" s="3">
-        <v>1847200</v>
+        <v>1712300</v>
       </c>
       <c r="J18" s="3">
+        <v>1846500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1988500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1390300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1212700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1511900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-44700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-44700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-23600</v>
-      </c>
       <c r="I20" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="J20" s="3">
         <v>8600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-132700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>257100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>270300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4259500</v>
+        <v>4896600</v>
       </c>
       <c r="E21" s="3">
-        <v>4315700</v>
+        <v>4255400</v>
       </c>
       <c r="F21" s="3">
-        <v>3955500</v>
+        <v>4312000</v>
       </c>
       <c r="G21" s="3">
-        <v>3842700</v>
+        <v>3952100</v>
       </c>
       <c r="H21" s="3">
-        <v>3290400</v>
+        <v>3839500</v>
       </c>
       <c r="I21" s="3">
-        <v>3348900</v>
+        <v>3287500</v>
       </c>
       <c r="J21" s="3">
+        <v>3346100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3290200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3032900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2887600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2915200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>560500</v>
+        <v>597200</v>
       </c>
       <c r="E22" s="3">
-        <v>538500</v>
+        <v>560300</v>
       </c>
       <c r="F22" s="3">
-        <v>474200</v>
+        <v>538300</v>
       </c>
       <c r="G22" s="3">
-        <v>444300</v>
+        <v>474000</v>
       </c>
       <c r="H22" s="3">
-        <v>384700</v>
+        <v>444200</v>
       </c>
       <c r="I22" s="3">
-        <v>359600</v>
+        <v>384500</v>
       </c>
       <c r="J22" s="3">
+        <v>359400</v>
+      </c>
+      <c r="K22" s="3">
         <v>343900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>286400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>263500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>295800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1343200</v>
+        <v>1787600</v>
       </c>
       <c r="E23" s="3">
-        <v>1761700</v>
+        <v>1342700</v>
       </c>
       <c r="F23" s="3">
-        <v>1708300</v>
+        <v>1761000</v>
       </c>
       <c r="G23" s="3">
-        <v>1702000</v>
+        <v>1707600</v>
       </c>
       <c r="H23" s="3">
-        <v>1304800</v>
+        <v>1701300</v>
       </c>
       <c r="I23" s="3">
-        <v>1496300</v>
+        <v>1304200</v>
       </c>
       <c r="J23" s="3">
+        <v>1495700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1512000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1361000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1219500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1222300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>354100</v>
+        <v>455100</v>
       </c>
       <c r="E24" s="3">
-        <v>367400</v>
+        <v>353900</v>
       </c>
       <c r="F24" s="3">
-        <v>433300</v>
+        <v>367300</v>
       </c>
       <c r="G24" s="3">
-        <v>463200</v>
+        <v>433200</v>
       </c>
       <c r="H24" s="3">
-        <v>334400</v>
+        <v>463000</v>
       </c>
       <c r="I24" s="3">
-        <v>411400</v>
+        <v>334300</v>
       </c>
       <c r="J24" s="3">
+        <v>411200</v>
+      </c>
+      <c r="K24" s="3">
         <v>393300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>364900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>313200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>288900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>989200</v>
+        <v>1332500</v>
       </c>
       <c r="E26" s="3">
-        <v>1394200</v>
+        <v>988800</v>
       </c>
       <c r="F26" s="3">
-        <v>1274900</v>
+        <v>1393700</v>
       </c>
       <c r="G26" s="3">
-        <v>1238800</v>
+        <v>1274400</v>
       </c>
       <c r="H26" s="3">
-        <v>970300</v>
+        <v>1238300</v>
       </c>
       <c r="I26" s="3">
-        <v>1084900</v>
+        <v>969900</v>
       </c>
       <c r="J26" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1118700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>996100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>906400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>933400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>947600</v>
+        <v>1298700</v>
       </c>
       <c r="E27" s="3">
-        <v>1370700</v>
+        <v>947200</v>
       </c>
       <c r="F27" s="3">
-        <v>1256100</v>
+        <v>1370200</v>
       </c>
       <c r="G27" s="3">
-        <v>1223900</v>
+        <v>1255600</v>
       </c>
       <c r="H27" s="3">
-        <v>960100</v>
+        <v>1223400</v>
       </c>
       <c r="I27" s="3">
-        <v>1084900</v>
+        <v>959700</v>
       </c>
       <c r="J27" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1118700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>996100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>906400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>936500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E32" s="3">
         <v>44700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>44700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5500</v>
       </c>
-      <c r="H32" s="3">
-        <v>23600</v>
-      </c>
       <c r="I32" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>132700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-257100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-270300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>947600</v>
+        <v>1298700</v>
       </c>
       <c r="E33" s="3">
-        <v>1370700</v>
+        <v>947200</v>
       </c>
       <c r="F33" s="3">
-        <v>1256100</v>
+        <v>1370200</v>
       </c>
       <c r="G33" s="3">
-        <v>1223900</v>
+        <v>1255600</v>
       </c>
       <c r="H33" s="3">
-        <v>960100</v>
+        <v>1223400</v>
       </c>
       <c r="I33" s="3">
-        <v>1084900</v>
+        <v>959700</v>
       </c>
       <c r="J33" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1118700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>996100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>906400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>936500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>947600</v>
+        <v>1298700</v>
       </c>
       <c r="E35" s="3">
-        <v>1370700</v>
+        <v>947200</v>
       </c>
       <c r="F35" s="3">
-        <v>1256100</v>
+        <v>1370200</v>
       </c>
       <c r="G35" s="3">
-        <v>1223900</v>
+        <v>1255600</v>
       </c>
       <c r="H35" s="3">
-        <v>960100</v>
+        <v>1223400</v>
       </c>
       <c r="I35" s="3">
-        <v>1084900</v>
+        <v>959700</v>
       </c>
       <c r="J35" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1118700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>996100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>906400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>936500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>665700</v>
+        <v>567400</v>
       </c>
       <c r="E41" s="3">
-        <v>420000</v>
+        <v>665500</v>
       </c>
       <c r="F41" s="3">
-        <v>325000</v>
+        <v>419800</v>
       </c>
       <c r="G41" s="3">
-        <v>399600</v>
+        <v>324900</v>
       </c>
       <c r="H41" s="3">
-        <v>339100</v>
+        <v>399400</v>
       </c>
       <c r="I41" s="3">
-        <v>175100</v>
+        <v>339000</v>
       </c>
       <c r="J41" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K41" s="3">
         <v>47100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>258700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2309600</v>
+        <v>2605300</v>
       </c>
       <c r="E43" s="3">
-        <v>2218600</v>
+        <v>2308700</v>
       </c>
       <c r="F43" s="3">
-        <v>1933600</v>
+        <v>2217700</v>
       </c>
       <c r="G43" s="3">
-        <v>1936700</v>
+        <v>1932800</v>
       </c>
       <c r="H43" s="3">
-        <v>1161900</v>
+        <v>1936000</v>
       </c>
       <c r="I43" s="3">
-        <v>1121800</v>
+        <v>1161400</v>
       </c>
       <c r="J43" s="3">
+        <v>1121400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1240400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1149300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1178900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1147700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>319500</v>
+        <v>351600</v>
       </c>
       <c r="E44" s="3">
-        <v>343100</v>
+        <v>319400</v>
       </c>
       <c r="F44" s="3">
-        <v>295200</v>
+        <v>342900</v>
       </c>
       <c r="G44" s="3">
-        <v>298300</v>
+        <v>295100</v>
       </c>
       <c r="H44" s="3">
-        <v>249600</v>
+        <v>298200</v>
       </c>
       <c r="I44" s="3">
-        <v>282600</v>
+        <v>249500</v>
       </c>
       <c r="J44" s="3">
+        <v>282500</v>
+      </c>
+      <c r="K44" s="3">
         <v>251200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>251000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>263500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>271200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>381500</v>
+        <v>424500</v>
       </c>
       <c r="E45" s="3">
-        <v>435700</v>
+        <v>376700</v>
       </c>
       <c r="F45" s="3">
-        <v>461600</v>
+        <v>435500</v>
       </c>
       <c r="G45" s="3">
-        <v>401200</v>
+        <v>461400</v>
       </c>
       <c r="H45" s="3">
-        <v>191600</v>
+        <v>401000</v>
       </c>
       <c r="I45" s="3">
-        <v>250400</v>
+        <v>191500</v>
       </c>
       <c r="J45" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K45" s="3">
         <v>177400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>133900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>140800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>121400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3676400</v>
+        <v>3948800</v>
       </c>
       <c r="E46" s="3">
-        <v>3417300</v>
+        <v>3670200</v>
       </c>
       <c r="F46" s="3">
-        <v>3015400</v>
+        <v>3416000</v>
       </c>
       <c r="G46" s="3">
-        <v>3035800</v>
+        <v>3014200</v>
       </c>
       <c r="H46" s="3">
-        <v>1942200</v>
+        <v>3034600</v>
       </c>
       <c r="I46" s="3">
-        <v>1830000</v>
+        <v>1941400</v>
       </c>
       <c r="J46" s="3">
+        <v>1829200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1716100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1792900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1663700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1575600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>823500</v>
+        <v>1187300</v>
       </c>
       <c r="E47" s="3">
-        <v>427900</v>
+        <v>823200</v>
       </c>
       <c r="F47" s="3">
-        <v>472600</v>
+        <v>427700</v>
       </c>
       <c r="G47" s="3">
-        <v>380000</v>
+        <v>472400</v>
       </c>
       <c r="H47" s="3">
-        <v>65200</v>
+        <v>379800</v>
       </c>
       <c r="I47" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J47" s="3">
         <v>73800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>55000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>45400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>43700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11786700</v>
+        <v>12497800</v>
       </c>
       <c r="E48" s="3">
-        <v>11172800</v>
+        <v>11782100</v>
       </c>
       <c r="F48" s="3">
-        <v>18984100</v>
+        <v>11168400</v>
       </c>
       <c r="G48" s="3">
-        <v>8924400</v>
+        <v>18976600</v>
       </c>
       <c r="H48" s="3">
-        <v>8214800</v>
+        <v>8920900</v>
       </c>
       <c r="I48" s="3">
-        <v>7643200</v>
+        <v>8211500</v>
       </c>
       <c r="J48" s="3">
+        <v>7640200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7162000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6486500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6146500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6118200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17476000</v>
+        <v>19434900</v>
       </c>
       <c r="E49" s="3">
-        <v>14251000</v>
+        <v>17427500</v>
       </c>
       <c r="F49" s="3">
-        <v>24627000</v>
+        <v>14245400</v>
       </c>
       <c r="G49" s="3">
-        <v>11692500</v>
+        <v>24617300</v>
       </c>
       <c r="H49" s="3">
-        <v>11109200</v>
+        <v>11687900</v>
       </c>
       <c r="I49" s="3">
-        <v>10791300</v>
+        <v>11104900</v>
       </c>
       <c r="J49" s="3">
+        <v>10787000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9070500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7904500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7439800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7539400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>255100</v>
+        <v>594000</v>
       </c>
       <c r="E52" s="3">
-        <v>551100</v>
+        <v>255000</v>
       </c>
       <c r="F52" s="3">
-        <v>661000</v>
+        <v>550900</v>
       </c>
       <c r="G52" s="3">
-        <v>345400</v>
+        <v>660800</v>
       </c>
       <c r="H52" s="3">
-        <v>437300</v>
+        <v>345300</v>
       </c>
       <c r="I52" s="3">
-        <v>391700</v>
+        <v>437100</v>
       </c>
       <c r="J52" s="3">
+        <v>391600</v>
+      </c>
+      <c r="K52" s="3">
         <v>223000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>371100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>97100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34017800</v>
+        <v>37662800</v>
       </c>
       <c r="E54" s="3">
-        <v>29820100</v>
+        <v>33958100</v>
       </c>
       <c r="F54" s="3">
-        <v>25951400</v>
+        <v>29808300</v>
       </c>
       <c r="G54" s="3">
-        <v>24378200</v>
+        <v>25941200</v>
       </c>
       <c r="H54" s="3">
-        <v>21768700</v>
+        <v>24368500</v>
       </c>
       <c r="I54" s="3">
-        <v>20730000</v>
+        <v>21760100</v>
       </c>
       <c r="J54" s="3">
+        <v>20721800</v>
+      </c>
+      <c r="K54" s="3">
         <v>18226500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16600400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15390800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15311600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>671200</v>
+        <v>951900</v>
       </c>
       <c r="E57" s="3">
-        <v>700300</v>
+        <v>678000</v>
       </c>
       <c r="F57" s="3">
-        <v>538500</v>
+        <v>700000</v>
       </c>
       <c r="G57" s="3">
-        <v>562900</v>
+        <v>538300</v>
       </c>
       <c r="H57" s="3">
-        <v>453800</v>
+        <v>562700</v>
       </c>
       <c r="I57" s="3">
-        <v>373700</v>
+        <v>453600</v>
       </c>
       <c r="J57" s="3">
+        <v>373500</v>
+      </c>
+      <c r="K57" s="3">
         <v>359600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>352600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>353100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>348000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1202700</v>
+        <v>2386400</v>
       </c>
       <c r="E58" s="3">
-        <v>1124200</v>
+        <v>1202200</v>
       </c>
       <c r="F58" s="3">
-        <v>734800</v>
+        <v>1123700</v>
       </c>
       <c r="G58" s="3">
-        <v>1180700</v>
+        <v>734500</v>
       </c>
       <c r="H58" s="3">
-        <v>1120300</v>
+        <v>1180200</v>
       </c>
       <c r="I58" s="3">
-        <v>750500</v>
+        <v>1119800</v>
       </c>
       <c r="J58" s="3">
+        <v>750200</v>
+      </c>
+      <c r="K58" s="3">
         <v>278700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>307900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>712900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1129300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2764900</v>
+        <v>3153900</v>
       </c>
       <c r="E59" s="3">
-        <v>2979300</v>
+        <v>2753700</v>
       </c>
       <c r="F59" s="3">
-        <v>3042100</v>
+        <v>2978100</v>
       </c>
       <c r="G59" s="3">
-        <v>2213100</v>
+        <v>3040900</v>
       </c>
       <c r="H59" s="3">
-        <v>2312800</v>
+        <v>2212200</v>
       </c>
       <c r="I59" s="3">
-        <v>2232700</v>
+        <v>2311800</v>
       </c>
       <c r="J59" s="3">
+        <v>2231800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2108600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1879100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1583900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1476500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4638900</v>
+        <v>6492200</v>
       </c>
       <c r="E60" s="3">
-        <v>4375900</v>
+        <v>4633900</v>
       </c>
       <c r="F60" s="3">
-        <v>3802800</v>
+        <v>4374100</v>
       </c>
       <c r="G60" s="3">
-        <v>3956700</v>
+        <v>3801300</v>
       </c>
       <c r="H60" s="3">
-        <v>3886800</v>
+        <v>3955100</v>
       </c>
       <c r="I60" s="3">
-        <v>3356900</v>
+        <v>3885200</v>
       </c>
       <c r="J60" s="3">
+        <v>3355500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2746900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2539600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2649800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2953800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14802900</v>
+        <v>14066500</v>
       </c>
       <c r="E61" s="3">
-        <v>13457300</v>
+        <v>14797100</v>
       </c>
       <c r="F61" s="3">
-        <v>10413700</v>
+        <v>13452000</v>
       </c>
       <c r="G61" s="3">
-        <v>9621600</v>
+        <v>10409600</v>
       </c>
       <c r="H61" s="3">
-        <v>9109700</v>
+        <v>9617800</v>
       </c>
       <c r="I61" s="3">
-        <v>8778400</v>
+        <v>9106100</v>
       </c>
       <c r="J61" s="3">
+        <v>8775000</v>
+      </c>
+      <c r="K61" s="3">
         <v>7108600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5768300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4299200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4231400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4682800</v>
+        <v>4502100</v>
       </c>
       <c r="E62" s="3">
-        <v>3679500</v>
+        <v>5389600</v>
       </c>
       <c r="F62" s="3">
-        <v>4255000</v>
+        <v>3678100</v>
       </c>
       <c r="G62" s="3">
-        <v>3374900</v>
+        <v>4253300</v>
       </c>
       <c r="H62" s="3">
-        <v>2542000</v>
+        <v>3373600</v>
       </c>
       <c r="I62" s="3">
-        <v>2571800</v>
+        <v>2541000</v>
       </c>
       <c r="J62" s="3">
+        <v>2570800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2519200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2123900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2655800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2354600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24539100</v>
+        <v>25800700</v>
       </c>
       <c r="E66" s="3">
-        <v>21539400</v>
+        <v>24509800</v>
       </c>
       <c r="F66" s="3">
-        <v>17897600</v>
+        <v>21530900</v>
       </c>
       <c r="G66" s="3">
-        <v>16986100</v>
+        <v>17890500</v>
       </c>
       <c r="H66" s="3">
-        <v>15553400</v>
+        <v>16979400</v>
       </c>
       <c r="I66" s="3">
-        <v>14707100</v>
+        <v>15547300</v>
       </c>
       <c r="J66" s="3">
+        <v>14701300</v>
+      </c>
+      <c r="K66" s="3">
         <v>12374700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10431800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9604800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9539900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2940800</v>
+        <v>3339900</v>
       </c>
       <c r="E72" s="3">
-        <v>3431500</v>
+        <v>2913000</v>
       </c>
       <c r="F72" s="3">
-        <v>3512300</v>
+        <v>3430100</v>
       </c>
       <c r="G72" s="3">
-        <v>2978500</v>
+        <v>3510900</v>
       </c>
       <c r="H72" s="3">
-        <v>1942200</v>
+        <v>2977300</v>
       </c>
       <c r="I72" s="3">
-        <v>1906100</v>
+        <v>1941400</v>
       </c>
       <c r="J72" s="3">
+        <v>1905300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1648600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1954600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1433300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1367400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9478700</v>
+        <v>11862100</v>
       </c>
       <c r="E76" s="3">
-        <v>8280700</v>
+        <v>9448300</v>
       </c>
       <c r="F76" s="3">
-        <v>8053800</v>
+        <v>8277400</v>
       </c>
       <c r="G76" s="3">
-        <v>7392000</v>
+        <v>8050600</v>
       </c>
       <c r="H76" s="3">
-        <v>6215200</v>
+        <v>7389100</v>
       </c>
       <c r="I76" s="3">
-        <v>6022900</v>
+        <v>6212800</v>
       </c>
       <c r="J76" s="3">
+        <v>6020500</v>
+      </c>
+      <c r="K76" s="3">
         <v>5851800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6170100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5785900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5771700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>947600</v>
+        <v>1298700</v>
       </c>
       <c r="E81" s="3">
-        <v>1370700</v>
+        <v>947200</v>
       </c>
       <c r="F81" s="3">
-        <v>1256100</v>
+        <v>1370200</v>
       </c>
       <c r="G81" s="3">
-        <v>1223900</v>
+        <v>1255600</v>
       </c>
       <c r="H81" s="3">
-        <v>960100</v>
+        <v>1223400</v>
       </c>
       <c r="I81" s="3">
-        <v>1084900</v>
+        <v>959700</v>
       </c>
       <c r="J81" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1118700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>996100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>906400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>936500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2364600</v>
+        <v>2523700</v>
       </c>
       <c r="E83" s="3">
-        <v>2023100</v>
+        <v>2363600</v>
       </c>
       <c r="F83" s="3">
-        <v>1779700</v>
+        <v>2022300</v>
       </c>
       <c r="G83" s="3">
-        <v>1702800</v>
+        <v>1779000</v>
       </c>
       <c r="H83" s="3">
-        <v>1607000</v>
+        <v>1702100</v>
       </c>
       <c r="I83" s="3">
-        <v>1498700</v>
+        <v>1606400</v>
       </c>
       <c r="J83" s="3">
+        <v>1498100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1439800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1388000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1404000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1390500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3590800</v>
+        <v>3443400</v>
       </c>
       <c r="E89" s="3">
-        <v>3082900</v>
+        <v>3589400</v>
       </c>
       <c r="F89" s="3">
-        <v>3185700</v>
+        <v>3081700</v>
       </c>
       <c r="G89" s="3">
-        <v>3098600</v>
+        <v>3184500</v>
       </c>
       <c r="H89" s="3">
-        <v>2527100</v>
+        <v>3097400</v>
       </c>
       <c r="I89" s="3">
-        <v>2791600</v>
+        <v>2526100</v>
       </c>
       <c r="J89" s="3">
+        <v>2790500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2674700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2498800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2423200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1959000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2097700</v>
+        <v>-2501800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2176200</v>
+        <v>-2096800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1870800</v>
+        <v>-2175300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1951600</v>
+        <v>-1870000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1851100</v>
+        <v>-1950900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1606200</v>
+        <v>-1850400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1605600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1505700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1266400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2644600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1418900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4839800</v>
+        <v>-4289400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3959800</v>
+        <v>-4837900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2337100</v>
+        <v>-3958200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2859900</v>
+        <v>-2336200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2294700</v>
+        <v>-2858800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3514700</v>
+        <v>-2293800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3513300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2879600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1839100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1549200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1511900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-730100</v>
+        <v>-820100</v>
       </c>
       <c r="E96" s="3">
-        <v>-902000</v>
+        <v>-729800</v>
       </c>
       <c r="F96" s="3">
-        <v>-895700</v>
+        <v>-901700</v>
       </c>
       <c r="G96" s="3">
-        <v>-849400</v>
+        <v>-895400</v>
       </c>
       <c r="H96" s="3">
-        <v>-840000</v>
+        <v>-849100</v>
       </c>
       <c r="I96" s="3">
-        <v>-778800</v>
+        <v>-839700</v>
       </c>
       <c r="J96" s="3">
+        <v>-778500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-716800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-655900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-582700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-493200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1494700</v>
+        <v>747900</v>
       </c>
       <c r="E100" s="3">
-        <v>971900</v>
+        <v>1494100</v>
       </c>
       <c r="F100" s="3">
-        <v>-923200</v>
+        <v>971500</v>
       </c>
       <c r="G100" s="3">
-        <v>-178200</v>
+        <v>-922900</v>
       </c>
       <c r="H100" s="3">
+        <v>-178100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-68300</v>
       </c>
-      <c r="I100" s="3">
-        <v>851000</v>
-      </c>
       <c r="J100" s="3">
+        <v>850700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-483400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-828100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-424800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>245700</v>
+        <v>-98100</v>
       </c>
       <c r="E102" s="3">
+        <v>245600</v>
+      </c>
+      <c r="F102" s="3">
         <v>95000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-74600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60400</v>
       </c>
-      <c r="H102" s="3">
-        <v>164100</v>
-      </c>
       <c r="I102" s="3">
-        <v>128000</v>
+        <v>164000</v>
       </c>
       <c r="J102" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-216700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>176300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13213500</v>
+        <v>12908700</v>
       </c>
       <c r="E8" s="3">
-        <v>12038700</v>
+        <v>11761000</v>
       </c>
       <c r="F8" s="3">
-        <v>11448600</v>
+        <v>11184500</v>
       </c>
       <c r="G8" s="3">
-        <v>11060900</v>
+        <v>10805800</v>
       </c>
       <c r="H8" s="3">
-        <v>10441000</v>
+        <v>10200100</v>
       </c>
       <c r="I8" s="3">
-        <v>9985800</v>
+        <v>9755500</v>
       </c>
       <c r="J8" s="3">
-        <v>9754300</v>
+        <v>9529300</v>
       </c>
       <c r="K8" s="3">
         <v>9363300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5191800</v>
+        <v>5072100</v>
       </c>
       <c r="E9" s="3">
-        <v>4761800</v>
+        <v>4652000</v>
       </c>
       <c r="F9" s="3">
-        <v>4712400</v>
+        <v>4603700</v>
       </c>
       <c r="G9" s="3">
-        <v>4997200</v>
+        <v>4882000</v>
       </c>
       <c r="H9" s="3">
-        <v>4633100</v>
+        <v>4526200</v>
       </c>
       <c r="I9" s="3">
-        <v>4418900</v>
+        <v>4316900</v>
       </c>
       <c r="J9" s="3">
-        <v>4341200</v>
+        <v>4241100</v>
       </c>
       <c r="K9" s="3">
         <v>4160000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8021600</v>
+        <v>7836600</v>
       </c>
       <c r="E10" s="3">
-        <v>7276900</v>
+        <v>7109100</v>
       </c>
       <c r="F10" s="3">
-        <v>6736200</v>
+        <v>6580800</v>
       </c>
       <c r="G10" s="3">
-        <v>6063700</v>
+        <v>5923800</v>
       </c>
       <c r="H10" s="3">
-        <v>5807900</v>
+        <v>5673900</v>
       </c>
       <c r="I10" s="3">
-        <v>5566900</v>
+        <v>5438500</v>
       </c>
       <c r="J10" s="3">
-        <v>5413100</v>
+        <v>5288300</v>
       </c>
       <c r="K10" s="3">
         <v>5203300</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>146000</v>
+        <v>142600</v>
       </c>
       <c r="E14" s="3">
-        <v>164000</v>
+        <v>160200</v>
       </c>
       <c r="F14" s="3">
-        <v>100400</v>
+        <v>98100</v>
       </c>
       <c r="G14" s="3">
-        <v>98900</v>
+        <v>96600</v>
       </c>
       <c r="H14" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="I14" s="3">
-        <v>87900</v>
+        <v>85900</v>
       </c>
       <c r="J14" s="3">
-        <v>122400</v>
+        <v>119600</v>
       </c>
       <c r="K14" s="3">
         <v>42400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2523700</v>
+        <v>2465500</v>
       </c>
       <c r="E15" s="3">
-        <v>2363600</v>
+        <v>2309100</v>
       </c>
       <c r="F15" s="3">
-        <v>2022300</v>
+        <v>1975600</v>
       </c>
       <c r="G15" s="3">
-        <v>1779000</v>
+        <v>1738000</v>
       </c>
       <c r="H15" s="3">
-        <v>1702100</v>
+        <v>1662800</v>
       </c>
       <c r="I15" s="3">
-        <v>1606400</v>
+        <v>1569300</v>
       </c>
       <c r="J15" s="3">
-        <v>1498100</v>
+        <v>1463500</v>
       </c>
       <c r="K15" s="3">
         <v>1439800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10801200</v>
+        <v>10552000</v>
       </c>
       <c r="E17" s="3">
-        <v>10091000</v>
+        <v>9858200</v>
       </c>
       <c r="F17" s="3">
-        <v>9112400</v>
+        <v>8902200</v>
       </c>
       <c r="G17" s="3">
-        <v>8834600</v>
+        <v>8630800</v>
       </c>
       <c r="H17" s="3">
-        <v>8290000</v>
+        <v>8098800</v>
       </c>
       <c r="I17" s="3">
-        <v>8273500</v>
+        <v>8082700</v>
       </c>
       <c r="J17" s="3">
-        <v>7907800</v>
+        <v>7725400</v>
       </c>
       <c r="K17" s="3">
         <v>7374800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2412300</v>
+        <v>2356700</v>
       </c>
       <c r="E18" s="3">
-        <v>1947700</v>
+        <v>1902800</v>
       </c>
       <c r="F18" s="3">
-        <v>2336200</v>
+        <v>2282300</v>
       </c>
       <c r="G18" s="3">
-        <v>2226300</v>
+        <v>2175000</v>
       </c>
       <c r="H18" s="3">
-        <v>2151000</v>
+        <v>2101400</v>
       </c>
       <c r="I18" s="3">
-        <v>1712300</v>
+        <v>1672800</v>
       </c>
       <c r="J18" s="3">
-        <v>1846500</v>
+        <v>1803900</v>
       </c>
       <c r="K18" s="3">
         <v>1988500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27500</v>
+        <v>-26800</v>
       </c>
       <c r="E20" s="3">
-        <v>-44700</v>
+        <v>-43700</v>
       </c>
       <c r="F20" s="3">
-        <v>-36900</v>
+        <v>-36000</v>
       </c>
       <c r="G20" s="3">
-        <v>-44700</v>
+        <v>-43700</v>
       </c>
       <c r="H20" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="I20" s="3">
-        <v>-23500</v>
+        <v>-23000</v>
       </c>
       <c r="J20" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="K20" s="3">
         <v>-132700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4896600</v>
+        <v>4805000</v>
       </c>
       <c r="E21" s="3">
-        <v>4255400</v>
+        <v>4177300</v>
       </c>
       <c r="F21" s="3">
-        <v>4312000</v>
+        <v>4229600</v>
       </c>
       <c r="G21" s="3">
-        <v>3952100</v>
+        <v>3876100</v>
       </c>
       <c r="H21" s="3">
-        <v>3839500</v>
+        <v>3765400</v>
       </c>
       <c r="I21" s="3">
-        <v>3287500</v>
+        <v>3225300</v>
       </c>
       <c r="J21" s="3">
-        <v>3346100</v>
+        <v>3281600</v>
       </c>
       <c r="K21" s="3">
         <v>3290200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>597200</v>
+        <v>583400</v>
       </c>
       <c r="E22" s="3">
-        <v>560300</v>
+        <v>547400</v>
       </c>
       <c r="F22" s="3">
-        <v>538300</v>
+        <v>525900</v>
       </c>
       <c r="G22" s="3">
-        <v>474000</v>
+        <v>463100</v>
       </c>
       <c r="H22" s="3">
-        <v>444200</v>
+        <v>433900</v>
       </c>
       <c r="I22" s="3">
-        <v>384500</v>
+        <v>375700</v>
       </c>
       <c r="J22" s="3">
-        <v>359400</v>
+        <v>351100</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1787600</v>
+        <v>1746400</v>
       </c>
       <c r="E23" s="3">
-        <v>1342700</v>
+        <v>1311700</v>
       </c>
       <c r="F23" s="3">
-        <v>1761000</v>
+        <v>1720300</v>
       </c>
       <c r="G23" s="3">
-        <v>1707600</v>
+        <v>1668200</v>
       </c>
       <c r="H23" s="3">
-        <v>1701300</v>
+        <v>1662100</v>
       </c>
       <c r="I23" s="3">
-        <v>1304200</v>
+        <v>1274200</v>
       </c>
       <c r="J23" s="3">
-        <v>1495700</v>
+        <v>1461200</v>
       </c>
       <c r="K23" s="3">
         <v>1512000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>455100</v>
+        <v>444700</v>
       </c>
       <c r="E24" s="3">
-        <v>353900</v>
+        <v>345800</v>
       </c>
       <c r="F24" s="3">
-        <v>367300</v>
+        <v>358800</v>
       </c>
       <c r="G24" s="3">
-        <v>433200</v>
+        <v>423200</v>
       </c>
       <c r="H24" s="3">
-        <v>463000</v>
+        <v>452300</v>
       </c>
       <c r="I24" s="3">
-        <v>334300</v>
+        <v>326600</v>
       </c>
       <c r="J24" s="3">
-        <v>411200</v>
+        <v>401700</v>
       </c>
       <c r="K24" s="3">
         <v>393300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1332500</v>
+        <v>1301800</v>
       </c>
       <c r="E26" s="3">
-        <v>988800</v>
+        <v>966000</v>
       </c>
       <c r="F26" s="3">
-        <v>1393700</v>
+        <v>1361600</v>
       </c>
       <c r="G26" s="3">
-        <v>1274400</v>
+        <v>1245000</v>
       </c>
       <c r="H26" s="3">
-        <v>1238300</v>
+        <v>1209800</v>
       </c>
       <c r="I26" s="3">
-        <v>969900</v>
+        <v>947600</v>
       </c>
       <c r="J26" s="3">
-        <v>1084500</v>
+        <v>1059500</v>
       </c>
       <c r="K26" s="3">
         <v>1118700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1298700</v>
+        <v>1268800</v>
       </c>
       <c r="E27" s="3">
-        <v>947200</v>
+        <v>925300</v>
       </c>
       <c r="F27" s="3">
-        <v>1370200</v>
+        <v>1338600</v>
       </c>
       <c r="G27" s="3">
-        <v>1255600</v>
+        <v>1226600</v>
       </c>
       <c r="H27" s="3">
-        <v>1223400</v>
+        <v>1195200</v>
       </c>
       <c r="I27" s="3">
-        <v>959700</v>
+        <v>937600</v>
       </c>
       <c r="J27" s="3">
-        <v>1084500</v>
+        <v>1059500</v>
       </c>
       <c r="K27" s="3">
         <v>1118700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27500</v>
+        <v>26800</v>
       </c>
       <c r="E32" s="3">
-        <v>44700</v>
+        <v>43700</v>
       </c>
       <c r="F32" s="3">
-        <v>36900</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="3">
-        <v>44700</v>
+        <v>43700</v>
       </c>
       <c r="H32" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I32" s="3">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="J32" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="K32" s="3">
         <v>132700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1298700</v>
+        <v>1268800</v>
       </c>
       <c r="E33" s="3">
-        <v>947200</v>
+        <v>925300</v>
       </c>
       <c r="F33" s="3">
-        <v>1370200</v>
+        <v>1338600</v>
       </c>
       <c r="G33" s="3">
-        <v>1255600</v>
+        <v>1226600</v>
       </c>
       <c r="H33" s="3">
-        <v>1223400</v>
+        <v>1195200</v>
       </c>
       <c r="I33" s="3">
-        <v>959700</v>
+        <v>937600</v>
       </c>
       <c r="J33" s="3">
-        <v>1084500</v>
+        <v>1059500</v>
       </c>
       <c r="K33" s="3">
         <v>1118700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1298700</v>
+        <v>1268800</v>
       </c>
       <c r="E35" s="3">
-        <v>947200</v>
+        <v>925300</v>
       </c>
       <c r="F35" s="3">
-        <v>1370200</v>
+        <v>1338600</v>
       </c>
       <c r="G35" s="3">
-        <v>1255600</v>
+        <v>1226600</v>
       </c>
       <c r="H35" s="3">
-        <v>1223400</v>
+        <v>1195200</v>
       </c>
       <c r="I35" s="3">
-        <v>959700</v>
+        <v>937600</v>
       </c>
       <c r="J35" s="3">
-        <v>1084500</v>
+        <v>1059500</v>
       </c>
       <c r="K35" s="3">
         <v>1118700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>567400</v>
+        <v>554300</v>
       </c>
       <c r="E41" s="3">
-        <v>665500</v>
+        <v>650100</v>
       </c>
       <c r="F41" s="3">
-        <v>419800</v>
+        <v>410200</v>
       </c>
       <c r="G41" s="3">
-        <v>324900</v>
+        <v>317400</v>
       </c>
       <c r="H41" s="3">
-        <v>399400</v>
+        <v>390200</v>
       </c>
       <c r="I41" s="3">
-        <v>339000</v>
+        <v>331200</v>
       </c>
       <c r="J41" s="3">
-        <v>175000</v>
+        <v>171000</v>
       </c>
       <c r="K41" s="3">
         <v>47100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2605300</v>
+        <v>2545200</v>
       </c>
       <c r="E43" s="3">
-        <v>2308700</v>
+        <v>2255500</v>
       </c>
       <c r="F43" s="3">
-        <v>2217700</v>
+        <v>2166500</v>
       </c>
       <c r="G43" s="3">
-        <v>1932800</v>
+        <v>1888200</v>
       </c>
       <c r="H43" s="3">
-        <v>1936000</v>
+        <v>1891300</v>
       </c>
       <c r="I43" s="3">
-        <v>1161400</v>
+        <v>1134600</v>
       </c>
       <c r="J43" s="3">
-        <v>1121400</v>
+        <v>1095500</v>
       </c>
       <c r="K43" s="3">
         <v>1240400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>351600</v>
+        <v>343500</v>
       </c>
       <c r="E44" s="3">
-        <v>319400</v>
+        <v>312000</v>
       </c>
       <c r="F44" s="3">
-        <v>342900</v>
+        <v>335000</v>
       </c>
       <c r="G44" s="3">
-        <v>295100</v>
+        <v>288300</v>
       </c>
       <c r="H44" s="3">
-        <v>298200</v>
+        <v>291300</v>
       </c>
       <c r="I44" s="3">
-        <v>249500</v>
+        <v>243800</v>
       </c>
       <c r="J44" s="3">
-        <v>282500</v>
+        <v>276000</v>
       </c>
       <c r="K44" s="3">
         <v>251200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>424500</v>
+        <v>414800</v>
       </c>
       <c r="E45" s="3">
-        <v>376700</v>
+        <v>368000</v>
       </c>
       <c r="F45" s="3">
-        <v>435500</v>
+        <v>425500</v>
       </c>
       <c r="G45" s="3">
-        <v>461400</v>
+        <v>450800</v>
       </c>
       <c r="H45" s="3">
-        <v>401000</v>
+        <v>391800</v>
       </c>
       <c r="I45" s="3">
-        <v>191500</v>
+        <v>187100</v>
       </c>
       <c r="J45" s="3">
-        <v>250300</v>
+        <v>244600</v>
       </c>
       <c r="K45" s="3">
         <v>177400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3948800</v>
+        <v>3857700</v>
       </c>
       <c r="E46" s="3">
-        <v>3670200</v>
+        <v>3585600</v>
       </c>
       <c r="F46" s="3">
-        <v>3416000</v>
+        <v>3337200</v>
       </c>
       <c r="G46" s="3">
-        <v>3014200</v>
+        <v>2944700</v>
       </c>
       <c r="H46" s="3">
-        <v>3034600</v>
+        <v>2964600</v>
       </c>
       <c r="I46" s="3">
-        <v>1941400</v>
+        <v>1896700</v>
       </c>
       <c r="J46" s="3">
-        <v>1829200</v>
+        <v>1787000</v>
       </c>
       <c r="K46" s="3">
         <v>1716100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1187300</v>
+        <v>1159900</v>
       </c>
       <c r="E47" s="3">
-        <v>823200</v>
+        <v>804200</v>
       </c>
       <c r="F47" s="3">
-        <v>427700</v>
+        <v>417800</v>
       </c>
       <c r="G47" s="3">
-        <v>472400</v>
+        <v>461500</v>
       </c>
       <c r="H47" s="3">
-        <v>379800</v>
+        <v>371100</v>
       </c>
       <c r="I47" s="3">
-        <v>65100</v>
+        <v>63600</v>
       </c>
       <c r="J47" s="3">
-        <v>73800</v>
+        <v>72100</v>
       </c>
       <c r="K47" s="3">
         <v>55000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12497800</v>
+        <v>12209500</v>
       </c>
       <c r="E48" s="3">
-        <v>11782100</v>
+        <v>11510300</v>
       </c>
       <c r="F48" s="3">
-        <v>11168400</v>
+        <v>10910800</v>
       </c>
       <c r="G48" s="3">
-        <v>18976600</v>
+        <v>18538900</v>
       </c>
       <c r="H48" s="3">
-        <v>8920900</v>
+        <v>8715200</v>
       </c>
       <c r="I48" s="3">
-        <v>8211500</v>
+        <v>8022100</v>
       </c>
       <c r="J48" s="3">
-        <v>7640200</v>
+        <v>7464000</v>
       </c>
       <c r="K48" s="3">
         <v>7162000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19434900</v>
+        <v>18986600</v>
       </c>
       <c r="E49" s="3">
-        <v>17427500</v>
+        <v>17025500</v>
       </c>
       <c r="F49" s="3">
-        <v>14245400</v>
+        <v>13916800</v>
       </c>
       <c r="G49" s="3">
-        <v>24617300</v>
+        <v>24049500</v>
       </c>
       <c r="H49" s="3">
-        <v>11687900</v>
+        <v>11418300</v>
       </c>
       <c r="I49" s="3">
-        <v>11104900</v>
+        <v>10848700</v>
       </c>
       <c r="J49" s="3">
-        <v>10787000</v>
+        <v>10538200</v>
       </c>
       <c r="K49" s="3">
         <v>9070500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>594000</v>
+        <v>580300</v>
       </c>
       <c r="E52" s="3">
-        <v>255000</v>
+        <v>249200</v>
       </c>
       <c r="F52" s="3">
-        <v>550900</v>
+        <v>538200</v>
       </c>
       <c r="G52" s="3">
-        <v>660800</v>
+        <v>645500</v>
       </c>
       <c r="H52" s="3">
-        <v>345300</v>
+        <v>337300</v>
       </c>
       <c r="I52" s="3">
-        <v>437100</v>
+        <v>427000</v>
       </c>
       <c r="J52" s="3">
-        <v>391600</v>
+        <v>382600</v>
       </c>
       <c r="K52" s="3">
         <v>223000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37662800</v>
+        <v>36794100</v>
       </c>
       <c r="E54" s="3">
-        <v>33958100</v>
+        <v>33174800</v>
       </c>
       <c r="F54" s="3">
-        <v>29808300</v>
+        <v>29120800</v>
       </c>
       <c r="G54" s="3">
-        <v>25941200</v>
+        <v>25342800</v>
       </c>
       <c r="H54" s="3">
-        <v>24368500</v>
+        <v>23806500</v>
       </c>
       <c r="I54" s="3">
-        <v>21760100</v>
+        <v>21258200</v>
       </c>
       <c r="J54" s="3">
-        <v>20721800</v>
+        <v>20243900</v>
       </c>
       <c r="K54" s="3">
         <v>18226500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>951900</v>
+        <v>929900</v>
       </c>
       <c r="E57" s="3">
-        <v>678000</v>
+        <v>662400</v>
       </c>
       <c r="F57" s="3">
-        <v>700000</v>
+        <v>683800</v>
       </c>
       <c r="G57" s="3">
-        <v>538300</v>
+        <v>525900</v>
       </c>
       <c r="H57" s="3">
-        <v>562700</v>
+        <v>549700</v>
       </c>
       <c r="I57" s="3">
-        <v>453600</v>
+        <v>443100</v>
       </c>
       <c r="J57" s="3">
-        <v>373500</v>
+        <v>364900</v>
       </c>
       <c r="K57" s="3">
         <v>359600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2386400</v>
+        <v>2331400</v>
       </c>
       <c r="E58" s="3">
-        <v>1202200</v>
+        <v>1174500</v>
       </c>
       <c r="F58" s="3">
-        <v>1123700</v>
+        <v>1097800</v>
       </c>
       <c r="G58" s="3">
-        <v>734500</v>
+        <v>717600</v>
       </c>
       <c r="H58" s="3">
-        <v>1180200</v>
+        <v>1153000</v>
       </c>
       <c r="I58" s="3">
-        <v>1119800</v>
+        <v>1094000</v>
       </c>
       <c r="J58" s="3">
-        <v>750200</v>
+        <v>732900</v>
       </c>
       <c r="K58" s="3">
         <v>278700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3153900</v>
+        <v>3081100</v>
       </c>
       <c r="E59" s="3">
-        <v>2753700</v>
+        <v>2690100</v>
       </c>
       <c r="F59" s="3">
-        <v>2978100</v>
+        <v>2909400</v>
       </c>
       <c r="G59" s="3">
-        <v>3040900</v>
+        <v>2970700</v>
       </c>
       <c r="H59" s="3">
-        <v>2212200</v>
+        <v>2161200</v>
       </c>
       <c r="I59" s="3">
-        <v>2311800</v>
+        <v>2258500</v>
       </c>
       <c r="J59" s="3">
-        <v>2231800</v>
+        <v>2180300</v>
       </c>
       <c r="K59" s="3">
         <v>2108600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6492200</v>
+        <v>6342400</v>
       </c>
       <c r="E60" s="3">
-        <v>4633900</v>
+        <v>4527000</v>
       </c>
       <c r="F60" s="3">
-        <v>4374100</v>
+        <v>4273300</v>
       </c>
       <c r="G60" s="3">
-        <v>3801300</v>
+        <v>3713600</v>
       </c>
       <c r="H60" s="3">
-        <v>3955100</v>
+        <v>3863900</v>
       </c>
       <c r="I60" s="3">
-        <v>3885200</v>
+        <v>3795600</v>
       </c>
       <c r="J60" s="3">
-        <v>3355500</v>
+        <v>3278200</v>
       </c>
       <c r="K60" s="3">
         <v>2746900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14066500</v>
+        <v>13742000</v>
       </c>
       <c r="E61" s="3">
-        <v>14797100</v>
+        <v>14455800</v>
       </c>
       <c r="F61" s="3">
-        <v>13452000</v>
+        <v>13141700</v>
       </c>
       <c r="G61" s="3">
-        <v>10409600</v>
+        <v>10169500</v>
       </c>
       <c r="H61" s="3">
-        <v>9617800</v>
+        <v>9395900</v>
       </c>
       <c r="I61" s="3">
-        <v>9106100</v>
+        <v>8896100</v>
       </c>
       <c r="J61" s="3">
-        <v>8775000</v>
+        <v>8572600</v>
       </c>
       <c r="K61" s="3">
         <v>7108600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4502100</v>
+        <v>4398200</v>
       </c>
       <c r="E62" s="3">
-        <v>5389600</v>
+        <v>5265300</v>
       </c>
       <c r="F62" s="3">
-        <v>3678100</v>
+        <v>3593200</v>
       </c>
       <c r="G62" s="3">
-        <v>4253300</v>
+        <v>4155200</v>
       </c>
       <c r="H62" s="3">
-        <v>3373600</v>
+        <v>3295800</v>
       </c>
       <c r="I62" s="3">
-        <v>2541000</v>
+        <v>2482400</v>
       </c>
       <c r="J62" s="3">
-        <v>2570800</v>
+        <v>2511500</v>
       </c>
       <c r="K62" s="3">
         <v>2519200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25800700</v>
+        <v>25205600</v>
       </c>
       <c r="E66" s="3">
-        <v>24509800</v>
+        <v>23944500</v>
       </c>
       <c r="F66" s="3">
-        <v>21530900</v>
+        <v>21034300</v>
       </c>
       <c r="G66" s="3">
-        <v>17890500</v>
+        <v>17477900</v>
       </c>
       <c r="H66" s="3">
-        <v>16979400</v>
+        <v>16587800</v>
       </c>
       <c r="I66" s="3">
-        <v>15547300</v>
+        <v>15188700</v>
       </c>
       <c r="J66" s="3">
-        <v>14701300</v>
+        <v>14362200</v>
       </c>
       <c r="K66" s="3">
         <v>12374700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3339900</v>
+        <v>3262800</v>
       </c>
       <c r="E72" s="3">
-        <v>2913000</v>
+        <v>2845800</v>
       </c>
       <c r="F72" s="3">
-        <v>3430100</v>
+        <v>3351000</v>
       </c>
       <c r="G72" s="3">
-        <v>3510900</v>
+        <v>3429900</v>
       </c>
       <c r="H72" s="3">
-        <v>2977300</v>
+        <v>2908600</v>
       </c>
       <c r="I72" s="3">
-        <v>1941400</v>
+        <v>1896700</v>
       </c>
       <c r="J72" s="3">
-        <v>1905300</v>
+        <v>1861400</v>
       </c>
       <c r="K72" s="3">
         <v>1648600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11862100</v>
+        <v>11588500</v>
       </c>
       <c r="E76" s="3">
-        <v>9448300</v>
+        <v>9230300</v>
       </c>
       <c r="F76" s="3">
-        <v>8277400</v>
+        <v>8086500</v>
       </c>
       <c r="G76" s="3">
-        <v>8050600</v>
+        <v>7865000</v>
       </c>
       <c r="H76" s="3">
-        <v>7389100</v>
+        <v>7218700</v>
       </c>
       <c r="I76" s="3">
-        <v>6212800</v>
+        <v>6069500</v>
       </c>
       <c r="J76" s="3">
-        <v>6020500</v>
+        <v>5881700</v>
       </c>
       <c r="K76" s="3">
         <v>5851800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1298700</v>
+        <v>1268800</v>
       </c>
       <c r="E81" s="3">
-        <v>947200</v>
+        <v>925300</v>
       </c>
       <c r="F81" s="3">
-        <v>1370200</v>
+        <v>1338600</v>
       </c>
       <c r="G81" s="3">
-        <v>1255600</v>
+        <v>1226600</v>
       </c>
       <c r="H81" s="3">
-        <v>1223400</v>
+        <v>1195200</v>
       </c>
       <c r="I81" s="3">
-        <v>959700</v>
+        <v>937600</v>
       </c>
       <c r="J81" s="3">
-        <v>1084500</v>
+        <v>1059500</v>
       </c>
       <c r="K81" s="3">
         <v>1118700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2523700</v>
+        <v>2465500</v>
       </c>
       <c r="E83" s="3">
-        <v>2363600</v>
+        <v>2309100</v>
       </c>
       <c r="F83" s="3">
-        <v>2022300</v>
+        <v>1975600</v>
       </c>
       <c r="G83" s="3">
-        <v>1779000</v>
+        <v>1738000</v>
       </c>
       <c r="H83" s="3">
-        <v>1702100</v>
+        <v>1662800</v>
       </c>
       <c r="I83" s="3">
-        <v>1606400</v>
+        <v>1569300</v>
       </c>
       <c r="J83" s="3">
-        <v>1498100</v>
+        <v>1463500</v>
       </c>
       <c r="K83" s="3">
         <v>1439800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3443400</v>
+        <v>3364000</v>
       </c>
       <c r="E89" s="3">
-        <v>3589400</v>
+        <v>3506600</v>
       </c>
       <c r="F89" s="3">
-        <v>3081700</v>
+        <v>3010600</v>
       </c>
       <c r="G89" s="3">
-        <v>3184500</v>
+        <v>3111000</v>
       </c>
       <c r="H89" s="3">
-        <v>3097400</v>
+        <v>3025900</v>
       </c>
       <c r="I89" s="3">
-        <v>2526100</v>
+        <v>2467800</v>
       </c>
       <c r="J89" s="3">
-        <v>2790500</v>
+        <v>2726200</v>
       </c>
       <c r="K89" s="3">
         <v>2674700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2501800</v>
+        <v>-2444000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2096800</v>
+        <v>-2048500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2175300</v>
+        <v>-2125100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1870000</v>
+        <v>-1826900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1950900</v>
+        <v>-1905900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1850400</v>
+        <v>-1807700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1605600</v>
+        <v>-1568500</v>
       </c>
       <c r="K91" s="3">
         <v>-1505700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4289400</v>
+        <v>-4190500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4837900</v>
+        <v>-4726300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3958200</v>
+        <v>-3866900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2336200</v>
+        <v>-2282300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2858800</v>
+        <v>-2792900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2293800</v>
+        <v>-2240900</v>
       </c>
       <c r="J94" s="3">
-        <v>-3513300</v>
+        <v>-3432200</v>
       </c>
       <c r="K94" s="3">
         <v>-2879600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-820100</v>
+        <v>-801100</v>
       </c>
       <c r="E96" s="3">
-        <v>-729800</v>
+        <v>-713000</v>
       </c>
       <c r="F96" s="3">
-        <v>-901700</v>
+        <v>-880900</v>
       </c>
       <c r="G96" s="3">
-        <v>-895400</v>
+        <v>-874700</v>
       </c>
       <c r="H96" s="3">
-        <v>-849100</v>
+        <v>-829500</v>
       </c>
       <c r="I96" s="3">
-        <v>-839700</v>
+        <v>-820300</v>
       </c>
       <c r="J96" s="3">
-        <v>-778500</v>
+        <v>-760500</v>
       </c>
       <c r="K96" s="3">
         <v>-716800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>747900</v>
+        <v>730600</v>
       </c>
       <c r="E100" s="3">
-        <v>1494100</v>
+        <v>1459700</v>
       </c>
       <c r="F100" s="3">
-        <v>971500</v>
+        <v>949100</v>
       </c>
       <c r="G100" s="3">
-        <v>-922900</v>
+        <v>-901600</v>
       </c>
       <c r="H100" s="3">
-        <v>-178100</v>
+        <v>-174000</v>
       </c>
       <c r="I100" s="3">
-        <v>-68300</v>
+        <v>-66700</v>
       </c>
       <c r="J100" s="3">
-        <v>850700</v>
+        <v>831000</v>
       </c>
       <c r="K100" s="3">
         <v>-11800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-98100</v>
+        <v>-95800</v>
       </c>
       <c r="E102" s="3">
-        <v>245600</v>
+        <v>240000</v>
       </c>
       <c r="F102" s="3">
-        <v>95000</v>
+        <v>92800</v>
       </c>
       <c r="G102" s="3">
-        <v>-74600</v>
+        <v>-72800</v>
       </c>
       <c r="H102" s="3">
-        <v>60400</v>
+        <v>59000</v>
       </c>
       <c r="I102" s="3">
-        <v>164000</v>
+        <v>160200</v>
       </c>
       <c r="J102" s="3">
-        <v>127900</v>
+        <v>125000</v>
       </c>
       <c r="K102" s="3">
         <v>-216700</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12908700</v>
+        <v>13028400</v>
       </c>
       <c r="E8" s="3">
-        <v>11761000</v>
+        <v>11870100</v>
       </c>
       <c r="F8" s="3">
-        <v>11184500</v>
+        <v>11288200</v>
       </c>
       <c r="G8" s="3">
-        <v>10805800</v>
+        <v>10906000</v>
       </c>
       <c r="H8" s="3">
-        <v>10200100</v>
+        <v>10294700</v>
       </c>
       <c r="I8" s="3">
-        <v>9755500</v>
+        <v>9846000</v>
       </c>
       <c r="J8" s="3">
-        <v>9529300</v>
+        <v>9617700</v>
       </c>
       <c r="K8" s="3">
         <v>9363300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5072100</v>
+        <v>5119100</v>
       </c>
       <c r="E9" s="3">
-        <v>4652000</v>
+        <v>4695100</v>
       </c>
       <c r="F9" s="3">
-        <v>4603700</v>
+        <v>4646400</v>
       </c>
       <c r="G9" s="3">
-        <v>4882000</v>
+        <v>4927200</v>
       </c>
       <c r="H9" s="3">
-        <v>4526200</v>
+        <v>4568200</v>
       </c>
       <c r="I9" s="3">
-        <v>4316900</v>
+        <v>4357000</v>
       </c>
       <c r="J9" s="3">
-        <v>4241100</v>
+        <v>4280400</v>
       </c>
       <c r="K9" s="3">
         <v>4160000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7836600</v>
+        <v>7909300</v>
       </c>
       <c r="E10" s="3">
-        <v>7109100</v>
+        <v>7175000</v>
       </c>
       <c r="F10" s="3">
-        <v>6580800</v>
+        <v>6641900</v>
       </c>
       <c r="G10" s="3">
-        <v>5923800</v>
+        <v>5978800</v>
       </c>
       <c r="H10" s="3">
-        <v>5673900</v>
+        <v>5726500</v>
       </c>
       <c r="I10" s="3">
-        <v>5438500</v>
+        <v>5489000</v>
       </c>
       <c r="J10" s="3">
-        <v>5288300</v>
+        <v>5337300</v>
       </c>
       <c r="K10" s="3">
         <v>5203300</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>142600</v>
+        <v>143900</v>
       </c>
       <c r="E14" s="3">
-        <v>160200</v>
+        <v>161700</v>
       </c>
       <c r="F14" s="3">
-        <v>98100</v>
+        <v>99000</v>
       </c>
       <c r="G14" s="3">
-        <v>96600</v>
+        <v>97500</v>
       </c>
       <c r="H14" s="3">
-        <v>19900</v>
+        <v>20100</v>
       </c>
       <c r="I14" s="3">
-        <v>85900</v>
+        <v>86700</v>
       </c>
       <c r="J14" s="3">
-        <v>119600</v>
+        <v>120700</v>
       </c>
       <c r="K14" s="3">
         <v>42400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2465500</v>
+        <v>2488400</v>
       </c>
       <c r="E15" s="3">
-        <v>2309100</v>
+        <v>2330500</v>
       </c>
       <c r="F15" s="3">
-        <v>1975600</v>
+        <v>1994000</v>
       </c>
       <c r="G15" s="3">
-        <v>1738000</v>
+        <v>1754100</v>
       </c>
       <c r="H15" s="3">
-        <v>1662800</v>
+        <v>1678300</v>
       </c>
       <c r="I15" s="3">
-        <v>1569300</v>
+        <v>1583900</v>
       </c>
       <c r="J15" s="3">
-        <v>1463500</v>
+        <v>1477100</v>
       </c>
       <c r="K15" s="3">
         <v>1439800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10552000</v>
+        <v>10649900</v>
       </c>
       <c r="E17" s="3">
-        <v>9858200</v>
+        <v>9949700</v>
       </c>
       <c r="F17" s="3">
-        <v>8902200</v>
+        <v>8984800</v>
       </c>
       <c r="G17" s="3">
-        <v>8630800</v>
+        <v>8710900</v>
       </c>
       <c r="H17" s="3">
-        <v>8098800</v>
+        <v>8173900</v>
       </c>
       <c r="I17" s="3">
-        <v>8082700</v>
+        <v>8157600</v>
       </c>
       <c r="J17" s="3">
-        <v>7725400</v>
+        <v>7797100</v>
       </c>
       <c r="K17" s="3">
         <v>7374800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2356700</v>
+        <v>2378500</v>
       </c>
       <c r="E18" s="3">
-        <v>1902800</v>
+        <v>1920400</v>
       </c>
       <c r="F18" s="3">
-        <v>2282300</v>
+        <v>2303500</v>
       </c>
       <c r="G18" s="3">
-        <v>2175000</v>
+        <v>2195100</v>
       </c>
       <c r="H18" s="3">
-        <v>2101400</v>
+        <v>2120800</v>
       </c>
       <c r="I18" s="3">
-        <v>1672800</v>
+        <v>1688300</v>
       </c>
       <c r="J18" s="3">
-        <v>1803900</v>
+        <v>1820600</v>
       </c>
       <c r="K18" s="3">
         <v>1988500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26800</v>
+        <v>-27100</v>
       </c>
       <c r="E20" s="3">
-        <v>-43700</v>
+        <v>-44100</v>
       </c>
       <c r="F20" s="3">
-        <v>-36000</v>
+        <v>-36400</v>
       </c>
       <c r="G20" s="3">
-        <v>-43700</v>
+        <v>-44100</v>
       </c>
       <c r="H20" s="3">
         <v>-5400</v>
       </c>
       <c r="I20" s="3">
-        <v>-23000</v>
+        <v>-23200</v>
       </c>
       <c r="J20" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K20" s="3">
         <v>-132700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4805000</v>
+        <v>4832000</v>
       </c>
       <c r="E21" s="3">
-        <v>4177300</v>
+        <v>4199500</v>
       </c>
       <c r="F21" s="3">
-        <v>4229600</v>
+        <v>4254800</v>
       </c>
       <c r="G21" s="3">
-        <v>3876100</v>
+        <v>3899600</v>
       </c>
       <c r="H21" s="3">
-        <v>3765400</v>
+        <v>3788400</v>
       </c>
       <c r="I21" s="3">
-        <v>3225300</v>
+        <v>3244000</v>
       </c>
       <c r="J21" s="3">
-        <v>3281600</v>
+        <v>3301600</v>
       </c>
       <c r="K21" s="3">
         <v>3290200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>583400</v>
+        <v>588800</v>
       </c>
       <c r="E22" s="3">
-        <v>547400</v>
+        <v>552500</v>
       </c>
       <c r="F22" s="3">
-        <v>525900</v>
+        <v>530800</v>
       </c>
       <c r="G22" s="3">
-        <v>463100</v>
+        <v>467300</v>
       </c>
       <c r="H22" s="3">
-        <v>433900</v>
+        <v>437900</v>
       </c>
       <c r="I22" s="3">
-        <v>375700</v>
+        <v>379100</v>
       </c>
       <c r="J22" s="3">
-        <v>351100</v>
+        <v>354400</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1746400</v>
+        <v>1762600</v>
       </c>
       <c r="E23" s="3">
-        <v>1311700</v>
+        <v>1323900</v>
       </c>
       <c r="F23" s="3">
-        <v>1720300</v>
+        <v>1736300</v>
       </c>
       <c r="G23" s="3">
-        <v>1668200</v>
+        <v>1683700</v>
       </c>
       <c r="H23" s="3">
-        <v>1662100</v>
+        <v>1677500</v>
       </c>
       <c r="I23" s="3">
-        <v>1274200</v>
+        <v>1286000</v>
       </c>
       <c r="J23" s="3">
-        <v>1461200</v>
+        <v>1474800</v>
       </c>
       <c r="K23" s="3">
         <v>1512000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>444700</v>
+        <v>448800</v>
       </c>
       <c r="E24" s="3">
-        <v>345800</v>
+        <v>349000</v>
       </c>
       <c r="F24" s="3">
-        <v>358800</v>
+        <v>362100</v>
       </c>
       <c r="G24" s="3">
-        <v>423200</v>
+        <v>427100</v>
       </c>
       <c r="H24" s="3">
-        <v>452300</v>
+        <v>456500</v>
       </c>
       <c r="I24" s="3">
-        <v>326600</v>
+        <v>329600</v>
       </c>
       <c r="J24" s="3">
-        <v>401700</v>
+        <v>405400</v>
       </c>
       <c r="K24" s="3">
         <v>393300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1301800</v>
+        <v>1313800</v>
       </c>
       <c r="E26" s="3">
-        <v>966000</v>
+        <v>974900</v>
       </c>
       <c r="F26" s="3">
-        <v>1361600</v>
+        <v>1374200</v>
       </c>
       <c r="G26" s="3">
-        <v>1245000</v>
+        <v>1256600</v>
       </c>
       <c r="H26" s="3">
-        <v>1209800</v>
+        <v>1221000</v>
       </c>
       <c r="I26" s="3">
-        <v>947600</v>
+        <v>956400</v>
       </c>
       <c r="J26" s="3">
-        <v>1059500</v>
+        <v>1069300</v>
       </c>
       <c r="K26" s="3">
         <v>1118700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1268800</v>
+        <v>1280600</v>
       </c>
       <c r="E27" s="3">
-        <v>925300</v>
+        <v>933900</v>
       </c>
       <c r="F27" s="3">
-        <v>1338600</v>
+        <v>1351000</v>
       </c>
       <c r="G27" s="3">
-        <v>1226600</v>
+        <v>1238000</v>
       </c>
       <c r="H27" s="3">
-        <v>1195200</v>
+        <v>1206300</v>
       </c>
       <c r="I27" s="3">
-        <v>937600</v>
+        <v>946300</v>
       </c>
       <c r="J27" s="3">
-        <v>1059500</v>
+        <v>1069300</v>
       </c>
       <c r="K27" s="3">
         <v>1118700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="E32" s="3">
-        <v>43700</v>
+        <v>44100</v>
       </c>
       <c r="F32" s="3">
-        <v>36000</v>
+        <v>36400</v>
       </c>
       <c r="G32" s="3">
-        <v>43700</v>
+        <v>44100</v>
       </c>
       <c r="H32" s="3">
         <v>5400</v>
       </c>
       <c r="I32" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="J32" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="K32" s="3">
         <v>132700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1268800</v>
+        <v>1280600</v>
       </c>
       <c r="E33" s="3">
-        <v>925300</v>
+        <v>933900</v>
       </c>
       <c r="F33" s="3">
-        <v>1338600</v>
+        <v>1351000</v>
       </c>
       <c r="G33" s="3">
-        <v>1226600</v>
+        <v>1238000</v>
       </c>
       <c r="H33" s="3">
-        <v>1195200</v>
+        <v>1206300</v>
       </c>
       <c r="I33" s="3">
-        <v>937600</v>
+        <v>946300</v>
       </c>
       <c r="J33" s="3">
-        <v>1059500</v>
+        <v>1069300</v>
       </c>
       <c r="K33" s="3">
         <v>1118700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1268800</v>
+        <v>1280600</v>
       </c>
       <c r="E35" s="3">
-        <v>925300</v>
+        <v>933900</v>
       </c>
       <c r="F35" s="3">
-        <v>1338600</v>
+        <v>1351000</v>
       </c>
       <c r="G35" s="3">
-        <v>1226600</v>
+        <v>1238000</v>
       </c>
       <c r="H35" s="3">
-        <v>1195200</v>
+        <v>1206300</v>
       </c>
       <c r="I35" s="3">
-        <v>937600</v>
+        <v>946300</v>
       </c>
       <c r="J35" s="3">
-        <v>1059500</v>
+        <v>1069300</v>
       </c>
       <c r="K35" s="3">
         <v>1118700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>554300</v>
+        <v>559400</v>
       </c>
       <c r="E41" s="3">
-        <v>650100</v>
+        <v>656100</v>
       </c>
       <c r="F41" s="3">
-        <v>410200</v>
+        <v>414000</v>
       </c>
       <c r="G41" s="3">
-        <v>317400</v>
+        <v>320300</v>
       </c>
       <c r="H41" s="3">
-        <v>390200</v>
+        <v>393800</v>
       </c>
       <c r="I41" s="3">
-        <v>331200</v>
+        <v>334300</v>
       </c>
       <c r="J41" s="3">
-        <v>171000</v>
+        <v>172500</v>
       </c>
       <c r="K41" s="3">
         <v>47100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2545200</v>
+        <v>2568900</v>
       </c>
       <c r="E43" s="3">
-        <v>2255500</v>
+        <v>2276400</v>
       </c>
       <c r="F43" s="3">
-        <v>2166500</v>
+        <v>2186600</v>
       </c>
       <c r="G43" s="3">
-        <v>1888200</v>
+        <v>1905700</v>
       </c>
       <c r="H43" s="3">
-        <v>1891300</v>
+        <v>1908800</v>
       </c>
       <c r="I43" s="3">
-        <v>1134600</v>
+        <v>1145200</v>
       </c>
       <c r="J43" s="3">
-        <v>1095500</v>
+        <v>1105700</v>
       </c>
       <c r="K43" s="3">
         <v>1240400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>343500</v>
+        <v>346600</v>
       </c>
       <c r="E44" s="3">
-        <v>312000</v>
+        <v>314900</v>
       </c>
       <c r="F44" s="3">
-        <v>335000</v>
+        <v>338100</v>
       </c>
       <c r="G44" s="3">
-        <v>288300</v>
+        <v>290900</v>
       </c>
       <c r="H44" s="3">
-        <v>291300</v>
+        <v>294000</v>
       </c>
       <c r="I44" s="3">
-        <v>243800</v>
+        <v>246100</v>
       </c>
       <c r="J44" s="3">
-        <v>276000</v>
+        <v>278600</v>
       </c>
       <c r="K44" s="3">
         <v>251200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>414800</v>
+        <v>418600</v>
       </c>
       <c r="E45" s="3">
-        <v>368000</v>
+        <v>371400</v>
       </c>
       <c r="F45" s="3">
-        <v>425500</v>
+        <v>429400</v>
       </c>
       <c r="G45" s="3">
-        <v>450800</v>
+        <v>455000</v>
       </c>
       <c r="H45" s="3">
-        <v>391800</v>
+        <v>395400</v>
       </c>
       <c r="I45" s="3">
-        <v>187100</v>
+        <v>188800</v>
       </c>
       <c r="J45" s="3">
-        <v>244600</v>
+        <v>246800</v>
       </c>
       <c r="K45" s="3">
         <v>177400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3857700</v>
+        <v>3893500</v>
       </c>
       <c r="E46" s="3">
-        <v>3585600</v>
+        <v>3618800</v>
       </c>
       <c r="F46" s="3">
-        <v>3337200</v>
+        <v>3368100</v>
       </c>
       <c r="G46" s="3">
-        <v>2944700</v>
+        <v>2972000</v>
       </c>
       <c r="H46" s="3">
-        <v>2964600</v>
+        <v>2992100</v>
       </c>
       <c r="I46" s="3">
-        <v>1896700</v>
+        <v>1914300</v>
       </c>
       <c r="J46" s="3">
-        <v>1787000</v>
+        <v>1803600</v>
       </c>
       <c r="K46" s="3">
         <v>1716100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1159900</v>
+        <v>1170700</v>
       </c>
       <c r="E47" s="3">
-        <v>804200</v>
+        <v>811700</v>
       </c>
       <c r="F47" s="3">
-        <v>417800</v>
+        <v>421700</v>
       </c>
       <c r="G47" s="3">
-        <v>461500</v>
+        <v>465800</v>
       </c>
       <c r="H47" s="3">
-        <v>371100</v>
+        <v>374500</v>
       </c>
       <c r="I47" s="3">
-        <v>63600</v>
+        <v>64200</v>
       </c>
       <c r="J47" s="3">
-        <v>72100</v>
+        <v>72700</v>
       </c>
       <c r="K47" s="3">
         <v>55000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12209500</v>
+        <v>12322700</v>
       </c>
       <c r="E48" s="3">
-        <v>11510300</v>
+        <v>11617100</v>
       </c>
       <c r="F48" s="3">
-        <v>10910800</v>
+        <v>11012000</v>
       </c>
       <c r="G48" s="3">
-        <v>18538900</v>
+        <v>18710800</v>
       </c>
       <c r="H48" s="3">
-        <v>8715200</v>
+        <v>8796000</v>
       </c>
       <c r="I48" s="3">
-        <v>8022100</v>
+        <v>8096500</v>
       </c>
       <c r="J48" s="3">
-        <v>7464000</v>
+        <v>7533200</v>
       </c>
       <c r="K48" s="3">
         <v>7162000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18986600</v>
+        <v>19162700</v>
       </c>
       <c r="E49" s="3">
-        <v>17025500</v>
+        <v>17183400</v>
       </c>
       <c r="F49" s="3">
-        <v>13916800</v>
+        <v>14045900</v>
       </c>
       <c r="G49" s="3">
-        <v>24049500</v>
+        <v>24272500</v>
       </c>
       <c r="H49" s="3">
-        <v>11418300</v>
+        <v>11524200</v>
       </c>
       <c r="I49" s="3">
-        <v>10848700</v>
+        <v>10949300</v>
       </c>
       <c r="J49" s="3">
-        <v>10538200</v>
+        <v>10636000</v>
       </c>
       <c r="K49" s="3">
         <v>9070500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>580300</v>
+        <v>585700</v>
       </c>
       <c r="E52" s="3">
-        <v>249200</v>
+        <v>251500</v>
       </c>
       <c r="F52" s="3">
-        <v>538200</v>
+        <v>543200</v>
       </c>
       <c r="G52" s="3">
-        <v>645500</v>
+        <v>651500</v>
       </c>
       <c r="H52" s="3">
-        <v>337300</v>
+        <v>340500</v>
       </c>
       <c r="I52" s="3">
-        <v>427000</v>
+        <v>431000</v>
       </c>
       <c r="J52" s="3">
-        <v>382600</v>
+        <v>386100</v>
       </c>
       <c r="K52" s="3">
         <v>223000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36794100</v>
+        <v>37135400</v>
       </c>
       <c r="E54" s="3">
-        <v>33174800</v>
+        <v>33482500</v>
       </c>
       <c r="F54" s="3">
-        <v>29120800</v>
+        <v>29390900</v>
       </c>
       <c r="G54" s="3">
-        <v>25342800</v>
+        <v>25577900</v>
       </c>
       <c r="H54" s="3">
-        <v>23806500</v>
+        <v>24027300</v>
       </c>
       <c r="I54" s="3">
-        <v>21258200</v>
+        <v>21455300</v>
       </c>
       <c r="J54" s="3">
-        <v>20243900</v>
+        <v>20431600</v>
       </c>
       <c r="K54" s="3">
         <v>18226500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>929900</v>
+        <v>938600</v>
       </c>
       <c r="E57" s="3">
-        <v>662400</v>
+        <v>668500</v>
       </c>
       <c r="F57" s="3">
-        <v>683800</v>
+        <v>690200</v>
       </c>
       <c r="G57" s="3">
-        <v>525900</v>
+        <v>530800</v>
       </c>
       <c r="H57" s="3">
-        <v>549700</v>
+        <v>554800</v>
       </c>
       <c r="I57" s="3">
-        <v>443100</v>
+        <v>447200</v>
       </c>
       <c r="J57" s="3">
-        <v>364900</v>
+        <v>368300</v>
       </c>
       <c r="K57" s="3">
         <v>359600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2331400</v>
+        <v>2353000</v>
       </c>
       <c r="E58" s="3">
-        <v>1174500</v>
+        <v>1185400</v>
       </c>
       <c r="F58" s="3">
-        <v>1097800</v>
+        <v>1108000</v>
       </c>
       <c r="G58" s="3">
-        <v>717600</v>
+        <v>724200</v>
       </c>
       <c r="H58" s="3">
-        <v>1153000</v>
+        <v>1163700</v>
       </c>
       <c r="I58" s="3">
-        <v>1094000</v>
+        <v>1104100</v>
       </c>
       <c r="J58" s="3">
-        <v>732900</v>
+        <v>739700</v>
       </c>
       <c r="K58" s="3">
         <v>278700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3081100</v>
+        <v>3109700</v>
       </c>
       <c r="E59" s="3">
-        <v>2690100</v>
+        <v>2715100</v>
       </c>
       <c r="F59" s="3">
-        <v>2909400</v>
+        <v>2936400</v>
       </c>
       <c r="G59" s="3">
-        <v>2970700</v>
+        <v>2998300</v>
       </c>
       <c r="H59" s="3">
-        <v>2161200</v>
+        <v>2181200</v>
       </c>
       <c r="I59" s="3">
-        <v>2258500</v>
+        <v>2279500</v>
       </c>
       <c r="J59" s="3">
-        <v>2180300</v>
+        <v>2200500</v>
       </c>
       <c r="K59" s="3">
         <v>2108600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6342400</v>
+        <v>6401200</v>
       </c>
       <c r="E60" s="3">
-        <v>4527000</v>
+        <v>4569000</v>
       </c>
       <c r="F60" s="3">
-        <v>4273300</v>
+        <v>4312900</v>
       </c>
       <c r="G60" s="3">
-        <v>3713600</v>
+        <v>3748000</v>
       </c>
       <c r="H60" s="3">
-        <v>3863900</v>
+        <v>3899700</v>
       </c>
       <c r="I60" s="3">
-        <v>3795600</v>
+        <v>3830800</v>
       </c>
       <c r="J60" s="3">
-        <v>3278200</v>
+        <v>3308600</v>
       </c>
       <c r="K60" s="3">
         <v>2746900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13742000</v>
+        <v>13869500</v>
       </c>
       <c r="E61" s="3">
-        <v>14455800</v>
+        <v>14589800</v>
       </c>
       <c r="F61" s="3">
-        <v>13141700</v>
+        <v>13263600</v>
       </c>
       <c r="G61" s="3">
-        <v>10169500</v>
+        <v>10263800</v>
       </c>
       <c r="H61" s="3">
-        <v>9395900</v>
+        <v>9483100</v>
       </c>
       <c r="I61" s="3">
-        <v>8896100</v>
+        <v>8978600</v>
       </c>
       <c r="J61" s="3">
-        <v>8572600</v>
+        <v>8652100</v>
       </c>
       <c r="K61" s="3">
         <v>7108600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4398200</v>
+        <v>4439000</v>
       </c>
       <c r="E62" s="3">
-        <v>5265300</v>
+        <v>5314100</v>
       </c>
       <c r="F62" s="3">
-        <v>3593200</v>
+        <v>3626600</v>
       </c>
       <c r="G62" s="3">
-        <v>4155200</v>
+        <v>4193700</v>
       </c>
       <c r="H62" s="3">
-        <v>3295800</v>
+        <v>3326400</v>
       </c>
       <c r="I62" s="3">
-        <v>2482400</v>
+        <v>2505400</v>
       </c>
       <c r="J62" s="3">
-        <v>2511500</v>
+        <v>2534800</v>
       </c>
       <c r="K62" s="3">
         <v>2519200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25205600</v>
+        <v>25439400</v>
       </c>
       <c r="E66" s="3">
-        <v>23944500</v>
+        <v>24166500</v>
       </c>
       <c r="F66" s="3">
-        <v>21034300</v>
+        <v>21229400</v>
       </c>
       <c r="G66" s="3">
-        <v>17477900</v>
+        <v>17640000</v>
       </c>
       <c r="H66" s="3">
-        <v>16587800</v>
+        <v>16741600</v>
       </c>
       <c r="I66" s="3">
-        <v>15188700</v>
+        <v>15329500</v>
       </c>
       <c r="J66" s="3">
-        <v>14362200</v>
+        <v>14495400</v>
       </c>
       <c r="K66" s="3">
         <v>12374700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3262800</v>
+        <v>3293100</v>
       </c>
       <c r="E72" s="3">
-        <v>2845800</v>
+        <v>2872200</v>
       </c>
       <c r="F72" s="3">
-        <v>3351000</v>
+        <v>3382100</v>
       </c>
       <c r="G72" s="3">
-        <v>3429900</v>
+        <v>3461800</v>
       </c>
       <c r="H72" s="3">
-        <v>2908600</v>
+        <v>2935600</v>
       </c>
       <c r="I72" s="3">
-        <v>1896700</v>
+        <v>1914300</v>
       </c>
       <c r="J72" s="3">
-        <v>1861400</v>
+        <v>1878700</v>
       </c>
       <c r="K72" s="3">
         <v>1648600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11588500</v>
+        <v>11696000</v>
       </c>
       <c r="E76" s="3">
-        <v>9230300</v>
+        <v>9316000</v>
       </c>
       <c r="F76" s="3">
-        <v>8086500</v>
+        <v>8161500</v>
       </c>
       <c r="G76" s="3">
-        <v>7865000</v>
+        <v>7937900</v>
       </c>
       <c r="H76" s="3">
-        <v>7218700</v>
+        <v>7285600</v>
       </c>
       <c r="I76" s="3">
-        <v>6069500</v>
+        <v>6125800</v>
       </c>
       <c r="J76" s="3">
-        <v>5881700</v>
+        <v>5936200</v>
       </c>
       <c r="K76" s="3">
         <v>5851800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1268800</v>
+        <v>1280600</v>
       </c>
       <c r="E81" s="3">
-        <v>925300</v>
+        <v>933900</v>
       </c>
       <c r="F81" s="3">
-        <v>1338600</v>
+        <v>1351000</v>
       </c>
       <c r="G81" s="3">
-        <v>1226600</v>
+        <v>1238000</v>
       </c>
       <c r="H81" s="3">
-        <v>1195200</v>
+        <v>1206300</v>
       </c>
       <c r="I81" s="3">
-        <v>937600</v>
+        <v>946300</v>
       </c>
       <c r="J81" s="3">
-        <v>1059500</v>
+        <v>1069300</v>
       </c>
       <c r="K81" s="3">
         <v>1118700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2465500</v>
+        <v>2488400</v>
       </c>
       <c r="E83" s="3">
-        <v>2309100</v>
+        <v>2330500</v>
       </c>
       <c r="F83" s="3">
-        <v>1975600</v>
+        <v>1994000</v>
       </c>
       <c r="G83" s="3">
-        <v>1738000</v>
+        <v>1754100</v>
       </c>
       <c r="H83" s="3">
-        <v>1662800</v>
+        <v>1678300</v>
       </c>
       <c r="I83" s="3">
-        <v>1569300</v>
+        <v>1583900</v>
       </c>
       <c r="J83" s="3">
-        <v>1463500</v>
+        <v>1477100</v>
       </c>
       <c r="K83" s="3">
         <v>1439800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3364000</v>
+        <v>3395200</v>
       </c>
       <c r="E89" s="3">
-        <v>3506600</v>
+        <v>3539100</v>
       </c>
       <c r="F89" s="3">
-        <v>3010600</v>
+        <v>3038500</v>
       </c>
       <c r="G89" s="3">
-        <v>3111000</v>
+        <v>3139900</v>
       </c>
       <c r="H89" s="3">
-        <v>3025900</v>
+        <v>3054000</v>
       </c>
       <c r="I89" s="3">
-        <v>2467800</v>
+        <v>2490700</v>
       </c>
       <c r="J89" s="3">
-        <v>2726200</v>
+        <v>2751500</v>
       </c>
       <c r="K89" s="3">
         <v>2674700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2444000</v>
+        <v>-2466700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2048500</v>
+        <v>-2067500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2125100</v>
+        <v>-2144800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1826900</v>
+        <v>-1843800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1905900</v>
+        <v>-1923500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1807700</v>
+        <v>-1824500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1568500</v>
+        <v>-1583100</v>
       </c>
       <c r="K91" s="3">
         <v>-1505700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4190500</v>
+        <v>-4229300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4726300</v>
+        <v>-4770200</v>
       </c>
       <c r="F94" s="3">
-        <v>-3866900</v>
+        <v>-3902800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2282300</v>
+        <v>-2303500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2792900</v>
+        <v>-2818800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2240900</v>
+        <v>-2261700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3432200</v>
+        <v>-3464100</v>
       </c>
       <c r="K94" s="3">
         <v>-2879600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-801100</v>
+        <v>-808600</v>
       </c>
       <c r="E96" s="3">
-        <v>-713000</v>
+        <v>-719600</v>
       </c>
       <c r="F96" s="3">
-        <v>-880900</v>
+        <v>-889000</v>
       </c>
       <c r="G96" s="3">
-        <v>-874700</v>
+        <v>-882800</v>
       </c>
       <c r="H96" s="3">
-        <v>-829500</v>
+        <v>-837200</v>
       </c>
       <c r="I96" s="3">
-        <v>-820300</v>
+        <v>-827900</v>
       </c>
       <c r="J96" s="3">
-        <v>-760500</v>
+        <v>-767600</v>
       </c>
       <c r="K96" s="3">
         <v>-716800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>730600</v>
+        <v>737400</v>
       </c>
       <c r="E100" s="3">
-        <v>1459700</v>
+        <v>1473200</v>
       </c>
       <c r="F100" s="3">
-        <v>949100</v>
+        <v>957900</v>
       </c>
       <c r="G100" s="3">
-        <v>-901600</v>
+        <v>-909900</v>
       </c>
       <c r="H100" s="3">
-        <v>-174000</v>
+        <v>-175600</v>
       </c>
       <c r="I100" s="3">
-        <v>-66700</v>
+        <v>-67300</v>
       </c>
       <c r="J100" s="3">
-        <v>831000</v>
+        <v>838700</v>
       </c>
       <c r="K100" s="3">
         <v>-11800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-95800</v>
+        <v>-96700</v>
       </c>
       <c r="E102" s="3">
-        <v>240000</v>
+        <v>242200</v>
       </c>
       <c r="F102" s="3">
-        <v>92800</v>
+        <v>93600</v>
       </c>
       <c r="G102" s="3">
-        <v>-72800</v>
+        <v>-73500</v>
       </c>
       <c r="H102" s="3">
-        <v>59000</v>
+        <v>59600</v>
       </c>
       <c r="I102" s="3">
-        <v>160200</v>
+        <v>161700</v>
       </c>
       <c r="J102" s="3">
-        <v>125000</v>
+        <v>126100</v>
       </c>
       <c r="K102" s="3">
         <v>-216700</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13028400</v>
+        <v>12643000</v>
       </c>
       <c r="E8" s="3">
-        <v>11870100</v>
+        <v>11518900</v>
       </c>
       <c r="F8" s="3">
-        <v>11288200</v>
+        <v>10954300</v>
       </c>
       <c r="G8" s="3">
-        <v>10906000</v>
+        <v>10583400</v>
       </c>
       <c r="H8" s="3">
-        <v>10294700</v>
+        <v>9990200</v>
       </c>
       <c r="I8" s="3">
-        <v>9846000</v>
+        <v>9554700</v>
       </c>
       <c r="J8" s="3">
-        <v>9617700</v>
+        <v>9333200</v>
       </c>
       <c r="K8" s="3">
         <v>9363300</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5119100</v>
+        <v>4967700</v>
       </c>
       <c r="E9" s="3">
-        <v>4695100</v>
+        <v>4556200</v>
       </c>
       <c r="F9" s="3">
-        <v>4646400</v>
+        <v>4508900</v>
       </c>
       <c r="G9" s="3">
-        <v>4927200</v>
+        <v>4781500</v>
       </c>
       <c r="H9" s="3">
-        <v>4568200</v>
+        <v>4433100</v>
       </c>
       <c r="I9" s="3">
-        <v>4357000</v>
+        <v>4228100</v>
       </c>
       <c r="J9" s="3">
-        <v>4280400</v>
+        <v>4153800</v>
       </c>
       <c r="K9" s="3">
         <v>4160000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7909300</v>
+        <v>7675300</v>
       </c>
       <c r="E10" s="3">
-        <v>7175000</v>
+        <v>6962700</v>
       </c>
       <c r="F10" s="3">
-        <v>6641900</v>
+        <v>6445400</v>
       </c>
       <c r="G10" s="3">
-        <v>5978800</v>
+        <v>5801900</v>
       </c>
       <c r="H10" s="3">
-        <v>5726500</v>
+        <v>5557100</v>
       </c>
       <c r="I10" s="3">
-        <v>5489000</v>
+        <v>5326600</v>
       </c>
       <c r="J10" s="3">
-        <v>5337300</v>
+        <v>5179400</v>
       </c>
       <c r="K10" s="3">
         <v>5203300</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>143900</v>
+        <v>139700</v>
       </c>
       <c r="E14" s="3">
-        <v>161700</v>
+        <v>156900</v>
       </c>
       <c r="F14" s="3">
-        <v>99000</v>
+        <v>96100</v>
       </c>
       <c r="G14" s="3">
-        <v>97500</v>
+        <v>94600</v>
       </c>
       <c r="H14" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="I14" s="3">
-        <v>86700</v>
+        <v>84100</v>
       </c>
       <c r="J14" s="3">
-        <v>120700</v>
+        <v>117100</v>
       </c>
       <c r="K14" s="3">
         <v>42400</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2488400</v>
+        <v>2414800</v>
       </c>
       <c r="E15" s="3">
-        <v>2330500</v>
+        <v>2261600</v>
       </c>
       <c r="F15" s="3">
-        <v>1994000</v>
+        <v>1935000</v>
       </c>
       <c r="G15" s="3">
-        <v>1754100</v>
+        <v>1702200</v>
       </c>
       <c r="H15" s="3">
-        <v>1678300</v>
+        <v>1628600</v>
       </c>
       <c r="I15" s="3">
-        <v>1583900</v>
+        <v>1537000</v>
       </c>
       <c r="J15" s="3">
-        <v>1477100</v>
+        <v>1433400</v>
       </c>
       <c r="K15" s="3">
         <v>1439800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10649900</v>
+        <v>10334800</v>
       </c>
       <c r="E17" s="3">
-        <v>9949700</v>
+        <v>9655300</v>
       </c>
       <c r="F17" s="3">
-        <v>8984800</v>
+        <v>8719000</v>
       </c>
       <c r="G17" s="3">
-        <v>8710900</v>
+        <v>8453200</v>
       </c>
       <c r="H17" s="3">
-        <v>8173900</v>
+        <v>7932100</v>
       </c>
       <c r="I17" s="3">
-        <v>8157600</v>
+        <v>7916300</v>
       </c>
       <c r="J17" s="3">
-        <v>7797100</v>
+        <v>7566400</v>
       </c>
       <c r="K17" s="3">
         <v>7374800</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2378500</v>
+        <v>2308100</v>
       </c>
       <c r="E18" s="3">
-        <v>1920400</v>
+        <v>1863600</v>
       </c>
       <c r="F18" s="3">
-        <v>2303500</v>
+        <v>2235300</v>
       </c>
       <c r="G18" s="3">
-        <v>2195100</v>
+        <v>2130200</v>
       </c>
       <c r="H18" s="3">
-        <v>2120800</v>
+        <v>2058100</v>
       </c>
       <c r="I18" s="3">
-        <v>1688300</v>
+        <v>1638400</v>
       </c>
       <c r="J18" s="3">
-        <v>1820600</v>
+        <v>1766800</v>
       </c>
       <c r="K18" s="3">
         <v>1988500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27100</v>
+        <v>-26300</v>
       </c>
       <c r="E20" s="3">
-        <v>-44100</v>
+        <v>-42800</v>
       </c>
       <c r="F20" s="3">
-        <v>-36400</v>
+        <v>-35300</v>
       </c>
       <c r="G20" s="3">
-        <v>-44100</v>
+        <v>-42800</v>
       </c>
       <c r="H20" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="I20" s="3">
-        <v>-23200</v>
+        <v>-22500</v>
       </c>
       <c r="J20" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="K20" s="3">
         <v>-132700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4832000</v>
+        <v>4659500</v>
       </c>
       <c r="E21" s="3">
-        <v>4199500</v>
+        <v>4047700</v>
       </c>
       <c r="F21" s="3">
-        <v>4254800</v>
+        <v>4105200</v>
       </c>
       <c r="G21" s="3">
-        <v>3899600</v>
+        <v>3763400</v>
       </c>
       <c r="H21" s="3">
-        <v>3788400</v>
+        <v>3656400</v>
       </c>
       <c r="I21" s="3">
-        <v>3244000</v>
+        <v>3129200</v>
       </c>
       <c r="J21" s="3">
-        <v>3301600</v>
+        <v>3186400</v>
       </c>
       <c r="K21" s="3">
         <v>3290200</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>588800</v>
+        <v>571400</v>
       </c>
       <c r="E22" s="3">
-        <v>552500</v>
+        <v>536100</v>
       </c>
       <c r="F22" s="3">
-        <v>530800</v>
+        <v>515100</v>
       </c>
       <c r="G22" s="3">
-        <v>467300</v>
+        <v>453500</v>
       </c>
       <c r="H22" s="3">
-        <v>437900</v>
+        <v>425000</v>
       </c>
       <c r="I22" s="3">
-        <v>379100</v>
+        <v>367900</v>
       </c>
       <c r="J22" s="3">
-        <v>354400</v>
+        <v>343900</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1762600</v>
+        <v>1710500</v>
       </c>
       <c r="E23" s="3">
-        <v>1323900</v>
+        <v>1284700</v>
       </c>
       <c r="F23" s="3">
-        <v>1736300</v>
+        <v>1684900</v>
       </c>
       <c r="G23" s="3">
-        <v>1683700</v>
+        <v>1633900</v>
       </c>
       <c r="H23" s="3">
-        <v>1677500</v>
+        <v>1627900</v>
       </c>
       <c r="I23" s="3">
-        <v>1286000</v>
+        <v>1247900</v>
       </c>
       <c r="J23" s="3">
-        <v>1474800</v>
+        <v>1431100</v>
       </c>
       <c r="K23" s="3">
         <v>1512000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>448800</v>
+        <v>435500</v>
       </c>
       <c r="E24" s="3">
-        <v>349000</v>
+        <v>338600</v>
       </c>
       <c r="F24" s="3">
-        <v>362100</v>
+        <v>351400</v>
       </c>
       <c r="G24" s="3">
-        <v>427100</v>
+        <v>414500</v>
       </c>
       <c r="H24" s="3">
-        <v>456500</v>
+        <v>443000</v>
       </c>
       <c r="I24" s="3">
-        <v>329600</v>
+        <v>319900</v>
       </c>
       <c r="J24" s="3">
-        <v>405400</v>
+        <v>393500</v>
       </c>
       <c r="K24" s="3">
         <v>393300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1313800</v>
+        <v>1275000</v>
       </c>
       <c r="E26" s="3">
-        <v>974900</v>
+        <v>946100</v>
       </c>
       <c r="F26" s="3">
-        <v>1374200</v>
+        <v>1333500</v>
       </c>
       <c r="G26" s="3">
-        <v>1256600</v>
+        <v>1219400</v>
       </c>
       <c r="H26" s="3">
-        <v>1221000</v>
+        <v>1184900</v>
       </c>
       <c r="I26" s="3">
-        <v>956400</v>
+        <v>928100</v>
       </c>
       <c r="J26" s="3">
-        <v>1069300</v>
+        <v>1037700</v>
       </c>
       <c r="K26" s="3">
         <v>1118700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1280600</v>
+        <v>1242700</v>
       </c>
       <c r="E27" s="3">
-        <v>933900</v>
+        <v>906300</v>
       </c>
       <c r="F27" s="3">
-        <v>1351000</v>
+        <v>1311000</v>
       </c>
       <c r="G27" s="3">
-        <v>1238000</v>
+        <v>1201400</v>
       </c>
       <c r="H27" s="3">
-        <v>1206300</v>
+        <v>1170600</v>
       </c>
       <c r="I27" s="3">
-        <v>946300</v>
+        <v>918300</v>
       </c>
       <c r="J27" s="3">
-        <v>1069300</v>
+        <v>1037700</v>
       </c>
       <c r="K27" s="3">
         <v>1118700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="E32" s="3">
-        <v>44100</v>
+        <v>42800</v>
       </c>
       <c r="F32" s="3">
-        <v>36400</v>
+        <v>35300</v>
       </c>
       <c r="G32" s="3">
-        <v>44100</v>
+        <v>42800</v>
       </c>
       <c r="H32" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I32" s="3">
-        <v>23200</v>
+        <v>22500</v>
       </c>
       <c r="J32" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K32" s="3">
         <v>132700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1280600</v>
+        <v>1242700</v>
       </c>
       <c r="E33" s="3">
-        <v>933900</v>
+        <v>906300</v>
       </c>
       <c r="F33" s="3">
-        <v>1351000</v>
+        <v>1311000</v>
       </c>
       <c r="G33" s="3">
-        <v>1238000</v>
+        <v>1201400</v>
       </c>
       <c r="H33" s="3">
-        <v>1206300</v>
+        <v>1170600</v>
       </c>
       <c r="I33" s="3">
-        <v>946300</v>
+        <v>918300</v>
       </c>
       <c r="J33" s="3">
-        <v>1069300</v>
+        <v>1037700</v>
       </c>
       <c r="K33" s="3">
         <v>1118700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1280600</v>
+        <v>1242700</v>
       </c>
       <c r="E35" s="3">
-        <v>933900</v>
+        <v>906300</v>
       </c>
       <c r="F35" s="3">
-        <v>1351000</v>
+        <v>1311000</v>
       </c>
       <c r="G35" s="3">
-        <v>1238000</v>
+        <v>1201400</v>
       </c>
       <c r="H35" s="3">
-        <v>1206300</v>
+        <v>1170600</v>
       </c>
       <c r="I35" s="3">
-        <v>946300</v>
+        <v>918300</v>
       </c>
       <c r="J35" s="3">
-        <v>1069300</v>
+        <v>1037700</v>
       </c>
       <c r="K35" s="3">
         <v>1118700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>559400</v>
+        <v>542900</v>
       </c>
       <c r="E41" s="3">
-        <v>656100</v>
+        <v>636700</v>
       </c>
       <c r="F41" s="3">
-        <v>414000</v>
+        <v>401700</v>
       </c>
       <c r="G41" s="3">
-        <v>320300</v>
+        <v>310900</v>
       </c>
       <c r="H41" s="3">
-        <v>393800</v>
+        <v>382200</v>
       </c>
       <c r="I41" s="3">
-        <v>334300</v>
+        <v>324400</v>
       </c>
       <c r="J41" s="3">
-        <v>172500</v>
+        <v>167400</v>
       </c>
       <c r="K41" s="3">
         <v>47100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2568900</v>
+        <v>2492900</v>
       </c>
       <c r="E43" s="3">
-        <v>2276400</v>
+        <v>2209000</v>
       </c>
       <c r="F43" s="3">
-        <v>2186600</v>
+        <v>2121900</v>
       </c>
       <c r="G43" s="3">
-        <v>1905700</v>
+        <v>1849400</v>
       </c>
       <c r="H43" s="3">
-        <v>1908800</v>
+        <v>1852400</v>
       </c>
       <c r="I43" s="3">
-        <v>1145200</v>
+        <v>1111300</v>
       </c>
       <c r="J43" s="3">
-        <v>1105700</v>
+        <v>1073000</v>
       </c>
       <c r="K43" s="3">
         <v>1240400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>346600</v>
+        <v>336400</v>
       </c>
       <c r="E44" s="3">
-        <v>314900</v>
+        <v>305600</v>
       </c>
       <c r="F44" s="3">
-        <v>338100</v>
+        <v>328100</v>
       </c>
       <c r="G44" s="3">
-        <v>290900</v>
+        <v>282300</v>
       </c>
       <c r="H44" s="3">
-        <v>294000</v>
+        <v>285300</v>
       </c>
       <c r="I44" s="3">
-        <v>246100</v>
+        <v>238800</v>
       </c>
       <c r="J44" s="3">
-        <v>278600</v>
+        <v>270300</v>
       </c>
       <c r="K44" s="3">
         <v>251200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>418600</v>
+        <v>406200</v>
       </c>
       <c r="E45" s="3">
-        <v>371400</v>
+        <v>360400</v>
       </c>
       <c r="F45" s="3">
-        <v>429400</v>
+        <v>416700</v>
       </c>
       <c r="G45" s="3">
-        <v>455000</v>
+        <v>441500</v>
       </c>
       <c r="H45" s="3">
-        <v>395400</v>
+        <v>383700</v>
       </c>
       <c r="I45" s="3">
-        <v>188800</v>
+        <v>183200</v>
       </c>
       <c r="J45" s="3">
-        <v>246800</v>
+        <v>239500</v>
       </c>
       <c r="K45" s="3">
         <v>177400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3893500</v>
+        <v>3778300</v>
       </c>
       <c r="E46" s="3">
-        <v>3618800</v>
+        <v>3511800</v>
       </c>
       <c r="F46" s="3">
-        <v>3368100</v>
+        <v>3268500</v>
       </c>
       <c r="G46" s="3">
-        <v>2972000</v>
+        <v>2884100</v>
       </c>
       <c r="H46" s="3">
-        <v>2992100</v>
+        <v>2903600</v>
       </c>
       <c r="I46" s="3">
-        <v>1914300</v>
+        <v>1857600</v>
       </c>
       <c r="J46" s="3">
-        <v>1803600</v>
+        <v>1750300</v>
       </c>
       <c r="K46" s="3">
         <v>1716100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1170700</v>
+        <v>1136100</v>
       </c>
       <c r="E47" s="3">
-        <v>811700</v>
+        <v>787700</v>
       </c>
       <c r="F47" s="3">
-        <v>421700</v>
+        <v>409200</v>
       </c>
       <c r="G47" s="3">
-        <v>465800</v>
+        <v>452000</v>
       </c>
       <c r="H47" s="3">
-        <v>374500</v>
+        <v>363400</v>
       </c>
       <c r="I47" s="3">
-        <v>64200</v>
+        <v>62300</v>
       </c>
       <c r="J47" s="3">
-        <v>72700</v>
+        <v>70600</v>
       </c>
       <c r="K47" s="3">
         <v>55000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12322700</v>
+        <v>11958200</v>
       </c>
       <c r="E48" s="3">
-        <v>11617100</v>
+        <v>11273400</v>
       </c>
       <c r="F48" s="3">
-        <v>11012000</v>
+        <v>10686200</v>
       </c>
       <c r="G48" s="3">
-        <v>18710800</v>
+        <v>18157300</v>
       </c>
       <c r="H48" s="3">
-        <v>8796000</v>
+        <v>8535800</v>
       </c>
       <c r="I48" s="3">
-        <v>8096500</v>
+        <v>7857000</v>
       </c>
       <c r="J48" s="3">
-        <v>7533200</v>
+        <v>7310400</v>
       </c>
       <c r="K48" s="3">
         <v>7162000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19162700</v>
+        <v>18595800</v>
       </c>
       <c r="E49" s="3">
-        <v>17183400</v>
+        <v>16675100</v>
       </c>
       <c r="F49" s="3">
-        <v>14045900</v>
+        <v>13630400</v>
       </c>
       <c r="G49" s="3">
-        <v>24272500</v>
+        <v>23554500</v>
       </c>
       <c r="H49" s="3">
-        <v>11524200</v>
+        <v>11183300</v>
       </c>
       <c r="I49" s="3">
-        <v>10949300</v>
+        <v>10625400</v>
       </c>
       <c r="J49" s="3">
-        <v>10636000</v>
+        <v>10321300</v>
       </c>
       <c r="K49" s="3">
         <v>9070500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>585700</v>
+        <v>568400</v>
       </c>
       <c r="E52" s="3">
-        <v>251500</v>
+        <v>244000</v>
       </c>
       <c r="F52" s="3">
-        <v>543200</v>
+        <v>527100</v>
       </c>
       <c r="G52" s="3">
-        <v>651500</v>
+        <v>632200</v>
       </c>
       <c r="H52" s="3">
-        <v>340500</v>
+        <v>330400</v>
       </c>
       <c r="I52" s="3">
-        <v>431000</v>
+        <v>418200</v>
       </c>
       <c r="J52" s="3">
-        <v>386100</v>
+        <v>374700</v>
       </c>
       <c r="K52" s="3">
         <v>223000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37135400</v>
+        <v>36036800</v>
       </c>
       <c r="E54" s="3">
-        <v>33482500</v>
+        <v>32492000</v>
       </c>
       <c r="F54" s="3">
-        <v>29390900</v>
+        <v>28521400</v>
       </c>
       <c r="G54" s="3">
-        <v>25577900</v>
+        <v>24821200</v>
       </c>
       <c r="H54" s="3">
-        <v>24027300</v>
+        <v>23316500</v>
       </c>
       <c r="I54" s="3">
-        <v>21455300</v>
+        <v>20820600</v>
       </c>
       <c r="J54" s="3">
-        <v>20431600</v>
+        <v>19827200</v>
       </c>
       <c r="K54" s="3">
         <v>18226500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>938600</v>
+        <v>910800</v>
       </c>
       <c r="E57" s="3">
-        <v>668500</v>
+        <v>648700</v>
       </c>
       <c r="F57" s="3">
-        <v>690200</v>
+        <v>669800</v>
       </c>
       <c r="G57" s="3">
-        <v>530800</v>
+        <v>515100</v>
       </c>
       <c r="H57" s="3">
-        <v>554800</v>
+        <v>538400</v>
       </c>
       <c r="I57" s="3">
-        <v>447200</v>
+        <v>434000</v>
       </c>
       <c r="J57" s="3">
-        <v>368300</v>
+        <v>357400</v>
       </c>
       <c r="K57" s="3">
         <v>359600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2353000</v>
+        <v>2283400</v>
       </c>
       <c r="E58" s="3">
-        <v>1185400</v>
+        <v>1150300</v>
       </c>
       <c r="F58" s="3">
-        <v>1108000</v>
+        <v>1075200</v>
       </c>
       <c r="G58" s="3">
-        <v>724200</v>
+        <v>702800</v>
       </c>
       <c r="H58" s="3">
-        <v>1163700</v>
+        <v>1129300</v>
       </c>
       <c r="I58" s="3">
-        <v>1104100</v>
+        <v>1071500</v>
       </c>
       <c r="J58" s="3">
-        <v>739700</v>
+        <v>717800</v>
       </c>
       <c r="K58" s="3">
         <v>278700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3109700</v>
+        <v>3017700</v>
       </c>
       <c r="E59" s="3">
-        <v>2715100</v>
+        <v>2634800</v>
       </c>
       <c r="F59" s="3">
-        <v>2936400</v>
+        <v>2849500</v>
       </c>
       <c r="G59" s="3">
-        <v>2998300</v>
+        <v>2909600</v>
       </c>
       <c r="H59" s="3">
-        <v>2181200</v>
+        <v>2116700</v>
       </c>
       <c r="I59" s="3">
-        <v>2279500</v>
+        <v>2212000</v>
       </c>
       <c r="J59" s="3">
-        <v>2200500</v>
+        <v>2135400</v>
       </c>
       <c r="K59" s="3">
         <v>2108600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6401200</v>
+        <v>6211900</v>
       </c>
       <c r="E60" s="3">
-        <v>4569000</v>
+        <v>4433800</v>
       </c>
       <c r="F60" s="3">
-        <v>4312900</v>
+        <v>4185300</v>
       </c>
       <c r="G60" s="3">
-        <v>3748000</v>
+        <v>3637200</v>
       </c>
       <c r="H60" s="3">
-        <v>3899700</v>
+        <v>3784300</v>
       </c>
       <c r="I60" s="3">
-        <v>3830800</v>
+        <v>3717500</v>
       </c>
       <c r="J60" s="3">
-        <v>3308600</v>
+        <v>3210700</v>
       </c>
       <c r="K60" s="3">
         <v>2746900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13869500</v>
+        <v>13459200</v>
       </c>
       <c r="E61" s="3">
-        <v>14589800</v>
+        <v>14158200</v>
       </c>
       <c r="F61" s="3">
-        <v>13263600</v>
+        <v>12871200</v>
       </c>
       <c r="G61" s="3">
-        <v>10263800</v>
+        <v>9960200</v>
       </c>
       <c r="H61" s="3">
-        <v>9483100</v>
+        <v>9202500</v>
       </c>
       <c r="I61" s="3">
-        <v>8978600</v>
+        <v>8713000</v>
       </c>
       <c r="J61" s="3">
-        <v>8652100</v>
+        <v>8396100</v>
       </c>
       <c r="K61" s="3">
         <v>7108600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4439000</v>
+        <v>4307700</v>
       </c>
       <c r="E62" s="3">
-        <v>5314100</v>
+        <v>5156900</v>
       </c>
       <c r="F62" s="3">
-        <v>3626600</v>
+        <v>3519300</v>
       </c>
       <c r="G62" s="3">
-        <v>4193700</v>
+        <v>4069700</v>
       </c>
       <c r="H62" s="3">
-        <v>3326400</v>
+        <v>3227900</v>
       </c>
       <c r="I62" s="3">
-        <v>2505400</v>
+        <v>2431300</v>
       </c>
       <c r="J62" s="3">
-        <v>2534800</v>
+        <v>2459800</v>
       </c>
       <c r="K62" s="3">
         <v>2519200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25439400</v>
+        <v>24686800</v>
       </c>
       <c r="E66" s="3">
-        <v>24166500</v>
+        <v>23451600</v>
       </c>
       <c r="F66" s="3">
-        <v>21229400</v>
+        <v>20601300</v>
       </c>
       <c r="G66" s="3">
-        <v>17640000</v>
+        <v>17118100</v>
       </c>
       <c r="H66" s="3">
-        <v>16741600</v>
+        <v>16246400</v>
       </c>
       <c r="I66" s="3">
-        <v>15329500</v>
+        <v>14876000</v>
       </c>
       <c r="J66" s="3">
-        <v>14495400</v>
+        <v>14066600</v>
       </c>
       <c r="K66" s="3">
         <v>12374700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3293100</v>
+        <v>3195700</v>
       </c>
       <c r="E72" s="3">
-        <v>2872200</v>
+        <v>2787200</v>
       </c>
       <c r="F72" s="3">
-        <v>3382100</v>
+        <v>3282000</v>
       </c>
       <c r="G72" s="3">
-        <v>3461800</v>
+        <v>3359300</v>
       </c>
       <c r="H72" s="3">
-        <v>2935600</v>
+        <v>2848800</v>
       </c>
       <c r="I72" s="3">
-        <v>1914300</v>
+        <v>1857600</v>
       </c>
       <c r="J72" s="3">
-        <v>1878700</v>
+        <v>1823100</v>
       </c>
       <c r="K72" s="3">
         <v>1648600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11696000</v>
+        <v>11350000</v>
       </c>
       <c r="E76" s="3">
-        <v>9316000</v>
+        <v>9040400</v>
       </c>
       <c r="F76" s="3">
-        <v>8161500</v>
+        <v>7920100</v>
       </c>
       <c r="G76" s="3">
-        <v>7937900</v>
+        <v>7703100</v>
       </c>
       <c r="H76" s="3">
-        <v>7285600</v>
+        <v>7070100</v>
       </c>
       <c r="I76" s="3">
-        <v>6125800</v>
+        <v>5944600</v>
       </c>
       <c r="J76" s="3">
-        <v>5936200</v>
+        <v>5760600</v>
       </c>
       <c r="K76" s="3">
         <v>5851800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1280600</v>
+        <v>1242700</v>
       </c>
       <c r="E81" s="3">
-        <v>933900</v>
+        <v>906300</v>
       </c>
       <c r="F81" s="3">
-        <v>1351000</v>
+        <v>1311000</v>
       </c>
       <c r="G81" s="3">
-        <v>1238000</v>
+        <v>1201400</v>
       </c>
       <c r="H81" s="3">
-        <v>1206300</v>
+        <v>1170600</v>
       </c>
       <c r="I81" s="3">
-        <v>946300</v>
+        <v>918300</v>
       </c>
       <c r="J81" s="3">
-        <v>1069300</v>
+        <v>1037700</v>
       </c>
       <c r="K81" s="3">
         <v>1118700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2488400</v>
+        <v>2414800</v>
       </c>
       <c r="E83" s="3">
-        <v>2330500</v>
+        <v>2261600</v>
       </c>
       <c r="F83" s="3">
-        <v>1994000</v>
+        <v>1935000</v>
       </c>
       <c r="G83" s="3">
-        <v>1754100</v>
+        <v>1702200</v>
       </c>
       <c r="H83" s="3">
-        <v>1678300</v>
+        <v>1628600</v>
       </c>
       <c r="I83" s="3">
-        <v>1583900</v>
+        <v>1537000</v>
       </c>
       <c r="J83" s="3">
-        <v>1477100</v>
+        <v>1433400</v>
       </c>
       <c r="K83" s="3">
         <v>1439800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3395200</v>
+        <v>3294800</v>
       </c>
       <c r="E89" s="3">
-        <v>3539100</v>
+        <v>3434400</v>
       </c>
       <c r="F89" s="3">
-        <v>3038500</v>
+        <v>2948600</v>
       </c>
       <c r="G89" s="3">
-        <v>3139900</v>
+        <v>3047000</v>
       </c>
       <c r="H89" s="3">
-        <v>3054000</v>
+        <v>2963600</v>
       </c>
       <c r="I89" s="3">
-        <v>2490700</v>
+        <v>2417000</v>
       </c>
       <c r="J89" s="3">
-        <v>2751500</v>
+        <v>2670100</v>
       </c>
       <c r="K89" s="3">
         <v>2674700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2466700</v>
+        <v>-2393700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2067500</v>
+        <v>-2006300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2144800</v>
+        <v>-2081400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1843800</v>
+        <v>-1789300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1923500</v>
+        <v>-1866600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1824500</v>
+        <v>-1770500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1583100</v>
+        <v>-1536300</v>
       </c>
       <c r="K91" s="3">
         <v>-1505700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4229300</v>
+        <v>-4104200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4770200</v>
+        <v>-4629100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3902800</v>
+        <v>-3787300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2303500</v>
+        <v>-2235300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2818800</v>
+        <v>-2735400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2261700</v>
+        <v>-2194800</v>
       </c>
       <c r="J94" s="3">
-        <v>-3464100</v>
+        <v>-3361600</v>
       </c>
       <c r="K94" s="3">
         <v>-2879600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-808600</v>
+        <v>-784600</v>
       </c>
       <c r="E96" s="3">
-        <v>-719600</v>
+        <v>-698300</v>
       </c>
       <c r="F96" s="3">
-        <v>-889000</v>
+        <v>-862700</v>
       </c>
       <c r="G96" s="3">
-        <v>-882800</v>
+        <v>-856700</v>
       </c>
       <c r="H96" s="3">
-        <v>-837200</v>
+        <v>-812400</v>
       </c>
       <c r="I96" s="3">
-        <v>-827900</v>
+        <v>-803400</v>
       </c>
       <c r="J96" s="3">
-        <v>-767600</v>
+        <v>-744900</v>
       </c>
       <c r="K96" s="3">
         <v>-716800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>737400</v>
+        <v>715600</v>
       </c>
       <c r="E100" s="3">
-        <v>1473200</v>
+        <v>1429600</v>
       </c>
       <c r="F100" s="3">
-        <v>957900</v>
+        <v>929600</v>
       </c>
       <c r="G100" s="3">
-        <v>-909900</v>
+        <v>-883000</v>
       </c>
       <c r="H100" s="3">
-        <v>-175600</v>
+        <v>-170400</v>
       </c>
       <c r="I100" s="3">
-        <v>-67300</v>
+        <v>-65300</v>
       </c>
       <c r="J100" s="3">
-        <v>838700</v>
+        <v>813900</v>
       </c>
       <c r="K100" s="3">
         <v>-11800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-96700</v>
+        <v>-93900</v>
       </c>
       <c r="E102" s="3">
-        <v>242200</v>
+        <v>235000</v>
       </c>
       <c r="F102" s="3">
-        <v>93600</v>
+        <v>90900</v>
       </c>
       <c r="G102" s="3">
-        <v>-73500</v>
+        <v>-71300</v>
       </c>
       <c r="H102" s="3">
-        <v>59600</v>
+        <v>57800</v>
       </c>
       <c r="I102" s="3">
-        <v>161700</v>
+        <v>156900</v>
       </c>
       <c r="J102" s="3">
-        <v>126100</v>
+        <v>122400</v>
       </c>
       <c r="K102" s="3">
         <v>-216700</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12643000</v>
+        <v>13229100</v>
       </c>
       <c r="E8" s="3">
-        <v>11518900</v>
+        <v>12177600</v>
       </c>
       <c r="F8" s="3">
-        <v>10954300</v>
+        <v>11094900</v>
       </c>
       <c r="G8" s="3">
-        <v>10583400</v>
+        <v>10551100</v>
       </c>
       <c r="H8" s="3">
-        <v>9990200</v>
+        <v>10193800</v>
       </c>
       <c r="I8" s="3">
-        <v>9554700</v>
+        <v>9622400</v>
       </c>
       <c r="J8" s="3">
+        <v>9203000</v>
+      </c>
+      <c r="K8" s="3">
         <v>9333200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9363300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8726700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8169300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7932000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4967700</v>
+        <v>5024900</v>
       </c>
       <c r="E9" s="3">
-        <v>4556200</v>
+        <v>4784800</v>
       </c>
       <c r="F9" s="3">
-        <v>4508900</v>
+        <v>4388500</v>
       </c>
       <c r="G9" s="3">
-        <v>4781500</v>
+        <v>4342900</v>
       </c>
       <c r="H9" s="3">
-        <v>4433100</v>
+        <v>4605500</v>
       </c>
       <c r="I9" s="3">
-        <v>4228100</v>
+        <v>4269900</v>
       </c>
       <c r="J9" s="3">
+        <v>4072500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4153800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4160000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3819800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3628400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3630700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7675300</v>
+        <v>8204200</v>
       </c>
       <c r="E10" s="3">
-        <v>6962700</v>
+        <v>7392800</v>
       </c>
       <c r="F10" s="3">
-        <v>6445400</v>
+        <v>6706400</v>
       </c>
       <c r="G10" s="3">
-        <v>5801900</v>
+        <v>6208100</v>
       </c>
       <c r="H10" s="3">
-        <v>5557100</v>
+        <v>5588300</v>
       </c>
       <c r="I10" s="3">
-        <v>5326600</v>
+        <v>5352600</v>
       </c>
       <c r="J10" s="3">
+        <v>5130500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5179400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5203300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4906800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4540800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4301300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>139700</v>
+        <v>173600</v>
       </c>
       <c r="E14" s="3">
-        <v>156900</v>
+        <v>134500</v>
       </c>
       <c r="F14" s="3">
-        <v>96100</v>
+        <v>151200</v>
       </c>
       <c r="G14" s="3">
-        <v>94600</v>
+        <v>92600</v>
       </c>
       <c r="H14" s="3">
-        <v>19500</v>
+        <v>91100</v>
       </c>
       <c r="I14" s="3">
-        <v>84100</v>
+        <v>18800</v>
       </c>
       <c r="J14" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K14" s="3">
         <v>117100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2414800</v>
+        <v>2496600</v>
       </c>
       <c r="E15" s="3">
-        <v>2261600</v>
+        <v>2325900</v>
       </c>
       <c r="F15" s="3">
-        <v>1935000</v>
+        <v>2178300</v>
       </c>
       <c r="G15" s="3">
-        <v>1702200</v>
+        <v>1863700</v>
       </c>
       <c r="H15" s="3">
-        <v>1628600</v>
+        <v>1639500</v>
       </c>
       <c r="I15" s="3">
-        <v>1537000</v>
+        <v>1568700</v>
       </c>
       <c r="J15" s="3">
+        <v>1480400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1433400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1439800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1388000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1404000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1390500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10334800</v>
+        <v>11092700</v>
       </c>
       <c r="E17" s="3">
-        <v>9655300</v>
+        <v>9954400</v>
       </c>
       <c r="F17" s="3">
-        <v>8719000</v>
+        <v>9299900</v>
       </c>
       <c r="G17" s="3">
-        <v>8453200</v>
+        <v>8398000</v>
       </c>
       <c r="H17" s="3">
-        <v>7932100</v>
+        <v>8142000</v>
       </c>
       <c r="I17" s="3">
-        <v>7916300</v>
+        <v>7640100</v>
       </c>
       <c r="J17" s="3">
+        <v>7624900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7566400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7374800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7336400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6956500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6420100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2308100</v>
+        <v>2136400</v>
       </c>
       <c r="E18" s="3">
-        <v>1863600</v>
+        <v>2223200</v>
       </c>
       <c r="F18" s="3">
-        <v>2235300</v>
+        <v>1795000</v>
       </c>
       <c r="G18" s="3">
-        <v>2130200</v>
+        <v>2153000</v>
       </c>
       <c r="H18" s="3">
-        <v>2058100</v>
+        <v>2051800</v>
       </c>
       <c r="I18" s="3">
-        <v>1638400</v>
+        <v>1982300</v>
       </c>
       <c r="J18" s="3">
+        <v>1578100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1766800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1988500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1390300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1212700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1511900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26300</v>
+        <v>149700</v>
       </c>
       <c r="E20" s="3">
-        <v>-42800</v>
+        <v>-25300</v>
       </c>
       <c r="F20" s="3">
-        <v>-35300</v>
+        <v>-41200</v>
       </c>
       <c r="G20" s="3">
-        <v>-42800</v>
+        <v>-34000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5300</v>
+        <v>-41200</v>
       </c>
       <c r="I20" s="3">
-        <v>-22500</v>
+        <v>-5100</v>
       </c>
       <c r="J20" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-132700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>257100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>270300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4659500</v>
+        <v>4786800</v>
       </c>
       <c r="E21" s="3">
-        <v>4047700</v>
+        <v>4527600</v>
       </c>
       <c r="F21" s="3">
-        <v>4105200</v>
+        <v>3935800</v>
       </c>
       <c r="G21" s="3">
-        <v>3763400</v>
+        <v>3985900</v>
       </c>
       <c r="H21" s="3">
-        <v>3656400</v>
+        <v>3652800</v>
       </c>
       <c r="I21" s="3">
-        <v>3129200</v>
+        <v>3548600</v>
       </c>
       <c r="J21" s="3">
+        <v>3039300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3186400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3290200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3032900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2887600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2915200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>571400</v>
+        <v>606800</v>
       </c>
       <c r="E22" s="3">
-        <v>536100</v>
+        <v>550400</v>
       </c>
       <c r="F22" s="3">
-        <v>515100</v>
+        <v>516400</v>
       </c>
       <c r="G22" s="3">
-        <v>453500</v>
+        <v>496100</v>
       </c>
       <c r="H22" s="3">
-        <v>425000</v>
+        <v>436800</v>
       </c>
       <c r="I22" s="3">
-        <v>367900</v>
+        <v>409300</v>
       </c>
       <c r="J22" s="3">
-        <v>343900</v>
+        <v>354400</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
       </c>
       <c r="L22" s="3">
+        <v>343900</v>
+      </c>
+      <c r="M22" s="3">
         <v>286400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>263500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>295800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1710500</v>
+        <v>1679300</v>
       </c>
       <c r="E23" s="3">
-        <v>1284700</v>
+        <v>1647500</v>
       </c>
       <c r="F23" s="3">
-        <v>1684900</v>
+        <v>1237400</v>
       </c>
       <c r="G23" s="3">
-        <v>1633900</v>
+        <v>1622900</v>
       </c>
       <c r="H23" s="3">
-        <v>1627900</v>
+        <v>1573700</v>
       </c>
       <c r="I23" s="3">
-        <v>1247900</v>
+        <v>1567900</v>
       </c>
       <c r="J23" s="3">
+        <v>1202000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1431100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1512000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1361000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1219500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1222300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>435500</v>
+        <v>436800</v>
       </c>
       <c r="E24" s="3">
-        <v>338600</v>
+        <v>419500</v>
       </c>
       <c r="F24" s="3">
-        <v>351400</v>
+        <v>326200</v>
       </c>
       <c r="G24" s="3">
-        <v>414500</v>
+        <v>338500</v>
       </c>
       <c r="H24" s="3">
-        <v>443000</v>
+        <v>399200</v>
       </c>
       <c r="I24" s="3">
-        <v>319900</v>
+        <v>426700</v>
       </c>
       <c r="J24" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K24" s="3">
         <v>393500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>393300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>364900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>313200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>288900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1275000</v>
+        <v>1242500</v>
       </c>
       <c r="E26" s="3">
-        <v>946100</v>
+        <v>1228000</v>
       </c>
       <c r="F26" s="3">
-        <v>1333500</v>
+        <v>911300</v>
       </c>
       <c r="G26" s="3">
-        <v>1219400</v>
+        <v>1284400</v>
       </c>
       <c r="H26" s="3">
-        <v>1184900</v>
+        <v>1174500</v>
       </c>
       <c r="I26" s="3">
-        <v>928100</v>
+        <v>1141200</v>
       </c>
       <c r="J26" s="3">
+        <v>893900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1037700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1118700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>996100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>906400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>933400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1242700</v>
+        <v>1168000</v>
       </c>
       <c r="E27" s="3">
-        <v>906300</v>
+        <v>1196900</v>
       </c>
       <c r="F27" s="3">
-        <v>1311000</v>
+        <v>872900</v>
       </c>
       <c r="G27" s="3">
-        <v>1201400</v>
+        <v>1262700</v>
       </c>
       <c r="H27" s="3">
-        <v>1170600</v>
+        <v>1157200</v>
       </c>
       <c r="I27" s="3">
-        <v>918300</v>
+        <v>1127500</v>
       </c>
       <c r="J27" s="3">
+        <v>884500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1037700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1118700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>996100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>906400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>936500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26300</v>
+        <v>-149700</v>
       </c>
       <c r="E32" s="3">
-        <v>42800</v>
+        <v>25300</v>
       </c>
       <c r="F32" s="3">
-        <v>35300</v>
+        <v>41200</v>
       </c>
       <c r="G32" s="3">
-        <v>42800</v>
+        <v>34000</v>
       </c>
       <c r="H32" s="3">
-        <v>5300</v>
+        <v>41200</v>
       </c>
       <c r="I32" s="3">
-        <v>22500</v>
+        <v>5100</v>
       </c>
       <c r="J32" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>132700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-257100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-270300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1242700</v>
+        <v>1168000</v>
       </c>
       <c r="E33" s="3">
-        <v>906300</v>
+        <v>1196900</v>
       </c>
       <c r="F33" s="3">
-        <v>1311000</v>
+        <v>872900</v>
       </c>
       <c r="G33" s="3">
-        <v>1201400</v>
+        <v>1262700</v>
       </c>
       <c r="H33" s="3">
-        <v>1170600</v>
+        <v>1157200</v>
       </c>
       <c r="I33" s="3">
-        <v>918300</v>
+        <v>1127500</v>
       </c>
       <c r="J33" s="3">
+        <v>884500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1037700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1118700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>996100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>906400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>936500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1242700</v>
+        <v>1168000</v>
       </c>
       <c r="E35" s="3">
-        <v>906300</v>
+        <v>1196900</v>
       </c>
       <c r="F35" s="3">
-        <v>1311000</v>
+        <v>872900</v>
       </c>
       <c r="G35" s="3">
-        <v>1201400</v>
+        <v>1262700</v>
       </c>
       <c r="H35" s="3">
-        <v>1170600</v>
+        <v>1157200</v>
       </c>
       <c r="I35" s="3">
-        <v>918300</v>
+        <v>1127500</v>
       </c>
       <c r="J35" s="3">
+        <v>884500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1037700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1118700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>996100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>906400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>936500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>542900</v>
+        <v>704400</v>
       </c>
       <c r="E41" s="3">
-        <v>636700</v>
+        <v>522900</v>
       </c>
       <c r="F41" s="3">
-        <v>401700</v>
+        <v>613300</v>
       </c>
       <c r="G41" s="3">
-        <v>310900</v>
+        <v>386900</v>
       </c>
       <c r="H41" s="3">
-        <v>382200</v>
+        <v>299400</v>
       </c>
       <c r="I41" s="3">
-        <v>324400</v>
+        <v>368100</v>
       </c>
       <c r="J41" s="3">
+        <v>312400</v>
+      </c>
+      <c r="K41" s="3">
         <v>167400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>258700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>80500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,282 +1984,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2492900</v>
+        <v>2806800</v>
       </c>
       <c r="E43" s="3">
-        <v>2209000</v>
+        <v>2401100</v>
       </c>
       <c r="F43" s="3">
-        <v>2121900</v>
+        <v>2127700</v>
       </c>
       <c r="G43" s="3">
-        <v>1849400</v>
+        <v>2043800</v>
       </c>
       <c r="H43" s="3">
-        <v>1852400</v>
+        <v>1781300</v>
       </c>
       <c r="I43" s="3">
-        <v>1111300</v>
+        <v>1784200</v>
       </c>
       <c r="J43" s="3">
+        <v>1070400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1073000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1240400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1149300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1178900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1147700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>336400</v>
+        <v>388400</v>
       </c>
       <c r="E44" s="3">
-        <v>305600</v>
+        <v>324000</v>
       </c>
       <c r="F44" s="3">
-        <v>328100</v>
+        <v>294400</v>
       </c>
       <c r="G44" s="3">
-        <v>282300</v>
+        <v>316000</v>
       </c>
       <c r="H44" s="3">
-        <v>285300</v>
+        <v>271900</v>
       </c>
       <c r="I44" s="3">
-        <v>238800</v>
+        <v>274800</v>
       </c>
       <c r="J44" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K44" s="3">
         <v>270300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>251200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>251000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>263500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>271200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>406200</v>
+        <v>506300</v>
       </c>
       <c r="E45" s="3">
-        <v>360400</v>
+        <v>391300</v>
       </c>
       <c r="F45" s="3">
-        <v>416700</v>
+        <v>347100</v>
       </c>
       <c r="G45" s="3">
-        <v>441500</v>
+        <v>401400</v>
       </c>
       <c r="H45" s="3">
-        <v>383700</v>
+        <v>425300</v>
       </c>
       <c r="I45" s="3">
-        <v>183200</v>
+        <v>369600</v>
       </c>
       <c r="J45" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K45" s="3">
         <v>239500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>177400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>133900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>140800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>121400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3778300</v>
+        <v>4405900</v>
       </c>
       <c r="E46" s="3">
-        <v>3511800</v>
+        <v>3639200</v>
       </c>
       <c r="F46" s="3">
-        <v>3268500</v>
+        <v>3382500</v>
       </c>
       <c r="G46" s="3">
-        <v>2884100</v>
+        <v>3148200</v>
       </c>
       <c r="H46" s="3">
-        <v>2903600</v>
+        <v>2777900</v>
       </c>
       <c r="I46" s="3">
-        <v>1857600</v>
+        <v>2796700</v>
       </c>
       <c r="J46" s="3">
+        <v>1789200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1750300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1716100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1792900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1663700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1575600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1136100</v>
+        <v>1167300</v>
       </c>
       <c r="E47" s="3">
-        <v>787700</v>
+        <v>1094200</v>
       </c>
       <c r="F47" s="3">
-        <v>409200</v>
+        <v>758700</v>
       </c>
       <c r="G47" s="3">
-        <v>452000</v>
+        <v>394200</v>
       </c>
       <c r="H47" s="3">
-        <v>363400</v>
+        <v>435400</v>
       </c>
       <c r="I47" s="3">
-        <v>62300</v>
+        <v>350000</v>
       </c>
       <c r="J47" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K47" s="3">
         <v>70600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>45400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>43700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11958200</v>
+        <v>12355500</v>
       </c>
       <c r="E48" s="3">
-        <v>11273400</v>
+        <v>11518000</v>
       </c>
       <c r="F48" s="3">
-        <v>10686200</v>
+        <v>10858400</v>
       </c>
       <c r="G48" s="3">
-        <v>18157300</v>
+        <v>10292900</v>
       </c>
       <c r="H48" s="3">
-        <v>8535800</v>
+        <v>17488900</v>
       </c>
       <c r="I48" s="3">
-        <v>7857000</v>
+        <v>8221600</v>
       </c>
       <c r="J48" s="3">
+        <v>7567800</v>
+      </c>
+      <c r="K48" s="3">
         <v>7310400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7162000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6486500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6146500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6118200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18595800</v>
+        <v>20501100</v>
       </c>
       <c r="E49" s="3">
-        <v>16675100</v>
+        <v>17911300</v>
       </c>
       <c r="F49" s="3">
-        <v>13630400</v>
+        <v>16061300</v>
       </c>
       <c r="G49" s="3">
-        <v>23554500</v>
+        <v>13128600</v>
       </c>
       <c r="H49" s="3">
-        <v>11183300</v>
+        <v>22687400</v>
       </c>
       <c r="I49" s="3">
-        <v>10625400</v>
+        <v>10771600</v>
       </c>
       <c r="J49" s="3">
+        <v>10234300</v>
+      </c>
+      <c r="K49" s="3">
         <v>10321300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9070500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7904500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7439800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7539400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>568400</v>
+        <v>657400</v>
       </c>
       <c r="E52" s="3">
-        <v>244000</v>
+        <v>547500</v>
       </c>
       <c r="F52" s="3">
-        <v>527100</v>
+        <v>235000</v>
       </c>
       <c r="G52" s="3">
-        <v>632200</v>
+        <v>507700</v>
       </c>
       <c r="H52" s="3">
-        <v>330400</v>
+        <v>609000</v>
       </c>
       <c r="I52" s="3">
-        <v>418200</v>
+        <v>318200</v>
       </c>
       <c r="J52" s="3">
+        <v>402800</v>
+      </c>
+      <c r="K52" s="3">
         <v>374700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>223000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>371100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>97100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36036800</v>
+        <v>39087100</v>
       </c>
       <c r="E54" s="3">
-        <v>32492000</v>
+        <v>34710200</v>
       </c>
       <c r="F54" s="3">
-        <v>28521400</v>
+        <v>31295900</v>
       </c>
       <c r="G54" s="3">
-        <v>24821200</v>
+        <v>27471500</v>
       </c>
       <c r="H54" s="3">
-        <v>23316500</v>
+        <v>23907500</v>
       </c>
       <c r="I54" s="3">
-        <v>20820600</v>
+        <v>22458200</v>
       </c>
       <c r="J54" s="3">
+        <v>20054200</v>
+      </c>
+      <c r="K54" s="3">
         <v>19827200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18226500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16600400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15390800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15311600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>910800</v>
+        <v>999500</v>
       </c>
       <c r="E57" s="3">
-        <v>648700</v>
+        <v>877300</v>
       </c>
       <c r="F57" s="3">
-        <v>669800</v>
+        <v>624900</v>
       </c>
       <c r="G57" s="3">
-        <v>515100</v>
+        <v>645100</v>
       </c>
       <c r="H57" s="3">
-        <v>538400</v>
+        <v>496100</v>
       </c>
       <c r="I57" s="3">
-        <v>434000</v>
+        <v>518500</v>
       </c>
       <c r="J57" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K57" s="3">
         <v>357400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>359600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>352600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>353100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>348000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2283400</v>
+        <v>1912900</v>
       </c>
       <c r="E58" s="3">
-        <v>1150300</v>
+        <v>2199300</v>
       </c>
       <c r="F58" s="3">
-        <v>1075200</v>
+        <v>1108000</v>
       </c>
       <c r="G58" s="3">
-        <v>702800</v>
+        <v>1035700</v>
       </c>
       <c r="H58" s="3">
+        <v>676900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1087700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>717800</v>
+      </c>
+      <c r="L58" s="3">
+        <v>278700</v>
+      </c>
+      <c r="M58" s="3">
+        <v>307900</v>
+      </c>
+      <c r="N58" s="3">
+        <v>712900</v>
+      </c>
+      <c r="O58" s="3">
         <v>1129300</v>
       </c>
-      <c r="I58" s="3">
-        <v>1071500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>717800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>278700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>307900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>712900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1129300</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3017700</v>
+        <v>3076600</v>
       </c>
       <c r="E59" s="3">
-        <v>2634800</v>
+        <v>2906600</v>
       </c>
       <c r="F59" s="3">
-        <v>2849500</v>
+        <v>2537800</v>
       </c>
       <c r="G59" s="3">
-        <v>2909600</v>
+        <v>2744600</v>
       </c>
       <c r="H59" s="3">
-        <v>2116700</v>
+        <v>2802500</v>
       </c>
       <c r="I59" s="3">
-        <v>2212000</v>
+        <v>2038800</v>
       </c>
       <c r="J59" s="3">
+        <v>2130600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2135400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2108600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1879100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1583900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1476500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6211900</v>
+        <v>5989000</v>
       </c>
       <c r="E60" s="3">
-        <v>4433800</v>
+        <v>5983200</v>
       </c>
       <c r="F60" s="3">
-        <v>4185300</v>
+        <v>4270600</v>
       </c>
       <c r="G60" s="3">
-        <v>3637200</v>
+        <v>4031200</v>
       </c>
       <c r="H60" s="3">
-        <v>3784300</v>
+        <v>3503300</v>
       </c>
       <c r="I60" s="3">
-        <v>3717500</v>
+        <v>3645000</v>
       </c>
       <c r="J60" s="3">
+        <v>3580700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3210700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2746900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2539600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2649800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2953800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13459200</v>
+        <v>16269600</v>
       </c>
       <c r="E61" s="3">
-        <v>14158200</v>
+        <v>12963700</v>
       </c>
       <c r="F61" s="3">
-        <v>12871200</v>
+        <v>13637000</v>
       </c>
       <c r="G61" s="3">
-        <v>9960200</v>
+        <v>12397400</v>
       </c>
       <c r="H61" s="3">
-        <v>9202500</v>
+        <v>9593500</v>
       </c>
       <c r="I61" s="3">
-        <v>8713000</v>
+        <v>8863800</v>
       </c>
       <c r="J61" s="3">
+        <v>8392200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8396100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7108600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5768300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4299200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4231400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4307700</v>
+        <v>4058000</v>
       </c>
       <c r="E62" s="3">
-        <v>5156900</v>
+        <v>4149100</v>
       </c>
       <c r="F62" s="3">
-        <v>3519300</v>
+        <v>4967100</v>
       </c>
       <c r="G62" s="3">
-        <v>4069700</v>
+        <v>3389700</v>
       </c>
       <c r="H62" s="3">
-        <v>3227900</v>
+        <v>3919900</v>
       </c>
       <c r="I62" s="3">
-        <v>2431300</v>
+        <v>3109100</v>
       </c>
       <c r="J62" s="3">
+        <v>2341800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2459800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2519200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2123900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2655800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2354600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24686800</v>
+        <v>27104100</v>
       </c>
       <c r="E66" s="3">
-        <v>23451600</v>
+        <v>23778000</v>
       </c>
       <c r="F66" s="3">
-        <v>20601300</v>
+        <v>22588300</v>
       </c>
       <c r="G66" s="3">
-        <v>17118100</v>
+        <v>19843000</v>
       </c>
       <c r="H66" s="3">
-        <v>16246400</v>
+        <v>16488000</v>
       </c>
       <c r="I66" s="3">
-        <v>14876000</v>
+        <v>15648300</v>
       </c>
       <c r="J66" s="3">
+        <v>14328400</v>
+      </c>
+      <c r="K66" s="3">
         <v>14066600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12374700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10431800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9604800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9539900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3195700</v>
+        <v>2968100</v>
       </c>
       <c r="E72" s="3">
-        <v>2787200</v>
+        <v>3078000</v>
       </c>
       <c r="F72" s="3">
-        <v>3282000</v>
+        <v>2684600</v>
       </c>
       <c r="G72" s="3">
-        <v>3359300</v>
+        <v>3161200</v>
       </c>
       <c r="H72" s="3">
-        <v>2848800</v>
+        <v>3235700</v>
       </c>
       <c r="I72" s="3">
-        <v>1857600</v>
+        <v>2743900</v>
       </c>
       <c r="J72" s="3">
+        <v>1789200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1823100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1648600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1954600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1433300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1367400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11350000</v>
+        <v>11983000</v>
       </c>
       <c r="E76" s="3">
-        <v>9040400</v>
+        <v>10932200</v>
       </c>
       <c r="F76" s="3">
-        <v>7920100</v>
+        <v>8707600</v>
       </c>
       <c r="G76" s="3">
-        <v>7703100</v>
+        <v>7628500</v>
       </c>
       <c r="H76" s="3">
-        <v>7070100</v>
+        <v>7419500</v>
       </c>
       <c r="I76" s="3">
-        <v>5944600</v>
+        <v>6809800</v>
       </c>
       <c r="J76" s="3">
+        <v>5725700</v>
+      </c>
+      <c r="K76" s="3">
         <v>5760600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5851800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6170100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5785900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5771700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1242700</v>
+        <v>1168000</v>
       </c>
       <c r="E81" s="3">
-        <v>906300</v>
+        <v>1196900</v>
       </c>
       <c r="F81" s="3">
-        <v>1311000</v>
+        <v>872900</v>
       </c>
       <c r="G81" s="3">
-        <v>1201400</v>
+        <v>1262700</v>
       </c>
       <c r="H81" s="3">
-        <v>1170600</v>
+        <v>1157200</v>
       </c>
       <c r="I81" s="3">
-        <v>918300</v>
+        <v>1127500</v>
       </c>
       <c r="J81" s="3">
+        <v>884500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1037700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1118700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>996100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>906400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>936500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2414800</v>
+        <v>2496600</v>
       </c>
       <c r="E83" s="3">
-        <v>2261600</v>
+        <v>2325900</v>
       </c>
       <c r="F83" s="3">
-        <v>1935000</v>
+        <v>2178300</v>
       </c>
       <c r="G83" s="3">
-        <v>1702200</v>
+        <v>1863700</v>
       </c>
       <c r="H83" s="3">
-        <v>1628600</v>
+        <v>1639500</v>
       </c>
       <c r="I83" s="3">
-        <v>1537000</v>
+        <v>1568700</v>
       </c>
       <c r="J83" s="3">
+        <v>1480400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1433400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1439800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1388000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1404000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1390500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3294800</v>
+        <v>3479400</v>
       </c>
       <c r="E89" s="3">
-        <v>3434400</v>
+        <v>3173500</v>
       </c>
       <c r="F89" s="3">
-        <v>2948600</v>
+        <v>3308000</v>
       </c>
       <c r="G89" s="3">
-        <v>3047000</v>
+        <v>2840100</v>
       </c>
       <c r="H89" s="3">
-        <v>2963600</v>
+        <v>2934800</v>
       </c>
       <c r="I89" s="3">
-        <v>2417000</v>
+        <v>2854500</v>
       </c>
       <c r="J89" s="3">
+        <v>2328000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2670100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2674700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2498800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2423200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1959000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2393700</v>
+        <v>-2380100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2006300</v>
+        <v>-2305600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2081400</v>
+        <v>-1932400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1789300</v>
+        <v>-2004800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1866600</v>
+        <v>-1723400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1770500</v>
+        <v>-1797900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1705400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1536300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1505700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1266400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2644600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1418900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4104200</v>
+        <v>-3911200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4629100</v>
+        <v>-3953100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3787300</v>
+        <v>-4458700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2235300</v>
+        <v>-3647900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2735400</v>
+        <v>-2153000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2194800</v>
+        <v>-2634700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2114000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3361600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2879600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1839100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1549200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1511900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-784600</v>
+        <v>-859200</v>
       </c>
       <c r="E96" s="3">
-        <v>-698300</v>
+        <v>-755800</v>
       </c>
       <c r="F96" s="3">
-        <v>-862700</v>
+        <v>-672600</v>
       </c>
       <c r="G96" s="3">
-        <v>-856700</v>
+        <v>-831000</v>
       </c>
       <c r="H96" s="3">
-        <v>-812400</v>
+        <v>-825200</v>
       </c>
       <c r="I96" s="3">
-        <v>-803400</v>
+        <v>-782500</v>
       </c>
       <c r="J96" s="3">
+        <v>-773800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-744900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-716800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-655900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-582700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-493200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>715600</v>
+        <v>613300</v>
       </c>
       <c r="E100" s="3">
-        <v>1429600</v>
+        <v>689200</v>
       </c>
       <c r="F100" s="3">
-        <v>929600</v>
+        <v>1377000</v>
       </c>
       <c r="G100" s="3">
-        <v>-883000</v>
+        <v>895300</v>
       </c>
       <c r="H100" s="3">
-        <v>-170400</v>
+        <v>-850500</v>
       </c>
       <c r="I100" s="3">
-        <v>-65300</v>
+        <v>-164200</v>
       </c>
       <c r="J100" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="K100" s="3">
         <v>813900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-483400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-828100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-424800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-93900</v>
+        <v>181500</v>
       </c>
       <c r="E102" s="3">
-        <v>235000</v>
+        <v>-90400</v>
       </c>
       <c r="F102" s="3">
-        <v>90900</v>
+        <v>226400</v>
       </c>
       <c r="G102" s="3">
-        <v>-71300</v>
+        <v>87500</v>
       </c>
       <c r="H102" s="3">
-        <v>57800</v>
+        <v>-68700</v>
       </c>
       <c r="I102" s="3">
-        <v>156900</v>
+        <v>55700</v>
       </c>
       <c r="J102" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K102" s="3">
         <v>122400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-216700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>176300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13229100</v>
+        <v>13549600</v>
       </c>
       <c r="E8" s="3">
-        <v>12177600</v>
+        <v>12472600</v>
       </c>
       <c r="F8" s="3">
-        <v>11094900</v>
+        <v>11363700</v>
       </c>
       <c r="G8" s="3">
-        <v>10551100</v>
+        <v>10806700</v>
       </c>
       <c r="H8" s="3">
-        <v>10193800</v>
+        <v>10440700</v>
       </c>
       <c r="I8" s="3">
-        <v>9622400</v>
+        <v>9855500</v>
       </c>
       <c r="J8" s="3">
-        <v>9203000</v>
+        <v>9425900</v>
       </c>
       <c r="K8" s="3">
         <v>9333200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5024900</v>
+        <v>5146700</v>
       </c>
       <c r="E9" s="3">
-        <v>4784800</v>
+        <v>4900700</v>
       </c>
       <c r="F9" s="3">
-        <v>4388500</v>
+        <v>4494800</v>
       </c>
       <c r="G9" s="3">
-        <v>4342900</v>
+        <v>4448100</v>
       </c>
       <c r="H9" s="3">
-        <v>4605500</v>
+        <v>4717000</v>
       </c>
       <c r="I9" s="3">
-        <v>4269900</v>
+        <v>4373300</v>
       </c>
       <c r="J9" s="3">
-        <v>4072500</v>
+        <v>4171100</v>
       </c>
       <c r="K9" s="3">
         <v>4153800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8204200</v>
+        <v>8403000</v>
       </c>
       <c r="E10" s="3">
-        <v>7392800</v>
+        <v>7571800</v>
       </c>
       <c r="F10" s="3">
-        <v>6706400</v>
+        <v>6868900</v>
       </c>
       <c r="G10" s="3">
-        <v>6208100</v>
+        <v>6358500</v>
       </c>
       <c r="H10" s="3">
-        <v>5588300</v>
+        <v>5723700</v>
       </c>
       <c r="I10" s="3">
-        <v>5352600</v>
+        <v>5482200</v>
       </c>
       <c r="J10" s="3">
-        <v>5130500</v>
+        <v>5254800</v>
       </c>
       <c r="K10" s="3">
         <v>5179400</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>173600</v>
+        <v>177800</v>
       </c>
       <c r="E14" s="3">
-        <v>134500</v>
+        <v>137800</v>
       </c>
       <c r="F14" s="3">
-        <v>151200</v>
+        <v>154800</v>
       </c>
       <c r="G14" s="3">
-        <v>92600</v>
+        <v>94800</v>
       </c>
       <c r="H14" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="I14" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="J14" s="3">
-        <v>81000</v>
+        <v>83000</v>
       </c>
       <c r="K14" s="3">
         <v>117100</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2496600</v>
+        <v>2557000</v>
       </c>
       <c r="E15" s="3">
-        <v>2325900</v>
+        <v>2382200</v>
       </c>
       <c r="F15" s="3">
-        <v>2178300</v>
+        <v>2231100</v>
       </c>
       <c r="G15" s="3">
-        <v>1863700</v>
+        <v>1908900</v>
       </c>
       <c r="H15" s="3">
-        <v>1639500</v>
+        <v>1679300</v>
       </c>
       <c r="I15" s="3">
-        <v>1568700</v>
+        <v>1606700</v>
       </c>
       <c r="J15" s="3">
-        <v>1480400</v>
+        <v>1516300</v>
       </c>
       <c r="K15" s="3">
         <v>1433400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11092700</v>
+        <v>11361500</v>
       </c>
       <c r="E17" s="3">
-        <v>9954400</v>
+        <v>10195500</v>
       </c>
       <c r="F17" s="3">
-        <v>9299900</v>
+        <v>9525200</v>
       </c>
       <c r="G17" s="3">
-        <v>8398000</v>
+        <v>8601500</v>
       </c>
       <c r="H17" s="3">
-        <v>8142000</v>
+        <v>8339300</v>
       </c>
       <c r="I17" s="3">
-        <v>7640100</v>
+        <v>7825200</v>
       </c>
       <c r="J17" s="3">
-        <v>7624900</v>
+        <v>7809600</v>
       </c>
       <c r="K17" s="3">
         <v>7566400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2136400</v>
+        <v>2188100</v>
       </c>
       <c r="E18" s="3">
-        <v>2223200</v>
+        <v>2277000</v>
       </c>
       <c r="F18" s="3">
-        <v>1795000</v>
+        <v>1838500</v>
       </c>
       <c r="G18" s="3">
-        <v>2153000</v>
+        <v>2205200</v>
       </c>
       <c r="H18" s="3">
-        <v>2051800</v>
+        <v>2101500</v>
       </c>
       <c r="I18" s="3">
-        <v>1982300</v>
+        <v>2030400</v>
       </c>
       <c r="J18" s="3">
-        <v>1578100</v>
+        <v>1616300</v>
       </c>
       <c r="K18" s="3">
         <v>1766800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>149700</v>
+        <v>153300</v>
       </c>
       <c r="E20" s="3">
-        <v>-25300</v>
+        <v>-25900</v>
       </c>
       <c r="F20" s="3">
-        <v>-41200</v>
+        <v>-42200</v>
       </c>
       <c r="G20" s="3">
-        <v>-34000</v>
+        <v>-34800</v>
       </c>
       <c r="H20" s="3">
-        <v>-41200</v>
+        <v>-42200</v>
       </c>
       <c r="I20" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="J20" s="3">
-        <v>-21700</v>
+        <v>-22200</v>
       </c>
       <c r="K20" s="3">
         <v>8300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4786800</v>
+        <v>4907800</v>
       </c>
       <c r="E21" s="3">
-        <v>4527600</v>
+        <v>4642000</v>
       </c>
       <c r="F21" s="3">
-        <v>3935800</v>
+        <v>4035500</v>
       </c>
       <c r="G21" s="3">
-        <v>3985900</v>
+        <v>4086200</v>
       </c>
       <c r="H21" s="3">
-        <v>3652800</v>
+        <v>3744600</v>
       </c>
       <c r="I21" s="3">
-        <v>3548600</v>
+        <v>3637700</v>
       </c>
       <c r="J21" s="3">
-        <v>3039300</v>
+        <v>3115900</v>
       </c>
       <c r="K21" s="3">
         <v>3186400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>606800</v>
+        <v>621500</v>
       </c>
       <c r="E22" s="3">
-        <v>550400</v>
+        <v>563700</v>
       </c>
       <c r="F22" s="3">
-        <v>516400</v>
+        <v>528900</v>
       </c>
       <c r="G22" s="3">
-        <v>496100</v>
+        <v>508100</v>
       </c>
       <c r="H22" s="3">
-        <v>436800</v>
+        <v>447400</v>
       </c>
       <c r="I22" s="3">
-        <v>409300</v>
+        <v>419300</v>
       </c>
       <c r="J22" s="3">
-        <v>354400</v>
+        <v>363000</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1679300</v>
+        <v>1720000</v>
       </c>
       <c r="E23" s="3">
-        <v>1647500</v>
+        <v>1687400</v>
       </c>
       <c r="F23" s="3">
-        <v>1237400</v>
+        <v>1267400</v>
       </c>
       <c r="G23" s="3">
-        <v>1622900</v>
+        <v>1662200</v>
       </c>
       <c r="H23" s="3">
-        <v>1573700</v>
+        <v>1611900</v>
       </c>
       <c r="I23" s="3">
-        <v>1567900</v>
+        <v>1605900</v>
       </c>
       <c r="J23" s="3">
-        <v>1202000</v>
+        <v>1231100</v>
       </c>
       <c r="K23" s="3">
         <v>1431100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>436800</v>
+        <v>447400</v>
       </c>
       <c r="E24" s="3">
-        <v>419500</v>
+        <v>429600</v>
       </c>
       <c r="F24" s="3">
-        <v>326200</v>
+        <v>334100</v>
       </c>
       <c r="G24" s="3">
-        <v>338500</v>
+        <v>346700</v>
       </c>
       <c r="H24" s="3">
-        <v>399200</v>
+        <v>408900</v>
       </c>
       <c r="I24" s="3">
-        <v>426700</v>
+        <v>437000</v>
       </c>
       <c r="J24" s="3">
-        <v>308100</v>
+        <v>315600</v>
       </c>
       <c r="K24" s="3">
         <v>393500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1242500</v>
+        <v>1272600</v>
       </c>
       <c r="E26" s="3">
-        <v>1228000</v>
+        <v>1257800</v>
       </c>
       <c r="F26" s="3">
-        <v>911300</v>
+        <v>933300</v>
       </c>
       <c r="G26" s="3">
-        <v>1284400</v>
+        <v>1315600</v>
       </c>
       <c r="H26" s="3">
-        <v>1174500</v>
+        <v>1203000</v>
       </c>
       <c r="I26" s="3">
-        <v>1141200</v>
+        <v>1168900</v>
       </c>
       <c r="J26" s="3">
-        <v>893900</v>
+        <v>915600</v>
       </c>
       <c r="K26" s="3">
         <v>1037700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1168000</v>
+        <v>1196300</v>
       </c>
       <c r="E27" s="3">
-        <v>1196900</v>
+        <v>1225900</v>
       </c>
       <c r="F27" s="3">
-        <v>872900</v>
+        <v>894100</v>
       </c>
       <c r="G27" s="3">
-        <v>1262700</v>
+        <v>1293300</v>
       </c>
       <c r="H27" s="3">
-        <v>1157200</v>
+        <v>1185200</v>
       </c>
       <c r="I27" s="3">
-        <v>1127500</v>
+        <v>1154800</v>
       </c>
       <c r="J27" s="3">
-        <v>884500</v>
+        <v>905900</v>
       </c>
       <c r="K27" s="3">
         <v>1037700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-149700</v>
+        <v>-153300</v>
       </c>
       <c r="E32" s="3">
-        <v>25300</v>
+        <v>25900</v>
       </c>
       <c r="F32" s="3">
-        <v>41200</v>
+        <v>42200</v>
       </c>
       <c r="G32" s="3">
-        <v>34000</v>
+        <v>34800</v>
       </c>
       <c r="H32" s="3">
-        <v>41200</v>
+        <v>42200</v>
       </c>
       <c r="I32" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J32" s="3">
-        <v>21700</v>
+        <v>22200</v>
       </c>
       <c r="K32" s="3">
         <v>-8300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1168000</v>
+        <v>1196300</v>
       </c>
       <c r="E33" s="3">
-        <v>1196900</v>
+        <v>1225900</v>
       </c>
       <c r="F33" s="3">
-        <v>872900</v>
+        <v>894100</v>
       </c>
       <c r="G33" s="3">
-        <v>1262700</v>
+        <v>1293300</v>
       </c>
       <c r="H33" s="3">
-        <v>1157200</v>
+        <v>1185200</v>
       </c>
       <c r="I33" s="3">
-        <v>1127500</v>
+        <v>1154800</v>
       </c>
       <c r="J33" s="3">
-        <v>884500</v>
+        <v>905900</v>
       </c>
       <c r="K33" s="3">
         <v>1037700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1168000</v>
+        <v>1196300</v>
       </c>
       <c r="E35" s="3">
-        <v>1196900</v>
+        <v>1225900</v>
       </c>
       <c r="F35" s="3">
-        <v>872900</v>
+        <v>894100</v>
       </c>
       <c r="G35" s="3">
-        <v>1262700</v>
+        <v>1293300</v>
       </c>
       <c r="H35" s="3">
-        <v>1157200</v>
+        <v>1185200</v>
       </c>
       <c r="I35" s="3">
-        <v>1127500</v>
+        <v>1154800</v>
       </c>
       <c r="J35" s="3">
-        <v>884500</v>
+        <v>905900</v>
       </c>
       <c r="K35" s="3">
         <v>1037700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>704400</v>
+        <v>721500</v>
       </c>
       <c r="E41" s="3">
-        <v>522900</v>
+        <v>535600</v>
       </c>
       <c r="F41" s="3">
-        <v>613300</v>
+        <v>628100</v>
       </c>
       <c r="G41" s="3">
-        <v>386900</v>
+        <v>396300</v>
       </c>
       <c r="H41" s="3">
-        <v>299400</v>
+        <v>306700</v>
       </c>
       <c r="I41" s="3">
-        <v>368100</v>
+        <v>377000</v>
       </c>
       <c r="J41" s="3">
-        <v>312400</v>
+        <v>320000</v>
       </c>
       <c r="K41" s="3">
         <v>167400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2806800</v>
+        <v>2874800</v>
       </c>
       <c r="E43" s="3">
-        <v>2401100</v>
+        <v>2459300</v>
       </c>
       <c r="F43" s="3">
-        <v>2127700</v>
+        <v>2179300</v>
       </c>
       <c r="G43" s="3">
-        <v>2043800</v>
+        <v>2093300</v>
       </c>
       <c r="H43" s="3">
-        <v>1781300</v>
+        <v>1824400</v>
       </c>
       <c r="I43" s="3">
-        <v>1784200</v>
+        <v>1827400</v>
       </c>
       <c r="J43" s="3">
-        <v>1070400</v>
+        <v>1096300</v>
       </c>
       <c r="K43" s="3">
         <v>1073000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>388400</v>
+        <v>397800</v>
       </c>
       <c r="E44" s="3">
-        <v>324000</v>
+        <v>331900</v>
       </c>
       <c r="F44" s="3">
-        <v>294400</v>
+        <v>301500</v>
       </c>
       <c r="G44" s="3">
-        <v>316000</v>
+        <v>323700</v>
       </c>
       <c r="H44" s="3">
-        <v>271900</v>
+        <v>278500</v>
       </c>
       <c r="I44" s="3">
-        <v>274800</v>
+        <v>281500</v>
       </c>
       <c r="J44" s="3">
-        <v>230000</v>
+        <v>235600</v>
       </c>
       <c r="K44" s="3">
         <v>270300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>506300</v>
+        <v>518500</v>
       </c>
       <c r="E45" s="3">
-        <v>391300</v>
+        <v>400700</v>
       </c>
       <c r="F45" s="3">
-        <v>347100</v>
+        <v>355600</v>
       </c>
       <c r="G45" s="3">
-        <v>401400</v>
+        <v>411100</v>
       </c>
       <c r="H45" s="3">
-        <v>425300</v>
+        <v>435600</v>
       </c>
       <c r="I45" s="3">
-        <v>369600</v>
+        <v>378500</v>
       </c>
       <c r="J45" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="K45" s="3">
         <v>239500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4405900</v>
+        <v>4512600</v>
       </c>
       <c r="E46" s="3">
-        <v>3639200</v>
+        <v>3727400</v>
       </c>
       <c r="F46" s="3">
-        <v>3382500</v>
+        <v>3464400</v>
       </c>
       <c r="G46" s="3">
-        <v>3148200</v>
+        <v>3224400</v>
       </c>
       <c r="H46" s="3">
-        <v>2777900</v>
+        <v>2845200</v>
       </c>
       <c r="I46" s="3">
-        <v>2796700</v>
+        <v>2864400</v>
       </c>
       <c r="J46" s="3">
-        <v>1789200</v>
+        <v>1832600</v>
       </c>
       <c r="K46" s="3">
         <v>1750300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1167300</v>
+        <v>1195600</v>
       </c>
       <c r="E47" s="3">
-        <v>1094200</v>
+        <v>1120700</v>
       </c>
       <c r="F47" s="3">
-        <v>758700</v>
+        <v>777000</v>
       </c>
       <c r="G47" s="3">
-        <v>394200</v>
+        <v>403700</v>
       </c>
       <c r="H47" s="3">
-        <v>435400</v>
+        <v>445900</v>
       </c>
       <c r="I47" s="3">
-        <v>350000</v>
+        <v>358500</v>
       </c>
       <c r="J47" s="3">
-        <v>60000</v>
+        <v>61500</v>
       </c>
       <c r="K47" s="3">
         <v>70600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12355500</v>
+        <v>12654800</v>
       </c>
       <c r="E48" s="3">
-        <v>11518000</v>
+        <v>11797000</v>
       </c>
       <c r="F48" s="3">
-        <v>10858400</v>
+        <v>11121500</v>
       </c>
       <c r="G48" s="3">
-        <v>10292900</v>
+        <v>10542200</v>
       </c>
       <c r="H48" s="3">
-        <v>17488900</v>
+        <v>17912600</v>
       </c>
       <c r="I48" s="3">
-        <v>8221600</v>
+        <v>8420700</v>
       </c>
       <c r="J48" s="3">
-        <v>7567800</v>
+        <v>7751100</v>
       </c>
       <c r="K48" s="3">
         <v>7310400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20501100</v>
+        <v>20997800</v>
       </c>
       <c r="E49" s="3">
-        <v>17911300</v>
+        <v>18345200</v>
       </c>
       <c r="F49" s="3">
-        <v>16061300</v>
+        <v>16450400</v>
       </c>
       <c r="G49" s="3">
-        <v>13128600</v>
+        <v>13446700</v>
       </c>
       <c r="H49" s="3">
-        <v>22687400</v>
+        <v>23237000</v>
       </c>
       <c r="I49" s="3">
-        <v>10771600</v>
+        <v>11032600</v>
       </c>
       <c r="J49" s="3">
-        <v>10234300</v>
+        <v>10482200</v>
       </c>
       <c r="K49" s="3">
         <v>10321300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>657400</v>
+        <v>673300</v>
       </c>
       <c r="E52" s="3">
-        <v>547500</v>
+        <v>560700</v>
       </c>
       <c r="F52" s="3">
-        <v>235000</v>
+        <v>240700</v>
       </c>
       <c r="G52" s="3">
-        <v>507700</v>
+        <v>520000</v>
       </c>
       <c r="H52" s="3">
-        <v>609000</v>
+        <v>623700</v>
       </c>
       <c r="I52" s="3">
-        <v>318200</v>
+        <v>325900</v>
       </c>
       <c r="J52" s="3">
-        <v>402800</v>
+        <v>412600</v>
       </c>
       <c r="K52" s="3">
         <v>374700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39087100</v>
+        <v>40034000</v>
       </c>
       <c r="E54" s="3">
-        <v>34710200</v>
+        <v>35551100</v>
       </c>
       <c r="F54" s="3">
-        <v>31295900</v>
+        <v>32054000</v>
       </c>
       <c r="G54" s="3">
-        <v>27471500</v>
+        <v>28137000</v>
       </c>
       <c r="H54" s="3">
-        <v>23907500</v>
+        <v>24486600</v>
       </c>
       <c r="I54" s="3">
-        <v>22458200</v>
+        <v>23002200</v>
       </c>
       <c r="J54" s="3">
-        <v>20054200</v>
+        <v>20540000</v>
       </c>
       <c r="K54" s="3">
         <v>19827200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>999500</v>
+        <v>1023700</v>
       </c>
       <c r="E57" s="3">
-        <v>877300</v>
+        <v>898500</v>
       </c>
       <c r="F57" s="3">
-        <v>624900</v>
+        <v>640000</v>
       </c>
       <c r="G57" s="3">
-        <v>645100</v>
+        <v>660700</v>
       </c>
       <c r="H57" s="3">
-        <v>496100</v>
+        <v>508100</v>
       </c>
       <c r="I57" s="3">
-        <v>518500</v>
+        <v>531100</v>
       </c>
       <c r="J57" s="3">
-        <v>418000</v>
+        <v>428100</v>
       </c>
       <c r="K57" s="3">
         <v>357400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1912900</v>
+        <v>1959300</v>
       </c>
       <c r="E58" s="3">
-        <v>2199300</v>
+        <v>2252600</v>
       </c>
       <c r="F58" s="3">
-        <v>1108000</v>
+        <v>1134800</v>
       </c>
       <c r="G58" s="3">
-        <v>1035700</v>
+        <v>1060700</v>
       </c>
       <c r="H58" s="3">
-        <v>676900</v>
+        <v>693300</v>
       </c>
       <c r="I58" s="3">
-        <v>1087700</v>
+        <v>1114100</v>
       </c>
       <c r="J58" s="3">
-        <v>1032000</v>
+        <v>1057000</v>
       </c>
       <c r="K58" s="3">
         <v>717800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3076600</v>
+        <v>3151100</v>
       </c>
       <c r="E59" s="3">
-        <v>2906600</v>
+        <v>2977000</v>
       </c>
       <c r="F59" s="3">
-        <v>2537800</v>
+        <v>2599300</v>
       </c>
       <c r="G59" s="3">
-        <v>2744600</v>
+        <v>2811100</v>
       </c>
       <c r="H59" s="3">
-        <v>2802500</v>
+        <v>2870400</v>
       </c>
       <c r="I59" s="3">
-        <v>2038800</v>
+        <v>2088100</v>
       </c>
       <c r="J59" s="3">
-        <v>2130600</v>
+        <v>2182200</v>
       </c>
       <c r="K59" s="3">
         <v>2135400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5989000</v>
+        <v>6134100</v>
       </c>
       <c r="E60" s="3">
-        <v>5983200</v>
+        <v>6128100</v>
       </c>
       <c r="F60" s="3">
-        <v>4270600</v>
+        <v>4374100</v>
       </c>
       <c r="G60" s="3">
-        <v>4031200</v>
+        <v>4128900</v>
       </c>
       <c r="H60" s="3">
-        <v>3503300</v>
+        <v>3588100</v>
       </c>
       <c r="I60" s="3">
-        <v>3645000</v>
+        <v>3733300</v>
       </c>
       <c r="J60" s="3">
-        <v>3580700</v>
+        <v>3667400</v>
       </c>
       <c r="K60" s="3">
         <v>3210700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16269600</v>
+        <v>16663700</v>
       </c>
       <c r="E61" s="3">
-        <v>12963700</v>
+        <v>13277800</v>
       </c>
       <c r="F61" s="3">
-        <v>13637000</v>
+        <v>13967400</v>
       </c>
       <c r="G61" s="3">
-        <v>12397400</v>
+        <v>12697800</v>
       </c>
       <c r="H61" s="3">
-        <v>9593500</v>
+        <v>9825900</v>
       </c>
       <c r="I61" s="3">
-        <v>8863800</v>
+        <v>9078500</v>
       </c>
       <c r="J61" s="3">
-        <v>8392200</v>
+        <v>8595500</v>
       </c>
       <c r="K61" s="3">
         <v>8396100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4058000</v>
+        <v>4156300</v>
       </c>
       <c r="E62" s="3">
-        <v>4149100</v>
+        <v>4249600</v>
       </c>
       <c r="F62" s="3">
-        <v>4967100</v>
+        <v>5087400</v>
       </c>
       <c r="G62" s="3">
-        <v>3389700</v>
+        <v>3471800</v>
       </c>
       <c r="H62" s="3">
-        <v>3919900</v>
+        <v>4014800</v>
       </c>
       <c r="I62" s="3">
-        <v>3109100</v>
+        <v>3184400</v>
       </c>
       <c r="J62" s="3">
-        <v>2341800</v>
+        <v>2398500</v>
       </c>
       <c r="K62" s="3">
         <v>2459800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27104100</v>
+        <v>27760700</v>
       </c>
       <c r="E66" s="3">
-        <v>23778000</v>
+        <v>24354000</v>
       </c>
       <c r="F66" s="3">
-        <v>22588300</v>
+        <v>23135500</v>
       </c>
       <c r="G66" s="3">
-        <v>19843000</v>
+        <v>20323700</v>
       </c>
       <c r="H66" s="3">
-        <v>16488000</v>
+        <v>16887400</v>
       </c>
       <c r="I66" s="3">
-        <v>15648300</v>
+        <v>16027400</v>
       </c>
       <c r="J66" s="3">
-        <v>14328400</v>
+        <v>14675500</v>
       </c>
       <c r="K66" s="3">
         <v>14066600</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2968100</v>
+        <v>3040000</v>
       </c>
       <c r="E72" s="3">
-        <v>3078000</v>
+        <v>3152600</v>
       </c>
       <c r="F72" s="3">
-        <v>2684600</v>
+        <v>2749600</v>
       </c>
       <c r="G72" s="3">
-        <v>3161200</v>
+        <v>3237800</v>
       </c>
       <c r="H72" s="3">
-        <v>3235700</v>
+        <v>3314100</v>
       </c>
       <c r="I72" s="3">
-        <v>2743900</v>
+        <v>2810400</v>
       </c>
       <c r="J72" s="3">
-        <v>1789200</v>
+        <v>1832600</v>
       </c>
       <c r="K72" s="3">
         <v>1823100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11983000</v>
+        <v>12273300</v>
       </c>
       <c r="E76" s="3">
-        <v>10932200</v>
+        <v>11197000</v>
       </c>
       <c r="F76" s="3">
-        <v>8707600</v>
+        <v>8918500</v>
       </c>
       <c r="G76" s="3">
-        <v>7628500</v>
+        <v>7813300</v>
       </c>
       <c r="H76" s="3">
-        <v>7419500</v>
+        <v>7599300</v>
       </c>
       <c r="I76" s="3">
-        <v>6809800</v>
+        <v>6974800</v>
       </c>
       <c r="J76" s="3">
-        <v>5725700</v>
+        <v>5864400</v>
       </c>
       <c r="K76" s="3">
         <v>5760600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1168000</v>
+        <v>1196300</v>
       </c>
       <c r="E81" s="3">
-        <v>1196900</v>
+        <v>1225900</v>
       </c>
       <c r="F81" s="3">
-        <v>872900</v>
+        <v>894100</v>
       </c>
       <c r="G81" s="3">
-        <v>1262700</v>
+        <v>1293300</v>
       </c>
       <c r="H81" s="3">
-        <v>1157200</v>
+        <v>1185200</v>
       </c>
       <c r="I81" s="3">
-        <v>1127500</v>
+        <v>1154800</v>
       </c>
       <c r="J81" s="3">
-        <v>884500</v>
+        <v>905900</v>
       </c>
       <c r="K81" s="3">
         <v>1037700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2496600</v>
+        <v>2557000</v>
       </c>
       <c r="E83" s="3">
-        <v>2325900</v>
+        <v>2382200</v>
       </c>
       <c r="F83" s="3">
-        <v>2178300</v>
+        <v>2231100</v>
       </c>
       <c r="G83" s="3">
-        <v>1863700</v>
+        <v>1908900</v>
       </c>
       <c r="H83" s="3">
-        <v>1639500</v>
+        <v>1679300</v>
       </c>
       <c r="I83" s="3">
-        <v>1568700</v>
+        <v>1606700</v>
       </c>
       <c r="J83" s="3">
-        <v>1480400</v>
+        <v>1516300</v>
       </c>
       <c r="K83" s="3">
         <v>1433400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3479400</v>
+        <v>3563700</v>
       </c>
       <c r="E89" s="3">
-        <v>3173500</v>
+        <v>3250400</v>
       </c>
       <c r="F89" s="3">
-        <v>3308000</v>
+        <v>3388100</v>
       </c>
       <c r="G89" s="3">
-        <v>2840100</v>
+        <v>2908900</v>
       </c>
       <c r="H89" s="3">
-        <v>2934800</v>
+        <v>3005900</v>
       </c>
       <c r="I89" s="3">
-        <v>2854500</v>
+        <v>2923700</v>
       </c>
       <c r="J89" s="3">
-        <v>2328000</v>
+        <v>2384400</v>
       </c>
       <c r="K89" s="3">
         <v>2670100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2380100</v>
+        <v>-2437800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2305600</v>
+        <v>-2361500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1932400</v>
+        <v>-1979300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2004800</v>
+        <v>-2053300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1723400</v>
+        <v>-1765200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1797900</v>
+        <v>-1841500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1705400</v>
+        <v>-1746700</v>
       </c>
       <c r="K91" s="3">
         <v>-1536300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3911200</v>
+        <v>-4005900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3953100</v>
+        <v>-4048900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4458700</v>
+        <v>-4566700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3647900</v>
+        <v>-3736300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2153000</v>
+        <v>-2205200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2634700</v>
+        <v>-2698500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2114000</v>
+        <v>-2165200</v>
       </c>
       <c r="K94" s="3">
         <v>-3361600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-859200</v>
+        <v>-880000</v>
       </c>
       <c r="E96" s="3">
-        <v>-755800</v>
+        <v>-774100</v>
       </c>
       <c r="F96" s="3">
-        <v>-672600</v>
+        <v>-688900</v>
       </c>
       <c r="G96" s="3">
-        <v>-831000</v>
+        <v>-851100</v>
       </c>
       <c r="H96" s="3">
-        <v>-825200</v>
+        <v>-845200</v>
       </c>
       <c r="I96" s="3">
-        <v>-782500</v>
+        <v>-801500</v>
       </c>
       <c r="J96" s="3">
-        <v>-773800</v>
+        <v>-792600</v>
       </c>
       <c r="K96" s="3">
         <v>-744900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>613300</v>
+        <v>628100</v>
       </c>
       <c r="E100" s="3">
-        <v>689200</v>
+        <v>705900</v>
       </c>
       <c r="F100" s="3">
-        <v>1377000</v>
+        <v>1410400</v>
       </c>
       <c r="G100" s="3">
-        <v>895300</v>
+        <v>917000</v>
       </c>
       <c r="H100" s="3">
-        <v>-850500</v>
+        <v>-871100</v>
       </c>
       <c r="I100" s="3">
-        <v>-164200</v>
+        <v>-168100</v>
       </c>
       <c r="J100" s="3">
-        <v>-62900</v>
+        <v>-64400</v>
       </c>
       <c r="K100" s="3">
         <v>813900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>181500</v>
+        <v>185900</v>
       </c>
       <c r="E102" s="3">
-        <v>-90400</v>
+        <v>-92600</v>
       </c>
       <c r="F102" s="3">
-        <v>226400</v>
+        <v>231900</v>
       </c>
       <c r="G102" s="3">
-        <v>87500</v>
+        <v>89600</v>
       </c>
       <c r="H102" s="3">
-        <v>-68700</v>
+        <v>-70400</v>
       </c>
       <c r="I102" s="3">
-        <v>55700</v>
+        <v>57000</v>
       </c>
       <c r="J102" s="3">
-        <v>151200</v>
+        <v>154800</v>
       </c>
       <c r="K102" s="3">
         <v>122400</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13549600</v>
+        <v>13542700</v>
       </c>
       <c r="E8" s="3">
-        <v>12472600</v>
+        <v>12466200</v>
       </c>
       <c r="F8" s="3">
-        <v>11363700</v>
+        <v>11357900</v>
       </c>
       <c r="G8" s="3">
-        <v>10806700</v>
+        <v>10801100</v>
       </c>
       <c r="H8" s="3">
-        <v>10440700</v>
+        <v>10435400</v>
       </c>
       <c r="I8" s="3">
-        <v>9855500</v>
+        <v>9850500</v>
       </c>
       <c r="J8" s="3">
-        <v>9425900</v>
+        <v>9421100</v>
       </c>
       <c r="K8" s="3">
         <v>9333200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5146700</v>
+        <v>5144000</v>
       </c>
       <c r="E9" s="3">
-        <v>4900700</v>
+        <v>4898200</v>
       </c>
       <c r="F9" s="3">
-        <v>4494800</v>
+        <v>4492500</v>
       </c>
       <c r="G9" s="3">
-        <v>4448100</v>
+        <v>4445900</v>
       </c>
       <c r="H9" s="3">
-        <v>4717000</v>
+        <v>4714600</v>
       </c>
       <c r="I9" s="3">
-        <v>4373300</v>
+        <v>4371100</v>
       </c>
       <c r="J9" s="3">
-        <v>4171100</v>
+        <v>4169000</v>
       </c>
       <c r="K9" s="3">
         <v>4153800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8403000</v>
+        <v>8398600</v>
       </c>
       <c r="E10" s="3">
-        <v>7571800</v>
+        <v>7568000</v>
       </c>
       <c r="F10" s="3">
-        <v>6868900</v>
+        <v>6865400</v>
       </c>
       <c r="G10" s="3">
-        <v>6358500</v>
+        <v>6355300</v>
       </c>
       <c r="H10" s="3">
-        <v>5723700</v>
+        <v>5720800</v>
       </c>
       <c r="I10" s="3">
-        <v>5482200</v>
+        <v>5479400</v>
       </c>
       <c r="J10" s="3">
-        <v>5254800</v>
+        <v>5252100</v>
       </c>
       <c r="K10" s="3">
         <v>5179400</v>
@@ -954,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>177800</v>
+        <v>177700</v>
       </c>
       <c r="E14" s="3">
-        <v>137800</v>
+        <v>137700</v>
       </c>
       <c r="F14" s="3">
-        <v>154800</v>
+        <v>154700</v>
       </c>
       <c r="G14" s="3">
         <v>94800</v>
@@ -969,10 +969,10 @@
         <v>93300</v>
       </c>
       <c r="I14" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="J14" s="3">
-        <v>83000</v>
+        <v>82900</v>
       </c>
       <c r="K14" s="3">
         <v>117100</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2557000</v>
+        <v>2555700</v>
       </c>
       <c r="E15" s="3">
-        <v>2382200</v>
+        <v>2381000</v>
       </c>
       <c r="F15" s="3">
-        <v>2231100</v>
+        <v>2230000</v>
       </c>
       <c r="G15" s="3">
-        <v>1908900</v>
+        <v>1907900</v>
       </c>
       <c r="H15" s="3">
-        <v>1679300</v>
+        <v>1678400</v>
       </c>
       <c r="I15" s="3">
-        <v>1606700</v>
+        <v>1605800</v>
       </c>
       <c r="J15" s="3">
-        <v>1516300</v>
+        <v>1515500</v>
       </c>
       <c r="K15" s="3">
         <v>1433400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11361500</v>
+        <v>11355600</v>
       </c>
       <c r="E17" s="3">
-        <v>10195500</v>
+        <v>10190300</v>
       </c>
       <c r="F17" s="3">
-        <v>9525200</v>
+        <v>9520300</v>
       </c>
       <c r="G17" s="3">
-        <v>8601500</v>
+        <v>8597100</v>
       </c>
       <c r="H17" s="3">
-        <v>8339300</v>
+        <v>8335000</v>
       </c>
       <c r="I17" s="3">
-        <v>7825200</v>
+        <v>7821200</v>
       </c>
       <c r="J17" s="3">
-        <v>7809600</v>
+        <v>7805600</v>
       </c>
       <c r="K17" s="3">
         <v>7566400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2188100</v>
+        <v>2187000</v>
       </c>
       <c r="E18" s="3">
-        <v>2277000</v>
+        <v>2275900</v>
       </c>
       <c r="F18" s="3">
-        <v>1838500</v>
+        <v>1837600</v>
       </c>
       <c r="G18" s="3">
-        <v>2205200</v>
+        <v>2204100</v>
       </c>
       <c r="H18" s="3">
-        <v>2101500</v>
+        <v>2100400</v>
       </c>
       <c r="I18" s="3">
-        <v>2030400</v>
+        <v>2029300</v>
       </c>
       <c r="J18" s="3">
-        <v>1616300</v>
+        <v>1615500</v>
       </c>
       <c r="K18" s="3">
         <v>1766800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4907800</v>
+        <v>4896000</v>
       </c>
       <c r="E21" s="3">
-        <v>4642000</v>
+        <v>4631000</v>
       </c>
       <c r="F21" s="3">
-        <v>4035500</v>
+        <v>4025300</v>
       </c>
       <c r="G21" s="3">
-        <v>4086200</v>
+        <v>4077200</v>
       </c>
       <c r="H21" s="3">
-        <v>3744600</v>
+        <v>3736600</v>
       </c>
       <c r="I21" s="3">
-        <v>3637700</v>
+        <v>3630000</v>
       </c>
       <c r="J21" s="3">
-        <v>3115900</v>
+        <v>3108800</v>
       </c>
       <c r="K21" s="3">
         <v>3186400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>621500</v>
+        <v>621200</v>
       </c>
       <c r="E22" s="3">
-        <v>563700</v>
+        <v>563400</v>
       </c>
       <c r="F22" s="3">
-        <v>528900</v>
+        <v>528600</v>
       </c>
       <c r="G22" s="3">
-        <v>508100</v>
+        <v>507900</v>
       </c>
       <c r="H22" s="3">
-        <v>447400</v>
+        <v>447200</v>
       </c>
       <c r="I22" s="3">
-        <v>419300</v>
+        <v>419000</v>
       </c>
       <c r="J22" s="3">
-        <v>363000</v>
+        <v>362800</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1720000</v>
+        <v>1719100</v>
       </c>
       <c r="E23" s="3">
-        <v>1687400</v>
+        <v>1686500</v>
       </c>
       <c r="F23" s="3">
-        <v>1267400</v>
+        <v>1266800</v>
       </c>
       <c r="G23" s="3">
-        <v>1662200</v>
+        <v>1661400</v>
       </c>
       <c r="H23" s="3">
-        <v>1611900</v>
+        <v>1611000</v>
       </c>
       <c r="I23" s="3">
-        <v>1605900</v>
+        <v>1605100</v>
       </c>
       <c r="J23" s="3">
-        <v>1231100</v>
+        <v>1230500</v>
       </c>
       <c r="K23" s="3">
         <v>1431100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>447400</v>
+        <v>447200</v>
       </c>
       <c r="E24" s="3">
-        <v>429600</v>
+        <v>429400</v>
       </c>
       <c r="F24" s="3">
-        <v>334100</v>
+        <v>333900</v>
       </c>
       <c r="G24" s="3">
-        <v>346700</v>
+        <v>346500</v>
       </c>
       <c r="H24" s="3">
-        <v>408900</v>
+        <v>408700</v>
       </c>
       <c r="I24" s="3">
-        <v>437000</v>
+        <v>436800</v>
       </c>
       <c r="J24" s="3">
-        <v>315600</v>
+        <v>315400</v>
       </c>
       <c r="K24" s="3">
         <v>393500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1272600</v>
+        <v>1271900</v>
       </c>
       <c r="E26" s="3">
-        <v>1257800</v>
+        <v>1257100</v>
       </c>
       <c r="F26" s="3">
-        <v>933300</v>
+        <v>932900</v>
       </c>
       <c r="G26" s="3">
-        <v>1315600</v>
+        <v>1314900</v>
       </c>
       <c r="H26" s="3">
-        <v>1203000</v>
+        <v>1202300</v>
       </c>
       <c r="I26" s="3">
-        <v>1168900</v>
+        <v>1168300</v>
       </c>
       <c r="J26" s="3">
-        <v>915600</v>
+        <v>915100</v>
       </c>
       <c r="K26" s="3">
         <v>1037700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1196300</v>
+        <v>1195700</v>
       </c>
       <c r="E27" s="3">
-        <v>1225900</v>
+        <v>1225300</v>
       </c>
       <c r="F27" s="3">
-        <v>894100</v>
+        <v>893600</v>
       </c>
       <c r="G27" s="3">
-        <v>1293300</v>
+        <v>1292700</v>
       </c>
       <c r="H27" s="3">
-        <v>1185200</v>
+        <v>1184600</v>
       </c>
       <c r="I27" s="3">
-        <v>1154800</v>
+        <v>1154200</v>
       </c>
       <c r="J27" s="3">
-        <v>905900</v>
+        <v>905500</v>
       </c>
       <c r="K27" s="3">
         <v>1037700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1196300</v>
+        <v>1195700</v>
       </c>
       <c r="E33" s="3">
-        <v>1225900</v>
+        <v>1225300</v>
       </c>
       <c r="F33" s="3">
-        <v>894100</v>
+        <v>893600</v>
       </c>
       <c r="G33" s="3">
-        <v>1293300</v>
+        <v>1292700</v>
       </c>
       <c r="H33" s="3">
-        <v>1185200</v>
+        <v>1184600</v>
       </c>
       <c r="I33" s="3">
-        <v>1154800</v>
+        <v>1154200</v>
       </c>
       <c r="J33" s="3">
-        <v>905900</v>
+        <v>905500</v>
       </c>
       <c r="K33" s="3">
         <v>1037700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1196300</v>
+        <v>1195700</v>
       </c>
       <c r="E35" s="3">
-        <v>1225900</v>
+        <v>1225300</v>
       </c>
       <c r="F35" s="3">
-        <v>894100</v>
+        <v>893600</v>
       </c>
       <c r="G35" s="3">
-        <v>1293300</v>
+        <v>1292700</v>
       </c>
       <c r="H35" s="3">
-        <v>1185200</v>
+        <v>1184600</v>
       </c>
       <c r="I35" s="3">
-        <v>1154800</v>
+        <v>1154200</v>
       </c>
       <c r="J35" s="3">
-        <v>905900</v>
+        <v>905500</v>
       </c>
       <c r="K35" s="3">
         <v>1037700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>721500</v>
+        <v>721100</v>
       </c>
       <c r="E41" s="3">
-        <v>535600</v>
+        <v>535300</v>
       </c>
       <c r="F41" s="3">
-        <v>628100</v>
+        <v>627800</v>
       </c>
       <c r="G41" s="3">
-        <v>396300</v>
+        <v>396100</v>
       </c>
       <c r="H41" s="3">
-        <v>306700</v>
+        <v>306500</v>
       </c>
       <c r="I41" s="3">
-        <v>377000</v>
+        <v>376800</v>
       </c>
       <c r="J41" s="3">
-        <v>320000</v>
+        <v>319800</v>
       </c>
       <c r="K41" s="3">
         <v>167400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2874800</v>
+        <v>2873300</v>
       </c>
       <c r="E43" s="3">
-        <v>2459300</v>
+        <v>2458000</v>
       </c>
       <c r="F43" s="3">
-        <v>2179300</v>
+        <v>2178100</v>
       </c>
       <c r="G43" s="3">
-        <v>2093300</v>
+        <v>2092300</v>
       </c>
       <c r="H43" s="3">
-        <v>1824400</v>
+        <v>1823500</v>
       </c>
       <c r="I43" s="3">
-        <v>1827400</v>
+        <v>1826500</v>
       </c>
       <c r="J43" s="3">
-        <v>1096300</v>
+        <v>1095700</v>
       </c>
       <c r="K43" s="3">
         <v>1073000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>397800</v>
+        <v>397600</v>
       </c>
       <c r="E44" s="3">
-        <v>331900</v>
+        <v>331700</v>
       </c>
       <c r="F44" s="3">
-        <v>301500</v>
+        <v>301300</v>
       </c>
       <c r="G44" s="3">
-        <v>323700</v>
+        <v>323500</v>
       </c>
       <c r="H44" s="3">
-        <v>278500</v>
+        <v>278400</v>
       </c>
       <c r="I44" s="3">
-        <v>281500</v>
+        <v>281300</v>
       </c>
       <c r="J44" s="3">
-        <v>235600</v>
+        <v>235400</v>
       </c>
       <c r="K44" s="3">
         <v>270300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>518500</v>
+        <v>518300</v>
       </c>
       <c r="E45" s="3">
-        <v>400700</v>
+        <v>400500</v>
       </c>
       <c r="F45" s="3">
-        <v>355600</v>
+        <v>355400</v>
       </c>
       <c r="G45" s="3">
-        <v>411100</v>
+        <v>410900</v>
       </c>
       <c r="H45" s="3">
-        <v>435600</v>
+        <v>435300</v>
       </c>
       <c r="I45" s="3">
-        <v>378500</v>
+        <v>378300</v>
       </c>
       <c r="J45" s="3">
-        <v>180700</v>
+        <v>180600</v>
       </c>
       <c r="K45" s="3">
         <v>239500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4512600</v>
+        <v>4510300</v>
       </c>
       <c r="E46" s="3">
-        <v>3727400</v>
+        <v>3725500</v>
       </c>
       <c r="F46" s="3">
-        <v>3464400</v>
+        <v>3462700</v>
       </c>
       <c r="G46" s="3">
-        <v>3224400</v>
+        <v>3222800</v>
       </c>
       <c r="H46" s="3">
-        <v>2845200</v>
+        <v>2843700</v>
       </c>
       <c r="I46" s="3">
-        <v>2864400</v>
+        <v>2863000</v>
       </c>
       <c r="J46" s="3">
-        <v>1832600</v>
+        <v>1831700</v>
       </c>
       <c r="K46" s="3">
         <v>1750300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1195600</v>
+        <v>1194900</v>
       </c>
       <c r="E47" s="3">
-        <v>1120700</v>
+        <v>1120200</v>
       </c>
       <c r="F47" s="3">
-        <v>777000</v>
+        <v>776600</v>
       </c>
       <c r="G47" s="3">
-        <v>403700</v>
+        <v>403500</v>
       </c>
       <c r="H47" s="3">
-        <v>445900</v>
+        <v>445700</v>
       </c>
       <c r="I47" s="3">
-        <v>358500</v>
+        <v>358300</v>
       </c>
       <c r="J47" s="3">
-        <v>61500</v>
+        <v>61400</v>
       </c>
       <c r="K47" s="3">
         <v>70600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12654800</v>
+        <v>12648300</v>
       </c>
       <c r="E48" s="3">
-        <v>11797000</v>
+        <v>11791000</v>
       </c>
       <c r="F48" s="3">
-        <v>11121500</v>
+        <v>11115800</v>
       </c>
       <c r="G48" s="3">
-        <v>10542200</v>
+        <v>10536800</v>
       </c>
       <c r="H48" s="3">
-        <v>17912600</v>
+        <v>8951700</v>
       </c>
       <c r="I48" s="3">
-        <v>8420700</v>
+        <v>8416400</v>
       </c>
       <c r="J48" s="3">
-        <v>7751100</v>
+        <v>7747100</v>
       </c>
       <c r="K48" s="3">
         <v>7310400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20997800</v>
+        <v>20987000</v>
       </c>
       <c r="E49" s="3">
-        <v>18345200</v>
+        <v>18335800</v>
       </c>
       <c r="F49" s="3">
-        <v>16450400</v>
+        <v>16441900</v>
       </c>
       <c r="G49" s="3">
-        <v>13446700</v>
+        <v>13439800</v>
       </c>
       <c r="H49" s="3">
-        <v>23237000</v>
+        <v>11609600</v>
       </c>
       <c r="I49" s="3">
-        <v>11032600</v>
+        <v>11026900</v>
       </c>
       <c r="J49" s="3">
-        <v>10482200</v>
+        <v>10476800</v>
       </c>
       <c r="K49" s="3">
         <v>10321300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>673300</v>
+        <v>673000</v>
       </c>
       <c r="E52" s="3">
-        <v>560700</v>
+        <v>560500</v>
       </c>
       <c r="F52" s="3">
-        <v>240700</v>
+        <v>240600</v>
       </c>
       <c r="G52" s="3">
-        <v>520000</v>
+        <v>519700</v>
       </c>
       <c r="H52" s="3">
-        <v>623700</v>
+        <v>623400</v>
       </c>
       <c r="I52" s="3">
-        <v>325900</v>
+        <v>325800</v>
       </c>
       <c r="J52" s="3">
-        <v>412600</v>
+        <v>412400</v>
       </c>
       <c r="K52" s="3">
         <v>374700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40034000</v>
+        <v>40013500</v>
       </c>
       <c r="E54" s="3">
-        <v>35551100</v>
+        <v>35532800</v>
       </c>
       <c r="F54" s="3">
-        <v>32054000</v>
+        <v>32037600</v>
       </c>
       <c r="G54" s="3">
-        <v>28137000</v>
+        <v>28122600</v>
       </c>
       <c r="H54" s="3">
-        <v>24486600</v>
+        <v>24474100</v>
       </c>
       <c r="I54" s="3">
-        <v>23002200</v>
+        <v>22990400</v>
       </c>
       <c r="J54" s="3">
-        <v>20540000</v>
+        <v>20529400</v>
       </c>
       <c r="K54" s="3">
         <v>19827200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1023700</v>
+        <v>1023200</v>
       </c>
       <c r="E57" s="3">
-        <v>898500</v>
+        <v>898100</v>
       </c>
       <c r="F57" s="3">
-        <v>640000</v>
+        <v>639700</v>
       </c>
       <c r="G57" s="3">
-        <v>660700</v>
+        <v>660400</v>
       </c>
       <c r="H57" s="3">
-        <v>508100</v>
+        <v>507900</v>
       </c>
       <c r="I57" s="3">
-        <v>531100</v>
+        <v>530800</v>
       </c>
       <c r="J57" s="3">
-        <v>428100</v>
+        <v>427900</v>
       </c>
       <c r="K57" s="3">
         <v>357400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1959300</v>
+        <v>1958300</v>
       </c>
       <c r="E58" s="3">
-        <v>2252600</v>
+        <v>2251400</v>
       </c>
       <c r="F58" s="3">
-        <v>1134800</v>
+        <v>1134200</v>
       </c>
       <c r="G58" s="3">
-        <v>1060700</v>
+        <v>1060200</v>
       </c>
       <c r="H58" s="3">
-        <v>693300</v>
+        <v>693000</v>
       </c>
       <c r="I58" s="3">
-        <v>1114100</v>
+        <v>1113500</v>
       </c>
       <c r="J58" s="3">
-        <v>1057000</v>
+        <v>1056500</v>
       </c>
       <c r="K58" s="3">
         <v>717800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3151100</v>
+        <v>3149500</v>
       </c>
       <c r="E59" s="3">
-        <v>2977000</v>
+        <v>2975500</v>
       </c>
       <c r="F59" s="3">
-        <v>2599300</v>
+        <v>2597900</v>
       </c>
       <c r="G59" s="3">
-        <v>2811100</v>
+        <v>2809700</v>
       </c>
       <c r="H59" s="3">
-        <v>2870400</v>
+        <v>2868900</v>
       </c>
       <c r="I59" s="3">
-        <v>2088100</v>
+        <v>2087100</v>
       </c>
       <c r="J59" s="3">
-        <v>2182200</v>
+        <v>2181100</v>
       </c>
       <c r="K59" s="3">
         <v>2135400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6134100</v>
+        <v>6130900</v>
       </c>
       <c r="E60" s="3">
-        <v>6128100</v>
+        <v>6125000</v>
       </c>
       <c r="F60" s="3">
-        <v>4374100</v>
+        <v>4371800</v>
       </c>
       <c r="G60" s="3">
-        <v>4128900</v>
+        <v>4126800</v>
       </c>
       <c r="H60" s="3">
-        <v>3588100</v>
+        <v>3586300</v>
       </c>
       <c r="I60" s="3">
-        <v>3733300</v>
+        <v>3731400</v>
       </c>
       <c r="J60" s="3">
-        <v>3667400</v>
+        <v>3665500</v>
       </c>
       <c r="K60" s="3">
         <v>3210700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16663700</v>
+        <v>16655100</v>
       </c>
       <c r="E61" s="3">
-        <v>13277800</v>
+        <v>13271000</v>
       </c>
       <c r="F61" s="3">
-        <v>13967400</v>
+        <v>13960200</v>
       </c>
       <c r="G61" s="3">
-        <v>12697800</v>
+        <v>12691300</v>
       </c>
       <c r="H61" s="3">
-        <v>9825900</v>
+        <v>9820900</v>
       </c>
       <c r="I61" s="3">
-        <v>9078500</v>
+        <v>9073900</v>
       </c>
       <c r="J61" s="3">
-        <v>8595500</v>
+        <v>8591100</v>
       </c>
       <c r="K61" s="3">
         <v>8396100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4156300</v>
+        <v>4154200</v>
       </c>
       <c r="E62" s="3">
-        <v>4249600</v>
+        <v>4247400</v>
       </c>
       <c r="F62" s="3">
-        <v>5087400</v>
+        <v>5084800</v>
       </c>
       <c r="G62" s="3">
-        <v>3471800</v>
+        <v>3470100</v>
       </c>
       <c r="H62" s="3">
-        <v>4014800</v>
+        <v>4012800</v>
       </c>
       <c r="I62" s="3">
-        <v>3184400</v>
+        <v>3182800</v>
       </c>
       <c r="J62" s="3">
-        <v>2398500</v>
+        <v>2397300</v>
       </c>
       <c r="K62" s="3">
         <v>2459800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27760700</v>
+        <v>27746500</v>
       </c>
       <c r="E66" s="3">
-        <v>24354000</v>
+        <v>24341600</v>
       </c>
       <c r="F66" s="3">
-        <v>23135500</v>
+        <v>23123700</v>
       </c>
       <c r="G66" s="3">
-        <v>20323700</v>
+        <v>20313300</v>
       </c>
       <c r="H66" s="3">
-        <v>16887400</v>
+        <v>16878700</v>
       </c>
       <c r="I66" s="3">
-        <v>16027400</v>
+        <v>16019200</v>
       </c>
       <c r="J66" s="3">
-        <v>14675500</v>
+        <v>14668000</v>
       </c>
       <c r="K66" s="3">
         <v>14066600</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3040000</v>
+        <v>3038400</v>
       </c>
       <c r="E72" s="3">
-        <v>3152600</v>
+        <v>3151000</v>
       </c>
       <c r="F72" s="3">
-        <v>2749600</v>
+        <v>2748200</v>
       </c>
       <c r="G72" s="3">
-        <v>3237800</v>
+        <v>3236100</v>
       </c>
       <c r="H72" s="3">
-        <v>3314100</v>
+        <v>3312400</v>
       </c>
       <c r="I72" s="3">
-        <v>2810400</v>
+        <v>2808900</v>
       </c>
       <c r="J72" s="3">
-        <v>1832600</v>
+        <v>1831700</v>
       </c>
       <c r="K72" s="3">
         <v>1823100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12273300</v>
+        <v>12267000</v>
       </c>
       <c r="E76" s="3">
-        <v>11197000</v>
+        <v>11191300</v>
       </c>
       <c r="F76" s="3">
-        <v>8918500</v>
+        <v>8913900</v>
       </c>
       <c r="G76" s="3">
-        <v>7813300</v>
+        <v>7809300</v>
       </c>
       <c r="H76" s="3">
-        <v>7599300</v>
+        <v>7595400</v>
       </c>
       <c r="I76" s="3">
-        <v>6974800</v>
+        <v>6971200</v>
       </c>
       <c r="J76" s="3">
-        <v>5864400</v>
+        <v>5861400</v>
       </c>
       <c r="K76" s="3">
         <v>5760600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1196300</v>
+        <v>1195700</v>
       </c>
       <c r="E81" s="3">
-        <v>1225900</v>
+        <v>1225300</v>
       </c>
       <c r="F81" s="3">
-        <v>894100</v>
+        <v>893600</v>
       </c>
       <c r="G81" s="3">
-        <v>1293300</v>
+        <v>1292700</v>
       </c>
       <c r="H81" s="3">
-        <v>1185200</v>
+        <v>1184600</v>
       </c>
       <c r="I81" s="3">
-        <v>1154800</v>
+        <v>1154200</v>
       </c>
       <c r="J81" s="3">
-        <v>905900</v>
+        <v>905500</v>
       </c>
       <c r="K81" s="3">
         <v>1037700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2557000</v>
+        <v>2555700</v>
       </c>
       <c r="E83" s="3">
-        <v>2382200</v>
+        <v>2381000</v>
       </c>
       <c r="F83" s="3">
-        <v>2231100</v>
+        <v>2230000</v>
       </c>
       <c r="G83" s="3">
-        <v>1908900</v>
+        <v>1907900</v>
       </c>
       <c r="H83" s="3">
-        <v>1679300</v>
+        <v>1678400</v>
       </c>
       <c r="I83" s="3">
-        <v>1606700</v>
+        <v>1605800</v>
       </c>
       <c r="J83" s="3">
-        <v>1516300</v>
+        <v>1515500</v>
       </c>
       <c r="K83" s="3">
         <v>1433400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3563700</v>
+        <v>3561900</v>
       </c>
       <c r="E89" s="3">
-        <v>3250400</v>
+        <v>3248700</v>
       </c>
       <c r="F89" s="3">
-        <v>3388100</v>
+        <v>3386400</v>
       </c>
       <c r="G89" s="3">
-        <v>2908900</v>
+        <v>2907400</v>
       </c>
       <c r="H89" s="3">
-        <v>3005900</v>
+        <v>3004400</v>
       </c>
       <c r="I89" s="3">
-        <v>2923700</v>
+        <v>2922200</v>
       </c>
       <c r="J89" s="3">
-        <v>2384400</v>
+        <v>2383200</v>
       </c>
       <c r="K89" s="3">
         <v>2670100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2437800</v>
+        <v>-2436500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2361500</v>
+        <v>-2360300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1979300</v>
+        <v>-1978200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2053300</v>
+        <v>-2052300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1765200</v>
+        <v>-1764300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1841500</v>
+        <v>-1840500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1746700</v>
+        <v>-1745800</v>
       </c>
       <c r="K91" s="3">
         <v>-1536300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4005900</v>
+        <v>-4003900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4048900</v>
+        <v>-4046800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4566700</v>
+        <v>-4564300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3736300</v>
+        <v>-3734400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2205200</v>
+        <v>-2204100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2698500</v>
+        <v>-2697100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2165200</v>
+        <v>-2164100</v>
       </c>
       <c r="K94" s="3">
         <v>-3361600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-880000</v>
+        <v>-879500</v>
       </c>
       <c r="E96" s="3">
-        <v>-774100</v>
+        <v>-773700</v>
       </c>
       <c r="F96" s="3">
-        <v>-688900</v>
+        <v>-688500</v>
       </c>
       <c r="G96" s="3">
-        <v>-851100</v>
+        <v>-850700</v>
       </c>
       <c r="H96" s="3">
-        <v>-845200</v>
+        <v>-844800</v>
       </c>
       <c r="I96" s="3">
-        <v>-801500</v>
+        <v>-801100</v>
       </c>
       <c r="J96" s="3">
-        <v>-792600</v>
+        <v>-792200</v>
       </c>
       <c r="K96" s="3">
         <v>-744900</v>
@@ -4165,19 +4165,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>628100</v>
+        <v>627800</v>
       </c>
       <c r="E100" s="3">
-        <v>705900</v>
+        <v>705600</v>
       </c>
       <c r="F100" s="3">
-        <v>1410400</v>
+        <v>1409600</v>
       </c>
       <c r="G100" s="3">
-        <v>917000</v>
+        <v>916600</v>
       </c>
       <c r="H100" s="3">
-        <v>-871100</v>
+        <v>-870700</v>
       </c>
       <c r="I100" s="3">
         <v>-168100</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185900</v>
+        <v>185800</v>
       </c>
       <c r="E102" s="3">
-        <v>-92600</v>
+        <v>-92500</v>
       </c>
       <c r="F102" s="3">
-        <v>231900</v>
+        <v>231700</v>
       </c>
       <c r="G102" s="3">
         <v>89600</v>
       </c>
       <c r="H102" s="3">
-        <v>-70400</v>
+        <v>-70300</v>
       </c>
       <c r="I102" s="3">
         <v>57000</v>
       </c>
       <c r="J102" s="3">
-        <v>154800</v>
+        <v>154700</v>
       </c>
       <c r="K102" s="3">
         <v>122400</v>

--- a/AAII_Financials/Yearly/TU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TU_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13542700</v>
+        <v>13298500</v>
       </c>
       <c r="E8" s="3">
-        <v>12466200</v>
+        <v>12241400</v>
       </c>
       <c r="F8" s="3">
-        <v>11357900</v>
+        <v>11153100</v>
       </c>
       <c r="G8" s="3">
-        <v>10801100</v>
+        <v>10606300</v>
       </c>
       <c r="H8" s="3">
-        <v>10435400</v>
+        <v>10247200</v>
       </c>
       <c r="I8" s="3">
-        <v>9850500</v>
+        <v>9672900</v>
       </c>
       <c r="J8" s="3">
-        <v>9421100</v>
+        <v>9251200</v>
       </c>
       <c r="K8" s="3">
         <v>9333200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5144000</v>
+        <v>5051300</v>
       </c>
       <c r="E9" s="3">
-        <v>4898200</v>
+        <v>4809900</v>
       </c>
       <c r="F9" s="3">
-        <v>4492500</v>
+        <v>4411500</v>
       </c>
       <c r="G9" s="3">
-        <v>4445900</v>
+        <v>4365700</v>
       </c>
       <c r="H9" s="3">
-        <v>4714600</v>
+        <v>4629600</v>
       </c>
       <c r="I9" s="3">
-        <v>4371100</v>
+        <v>4292300</v>
       </c>
       <c r="J9" s="3">
-        <v>4169000</v>
+        <v>4093800</v>
       </c>
       <c r="K9" s="3">
         <v>4153800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8398600</v>
+        <v>8247200</v>
       </c>
       <c r="E10" s="3">
-        <v>7568000</v>
+        <v>7431500</v>
       </c>
       <c r="F10" s="3">
-        <v>6865400</v>
+        <v>6741600</v>
       </c>
       <c r="G10" s="3">
-        <v>6355300</v>
+        <v>6240700</v>
       </c>
       <c r="H10" s="3">
-        <v>5720800</v>
+        <v>5617600</v>
       </c>
       <c r="I10" s="3">
-        <v>5479400</v>
+        <v>5380600</v>
       </c>
       <c r="J10" s="3">
-        <v>5252100</v>
+        <v>5157400</v>
       </c>
       <c r="K10" s="3">
         <v>5179400</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>177700</v>
+        <v>174500</v>
       </c>
       <c r="E14" s="3">
-        <v>137700</v>
+        <v>135200</v>
       </c>
       <c r="F14" s="3">
-        <v>154700</v>
+        <v>151900</v>
       </c>
       <c r="G14" s="3">
-        <v>94800</v>
+        <v>93100</v>
       </c>
       <c r="H14" s="3">
-        <v>93300</v>
+        <v>91600</v>
       </c>
       <c r="I14" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="J14" s="3">
-        <v>82900</v>
+        <v>81400</v>
       </c>
       <c r="K14" s="3">
         <v>117100</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2555700</v>
+        <v>2509600</v>
       </c>
       <c r="E15" s="3">
-        <v>2381000</v>
+        <v>2338100</v>
       </c>
       <c r="F15" s="3">
-        <v>2230000</v>
+        <v>2189800</v>
       </c>
       <c r="G15" s="3">
-        <v>1907900</v>
+        <v>1873500</v>
       </c>
       <c r="H15" s="3">
-        <v>1678400</v>
+        <v>1648100</v>
       </c>
       <c r="I15" s="3">
-        <v>1605800</v>
+        <v>1576900</v>
       </c>
       <c r="J15" s="3">
-        <v>1515500</v>
+        <v>1488200</v>
       </c>
       <c r="K15" s="3">
         <v>1433400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11355600</v>
+        <v>11150900</v>
       </c>
       <c r="E17" s="3">
-        <v>10190300</v>
+        <v>10006600</v>
       </c>
       <c r="F17" s="3">
-        <v>9520300</v>
+        <v>9348600</v>
       </c>
       <c r="G17" s="3">
-        <v>8597100</v>
+        <v>8442000</v>
       </c>
       <c r="H17" s="3">
-        <v>8335000</v>
+        <v>8184700</v>
       </c>
       <c r="I17" s="3">
-        <v>7821200</v>
+        <v>7680100</v>
       </c>
       <c r="J17" s="3">
-        <v>7805600</v>
+        <v>7664900</v>
       </c>
       <c r="K17" s="3">
         <v>7566400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2187000</v>
+        <v>2147600</v>
       </c>
       <c r="E18" s="3">
-        <v>2275900</v>
+        <v>2234800</v>
       </c>
       <c r="F18" s="3">
-        <v>1837600</v>
+        <v>1804400</v>
       </c>
       <c r="G18" s="3">
-        <v>2204100</v>
+        <v>2164300</v>
       </c>
       <c r="H18" s="3">
-        <v>2100400</v>
+        <v>2062500</v>
       </c>
       <c r="I18" s="3">
-        <v>2029300</v>
+        <v>1992700</v>
       </c>
       <c r="J18" s="3">
-        <v>1615500</v>
+        <v>1586300</v>
       </c>
       <c r="K18" s="3">
         <v>1766800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>153300</v>
+        <v>150500</v>
       </c>
       <c r="E20" s="3">
-        <v>-25900</v>
+        <v>-25400</v>
       </c>
       <c r="F20" s="3">
-        <v>-42200</v>
+        <v>-41400</v>
       </c>
       <c r="G20" s="3">
-        <v>-34800</v>
+        <v>-34200</v>
       </c>
       <c r="H20" s="3">
-        <v>-42200</v>
+        <v>-41400</v>
       </c>
       <c r="I20" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="J20" s="3">
-        <v>-22200</v>
+        <v>-21800</v>
       </c>
       <c r="K20" s="3">
         <v>8300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4896000</v>
+        <v>4821800</v>
       </c>
       <c r="E21" s="3">
-        <v>4631000</v>
+        <v>4560600</v>
       </c>
       <c r="F21" s="3">
-        <v>4025300</v>
+        <v>3965100</v>
       </c>
       <c r="G21" s="3">
-        <v>4077200</v>
+        <v>4014200</v>
       </c>
       <c r="H21" s="3">
-        <v>3736600</v>
+        <v>3678500</v>
       </c>
       <c r="I21" s="3">
-        <v>3630000</v>
+        <v>3573400</v>
       </c>
       <c r="J21" s="3">
-        <v>3108800</v>
+        <v>3061100</v>
       </c>
       <c r="K21" s="3">
         <v>3186400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>621200</v>
+        <v>610000</v>
       </c>
       <c r="E22" s="3">
-        <v>563400</v>
+        <v>553300</v>
       </c>
       <c r="F22" s="3">
-        <v>528600</v>
+        <v>519100</v>
       </c>
       <c r="G22" s="3">
-        <v>507900</v>
+        <v>498700</v>
       </c>
       <c r="H22" s="3">
-        <v>447200</v>
+        <v>439100</v>
       </c>
       <c r="I22" s="3">
-        <v>419000</v>
+        <v>411500</v>
       </c>
       <c r="J22" s="3">
-        <v>362800</v>
+        <v>356200</v>
       </c>
       <c r="K22" s="3">
         <v>343900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1719100</v>
+        <v>1688100</v>
       </c>
       <c r="E23" s="3">
-        <v>1686500</v>
+        <v>1656100</v>
       </c>
       <c r="F23" s="3">
-        <v>1266800</v>
+        <v>1243900</v>
       </c>
       <c r="G23" s="3">
-        <v>1661400</v>
+        <v>1631400</v>
       </c>
       <c r="H23" s="3">
-        <v>1611000</v>
+        <v>1582000</v>
       </c>
       <c r="I23" s="3">
-        <v>1605100</v>
+        <v>1576200</v>
       </c>
       <c r="J23" s="3">
-        <v>1230500</v>
+        <v>1208300</v>
       </c>
       <c r="K23" s="3">
         <v>1431100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>447200</v>
+        <v>439100</v>
       </c>
       <c r="E24" s="3">
-        <v>429400</v>
+        <v>421700</v>
       </c>
       <c r="F24" s="3">
-        <v>333900</v>
+        <v>327900</v>
       </c>
       <c r="G24" s="3">
-        <v>346500</v>
+        <v>340200</v>
       </c>
       <c r="H24" s="3">
-        <v>408700</v>
+        <v>401300</v>
       </c>
       <c r="I24" s="3">
-        <v>436800</v>
+        <v>428900</v>
       </c>
       <c r="J24" s="3">
-        <v>315400</v>
+        <v>309700</v>
       </c>
       <c r="K24" s="3">
         <v>393500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1271900</v>
+        <v>1249000</v>
       </c>
       <c r="E26" s="3">
-        <v>1257100</v>
+        <v>1234500</v>
       </c>
       <c r="F26" s="3">
-        <v>932900</v>
+        <v>916000</v>
       </c>
       <c r="G26" s="3">
-        <v>1314900</v>
+        <v>1291200</v>
       </c>
       <c r="H26" s="3">
-        <v>1202300</v>
+        <v>1180700</v>
       </c>
       <c r="I26" s="3">
-        <v>1168300</v>
+        <v>1147200</v>
       </c>
       <c r="J26" s="3">
-        <v>915100</v>
+        <v>898600</v>
       </c>
       <c r="K26" s="3">
         <v>1037700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1195700</v>
+        <v>1174100</v>
       </c>
       <c r="E27" s="3">
-        <v>1225300</v>
+        <v>1203200</v>
       </c>
       <c r="F27" s="3">
-        <v>893600</v>
+        <v>877500</v>
       </c>
       <c r="G27" s="3">
-        <v>1292700</v>
+        <v>1269400</v>
       </c>
       <c r="H27" s="3">
-        <v>1184600</v>
+        <v>1163200</v>
       </c>
       <c r="I27" s="3">
-        <v>1154200</v>
+        <v>1133400</v>
       </c>
       <c r="J27" s="3">
-        <v>905500</v>
+        <v>889100</v>
       </c>
       <c r="K27" s="3">
         <v>1037700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-153300</v>
+        <v>-150500</v>
       </c>
       <c r="E32" s="3">
-        <v>25900</v>
+        <v>25400</v>
       </c>
       <c r="F32" s="3">
-        <v>42200</v>
+        <v>41400</v>
       </c>
       <c r="G32" s="3">
-        <v>34800</v>
+        <v>34200</v>
       </c>
       <c r="H32" s="3">
-        <v>42200</v>
+        <v>41400</v>
       </c>
       <c r="I32" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J32" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="K32" s="3">
         <v>-8300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1195700</v>
+        <v>1174100</v>
       </c>
       <c r="E33" s="3">
-        <v>1225300</v>
+        <v>1203200</v>
       </c>
       <c r="F33" s="3">
-        <v>893600</v>
+        <v>877500</v>
       </c>
       <c r="G33" s="3">
-        <v>1292700</v>
+        <v>1269400</v>
       </c>
       <c r="H33" s="3">
-        <v>1184600</v>
+        <v>1163200</v>
       </c>
       <c r="I33" s="3">
-        <v>1154200</v>
+        <v>1133400</v>
       </c>
       <c r="J33" s="3">
-        <v>905500</v>
+        <v>889100</v>
       </c>
       <c r="K33" s="3">
         <v>1037700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1195700</v>
+        <v>1174100</v>
       </c>
       <c r="E35" s="3">
-        <v>1225300</v>
+        <v>1203200</v>
       </c>
       <c r="F35" s="3">
-        <v>893600</v>
+        <v>877500</v>
       </c>
       <c r="G35" s="3">
-        <v>1292700</v>
+        <v>1269400</v>
       </c>
       <c r="H35" s="3">
-        <v>1184600</v>
+        <v>1163200</v>
       </c>
       <c r="I35" s="3">
-        <v>1154200</v>
+        <v>1133400</v>
       </c>
       <c r="J35" s="3">
-        <v>905500</v>
+        <v>889100</v>
       </c>
       <c r="K35" s="3">
         <v>1037700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>721100</v>
+        <v>708100</v>
       </c>
       <c r="E41" s="3">
-        <v>535300</v>
+        <v>525600</v>
       </c>
       <c r="F41" s="3">
-        <v>627800</v>
+        <v>616500</v>
       </c>
       <c r="G41" s="3">
-        <v>396100</v>
+        <v>389000</v>
       </c>
       <c r="H41" s="3">
-        <v>306500</v>
+        <v>301000</v>
       </c>
       <c r="I41" s="3">
-        <v>376800</v>
+        <v>370000</v>
       </c>
       <c r="J41" s="3">
-        <v>319800</v>
+        <v>314100</v>
       </c>
       <c r="K41" s="3">
         <v>167400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2873300</v>
+        <v>2821500</v>
       </c>
       <c r="E43" s="3">
-        <v>2458000</v>
+        <v>2413700</v>
       </c>
       <c r="F43" s="3">
-        <v>2178100</v>
+        <v>2138900</v>
       </c>
       <c r="G43" s="3">
-        <v>2092300</v>
+        <v>2054500</v>
       </c>
       <c r="H43" s="3">
-        <v>1823500</v>
+        <v>1790600</v>
       </c>
       <c r="I43" s="3">
-        <v>1826500</v>
+        <v>1793500</v>
       </c>
       <c r="J43" s="3">
-        <v>1095700</v>
+        <v>1076000</v>
       </c>
       <c r="K43" s="3">
         <v>1073000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>397600</v>
+        <v>390400</v>
       </c>
       <c r="E44" s="3">
-        <v>331700</v>
+        <v>325700</v>
       </c>
       <c r="F44" s="3">
-        <v>301300</v>
+        <v>295900</v>
       </c>
       <c r="G44" s="3">
-        <v>323500</v>
+        <v>317700</v>
       </c>
       <c r="H44" s="3">
-        <v>278400</v>
+        <v>273400</v>
       </c>
       <c r="I44" s="3">
-        <v>281300</v>
+        <v>276300</v>
       </c>
       <c r="J44" s="3">
-        <v>235400</v>
+        <v>231200</v>
       </c>
       <c r="K44" s="3">
         <v>270300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>518300</v>
+        <v>508900</v>
       </c>
       <c r="E45" s="3">
-        <v>400500</v>
+        <v>393300</v>
       </c>
       <c r="F45" s="3">
-        <v>355400</v>
+        <v>349000</v>
       </c>
       <c r="G45" s="3">
-        <v>410900</v>
+        <v>403500</v>
       </c>
       <c r="H45" s="3">
-        <v>435300</v>
+        <v>427500</v>
       </c>
       <c r="I45" s="3">
-        <v>378300</v>
+        <v>371500</v>
       </c>
       <c r="J45" s="3">
-        <v>180600</v>
+        <v>177400</v>
       </c>
       <c r="K45" s="3">
         <v>239500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4510300</v>
+        <v>4428900</v>
       </c>
       <c r="E46" s="3">
-        <v>3725500</v>
+        <v>3658300</v>
       </c>
       <c r="F46" s="3">
-        <v>3462700</v>
+        <v>3400200</v>
       </c>
       <c r="G46" s="3">
-        <v>3222800</v>
+        <v>3164700</v>
       </c>
       <c r="H46" s="3">
-        <v>2843700</v>
+        <v>2792400</v>
       </c>
       <c r="I46" s="3">
-        <v>2863000</v>
+        <v>2811300</v>
       </c>
       <c r="J46" s="3">
-        <v>1831700</v>
+        <v>1798600</v>
       </c>
       <c r="K46" s="3">
         <v>1750300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1194900</v>
+        <v>1173400</v>
       </c>
       <c r="E47" s="3">
-        <v>1120200</v>
+        <v>1100000</v>
       </c>
       <c r="F47" s="3">
-        <v>776600</v>
+        <v>762600</v>
       </c>
       <c r="G47" s="3">
-        <v>403500</v>
+        <v>396200</v>
       </c>
       <c r="H47" s="3">
-        <v>445700</v>
+        <v>437700</v>
       </c>
       <c r="I47" s="3">
-        <v>358300</v>
+        <v>351900</v>
       </c>
       <c r="J47" s="3">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="K47" s="3">
         <v>70600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12648300</v>
+        <v>12420200</v>
       </c>
       <c r="E48" s="3">
-        <v>11791000</v>
+        <v>11578400</v>
       </c>
       <c r="F48" s="3">
-        <v>11115800</v>
+        <v>10915300</v>
       </c>
       <c r="G48" s="3">
-        <v>10536800</v>
+        <v>10346800</v>
       </c>
       <c r="H48" s="3">
-        <v>8951700</v>
+        <v>8790300</v>
       </c>
       <c r="I48" s="3">
-        <v>8416400</v>
+        <v>8264600</v>
       </c>
       <c r="J48" s="3">
-        <v>7747100</v>
+        <v>7607400</v>
       </c>
       <c r="K48" s="3">
         <v>7310400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20987000</v>
+        <v>20608600</v>
       </c>
       <c r="E49" s="3">
-        <v>18335800</v>
+        <v>18005100</v>
       </c>
       <c r="F49" s="3">
-        <v>16441900</v>
+        <v>16145400</v>
       </c>
       <c r="G49" s="3">
-        <v>13439800</v>
+        <v>13197400</v>
       </c>
       <c r="H49" s="3">
-        <v>11609600</v>
+        <v>11400200</v>
       </c>
       <c r="I49" s="3">
-        <v>11026900</v>
+        <v>10828100</v>
       </c>
       <c r="J49" s="3">
-        <v>10476800</v>
+        <v>10287900</v>
       </c>
       <c r="K49" s="3">
         <v>10321300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>673000</v>
+        <v>660900</v>
       </c>
       <c r="E52" s="3">
-        <v>560500</v>
+        <v>550300</v>
       </c>
       <c r="F52" s="3">
-        <v>240600</v>
+        <v>236300</v>
       </c>
       <c r="G52" s="3">
-        <v>519700</v>
+        <v>510400</v>
       </c>
       <c r="H52" s="3">
-        <v>623400</v>
+        <v>612100</v>
       </c>
       <c r="I52" s="3">
-        <v>325800</v>
+        <v>319900</v>
       </c>
       <c r="J52" s="3">
-        <v>412400</v>
+        <v>404900</v>
       </c>
       <c r="K52" s="3">
         <v>374700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40013500</v>
+        <v>39292000</v>
       </c>
       <c r="E54" s="3">
-        <v>35532800</v>
+        <v>34892100</v>
       </c>
       <c r="F54" s="3">
-        <v>32037600</v>
+        <v>31459900</v>
       </c>
       <c r="G54" s="3">
-        <v>28122600</v>
+        <v>27615500</v>
       </c>
       <c r="H54" s="3">
-        <v>24474100</v>
+        <v>24032800</v>
       </c>
       <c r="I54" s="3">
-        <v>22990400</v>
+        <v>22575800</v>
       </c>
       <c r="J54" s="3">
-        <v>20529400</v>
+        <v>20159300</v>
       </c>
       <c r="K54" s="3">
         <v>19827200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1023200</v>
+        <v>1004700</v>
       </c>
       <c r="E57" s="3">
-        <v>898100</v>
+        <v>881900</v>
       </c>
       <c r="F57" s="3">
-        <v>639700</v>
+        <v>628100</v>
       </c>
       <c r="G57" s="3">
-        <v>660400</v>
+        <v>648500</v>
       </c>
       <c r="H57" s="3">
-        <v>507900</v>
+        <v>498700</v>
       </c>
       <c r="I57" s="3">
-        <v>530800</v>
+        <v>521300</v>
       </c>
       <c r="J57" s="3">
-        <v>427900</v>
+        <v>420200</v>
       </c>
       <c r="K57" s="3">
         <v>357400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1958300</v>
+        <v>1922900</v>
       </c>
       <c r="E58" s="3">
-        <v>2251400</v>
+        <v>2210800</v>
       </c>
       <c r="F58" s="3">
-        <v>1134200</v>
+        <v>1113800</v>
       </c>
       <c r="G58" s="3">
-        <v>1060200</v>
+        <v>1041100</v>
       </c>
       <c r="H58" s="3">
-        <v>693000</v>
+        <v>680500</v>
       </c>
       <c r="I58" s="3">
-        <v>1113500</v>
+        <v>1093400</v>
       </c>
       <c r="J58" s="3">
-        <v>1056500</v>
+        <v>1037400</v>
       </c>
       <c r="K58" s="3">
         <v>717800</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3149500</v>
+        <v>3092700</v>
       </c>
       <c r="E59" s="3">
-        <v>2975500</v>
+        <v>2921900</v>
       </c>
       <c r="F59" s="3">
-        <v>2597900</v>
+        <v>2551100</v>
       </c>
       <c r="G59" s="3">
-        <v>2809700</v>
+        <v>2759000</v>
       </c>
       <c r="H59" s="3">
-        <v>2868900</v>
+        <v>2817200</v>
       </c>
       <c r="I59" s="3">
-        <v>2087100</v>
+        <v>2049400</v>
       </c>
       <c r="J59" s="3">
-        <v>2181100</v>
+        <v>2141800</v>
       </c>
       <c r="K59" s="3">
         <v>2135400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6130900</v>
+        <v>6020400</v>
       </c>
       <c r="E60" s="3">
-        <v>6125000</v>
+        <v>6014600</v>
       </c>
       <c r="F60" s="3">
-        <v>4371800</v>
+        <v>4293000</v>
       </c>
       <c r="G60" s="3">
-        <v>4126800</v>
+        <v>4052400</v>
       </c>
       <c r="H60" s="3">
-        <v>3586300</v>
+        <v>3521600</v>
       </c>
       <c r="I60" s="3">
-        <v>3731400</v>
+        <v>3664100</v>
       </c>
       <c r="J60" s="3">
-        <v>3665500</v>
+        <v>3599400</v>
       </c>
       <c r="K60" s="3">
         <v>3210700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16655100</v>
+        <v>16354800</v>
       </c>
       <c r="E61" s="3">
-        <v>13271000</v>
+        <v>13031700</v>
       </c>
       <c r="F61" s="3">
-        <v>13960200</v>
+        <v>13708500</v>
       </c>
       <c r="G61" s="3">
-        <v>12691300</v>
+        <v>12462400</v>
       </c>
       <c r="H61" s="3">
-        <v>9820900</v>
+        <v>9643800</v>
       </c>
       <c r="I61" s="3">
-        <v>9073900</v>
+        <v>8910200</v>
       </c>
       <c r="J61" s="3">
-        <v>8591100</v>
+        <v>8436200</v>
       </c>
       <c r="K61" s="3">
         <v>8396100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4154200</v>
+        <v>4079300</v>
       </c>
       <c r="E62" s="3">
-        <v>4247400</v>
+        <v>4170900</v>
       </c>
       <c r="F62" s="3">
-        <v>5084800</v>
+        <v>4993100</v>
       </c>
       <c r="G62" s="3">
-        <v>3470100</v>
+        <v>3407500</v>
       </c>
       <c r="H62" s="3">
-        <v>4012800</v>
+        <v>3940400</v>
       </c>
       <c r="I62" s="3">
-        <v>3182800</v>
+        <v>3125400</v>
       </c>
       <c r="J62" s="3">
-        <v>2397300</v>
+        <v>2354100</v>
       </c>
       <c r="K62" s="3">
         <v>2459800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27746500</v>
+        <v>27246200</v>
       </c>
       <c r="E66" s="3">
-        <v>24341600</v>
+        <v>23902600</v>
       </c>
       <c r="F66" s="3">
-        <v>23123700</v>
+        <v>22706700</v>
       </c>
       <c r="G66" s="3">
-        <v>20313300</v>
+        <v>19947000</v>
       </c>
       <c r="H66" s="3">
-        <v>16878700</v>
+        <v>16574400</v>
       </c>
       <c r="I66" s="3">
-        <v>16019200</v>
+        <v>15730300</v>
       </c>
       <c r="J66" s="3">
-        <v>14668000</v>
+        <v>14403500</v>
       </c>
       <c r="K66" s="3">
         <v>14066600</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3038400</v>
+        <v>2983600</v>
       </c>
       <c r="E72" s="3">
-        <v>3151000</v>
+        <v>3094200</v>
       </c>
       <c r="F72" s="3">
-        <v>2748200</v>
+        <v>2698700</v>
       </c>
       <c r="G72" s="3">
-        <v>3236100</v>
+        <v>3177800</v>
       </c>
       <c r="H72" s="3">
-        <v>3312400</v>
+        <v>3252600</v>
       </c>
       <c r="I72" s="3">
-        <v>2808900</v>
+        <v>2758300</v>
       </c>
       <c r="J72" s="3">
-        <v>1831700</v>
+        <v>1798600</v>
       </c>
       <c r="K72" s="3">
         <v>1823100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12267000</v>
+        <v>12045800</v>
       </c>
       <c r="E76" s="3">
-        <v>11191300</v>
+        <v>10989500</v>
       </c>
       <c r="F76" s="3">
-        <v>8913900</v>
+        <v>8753200</v>
       </c>
       <c r="G76" s="3">
-        <v>7809300</v>
+        <v>7668500</v>
       </c>
       <c r="H76" s="3">
-        <v>7595400</v>
+        <v>7458400</v>
       </c>
       <c r="I76" s="3">
-        <v>6971200</v>
+        <v>6845500</v>
       </c>
       <c r="J76" s="3">
-        <v>5861400</v>
+        <v>5755700</v>
       </c>
       <c r="K76" s="3">
         <v>5760600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1195700</v>
+        <v>1174100</v>
       </c>
       <c r="E81" s="3">
-        <v>1225300</v>
+        <v>1203200</v>
       </c>
       <c r="F81" s="3">
-        <v>893600</v>
+        <v>877500</v>
       </c>
       <c r="G81" s="3">
-        <v>1292700</v>
+        <v>1269400</v>
       </c>
       <c r="H81" s="3">
-        <v>1184600</v>
+        <v>1163200</v>
       </c>
       <c r="I81" s="3">
-        <v>1154200</v>
+        <v>1133400</v>
       </c>
       <c r="J81" s="3">
-        <v>905500</v>
+        <v>889100</v>
       </c>
       <c r="K81" s="3">
         <v>1037700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2555700</v>
+        <v>2509600</v>
       </c>
       <c r="E83" s="3">
-        <v>2381000</v>
+        <v>2338100</v>
       </c>
       <c r="F83" s="3">
-        <v>2230000</v>
+        <v>2189800</v>
       </c>
       <c r="G83" s="3">
-        <v>1907900</v>
+        <v>1873500</v>
       </c>
       <c r="H83" s="3">
-        <v>1678400</v>
+        <v>1648100</v>
       </c>
       <c r="I83" s="3">
-        <v>1605800</v>
+        <v>1576900</v>
       </c>
       <c r="J83" s="3">
-        <v>1515500</v>
+        <v>1488200</v>
       </c>
       <c r="K83" s="3">
         <v>1433400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3561900</v>
+        <v>3497600</v>
       </c>
       <c r="E89" s="3">
-        <v>3248700</v>
+        <v>3190100</v>
       </c>
       <c r="F89" s="3">
-        <v>3386400</v>
+        <v>3325300</v>
       </c>
       <c r="G89" s="3">
-        <v>2907400</v>
+        <v>2855000</v>
       </c>
       <c r="H89" s="3">
-        <v>3004400</v>
+        <v>2950200</v>
       </c>
       <c r="I89" s="3">
-        <v>2922200</v>
+        <v>2869500</v>
       </c>
       <c r="J89" s="3">
-        <v>2383200</v>
+        <v>2340200</v>
       </c>
       <c r="K89" s="3">
         <v>2670100</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2436500</v>
+        <v>-2392600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2360300</v>
+        <v>-2317700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1978200</v>
+        <v>-1942600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2052300</v>
+        <v>-2015300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1764300</v>
+        <v>-1732500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1840500</v>
+        <v>-1807300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1745800</v>
+        <v>-1714300</v>
       </c>
       <c r="K91" s="3">
         <v>-1536300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4003900</v>
+        <v>-3931700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4046800</v>
+        <v>-3973800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4564300</v>
+        <v>-4482000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3734400</v>
+        <v>-3667000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2204100</v>
+        <v>-2164300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2697100</v>
+        <v>-2648500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2164100</v>
+        <v>-2125100</v>
       </c>
       <c r="K94" s="3">
         <v>-3361600</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-879500</v>
+        <v>-863700</v>
       </c>
       <c r="E96" s="3">
-        <v>-773700</v>
+        <v>-759700</v>
       </c>
       <c r="F96" s="3">
-        <v>-688500</v>
+        <v>-676100</v>
       </c>
       <c r="G96" s="3">
-        <v>-850700</v>
+        <v>-835300</v>
       </c>
       <c r="H96" s="3">
-        <v>-844800</v>
+        <v>-829500</v>
       </c>
       <c r="I96" s="3">
-        <v>-801100</v>
+        <v>-786600</v>
       </c>
       <c r="J96" s="3">
-        <v>-792200</v>
+        <v>-777900</v>
       </c>
       <c r="K96" s="3">
         <v>-744900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>627800</v>
+        <v>616500</v>
       </c>
       <c r="E100" s="3">
-        <v>705600</v>
+        <v>692800</v>
       </c>
       <c r="F100" s="3">
-        <v>1409600</v>
+        <v>1384200</v>
       </c>
       <c r="G100" s="3">
-        <v>916600</v>
+        <v>900000</v>
       </c>
       <c r="H100" s="3">
-        <v>-870700</v>
+        <v>-855000</v>
       </c>
       <c r="I100" s="3">
-        <v>-168100</v>
+        <v>-165000</v>
       </c>
       <c r="J100" s="3">
-        <v>-64400</v>
+        <v>-63200</v>
       </c>
       <c r="K100" s="3">
         <v>813900</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185800</v>
+        <v>182500</v>
       </c>
       <c r="E102" s="3">
-        <v>-92500</v>
+        <v>-90900</v>
       </c>
       <c r="F102" s="3">
-        <v>231700</v>
+        <v>227600</v>
       </c>
       <c r="G102" s="3">
-        <v>89600</v>
+        <v>88000</v>
       </c>
       <c r="H102" s="3">
-        <v>-70300</v>
+        <v>-69100</v>
       </c>
       <c r="I102" s="3">
-        <v>57000</v>
+        <v>56000</v>
       </c>
       <c r="J102" s="3">
-        <v>154700</v>
+        <v>151900</v>
       </c>
       <c r="K102" s="3">
         <v>122400</v>
